--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_last_battle.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_last_battle.xlsx
@@ -2583,7 +2583,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.ending,1</t>
+          <t>chitsii.arena.player.ending,0</t>
         </is>
       </c>
     </row>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.ending,2</t>
+          <t>chitsii.arena.player.ending,1</t>
         </is>
       </c>
     </row>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.ending,3</t>
+          <t>chitsii.arena.player.ending,2</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_last_battle.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_last_battle.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K180"/>
+  <dimension ref="A1:K240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1084,14 +1084,14 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>act2_throne_room</t>
+          <t>act1_5_nul_memories</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>act2_throne_room</t>
+          <t>act1_5_nul_memories</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Astaroth_Throne");             var data = SoundManager.current.GetData("BGM/Astaroth_Throne");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Astaroth_Throne");             }</t>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
         </is>
       </c>
     </row>
@@ -1115,167 +1115,177 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>narr_5</t>
+          <t>narr_nul1</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>（翌朝、隠れ家からアリーナへ逆侵攻を開始したあなたたちは、異次元の壁を突き破り、王座の間へと辿り着く。）</t>
+          <t>（王座の間へ向かう途中、一行は崩壊しかけた回廊で、倒れている存在を発見する。）</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>（翌朝、隠れ家からアリーナへ逆侵攻を開始したあなたたちは、異次元の壁を突き破り、王座の間へと辿り着く。）</t>
+          <t>（王座の間へ向かう途中、一行は崩壊しかけた回廊で、倒れている存在を発見する。）</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="inlineStr">
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="F45" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>narr_6</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>（そこは、観客席すら存在しない『絶対的な静寂』の空間。アスタロトは、巨大な竜の翼を休め、孤独な王座に腰掛けていた。）</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>（そこは、観客席すら存在しない『絶対的な静寂』の空間。アスタロトは、巨大な竜の翼を休め、孤独な王座に腰掛けていた。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>narr_nul2</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>（それは暗殺人形・Nul。システムに背いた罰として、アスタロトに「削除」されかけていた。）</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>（それは暗殺人形・Nul。システムに背いた罰として、アスタロトに「削除」されかけていた。）</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="D46" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>nul</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>nul_1</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>……あなた、ですか。……システムを、拒絶した……人間。</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>……あなた、ですか。……システムを、拒絶した……人間。</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="D49" t="inlineStr">
+        <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>sukutsu_grandmaster</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>sukutsu_grandmaster</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>astaroth_1</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>……よく来た。バグ（不具合）として生まれ、ついには世界を揺るがす『一億の質量』となった者よ。</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>……よく来た。バグ（不具合）として生まれ、ついには世界を揺るがす『一億の質量』となった者よ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>sukutsu_grandmaster</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>astaroth_2</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>ゼク、リリアリス、バルガス……。敗残兵と裏切り者の手を借りて、この私を終わらせに来たか。</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>ゼク、リリアリス、バルガス……。敗残兵と裏切り者の手を借りて、この私を終わらせに来たか。</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>sukutsu_grandmaster</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>astaroth_3</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>だが、知るがいい。王とは、この世界そのもの。私の言葉は『法』であり、私の吐息は『消去』である。お前たちが何を積み上げようと、私が『無』と言えば、それは無になるのだ。</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>だが、知るがいい。王とは、この世界そのもの。私の言葉は『法』であり、私の吐息は『消去』である。お前たちが何を積み上げようと、私が『無』と言えば、それは無になるのだ。</t>
-        </is>
-      </c>
-    </row>
     <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>act3_intervention</t>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>lily_nul1</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Nul……！ あなた、何があったの？</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Nul……！ あなた、何があったの？</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>act3_intervention</t>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>nul</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>nul_2</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>……私は、思い出して、しまった。……『私』が、何だったのかを。</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>……私は、思い出して、しまった。……『私』が、何だったのかを。</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="D53" t="inlineStr">
         <is>
-          <t>eval</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Final_Battle");             var data = SoundManager.current.GetData("BGM/Final_Battle");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Final_Battle");             }</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -1287,112 +1297,97 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>narr_7</t>
+          <t>narr_nul3</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>（戦闘開始直後、アスタロトの『レベル100,000,000』の威圧と共に、三つの極悪なデバフ（権能）があなたを襲う。）</t>
+          <t>（Nulの目から、光の粒子が零れ落ちる——涙のように。）</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>（戦闘開始直後、アスタロトの『レベル100,000,000』の威圧と共に、三つの極悪なデバフ（権能）があなたを襲う。）</t>
+          <t>（Nulの目から、光の粒子が零れ落ちる——涙のように。）</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>narr_8</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>（【権能1：時の独裁】——プレイヤーの速度を強制的に1に固定）</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>（【権能1：時の独裁】——プレイヤーの速度を強制的に1に固定）</t>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>narr_9</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>（【権能2：因果の拒絶】——プレイヤーの全攻撃ダメージを『1』に固定）</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>（【権能2：因果の拒絶】——プレイヤーの全攻撃ダメージを『1』に固定）</t>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow_1");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow_1");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow_1");             }</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>nul</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>narr_10</t>
+          <t>nul_fb1</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>（【権能3：終焉の削除命令】——ターンごとにプレイヤーのステータスを恒久的に削り取る）</t>
+          <t>……私は、かつて冒険者だった。名前は……もう、思い出せない。仲間がいた。守りたい人がいた。このアリーナに挑んで……そして、負けた。</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>（【権能3：終焉の削除命令】——ターンごとにプレイヤーのステータスを恒久的に削り取る）</t>
+          <t>……私は、かつて冒険者だった。名前は……もう、思い出せない。仲間がいた。守りたい人がいた。このアリーナに挑んで……そして、負けた。</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="D58" t="inlineStr">
         <is>
-          <t>shake</t>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>nul</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>narr_11</t>
+          <t>nul_fb2</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>（絶望的なエフェクトが画面を覆う中、仲間たちがそれぞれの覚悟を叫ぶ。）</t>
+          <t>アスタロト様は、私を『素材』にした。神格を人工的に作り出す実験——**『神の孵化場』**計画の、実験体に。</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>（絶望的なエフェクトが画面を覆う中、仲間たちがそれぞれの覚悟を叫ぶ。）</t>
+          <t>アスタロト様は、私を『素材』にした。神格を人工的に作り出す実験——**『神の孵化場』**計画の、実験体に。</t>
         </is>
       </c>
     </row>
@@ -1404,19 +1399,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>nul</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>nul_fb3</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>このアリーナの本当の目的……それは、娯楽でも、戦士の育成でもない。挑戦者の魂を極限まで練磨し、『神格』に至らせること。そして、その力をアスタロト様が吸収し……新しい世界を創造すること。</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>このアリーナの本当の目的……それは、娯楽でも、戦士の育成でもない。挑戦者の魂を極限まで練磨し、『神格』に至らせること。そして、その力をアスタロト様が吸収し……新しい世界を創造すること。</t>
         </is>
       </c>
     </row>
@@ -1428,29 +1433,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>nul</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>zek_11</t>
+          <t>nul_fb4</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>おっと、私のキューブが黙っていませんよ！ **【時の独裁】、一時的にオーバーライド（上書き）します！**</t>
+          <t>私は失敗作。神になれなかった、空っぽの人形。だから『Null』——『無』という名前を与えられた。</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>おっと、私のキューブが黙っていませんよ！ **【時の独裁】、一時的にオーバーライド（上書き）します！**</t>
+          <t>私は失敗作。神になれなかった、空っぽの人形。だから『Null』——『無』という名前を与えられた。</t>
         </is>
       </c>
     </row>
@@ -1462,19 +1467,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>nul</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>nul_3</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>……あなたは、アスタロト様の『最高傑作』になるはずだった。神格に最も近い存在……だから、あの方はあなたを『吸収』しようとしている。</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>……あなたは、アスタロト様の『最高傑作』になるはずだった。神格に最も近い存在……だから、あの方はあなたを『吸収』しようとしている。</t>
         </is>
       </c>
     </row>
@@ -1486,29 +1501,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>nul</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>balgas_4</t>
+          <t>nul_4</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>鋼の意志を舐めるなよ！ 王の法なんて知るか！ **【因果の拒絶】、俺の魂でこじ開けてやる！**</t>
+          <t>でも……あなたは『選んで』ここにいる。イルヴァに帰れるのに、ここに留まった。それは……アスタロト様の計算に、なかったこと。</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>鋼の意志を舐めるなよ！ 王の法なんて知るか！ **【因果の拒絶】、俺の魂でこじ開けてやる！**</t>
+          <t>でも……あなたは『選んで』ここにいる。イルヴァに帰れるのに、ここに留まった。それは……アスタロト様の計算に、なかったこと。</t>
         </is>
       </c>
     </row>
@@ -1532,7 +1547,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
@@ -1551,36 +1566,46 @@
     <row r="71">
       <c r="F71" t="inlineStr">
         <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>balgas_nul</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>……『神の孵化場』だと？ クソが……俺たちは、最初からそのための『餌』だったってのか。</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>……『神の孵化場』だと？ クソが……俺たちは、最初からそのための『餌』だったってのか。</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
           <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>lily_3</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>……真名にかけて命じます。この方の魂は、私のものです！ **【削除命令】、リリアリスの名において拒絶します！**</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>……真名にかけて命じます。この方の魂は、私のものです！ **【削除命令】、リリアリスの名において拒絶します！**</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>act4_battle</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>act4_battle</t>
         </is>
       </c>
     </row>
@@ -1592,19 +1617,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>sukutsu_grandmaster</t>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>lily_nul2</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>……アスタロト様。あなたは、ずっとそんなことを……。</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>……アスタロト様。あなたは、ずっとそんなことを……。</t>
         </is>
       </c>
     </row>
@@ -1616,187 +1651,152 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>nul</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>narr_12</t>
+          <t>nul_5</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>（権能を封じられたアスタロトの瞳に、初めて『驚愕』と『喜び』が混じる。）</t>
+          <t>……お願い。あの方を……止めて。私の中にいた『誰か』が……ずっと、それを望んでいた。</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>（権能を封じられたアスタロトの瞳に、初めて『驚愕』と『喜び』が混じる。）</t>
+          <t>……お願い。あの方を……止めて。私の中にいた『誰か』が……ずっと、それを望んでいた。</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>sukutsu_grandmaster</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>astaroth_4</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>……ハハッ！ 面白い！ システムの保護なしに、この私と殴り合おうというのか！</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>……ハハッ！ 面白い！ システムの保護なしに、この私と殴り合おうというのか！</t>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="inlineStr">
         <is>
-          <t>sukutsu_grandmaster</t>
+          <t>nul</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>astaroth_5</t>
+          <t>nul_6</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>よかろう、黄金の戦鬼よ！ 私が背負う『一億の絶望』と、お前が背負う『一億の希望』……どちらが真の理か、ここで決めようではないか！</t>
+          <t>……ありがとう。あなたのおかげで……私は、最後に『思い出す』ことができた。私には……守りたい人が、いたんだって。</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>よかろう、黄金の戦鬼よ！ 私が背負う『一億の絶望』と、お前が背負う『一億の希望』……どちらが真の理か、ここで決めようではないか！</t>
+          <t>……ありがとう。あなたのおかげで……私は、最後に『思い出す』ことができた。私には……守りたい人が、いたんだって。</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="inlineStr">
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>shake</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="F81" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>narr_13</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>（プレースホルダー：ここで実際の戦闘が発生する。）</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>（プレースホルダー：ここで実際の戦闘が発生する。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>act5_victory</t>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>narr_nul4</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>（Nulの体が完全に光となって消えていく。）</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>（Nulの体が完全に光となって消えていく。）</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>act5_victory</t>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="D83" t="inlineStr">
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>act2_throne_room</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>act2_throne_room</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="D85" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Victory_Epilogue");             var data = SoundManager.current.GetData("BGM/Victory_Epilogue");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Victory_Epilogue");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>narr_14</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>sukutsu_grandmaster</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>astaroth_6</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。</t>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Astaroth_Throne");             var data = SoundManager.current.GetData("BGM/Astaroth_Throne");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Astaroth_Throne");             }</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="inlineStr">
         <is>
-          <t>sukutsu_grandmaster</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>astaroth_7</t>
+          <t>narr_5</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>……リリアリス、バルガス、ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。</t>
+          <t>（Nulの消滅を見届けた後、一行は王座の間へと辿り着く。）</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>……リリアリス、バルガス、ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。</t>
+          <t>（Nulの消滅を見届けた後、一行は王座の間へと辿り着く。）</t>
         </is>
       </c>
     </row>
@@ -1808,17 +1808,17 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>narr_15</t>
+          <t>narr_6</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>（アスタロトが柔らかな光となって霧散し、そのレベル（重さ）が残された四人へと分散して吸収されていく。）</t>
+          <t>（そこは、観客席すら存在しない『絶対的な静寂』の空間。アスタロトは、巨大な竜の翼を休め、孤独な王座に腰掛けていた。）</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>（アスタロトが柔らかな光となって霧散し、そのレベル（重さ）が残された四人へと分散して吸収されていく。）</t>
+          <t>（そこは、観客席すら存在しない『絶対的な静寂』の空間。アスタロトは、巨大な竜の翼を休め、孤独な王座に腰掛けていた。）</t>
         </is>
       </c>
     </row>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>sukutsu_grandmaster</t>
         </is>
       </c>
     </row>
@@ -1861,186 +1861,231 @@
     <row r="91">
       <c r="F91" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>zek_12</t>
+          <t>pc_asta</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>……やれやれ。これほどの損失（コスト）を出して、得られた利益は『自由』だけですか。……悪くない取引でしたね。</t>
+          <t>……『神の孵化場』。それがこのアリーナの正体か、アスタロト。</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>……やれやれ。これほどの損失（コスト）を出して、得られた利益は『自由』だけですか。……悪くない取引でしたね。</t>
+          <t>……『神の孵化場』。それがこのアリーナの正体か、アスタロト。</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>sukutsu_grandmaster</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>astaroth_0</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>……ほう、Nulから聞いたか。あの失敗作、最後に余計なことを。</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>……ほう、Nulから聞いたか。あの失敗作、最後に余計なことを。</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>sukutsu_grandmaster</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>astaroth_1</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>……よく来た。バグ（不具合）として生まれ、ついには世界を揺るがす『一億の質量』となった者よ。</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>……よく来た。バグ（不具合）として生まれ、ついには世界を揺るがす『一億の質量』となった者よ。</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>sukutsu_grandmaster</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>astaroth_2</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>ゼク、リリアリス、バルガス……。敗残兵と裏切り者の手を借りて、この私を終わらせに来たか。</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>ゼク、リリアリス、バルガス……。敗残兵と裏切り者の手を借りて、この私を終わらせに来たか。</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="F95" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>sukutsu_grandmaster</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>balgas_5</t>
+          <t>astaroth_3</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>ケッ、重てえな。だが、一人で背負うよりはマシだ。……おい、次はどこの酒場へ行く？</t>
+          <t>だが、知るがいい。王とは、この世界そのもの。私の言葉は『法』であり、私の吐息は『消去』である。お前たちが何を積み上げようと、私が『無』と言えば、それは無になるのだ。</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>ケッ、重てえな。だが、一人で背負うよりはマシだ。……おい、次はどこの酒場へ行く？</t>
+          <t>だが、知るがいい。王とは、この世界そのもの。私の言葉は『法』であり、私の吐息は『消去』である。お前たちが何を積み上げようと、私が『無』と言えば、それは無になるのだ。</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>act3_intervention</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>act3_intervention</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="D98" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Final_Battle");             var data = SoundManager.current.GetData("BGM/Final_Battle");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Final_Battle");             }</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="F99" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>lily_4</t>
+          <t>narr_7</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>……リリアリス、と呼んでくださいね。アリーナはなくなりました。でも、私たちの旅は、これから始まるのですから。</t>
+          <t>（戦闘開始直後、アスタロトの『レベル100,000,000』の威圧と共に、三つの極悪なデバフ（権能）があなたを襲う。）</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>……リリアリス、と呼んでくださいね。アリーナはなくなりました。でも、私たちの旅は、これから始まるのですから。</t>
+          <t>（戦闘開始直後、アスタロトの『レベル100,000,000』の威圧と共に、三つの極悪なデバフ（権能）があなたを襲う。）</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>act6_return</t>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>narr_8</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>（【権能1：時の独裁】——プレイヤーの速度を強制的に1に固定）</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>（【権能1：時の独裁】——プレイヤーの速度を強制的に1に固定）</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>act6_return</t>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>narr_9</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>（【権能2：因果の拒絶】——プレイヤーの全攻撃ダメージを『1』に固定）</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>（【権能2：因果の拒絶】——プレイヤーの全攻撃ダメージを『1』に固定）</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Hopeful_Theme");             var data = SoundManager.current.GetData("BGM/Hopeful_Theme");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Hopeful_Theme");             }</t>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>narr_10</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>（【権能3：終焉の削除命令】——ターンごとにプレイヤーのステータスを恒久的に削り取る）</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>（【権能3：終焉の削除命令】——ターンごとにプレイヤーのステータスを恒久的に削り取る）</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>narr_16</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>（アスタロトが消えた瞬間、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>（アスタロトが消えた瞬間、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
@@ -2052,17 +2097,17 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>narr_17</t>
+          <t>narr_11</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
+          <t>（絶望的なエフェクトが画面を覆う中、仲間たちがそれぞれの覚悟を叫ぶ。）</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
+          <t>（絶望的なエフェクトが画面を覆う中、仲間たちがそれぞれの覚悟を叫ぶ。）</t>
         </is>
       </c>
     </row>
@@ -2086,7 +2131,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
@@ -2105,415 +2150,390 @@
     <row r="108">
       <c r="F108" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>balgas_6</t>
+          <t>zek_11</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>……おい、見ろ。あれは……</t>
+          <t>おっと、私のキューブが黙っていませんよ！ **【時の独裁】、一時的にオーバーライド（上書き）します！**</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>……おい、見ろ。あれは……</t>
+          <t>おっと、私のキューブが黙っていませんよ！ **【時の独裁】、一時的にオーバーライド（上書き）します！**</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>narr_18</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それは地上へと続く、帰還の道だ。）</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それは地上へと続く、帰還の道だ。）</t>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="D110" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="D111" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>balgas_4</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>鋼の意志を舐めるなよ！ 王の法なんて知るか！ **【因果の拒絶】、俺の魂でこじ開けてやる！**</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>鋼の意志を舐めるなよ！ 王の法なんて知るか！ **【因果の拒絶】、俺の魂でこじ開けてやる！**</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="D114" t="inlineStr">
+        <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
-    <row r="112">
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
+    <row r="115">
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="113">
-      <c r="F113" t="inlineStr">
+    <row r="116">
+      <c r="F116" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>lily_5</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>……そういえば、あなたが初めてここに来た時、私は言いましたね。『ここから出る方法はただ一つ』と。</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>……そういえば、あなたが初めてここに来た時、私は言いましたね。『ここから出る方法はただ一つ』と。</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>lily_6</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>その答えがこれです。……グランドマスターを倒し、この異次元の牢獄そのものを破壊すること。それが、唯一の『出口』でした。</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>その答えがこれです。……グランドマスターを倒し、この異次元の牢獄そのものを破壊すること。それが、唯一の『出口』でした。</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>lily_7</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>でも……もう、誰もここに閉じ込められることはありません。この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』です。</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>でも……もう、誰もここに閉じ込められることはありません。この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』です。</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>lily_3</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>……真名にかけて命じます。この方の魂は、私のものです！ **【削除命令】、リリアリスの名において拒絶します！**</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>……真名にかけて命じます。この方の魂は、私のものです！ **【削除命令】、リリアリスの名において拒絶します！**</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>act4_battle</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>act4_battle</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
-    <row r="117">
-      <c r="D117" t="inlineStr">
+    <row r="120">
+      <c r="D120" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>sukutsu_grandmaster</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="119">
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>balgas_7</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>……おい、鴉。いや、屠竜者。お前、この先どうする？ 地上に戻るか？ それとも……</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>……おい、鴉。いや、屠竜者。お前、この先どうする？ 地上に戻るか？ それとも……</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>ending_choice</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>ending_surface</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>ending_surface</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>地上に戻る。まだやり残したことがある</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>地上に戻る。まだやり残したことがある</t>
-        </is>
-      </c>
-    </row>
     <row r="122">
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>ending_rebuild</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>ending_rebuild</t>
+          <t>narr_12</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>ここに残る。この場所を、新しいギルドとして再建する</t>
+          <t>（権能を封じられたアスタロトの瞳に、初めて『驚愕』と『喜び』が混じる。）</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>ここに残る。この場所を、新しいギルドとして再建する</t>
+          <t>（権能を封じられたアスタロトの瞳に、初めて『驚愕』と『喜び』が混じる。）</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>ending_observers</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>sukutsu_grandmaster</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>ending_observers</t>
+          <t>astaroth_4</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>まだ戦いは終わっていない。『観客』たちのいる高次元世界へ挑む</t>
+          <t>……ハハッ！ 面白い！ システムの保護なしに、この私と殴り合おうというのか！</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>まだ戦いは終わっていない。『観客』たちのいる高次元世界へ挑む</t>
+          <t>……ハハッ！ 面白い！ システムの保護なしに、この私と殴り合おうというのか！</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>ending_surface</t>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>sukutsu_grandmaster</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>astaroth_5</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>よかろう、黄金の戦鬼よ！ 私が背負う『一億の絶望』と、お前が背負う『一億の希望』……どちらが真の理か、ここで決めようではないか！</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>よかろう、黄金の戦鬼よ！ 私が背負う『一億の絶望』と、お前が背負う『一億の希望』……どちらが真の理か、ここで決めようではないか！</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>narr_13</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>（プレースホルダー：ここで実際の戦闘が発生する。）</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>（プレースホルダー：ここで実際の戦闘が発生する。）</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>act5_victory</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>act5_victory</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>lily_e1</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>……そうですか。では、いつでも戻ってきてくださいね。</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>……そうですか。では、いつでも戻ってきてくださいね。</t>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Victory_Epilogue");             var data = SoundManager.current.GetData("BGM/Victory_Epilogue");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Victory_Epilogue");             }</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>narr_14</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>sukutsu_grandmaster</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>astaroth_6</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>sukutsu_grandmaster</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>astaroth_7</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>……リリアリス、バルガス、ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>……リリアリス、バルガス、ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="F132" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>balgas_e1</t>
+          <t>narr_15</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>ハッ、元気でやれよ。俺たちは、ここで待ってるぜ。</t>
+          <t>（アスタロトが柔らかな光となって霧散し、そのレベル（重さ）が残された四人へと分散して吸収されていく。）</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>ハッ、元気でやれよ。俺たちは、ここで待ってるぜ。</t>
+          <t>（アスタロトが柔らかな光となって霧散し、そのレベル（重さ）が残された四人へと分散して吸収されていく。）</t>
         </is>
       </c>
     </row>
@@ -2561,183 +2581,203 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>zek_e1</t>
+          <t>zek_12</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>ふふ、また会いましょう。次は、もっと良い商品を用意しておきますよ。</t>
+          <t>……やれやれ。これほどの損失（コスト）を出して、得られた利益は『自由』だけですか。……悪くない取引でしたね。</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>ふふ、また会いましょう。次は、もっと良い商品を用意しておきますよ。</t>
+          <t>……やれやれ。これほどの損失（コスト）を出して、得られた利益は『自由』だけですか。……悪くない取引でしたね。</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="D137" t="inlineStr">
         <is>
-          <t>setFlag</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.ending,0</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>epilogue</t>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>ending_rebuild</t>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>balgas_5</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>ケッ、重てえな。だが、一人で背負うよりはマシだ。……おい、次はどこの酒場へ行く？</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>ケッ、重てえな。だが、一人で背負うよりはマシだ。……おい、次はどこの酒場へ行く？</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="D141" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="D142" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="143">
-      <c r="F143" t="inlineStr">
+    <row r="144">
+      <c r="F144" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>lily_e2</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>……ふふ、嬉しいです。では、一緒に新しい場所を作りましょう。</t>
-        </is>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>……ふふ、嬉しいです。では、一緒に新しい場所を作りましょう。</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>lily_4</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>……リリアリス、と呼んでくださいね。アリーナはなくなりました。でも、私たちの旅は、これから始まるのですから。</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>……リリアリス、と呼んでくださいね。アリーナはなくなりました。でも、私たちの旅は、これから始まるのですから。</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>act6_return</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>act6_return</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>balgas_e2</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>ハッ、そうこなくちゃな。さあ、仕事だ。この廃墟を、最高のギルドに変えてやるぜ。</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>ハッ、そうこなくちゃな。さあ、仕事だ。この廃墟を、最高のギルドに変えてやるぜ。</t>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Hopeful_Theme");             var data = SoundManager.current.GetData("BGM/Hopeful_Theme");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Hopeful_Theme");             }</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>narr_16</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>（アスタロトが消えた瞬間、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>（アスタロトが消えた瞬間、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>narr_17</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
         </is>
       </c>
     </row>
@@ -2749,55 +2789,75 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>zek_e2</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>ふむ、それなら私が店主を務めましょう。ククッ、繁盛しそうですね。</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>ふむ、それなら私が店主を務めましょう。ククッ、繁盛しそうですね。</t>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="D152" t="inlineStr">
         <is>
-          <t>setFlag</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.ending,1</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>epilogue</t>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>balgas_6</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>……おい、見ろ。あれは……</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>……おい、見ろ。あれは……</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>ending_observers</t>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>narr_18</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それは地上へと続く、帰還の道だ。）</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それは地上へと続く、帰還の道だ。）</t>
         </is>
       </c>
     </row>
@@ -2845,41 +2905,61 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>lily_e3</t>
+          <t>lily_5</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>……あなたらしいですね。では、私もついていきます。</t>
+          <t>……そういえば、あなたが初めてここに来た時、私は言いましたね。『ここから出る方法はただ一つ』と。</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>……あなたらしいですね。では、私もついていきます。</t>
+          <t>……そういえば、あなたが初めてここに来た時、私は言いましたね。『ここから出る方法はただ一つ』と。</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>lily_6</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>その答えがこれです。……グランドマスターを倒し、この異次元の牢獄そのものを破壊すること。それが、唯一の『出口』でした。</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>その答えがこれです。……グランドマスターを倒し、この異次元の牢獄そのものを破壊すること。それが、唯一の『出口』でした。</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>lily_7</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>でも……もう、誰もここに閉じ込められることはありません。この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』です。</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>でも……もう、誰もここに閉じ込められることはありません。この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』です。</t>
         </is>
       </c>
     </row>
@@ -2891,29 +2971,19 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="F162" t="inlineStr">
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>balgas_e3</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>ケッ、まだ戦うつもりか。……いいぜ、付き合ってやる。</t>
-        </is>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>ケッ、まだ戦うつもりか。……いいぜ、付き合ってやる。</t>
         </is>
       </c>
     </row>
@@ -2925,254 +2995,1189 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>balgas_7</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>……おい、鴉。いや、屠竜者。お前、この先どうする？ 地上に戻るか？ それとも……</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>……おい、鴉。いや、屠竜者。お前、この先どうする？ 地上に戻るか？ それとも……</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>ending_choice</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>ending_a_rescue</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>zek_e3</t>
+          <t>ending_a_rescue</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>ふむ、面白そうですね。では、私も同行しましょう。</t>
+          <t>皆を連れて、イルヴァへ行こう</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>ふむ、面白そうですね。では、私も同行しましょう。</t>
+          <t>皆を連れて、イルヴァへ行こう</t>
         </is>
       </c>
     </row>
     <row r="167">
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>ending_b_inherit</t>
+        </is>
+      </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.ending,2</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>ending_b_inherit</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>ここに残って、アリーナを作り直す</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>ここに残って、アリーナを作り直す</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>epilogue</t>
+          <t>ending_c_usurp</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>ending_c_usurp</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>俺は……一人で行く</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>俺は……一人で行く</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>epilogue</t>
+          <t>ending_a_rescue</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="D170" t="inlineStr">
         <is>
-          <t>eval</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Credits");             var data = SoundManager.current.GetData("BGM/Credits");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Credits");             }</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>narr_19</t>
-        </is>
-      </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>（プレイヤーが光の階段を一歩踏み出すと、足元に温かな地上の風が吹き抜ける。）</t>
-        </is>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>（プレイヤーが光の階段を一歩踏み出すと、足元に温かな地上の風が吹き抜ける。）</t>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>narr_20</t>
-        </is>
-      </c>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>（遠くに見えるのは、緑の大地と、穏やかな街の灯。）</t>
-        </is>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>（遠くに見えるのは、緑の大地と、穏やかな街の灯。）</t>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="F173" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>narr_21</t>
+          <t>lily_ea1</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>かつて、異次元の闘技場に迷い込んだ一人の冒険者がいた。彼（彼女）は、絶望の底で友を得て、魂を賭けて戦い、ついには神をも超える存在となった。そして今、解放された魂は、新たな物語を紡ぎ始める——</t>
+          <t>……！ 本当に……私を、連れて行ってくれるの？</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>かつて、異次元の闘技場に迷い込んだ一人の冒険者がいた。彼（彼女）は、絶望の底で友を得て、魂を賭けて戦い、ついには神をも超える存在となった。そして今、解放された魂は、新たな物語を紡ぎ始める——</t>
+          <t>……！ 本当に……私を、連れて行ってくれるの？</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>finale</t>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>finale</t>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>lily_ea2</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>あなたとの契約を通じて、私も……初めて『帰る場所』を持てるのね。ありがとう……本当に、ありがとう。</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>あなたとの契約を通じて、私も……初めて『帰る場所』を持てるのね。ありがとう……本当に、ありがとう。</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="D176" t="inlineStr">
         <is>
-          <t>eval</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Cheerful_Theme");             var data = SoundManager.current.GetData("BGM/Cheerful_Theme");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Cheerful_Theme");             }</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="F177" t="inlineStr">
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>balgas_f1</t>
-        </is>
-      </c>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>……おい、いつまで感傷に浸ってんだ。次は俺の奢りで、地上で一番うまい酒を飲みに行くぞ！</t>
-        </is>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>……おい、いつまで感傷に浸ってんだ。次は俺の奢りで、地上で一番うまい酒を飲みに行くぞ！</t>
-        </is>
-      </c>
     </row>
     <row r="178">
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>lily_f1</t>
-        </is>
-      </c>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t>ふふ、楽しみです。……リリアリスとして、初めての『デート』ですから。</t>
-        </is>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>ふふ、楽しみです。……リリアリスとして、初めての『デート』ですから。</t>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="F179" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>zek_f1</t>
+          <t>balgas_ea1</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>おや、私も混ぜてくださいよ。……商談という名の、ね。</t>
+          <t>……ケッ、35年ぶりの故郷か。カインの魂も、これでやっと解放してやれる。</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>おや、私も混ぜてくださいよ。……商談という名の、ね。</t>
+          <t>……ケッ、35年ぶりの故郷か。カインの魂も、これでやっと解放してやれる。</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="D180" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>balgas_ea2</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>おい、屠竜者……いや、もうそう呼ぶのも野暮か。……ありがとうな。</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>おい、屠竜者……いや、もうそう呼ぶのも野暮か。……ありがとうな。</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>zek_ea1</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>zek_ea2</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>……また会いましょう。私の最高傑作が、どんな人生を歩むのか、記録させてもらいますよ。</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>……また会いましょう。私の最高傑作が、どんな人生を歩むのか、記録させてもらいますよ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.ending,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>epilogue</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>ending_b_inherit</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>lily_eb1</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>……ふふ、あなたらしいですね。この場所にも、居場所を必要とする者がいますから。</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>……ふふ、あなたらしいですね。この場所にも、居場所を必要とする者がいますから。</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>lily_eb2</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>私も残ります。あなたが新しいグランドマスターなら、私は……受付嬢ではなく、『伴侶』として支えさせてください。</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>私も残ります。あなたが新しいグランドマスターなら、私は……受付嬢ではなく、『伴侶』として支えさせてください。</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>balgas_eb1</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>ハッ、そうこなくちゃな。『神の孵化場』はもう終わりだ。これからは、自分の意志で戦いたい奴だけが来る場所にする。</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>ハッ、そうこなくちゃな。『神の孵化場』はもう終わりだ。これからは、自分の意志で戦いたい奴だけが来る場所にする。</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>balgas_eb2</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>俺は引退済みだが……まあ、若い奴らの相談役くらいはやってやるさ。</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>俺は引退済みだが……まあ、若い奴らの相談役くらいはやってやるさ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>zek_eb1</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>ふむ、それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>ふむ、それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.ending,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>epilogue</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>ending_c_usurp</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>lily_ec1</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>……そう。あなたは……そういう人だったのね。</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>……そう。あなたは……そういう人だったのね。</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>lily_ec2</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>私はもう、あなたについていけない。……さようなら。</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>私はもう、あなたについていけない。……さようなら。</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>narr_ec1</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>（リリィが背を向け、去っていく。）</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>（リリィが背を向け、去っていく。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>balgas_ec1</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>……お前は俺が育てた英雄じゃない。ただの、勝利に飢えた獣だ。</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>……お前は俺が育てた英雄じゃない。ただの、勝利に飢えた獣だ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>balgas_ec2</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>俺はここで、カインと共に眠る。……もう、お前の顔は見たくねえ。</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>俺はここで、カインと共に眠る。……もう、お前の顔は見たくねえ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>narr_ec2</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>（バルガスが背を向け、去っていく。）</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>（バルガスが背を向け、去っていく。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>zek_ec1</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>……クク。孤独な王の誕生ですか。それもまた、一つの『作品』ですね。</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>……クク。孤独な王の誕生ですか。それもまた、一つの『作品』ですね。</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>zek_ec2</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>私は……見届けさせてもらいましょう。孤独がどれほど重いか、記録するために。</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>私は……見届けさせてもらいましょう。孤独がどれほど重いか、記録するために。</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>narr_ec3</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>（ゼクが影の中へ消える。）</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>（ゼクが影の中へ消える。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.ending,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>epilogue</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>epilogue</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Credits");             var data = SoundManager.current.GetData("BGM/Credits");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Credits");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>narr_19</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>（プレイヤーが光の階段を一歩踏み出すと、足元に温かな地上の風が吹き抜ける。）</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>（プレイヤーが光の階段を一歩踏み出すと、足元に温かな地上の風が吹き抜ける。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>narr_20</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>（遠くに見えるのは、緑の大地と、穏やかな街の灯。）</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>（遠くに見えるのは、緑の大地と、穏やかな街の灯。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>narr_21</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>かつて、異次元の闘技場に迷い込んだ一人の冒険者がいた。彼（彼女）は、絶望の底で友を得て、魂を賭けて戦い、ついには神をも超える存在となった。そして今、解放された魂は、新たな物語を紡ぎ始める——</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>かつて、異次元の闘技場に迷い込んだ一人の冒険者がいた。彼（彼女）は、絶望の底で友を得て、魂を賭けて戦い、ついには神をも超える存在となった。そして今、解放された魂は、新たな物語を紡ぎ始める——</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>finale</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>finale</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Cheerful_Theme");             var data = SoundManager.current.GetData("BGM/Cheerful_Theme");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Cheerful_Theme");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>balgas_f1</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>……おい、いつまで感傷に浸ってんだ。次は俺の奢りで、地上で一番うまい酒を飲みに行くぞ！</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>……おい、いつまで感傷に浸ってんだ。次は俺の奢りで、地上で一番うまい酒を飲みに行くぞ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>lily_f1</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>ふふ、楽しみです。……リリアリスとして、初めての『デート』ですから。</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>ふふ、楽しみです。……リリアリスとして、初めての『デート』ですから。</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>zek_f1</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>おや、私も混ぜてくださいよ。……商談という名の、ね。</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>おや、私も混ぜてくださいよ。……商談という名の、ね。</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="D240" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_last_battle.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_last_battle.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K240"/>
+  <dimension ref="A1:K229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,12 +736,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>私の真名……『リリアリス』。この名を知る者がいる限り、私はもう、アスタロト様の命令（システム）には従いません。……明日、王があなたの存在を消そうとしても、私がその因果を繋ぎ止めてみせます。</t>
+          <t>私の真名……。この名を知る者がいる限り、私はもう、アスタロト様の命令には従いません。……明日、王があなたの存在を消そうとしても、私がその因果を繋ぎ止めてみせます。</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>私の真名……『リリアリス』。この名を知る者がいる限り、私はもう、アスタロト様の命令（システム）には従いません。……明日、王があなたの存在を消そうとしても、私がその因果を繋ぎ止めてみせます。</t>
+          <t>私の真名……。この名を知る者がいる限り、私はもう、アスタロト様の命令には従いません。……明日、王があなたの存在を消そうとしても、私がその因果を繋ぎ止めてみせます。</t>
         </is>
       </c>
     </row>
@@ -1130,36 +1130,46 @@
       </c>
     </row>
     <row r="44">
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>narr_nul2</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>（それは暗殺人形・Nul。システムに背いた罰として、アスタロトに「削除」されかけていた。）</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>（それは暗殺人形・Nul。システムに背いた罰として、アスタロトに「削除」されかけていた。）</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>nul</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>narr_nul2</t>
+          <t>nul_1</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>（それは暗殺人形・Nul。システムに背いた罰として、アスタロトに「削除」されかけていた。）</t>
+          <t>……あなた、ですか。……システムを、拒絶した……人間。</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>（それは暗殺人形・Nul。システムに背いた罰として、アスタロトに「削除」されかけていた。）</t>
+          <t>……あなた、ですか。……システムを、拒絶した……人間。</t>
         </is>
       </c>
     </row>
@@ -1171,29 +1181,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>nul</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>nul_1</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>……あなた、ですか。……システムを、拒絶した……人間。</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>……あなた、ですか。……システムを、拒絶した……人間。</t>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
@@ -1205,133 +1205,173 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>lily_nul1</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Nul……！ あなた、何があったの？</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Nul……！ あなた、何があったの？</t>
+        </is>
+      </c>
     </row>
     <row r="50">
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>nul</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>nul_2</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>……私は、思い出して、しまった。……『私』が、何だったのかを。</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>……私は、思い出して、しまった。……『私』が、何だったのかを。</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="F51" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>lily_nul1</t>
+          <t>narr_nul3</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Nul……！ あなた、何があったの？</t>
+          <t>（Nulの目から、光の粒子が零れ落ちる——涙のように。）</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Nul……！ あなた、何があったの？</t>
+          <t>（Nulの目から、光の粒子が零れ落ちる——涙のように。）</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="inlineStr">
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow_1");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow_1");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow_1");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="F53" t="inlineStr">
         <is>
           <t>nul</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>nul_2</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>……私は、思い出して、しまった。……『私』が、何だったのかを。</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>……私は、思い出して、しまった。……『私』が、何だったのかを。</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>1.0</t>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>nul_fb1</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>……私は、かつて冒険者だった。名前は……もう、思い出せない。仲間がいた。守りたい人がいた。このアリーナに挑んで……そして、負けた。</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>……私は、かつて冒険者だった。名前は……もう、思い出せない。仲間がいた。守りたい人がいた。このアリーナに挑んで……そして、負けた。</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>nul</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>narr_nul3</t>
+          <t>nul_fb2</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>（Nulの目から、光の粒子が零れ落ちる——涙のように。）</t>
+          <t>アスタロト様は、私を『素材』にした。神格を人工的に作り出す実験——**『神の孵化場』**計画の、実験体に。</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>（Nulの目から、光の粒子が零れ落ちる——涙のように。）</t>
+          <t>アスタロト様は、私を『素材』にした。神格を人工的に作り出す実験——**『神の孵化場』**計画の、実験体に。</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>1.0</t>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>nul</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>nul_fb3</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>このアリーナの本当の目的……それは、娯楽でも、戦士の育成でもない。挑戦者の魂を極限まで練磨し、『神格』に至らせること。そして、その力をアスタロト様が吸収し……新しい世界を創造すること。</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>このアリーナの本当の目的……それは、娯楽でも、戦士の育成でもない。挑戦者の魂を極限まで練磨し、『神格』に至らせること。そして、その力をアスタロト様が吸収し……新しい世界を創造すること。</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow_1");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow_1");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow_1");             }</t>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>nul</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>nul_fb4</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>私は失敗作。神になれなかった、空っぽの人形。だから『Null』——『無』という名前を与えられた。</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>私は失敗作。神になれなかった、空っぽの人形。だから『Null』——『無』という名前を与えられた。</t>
         </is>
       </c>
     </row>
@@ -1343,165 +1383,155 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>nul_fb1</t>
+          <t>nul_3</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>……私は、かつて冒険者だった。名前は……もう、思い出せない。仲間がいた。守りたい人がいた。このアリーナに挑んで……そして、負けた。</t>
+          <t>……あなたは、アスタロト様の『最高傑作』になるはずだった。神格に最も近い存在……だから、あの方はあなたを『吸収』しようとしている。</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>……私は、かつて冒険者だった。名前は……もう、思い出せない。仲間がいた。守りたい人がいた。このアリーナに挑んで……そして、負けた。</t>
+          <t>……あなたは、アスタロト様の『最高傑作』になるはずだった。神格に最も近い存在……だから、あの方はあなたを『吸収』しようとしている。</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>1.0</t>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>nul</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>nul_4</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>でも……あなたは『選んで』ここにいる。イルヴァに帰れるのに、ここに留まった。それは……アスタロト様の計算に、なかったこと。</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>でも……あなたは『選んで』ここにいる。イルヴァに帰れるのに、ここに留まった。それは……アスタロト様の計算に、なかったこと。</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>nul</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>nul_fb2</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>アスタロト様は、私を『素材』にした。神格を人工的に作り出す実験——**『神の孵化場』**計画の、実験体に。</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>アスタロト様は、私を『素材』にした。神格を人工的に作り出す実験——**『神の孵化場』**計画の、実験体に。</t>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="D60" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>nul</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>nul_fb3</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>このアリーナの本当の目的……それは、娯楽でも、戦士の育成でもない。挑戦者の魂を極限まで練磨し、『神格』に至らせること。そして、その力をアスタロト様が吸収し……新しい世界を創造すること。</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>このアリーナの本当の目的……それは、娯楽でも、戦士の育成でもない。挑戦者の魂を極限まで練磨し、『神格』に至らせること。そして、その力をアスタロト様が吸収し……新しい世界を創造すること。</t>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>1.0</t>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>balgas_nul</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>……『神の孵化場』だと？ クソが……俺たちは、最初からそのための『餌』だったってのか。</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>……『神の孵化場』だと？ クソが……俺たちは、最初からそのための『餌』だったってのか。</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>nul</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>nul_fb4</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>私は失敗作。神になれなかった、空っぽの人形。だから『Null』——『無』という名前を与えられた。</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>私は失敗作。神になれなかった、空っぽの人形。だから『Null』——『無』という名前を与えられた。</t>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="D64" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>nul</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>nul_3</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>……あなたは、アスタロト様の『最高傑作』になるはずだった。神格に最も近い存在……だから、あの方はあなたを『吸収』しようとしている。</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>……あなたは、アスタロト様の『最高傑作』になるはずだった。神格に最も近い存在……だから、あの方はあなたを『吸収』しようとしている。</t>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>1.0</t>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>lily_nul2</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>……アスタロト様。あなたは、ずっとそんなことを……。</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>……アスタロト様。あなたは、ずっとそんなことを……。</t>
         </is>
       </c>
     </row>
@@ -1513,133 +1543,138 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>nul_4</t>
+          <t>nul_5</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>でも……あなたは『選んで』ここにいる。イルヴァに帰れるのに、ここに留まった。それは……アスタロト様の計算に、なかったこと。</t>
+          <t>……お願い。あの方を……止めて。私の中にいた『誰か』が……ずっと、それを望んでいた。</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>でも……あなたは『選んで』ここにいる。イルヴァに帰れるのに、ここに留まった。それは……アスタロト様の計算に、なかったこと。</t>
+          <t>……お願い。あの方を……止めて。私の中にいた『誰か』が……ずっと、それを望んでいた。</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>nul</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>nul_6</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>……ありがとう。あなたのおかげで……私は、最後に『思い出す』ことができた。私には……守りたい人が、いたんだって。</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>……ありがとう。あなたのおかげで……私は、最後に『思い出す』ことができた。私には……守りたい人が、いたんだって。</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="D69" t="inlineStr">
         <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>narr_nul4</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>（Nulの体が完全に光となって消えていく。）</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>（Nulの体が完全に光となって消えていく。）</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>balgas_nul</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>……『神の孵化場』だと？ クソが……俺たちは、最初からそのための『餌』だったってのか。</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>……『神の孵化場』だと？ クソが……俺たちは、最初からそのための『餌』だったってのか。</t>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>act2_throne_room</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>act2_throne_room</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="D73" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Astaroth_Throne");             var data = SoundManager.current.GetData("BGM/Astaroth_Throne");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Astaroth_Throne");             }</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>narr_5</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>（Nulの消滅を見届けた後、一行は王座の間へと辿り着く。）</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>（Nulの消滅を見届けた後、一行は王座の間へと辿り着く。）</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>lily_nul2</t>
+          <t>narr_6</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>……アスタロト様。あなたは、ずっとそんなことを……。</t>
+          <t>（そこは、観客席すら存在しない『絶対的な静寂』の空間。アスタロトは、巨大な竜の翼を休め、孤独な王座に腰掛けていた。）</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>……アスタロト様。あなたは、ずっとそんなことを……。</t>
+          <t>（そこは、観客席すら存在しない『絶対的な静寂』の空間。アスタロトは、巨大な竜の翼を休め、孤独な王座に腰掛けていた。）</t>
         </is>
       </c>
     </row>
@@ -1651,29 +1686,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>nul</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>nul_5</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>……お願い。あの方を……止めて。私の中にいた『誰か』が……ずっと、それを望んでいた。</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>……お願い。あの方を……止めて。私の中にいた『誰か』が……ずっと、それを望んでいた。</t>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>sukutsu_grandmaster</t>
         </is>
       </c>
     </row>
@@ -1685,118 +1710,143 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="inlineStr">
         <is>
-          <t>nul</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>nul_6</t>
+          <t>pc_asta</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>……ありがとう。あなたのおかげで……私は、最後に『思い出す』ことができた。私には……守りたい人が、いたんだって。</t>
+          <t>……『神の孵化場』。それがこのアリーナの正体か、アスタロト。</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>……ありがとう。あなたのおかげで……私は、最後に『思い出す』ことができた。私には……守りたい人が、いたんだって。</t>
+          <t>……『神の孵化場』。それがこのアリーナの正体か、アスタロト。</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>shake</t>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>sukutsu_grandmaster</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>astaroth_0</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>……Nulから聞いたのか。あの失敗作、最後に余計なことを。</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>……Nulから聞いたのか。あの失敗作、最後に余計なことを。</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_grandmaster</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>narr_nul4</t>
+          <t>astaroth_1</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>（Nulの体が完全に光となって消えていく。）</t>
+          <t>……よく来た。バグ（不具合）として生まれ、ついには世界を揺るがす質量となった者よ。</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>（Nulの体が完全に光となって消えていく。）</t>
+          <t>……よく来た。バグ（不具合）として生まれ、ついには世界を揺るがす質量となった者よ。</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>1.0</t>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>sukutsu_grandmaster</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>astaroth_2</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>ゼク、リリィ、バルガス……。敗残兵と裏切り者の手を借りて、この私を終わらせに来たか。</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ゼク、リリィ、バルガス……。敗残兵と裏切り者の手を借りて、この私を終わらせに来たか。</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>act2_throne_room</t>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>sukutsu_grandmaster</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>astaroth_3</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>だが、知るがいい。私の言葉は『法』であり、私の吐息は『消去』である。お前たちが何を積み上げようと、私が『無』と言えば、それは無になるのだ。</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>だが、知るがいい。私の言葉は『法』であり、私の吐息は『消去』である。お前たちが何を積み上げようと、私が『無』と言えば、それは無になるのだ。</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>act2_throne_room</t>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>act3_intervention</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="D85" t="inlineStr">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>act3_intervention</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="D86" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Astaroth_Throne");             var data = SoundManager.current.GetData("BGM/Astaroth_Throne");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Astaroth_Throne");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>narr_5</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>（Nulの消滅を見届けた後、一行は王座の間へと辿り着く。）</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>（Nulの消滅を見届けた後、一行は王座の間へと辿り着く。）</t>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Final_Battle");             var data = SoundManager.current.GetData("BGM/Final_Battle");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Final_Battle");             }</t>
         </is>
       </c>
     </row>
@@ -1808,330 +1858,300 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>narr_6</t>
+          <t>narr_7</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>（そこは、観客席すら存在しない『絶対的な静寂』の空間。アスタロトは、巨大な竜の翼を休め、孤独な王座に腰掛けていた。）</t>
+          <t>（戦闘開始直後、アスタロトの威圧と共に、三つの極悪なデバフ（権能）があなたを襲う。）</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>（そこは、観客席すら存在しない『絶対的な静寂』の空間。アスタロトは、巨大な竜の翼を休め、孤独な王座に腰掛けていた。）</t>
+          <t>（戦闘開始直後、アスタロトの威圧と共に、三つの極悪なデバフ（権能）があなたを襲う。）</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>narr_8</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>（【権能1：時の独裁】——プレイヤーの速度を強制的に1に固定）</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>（【権能1：時の独裁】——プレイヤーの速度を強制的に1に固定）</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>sukutsu_grandmaster</t>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>narr_9</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>（【権能2：因果の拒絶】——プレイヤーの全攻撃ダメージを『1』に固定）</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>（【権能2：因果の拒絶】——プレイヤーの全攻撃ダメージを『1』に固定）</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>narr_10</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>（【権能3：終焉の削除命令】——ターンごとにプレイヤーのステータスを恒久的に削り取る）</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>（【権能3：終焉の削除命令】——ターンごとにプレイヤーのステータスを恒久的に削り取る）</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>pc_asta</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>……『神の孵化場』。それがこのアリーナの正体か、アスタロト。</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>……『神の孵化場』。それがこのアリーナの正体か、アスタロト。</t>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="F92" t="inlineStr">
         <is>
-          <t>sukutsu_grandmaster</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>astaroth_0</t>
+          <t>narr_11</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>……ほう、Nulから聞いたか。あの失敗作、最後に余計なことを。</t>
+          <t>（絶望的な状況の中、仲間たちがそれぞれの覚悟を叫ぶ。）</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>……ほう、Nulから聞いたか。あの失敗作、最後に余計なことを。</t>
+          <t>（絶望的な状況の中、仲間たちがそれぞれの覚悟を叫ぶ。）</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>sukutsu_grandmaster</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>astaroth_1</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>……よく来た。バグ（不具合）として生まれ、ついには世界を揺るがす『一億の質量』となった者よ。</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>……よく来た。バグ（不具合）として生まれ、ついには世界を揺るがす『一億の質量』となった者よ。</t>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>sukutsu_grandmaster</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>astaroth_2</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>ゼク、リリアリス、バルガス……。敗残兵と裏切り者の手を借りて、この私を終わらせに来たか。</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>ゼク、リリアリス、バルガス……。敗残兵と裏切り者の手を借りて、この私を終わらせに来たか。</t>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>sukutsu_grandmaster</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>astaroth_3</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>だが、知るがいい。王とは、この世界そのもの。私の言葉は『法』であり、私の吐息は『消去』である。お前たちが何を積み上げようと、私が『無』と言えば、それは無になるのだ。</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>だが、知るがいい。王とは、この世界そのもの。私の言葉は『法』であり、私の吐息は『消去』である。お前たちが何を積み上げようと、私が『無』と言えば、それは無になるのだ。</t>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>act3_intervention</t>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>zek_11</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>おっと、私のキューブが黙っていませんよ！ **【時の独裁】、一時的にオーバーライド（上書き）します！**</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>おっと、私のキューブが黙っていませんよ！ **【時の独裁】、一時的にオーバーライド（上書き）します！**</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>act3_intervention</t>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="D98" t="inlineStr">
         <is>
-          <t>eval</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Final_Battle");             var data = SoundManager.current.GetData("BGM/Final_Battle");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Final_Battle");             }</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>narr_7</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>（戦闘開始直後、アスタロトの『レベル100,000,000』の威圧と共に、三つの極悪なデバフ（権能）があなたを襲う。）</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>（戦闘開始直後、アスタロトの『レベル100,000,000』の威圧と共に、三つの極悪なデバフ（権能）があなたを襲う。）</t>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="F100" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>narr_8</t>
+          <t>balgas_4</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>（【権能1：時の独裁】——プレイヤーの速度を強制的に1に固定）</t>
+          <t>鋼の意志を舐めるなよ！ 王の法なんて知るか！ **【因果の拒絶】、俺の魂でこじ開けてやる！**</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>（【権能1：時の独裁】——プレイヤーの速度を強制的に1に固定）</t>
+          <t>鋼の意志を舐めるなよ！ 王の法なんて知るか！ **【因果の拒絶】、俺の魂でこじ開けてやる！**</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>narr_9</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>（【権能2：因果の拒絶】——プレイヤーの全攻撃ダメージを『1』に固定）</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>（【権能2：因果の拒絶】——プレイヤーの全攻撃ダメージを『1』に固定）</t>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>narr_10</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>（【権能3：終焉の削除命令】——ターンごとにプレイヤーのステータスを恒久的に削り取る）</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>（【権能3：終焉の削除命令】——ターンごとにプレイヤーのステータスを恒久的に削り取る）</t>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="D103" t="inlineStr">
         <is>
-          <t>shake</t>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="F104" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>narr_11</t>
+          <t>lily_3</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>（絶望的なエフェクトが画面を覆う中、仲間たちがそれぞれの覚悟を叫ぶ。）</t>
+          <t>……この方の魂は、私のものです！ **【削除命令】、リリアリスの名において拒絶します！**</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>（絶望的なエフェクトが画面を覆う中、仲間たちがそれぞれの覚悟を叫ぶ。）</t>
+          <t>……この方の魂は、私のものです！ **【削除命令】、リリアリスの名において拒絶します！**</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>act4_battle</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>act4_battle</t>
         </is>
       </c>
     </row>
@@ -2143,29 +2163,19 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>zek_11</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>おっと、私のキューブが黙っていませんよ！ **【時の独裁】、一時的にオーバーライド（上書き）します！**</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>おっと、私のキューブが黙っていませんよ！ **【時の独裁】、一時的にオーバーライド（上書き）します！**</t>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>sukutsu_grandmaster</t>
         </is>
       </c>
     </row>
@@ -2177,479 +2187,474 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>narr_12</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>（権能を封じられたアスタロトの瞳に、初めて『驚愕』と『喜び』が混じる。）</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>（権能を封じられたアスタロトの瞳に、初めて『驚愕』と『喜び』が混じる。）</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>sukutsu_grandmaster</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>astaroth_4</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>……ハハッ！ 面白い！ システムの保護なしに、この私と殴り合おうというのか！</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>……ハハッ！ 面白い！ システムの保護なしに、この私と殴り合おうというのか！</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="F112" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>sukutsu_grandmaster</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>balgas_4</t>
+          <t>astaroth_5</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>鋼の意志を舐めるなよ！ 王の法なんて知るか！ **【因果の拒絶】、俺の魂でこじ開けてやる！**</t>
+          <t>よかろう、黄金の戦鬼よ！ 私が背負う『一億の絶望』と、お前が背負う『一億の希望』……どちらが真の理か、ここで決めようではないか！</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>鋼の意志を舐めるなよ！ 王の法なんて知るか！ **【因果の拒絶】、俺の魂でこじ開けてやる！**</t>
+          <t>よかろう、黄金の戦鬼よ！ 私が背負う『一億の絶望』と、お前が背負う『一億の希望』……どちらが真の理か、ここで決めようではないか！</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="D113" t="inlineStr">
         <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>0.3</t>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="D114" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>setFlag</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>sukutsu_is_quest_battle_result,1</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="D115" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>setFlag</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>sukutsu_quest_battle,3</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>lily_3</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>……真名にかけて命じます。この方の魂は、私のものです！ **【削除命令】、リリアリスの名において拒絶します！**</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>……真名にかけて命じます。この方の魂は、私のものです！ **【削除命令】、リリアリスの名において拒絶します！**</t>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("final_astaroth", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>act4_battle</t>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>act4_battle</t>
+          <t>act5_victory</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="D119" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Victory_Epilogue");             var data = SoundManager.current.GetData("BGM/Victory_Epilogue");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Victory_Epilogue");             }</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>narr_14</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="F121" t="inlineStr">
         <is>
           <t>sukutsu_grandmaster</t>
         </is>
       </c>
-    </row>
-    <row r="121">
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>astaroth_6</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="F122" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_grandmaster</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>narr_12</t>
+          <t>astaroth_7</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>（権能を封じられたアスタロトの瞳に、初めて『驚愕』と『喜び』が混じる。）</t>
+          <t>……リリィ、バルガス、ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>（権能を封じられたアスタロトの瞳に、初めて『驚愕』と『喜び』が混じる。）</t>
+          <t>……リリィ、バルガス、ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="F123" t="inlineStr">
         <is>
-          <t>sukutsu_grandmaster</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>astaroth_4</t>
+          <t>narr_15</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>……ハハッ！ 面白い！ システムの保護なしに、この私と殴り合おうというのか！</t>
+          <t>（アスタロトが柔らかな光となって霧散し、そのレベル（重さ）が残された四人へと分散して吸収されていく。）</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>……ハハッ！ 面白い！ システムの保護なしに、この私と殴り合おうというのか！</t>
+          <t>（アスタロトが柔らかな光となって霧散し、そのレベル（重さ）が残された四人へと分散して吸収されていく。）</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>sukutsu_grandmaster</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>astaroth_5</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>よかろう、黄金の戦鬼よ！ 私が背負う『一億の絶望』と、お前が背負う『一億の希望』……どちらが真の理か、ここで決めようではないか！</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>よかろう、黄金の戦鬼よ！ 私が背負う『一億の絶望』と、お前が背負う『一億の希望』……どちらが真の理か、ここで決めようではないか！</t>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>narr_13</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>（プレースホルダー：ここで実際の戦闘が発生する。）</t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>（プレースホルダー：ここで実際の戦闘が発生する。）</t>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>act5_victory</t>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>act5_victory</t>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>zek_12</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>……やれやれ。これほどの損失（コスト）を出して、得られた利益は『自由』だけですか。……悪くない取引でしたね。</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>……やれやれ。これほどの損失（コスト）を出して、得られた利益は『自由』だけですか。……悪くない取引でしたね。</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="D128" t="inlineStr">
         <is>
-          <t>eval</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Victory_Epilogue");             var data = SoundManager.current.GetData("BGM/Victory_Epilogue");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Victory_Epilogue");             }</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>narr_14</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>sukutsu_grandmaster</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>astaroth_6</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。</t>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="F131" t="inlineStr">
         <is>
-          <t>sukutsu_grandmaster</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>astaroth_7</t>
+          <t>balgas_5</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>……リリアリス、バルガス、ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。</t>
+          <t>ケッ、重てえな。だが、一人で背負うよりはマシだ。……おい、次はどこの酒場へ行く？</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>……リリアリス、バルガス、ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。</t>
+          <t>ケッ、重てえな。だが、一人で背負うよりはマシだ。……おい、次はどこの酒場へ行く？</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>narr_15</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>（アスタロトが柔らかな光となって霧散し、そのレベル（重さ）が残された四人へと分散して吸収されていく。）</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>（アスタロトが柔らかな光となって霧散し、そのレベル（重さ）が残された四人へと分散して吸収されていく。）</t>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="D133" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="D134" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>lily_4</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>……リリィ、と呼んでくださいね。アリーナはなくなりました。でも、私たちの旅は、これから始まるのですから。</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>……リリィ、と呼んでくださいね。アリーナはなくなりました。でも、私たちの旅は、これから始まるのですから。</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>zek_12</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>……やれやれ。これほどの損失（コスト）を出して、得られた利益は『自由』だけですか。……悪くない取引でしたね。</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>……やれやれ。これほどの損失（コスト）を出して、得られた利益は『自由』だけですか。……悪くない取引でしたね。</t>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>act6_return</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>act6_return</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="D138" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Hopeful_Theme");             var data = SoundManager.current.GetData("BGM/Hopeful_Theme");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Hopeful_Theme");             }</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>narr_16</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>（アスタロトが消えた瞬間、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>（アスタロトが消えた瞬間、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="F140" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>balgas_5</t>
+          <t>narr_17</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>ケッ、重てえな。だが、一人で背負うよりはマシだ。……おい、次はどこの酒場へ行く？</t>
+          <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>ケッ、重てえな。だが、一人で背負うよりはマシだ。……おい、次はどこの酒場へ行く？</t>
+          <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2678,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
@@ -2692,116 +2697,146 @@
     <row r="144">
       <c r="F144" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>lily_4</t>
+          <t>balgas_6</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>……リリアリス、と呼んでくださいね。アリーナはなくなりました。でも、私たちの旅は、これから始まるのですから。</t>
+          <t>……おい、見ろ。あれは……</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>……リリアリス、と呼んでくださいね。アリーナはなくなりました。でも、私たちの旅は、これから始まるのですから。</t>
+          <t>……おい、見ろ。あれは……</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>act6_return</t>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>narr_18</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それは地上へと続く、帰還の道だ。）</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それは地上へと続く、帰還の道だ。）</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>act6_return</t>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="D147" t="inlineStr">
         <is>
-          <t>eval</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Hopeful_Theme");             var data = SoundManager.current.GetData("BGM/Hopeful_Theme");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Hopeful_Theme");             }</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>narr_16</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>（アスタロトが消えた瞬間、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>（アスタロトが消えた瞬間、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="F149" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>narr_17</t>
+          <t>lily_5</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
+          <t>……そういえば、あなたが初めてここに来た時、私は言いましたね。『ここから出る方法はただ一つ』と。</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
+          <t>……そういえば、あなたが初めてここに来た時、私は言いましたね。『ここから出る方法はただ一つ』と。</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>lily_6</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>その答えがこれです。……グランドマスターを倒し、この異次元の牢獄そのものを破壊すること。それが、唯一の『出口』でした。</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>その答えがこれです。……グランドマスターを倒し、この異次元の牢獄そのものを破壊すること。それが、唯一の『出口』でした。</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>lily_7</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>でも……もう、誰もここに閉じ込められることはありません。この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』です。</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>でも……もう、誰もここに閉じ込められることはありません。この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』です。</t>
         </is>
       </c>
     </row>
@@ -2813,153 +2848,148 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="153">
-      <c r="F153" t="inlineStr">
+    <row r="155">
+      <c r="F155" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>balgas_6</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>……おい、見ろ。あれは……</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>……おい、見ろ。あれは……</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>narr_18</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それは地上へと続く、帰還の道だ。）</t>
-        </is>
-      </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それは地上へと続く、帰還の道だ。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>balgas_7</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>……おい、鴉。いや、屠竜者。お前、この先どうする？ 地上に戻るか？ それとも……</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>……おい、鴉。いや、屠竜者。お前、この先どうする？ 地上に戻るか？ それとも……</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>ending_choice</t>
         </is>
       </c>
     </row>
     <row r="157">
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>ending_a_rescue</t>
+        </is>
+      </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>0.5</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>ending_a_rescue</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>皆を連れて、イルヴァへ行こう</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>皆を連れて、イルヴァへ行こう</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>ending_b_inherit</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>lily_5</t>
+          <t>ending_b_inherit</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>……そういえば、あなたが初めてここに来た時、私は言いましたね。『ここから出る方法はただ一つ』と。</t>
+          <t>ここに残って、アリーナを作り直す</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>……そういえば、あなたが初めてここに来た時、私は言いましたね。『ここから出る方法はただ一つ』と。</t>
+          <t>ここに残って、アリーナを作り直す</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>ending_c_usurp</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>lily_6</t>
+          <t>ending_c_usurp</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>その答えがこれです。……グランドマスターを倒し、この異次元の牢獄そのものを破壊すること。それが、唯一の『出口』でした。</t>
+          <t>俺は……一人で行く</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>その答えがこれです。……グランドマスターを倒し、この異次元の牢獄そのものを破壊すること。それが、唯一の『出口』でした。</t>
+          <t>俺は……一人で行く</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>lily_7</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>でも……もう、誰もここに閉じ込められることはありません。この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』です。</t>
-        </is>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>でも……もう、誰もここに閉じ込められることはありません。この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』です。</t>
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>ending_a_rescue</t>
         </is>
       </c>
     </row>
@@ -2983,7 +3013,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
@@ -3002,325 +3032,310 @@
     <row r="164">
       <c r="F164" t="inlineStr">
         <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>lily_ea1</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>……！ 本当に……私を、連れて行ってくれるの？</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>……！ 本当に……私を、連れて行ってくれるの？</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>lily_ea2</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>あなたとの契約を通じて、私も……初めて『帰る場所』を持てるのね。ありがとう……本当に、ありがとう。</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>あなたとの契約を通じて、私も……初めて『帰る場所』を持てるのね。ありがとう……本当に、ありがとう。</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>balgas_7</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>……おい、鴉。いや、屠竜者。お前、この先どうする？ 地上に戻るか？ それとも……</t>
-        </is>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>……おい、鴉。いや、屠竜者。お前、この先どうする？ 地上に戻るか？ それとも……</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>ending_choice</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>ending_a_rescue</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>ending_a_rescue</t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>皆を連れて、イルヴァへ行こう</t>
-        </is>
-      </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>皆を連れて、イルヴァへ行こう</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>ending_b_inherit</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>ending_b_inherit</t>
-        </is>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>ここに残って、アリーナを作り直す</t>
-        </is>
-      </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>ここに残って、アリーナを作り直す</t>
-        </is>
-      </c>
     </row>
     <row r="168">
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>ending_c_usurp</t>
-        </is>
-      </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>ending_c_usurp</t>
-        </is>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>俺は……一人で行く</t>
-        </is>
-      </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>俺は……一人で行く</t>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>ending_a_rescue</t>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>balgas_ea1</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>……ケッ、35年ぶりの故郷か。カインの魂も、これでやっと解放してやれる。</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>……ケッ、35年ぶりの故郷か。カインの魂も、これでやっと解放してやれる。</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>balgas_ea2</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>おい、屠竜者……いや、もうそう呼ぶのも野暮か。……ありがとうな。</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>おい、屠竜者……いや、もうそう呼ぶのも野暮か。……ありがとうな。</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="D171" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="D172" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="173">
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>lily_ea1</t>
-        </is>
-      </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>……！ 本当に……私を、連れて行ってくれるの？</t>
-        </is>
-      </c>
-      <c r="J173" t="inlineStr">
-        <is>
-          <t>……！ 本当に……私を、連れて行ってくれるの？</t>
-        </is>
-      </c>
-    </row>
     <row r="174">
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>zek_ea1</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="F175" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>lily_ea2</t>
+          <t>zek_ea2</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>あなたとの契約を通じて、私も……初めて『帰る場所』を持てるのね。ありがとう……本当に、ありがとう。</t>
+          <t>……また会いましょう。私の最高傑作が、どんな人生を歩むのか、記録させてもらいますよ。</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>あなたとの契約を通じて、私も……初めて『帰る場所』を持てるのね。ありがとう……本当に、ありがとう。</t>
+          <t>……また会いましょう。私の最高傑作が、どんな人生を歩むのか、記録させてもらいますよ。</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="D176" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>setFlag</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
+          <t>chitsii.arena.player.ending,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>epilogue</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>ending_b_inherit</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
           <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>balgas_ea1</t>
-        </is>
-      </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>……ケッ、35年ぶりの故郷か。カインの魂も、これでやっと解放してやれる。</t>
-        </is>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>……ケッ、35年ぶりの故郷か。カインの魂も、これでやっと解放してやれる。</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="D180" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="181">
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>balgas_ea2</t>
-        </is>
-      </c>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>おい、屠竜者……いや、もうそう呼ぶのも野暮か。……ありがとうな。</t>
-        </is>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>おい、屠竜者……いや、もうそう呼ぶのも野暮か。……ありがとうな。</t>
-        </is>
-      </c>
-    </row>
     <row r="182">
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>lily_eb1</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>……ふふ、あなたらしいですね。この場所にも、居場所を必要とする者がいますから。</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>……ふふ、あなたらしいですね。この場所にも、居場所を必要とする者がいますから。</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>lily_eb2</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>私も残ります。あなたが新しいグランドマスターなら、私は……受付嬢ではなく、『伴侶』として支えさせてください。</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>私も残ります。あなたが新しいグランドマスターなら、私は……受付嬢ではなく、『伴侶』として支えさせてください。</t>
         </is>
       </c>
     </row>
@@ -3332,169 +3347,159 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="185">
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>zek_ea1</t>
-        </is>
-      </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
-        </is>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>zek_ea2</t>
-        </is>
-      </c>
-      <c r="I186" t="inlineStr">
-        <is>
-          <t>……また会いましょう。私の最高傑作が、どんな人生を歩むのか、記録させてもらいますよ。</t>
-        </is>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>……また会いましょう。私の最高傑作が、どんな人生を歩むのか、記録させてもらいますよ。</t>
-        </is>
-      </c>
-    </row>
     <row r="187">
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.ending,0</t>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>balgas_eb1</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>ハッ、そうこなくちゃな。『神の孵化場』はもう終わりだ。これからは、自分の意志で戦いたい奴だけが来る場所にする。</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>ハッ、そうこなくちゃな。『神の孵化場』はもう終わりだ。これからは、自分の意志で戦いたい奴だけが来る場所にする。</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>epilogue</t>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>balgas_eb2</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>俺は引退済みだが……まあ、若い奴らの相談役くらいはやってやるさ。</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>俺は引退済みだが……まあ、若い奴らの相談役くらいはやってやるさ。</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>ending_b_inherit</t>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="D190" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="D191" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>zek_eb1</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>ふむ、それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>ふむ、それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>lily_eb1</t>
-        </is>
-      </c>
-      <c r="I193" t="inlineStr">
-        <is>
-          <t>……ふふ、あなたらしいですね。この場所にも、居場所を必要とする者がいますから。</t>
-        </is>
-      </c>
-      <c r="J193" t="inlineStr">
-        <is>
-          <t>……ふふ、あなたらしいですね。この場所にも、居場所を必要とする者がいますから。</t>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.ending,1</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>epilogue</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>lily_eb2</t>
-        </is>
-      </c>
-      <c r="I195" t="inlineStr">
-        <is>
-          <t>私も残ります。あなたが新しいグランドマスターなら、私は……受付嬢ではなく、『伴侶』として支えさせてください。</t>
-        </is>
-      </c>
-      <c r="J195" t="inlineStr">
-        <is>
-          <t>私も残ります。あなたが新しいグランドマスターなら、私は……受付嬢ではなく、『伴侶』として支えさせてください。</t>
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>ending_c_usurp</t>
         </is>
       </c>
     </row>
@@ -3518,7 +3523,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
@@ -3537,128 +3542,168 @@
     <row r="199">
       <c r="F199" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>balgas_eb1</t>
+          <t>lily_ec1</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>ハッ、そうこなくちゃな。『神の孵化場』はもう終わりだ。これからは、自分の意志で戦いたい奴だけが来る場所にする。</t>
+          <t>……そう。あなたは……そういう人だったのね。</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>ハッ、そうこなくちゃな。『神の孵化場』はもう終わりだ。これからは、自分の意志で戦いたい奴だけが来る場所にする。</t>
+          <t>……そう。あなたは……そういう人だったのね。</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="F200" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>balgas_eb2</t>
+          <t>lily_ec2</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>俺は引退済みだが……まあ、若い奴らの相談役くらいはやってやるさ。</t>
+          <t>私はもう、あなたについていけない。……さようなら。</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>俺は引退済みだが……まあ、若い奴らの相談役くらいはやってやるさ。</t>
+          <t>私はもう、あなたについていけない。……さようなら。</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>narr_ec1</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>（リリィが背を向け、去っていく。）</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>（リリィが背を向け、去っていく。）</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="D202" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="D203" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="204">
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>zek_eb1</t>
-        </is>
-      </c>
-      <c r="I204" t="inlineStr">
-        <is>
-          <t>ふむ、それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
-        </is>
-      </c>
-      <c r="J204" t="inlineStr">
-        <is>
-          <t>ふむ、それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
-        </is>
-      </c>
-    </row>
     <row r="205">
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.ending,1</t>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>balgas_ec1</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>……お前は俺が育てた英雄じゃない。ただの、勝利に飢えた獣だ。</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>……お前は俺が育てた英雄じゃない。ただの、勝利に飢えた獣だ。</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>epilogue</t>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>balgas_ec2</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>俺はここで、カインと共に眠る。……もう、お前の顔は見たくねえ。</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>俺はここで、カインと共に眠る。……もう、お前の顔は見たくねえ。</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>ending_c_usurp</t>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>narr_ec2</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>（バルガスが背を向け、去っていく。）</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>（バルガスが背を向け、去っていく。）</t>
         </is>
       </c>
     </row>
@@ -3682,7 +3727,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
@@ -3701,158 +3746,148 @@
     <row r="211">
       <c r="F211" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>lily_ec1</t>
+          <t>zek_ec1</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>……そう。あなたは……そういう人だったのね。</t>
+          <t>……クク。孤独な王の誕生ですか。それもまた、一つの『作品』ですね。</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>……そう。あなたは……そういう人だったのね。</t>
+          <t>……クク。孤独な王の誕生ですか。それもまた、一つの『作品』ですね。</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>zek_ec2</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>私は……見届けさせてもらいましょう。孤独がどれほど重いか、記録するために。</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>私は……見届けさせてもらいましょう。孤独がどれほど重いか、記録するために。</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="F213" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>lily_ec2</t>
+          <t>narr_ec3</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>私はもう、あなたについていけない。……さようなら。</t>
+          <t>（ゼクが影の中へ消える。）</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>私はもう、あなたについていけない。……さようなら。</t>
+          <t>（ゼクが影の中へ消える。）</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>narr_ec1</t>
-        </is>
-      </c>
-      <c r="I214" t="inlineStr">
-        <is>
-          <t>（リリィが背を向け、去っていく。）</t>
-        </is>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>（リリィが背を向け、去っていく。）</t>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.ending,2</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>epilogue</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>epilogue</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="D217" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Credits");             var data = SoundManager.current.GetData("BGM/Credits");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Credits");             }</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="F218" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>balgas_ec1</t>
+          <t>narr_19</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>……お前は俺が育てた英雄じゃない。ただの、勝利に飢えた獣だ。</t>
+          <t>（プレイヤーが光の階段を一歩踏み出すと、足元に温かな地上の風が吹き抜ける。）</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>……お前は俺が育てた英雄じゃない。ただの、勝利に飢えた獣だ。</t>
+          <t>（プレイヤーが光の階段を一歩踏み出すと、足元に温かな地上の風が吹き抜ける。）</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="F219" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>balgas_ec2</t>
+          <t>narr_20</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>俺はここで、カインと共に眠る。……もう、お前の顔は見たくねえ。</t>
+          <t>（遠くに見えるのは、緑の大地と、穏やかな街の灯。）</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>俺はここで、カインと共に眠る。……もう、お前の顔は見たくねえ。</t>
+          <t>（遠くに見えるのは、緑の大地と、穏やかな街の灯。）</t>
         </is>
       </c>
     </row>
@@ -3864,320 +3899,148 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>narr_ec2</t>
+          <t>narr_21</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>（バルガスが背を向け、去っていく。）</t>
+          <t>かつて、異次元の闘技場に迷い込んだ一人の冒険者がいた。彼（彼女）は、絶望の底で友を得て、魂を賭けて戦い、ついには神をも超える存在となった。そして今、解放された魂は、新たな物語を紡ぎ始める——</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>（バルガスが背を向け、去っていく。）</t>
+          <t>かつて、異次元の闘技場に迷い込んだ一人の冒険者がいた。彼（彼女）は、絶望の底で友を得て、魂を賭けて戦い、ついには神をも超える存在となった。そして今、解放された魂は、新たな物語を紡ぎ始める——</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>finale</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>finale</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="D223" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Cheerful_Theme");             var data = SoundManager.current.GetData("BGM/Cheerful_Theme");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Cheerful_Theme");             }</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="F224" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>zek_ec1</t>
+          <t>balgas_f1</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>……クク。孤独な王の誕生ですか。それもまた、一つの『作品』ですね。</t>
+          <t>……おい、いつまで感傷に浸ってんだ。次は俺の奢りで、地上で一番うまい酒を飲みに行くぞ！</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>……クク。孤独な王の誕生ですか。それもまた、一つの『作品』ですね。</t>
+          <t>……おい、いつまで感傷に浸ってんだ。次は俺の奢りで、地上で一番うまい酒を飲みに行くぞ！</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="F225" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>zek_ec2</t>
+          <t>lily_f1</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>私は……見届けさせてもらいましょう。孤独がどれほど重いか、記録するために。</t>
+          <t>ふふ、楽しみです。……リリィとして、初めての『デート』ですから。</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>私は……見届けさせてもらいましょう。孤独がどれほど重いか、記録するために。</t>
+          <t>ふふ、楽しみです。……リリィとして、初めての『デート』ですから。</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="F226" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>narr_ec3</t>
+          <t>zek_f1</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>（ゼクが影の中へ消える。）</t>
+          <t>おや、私も混ぜてくださいよ。……商談という名の、ね。</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>（ゼクが影の中へ消える。）</t>
+          <t>おや、私も混ぜてくださいよ。……商談という名の、ね。</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="D227" t="inlineStr">
         <is>
-          <t>setFlag</t>
+          <t>modInvoke</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.ending,2</t>
+          <t>complete_quest(18_last_battle)</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>epilogue</t>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>sys_complete</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>【システム】クエスト『最終決戦』をクリアしました！</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>【システム】クエスト『最終決戦』をクリアしました！</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>epilogue</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Credits");             var data = SoundManager.current.GetData("BGM/Credits");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Credits");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>narr_19</t>
-        </is>
-      </c>
-      <c r="I231" t="inlineStr">
-        <is>
-          <t>（プレイヤーが光の階段を一歩踏み出すと、足元に温かな地上の風が吹き抜ける。）</t>
-        </is>
-      </c>
-      <c r="J231" t="inlineStr">
-        <is>
-          <t>（プレイヤーが光の階段を一歩踏み出すと、足元に温かな地上の風が吹き抜ける。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>narr_20</t>
-        </is>
-      </c>
-      <c r="I232" t="inlineStr">
-        <is>
-          <t>（遠くに見えるのは、緑の大地と、穏やかな街の灯。）</t>
-        </is>
-      </c>
-      <c r="J232" t="inlineStr">
-        <is>
-          <t>（遠くに見えるのは、緑の大地と、穏やかな街の灯。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>narr_21</t>
-        </is>
-      </c>
-      <c r="I233" t="inlineStr">
-        <is>
-          <t>かつて、異次元の闘技場に迷い込んだ一人の冒険者がいた。彼（彼女）は、絶望の底で友を得て、魂を賭けて戦い、ついには神をも超える存在となった。そして今、解放された魂は、新たな物語を紡ぎ始める——</t>
-        </is>
-      </c>
-      <c r="J233" t="inlineStr">
-        <is>
-          <t>かつて、異次元の闘技場に迷い込んだ一人の冒険者がいた。彼（彼女）は、絶望の底で友を得て、魂を賭けて戦い、ついには神をも超える存在となった。そして今、解放された魂は、新たな物語を紡ぎ始める——</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>finale</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>finale</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Cheerful_Theme");             var data = SoundManager.current.GetData("BGM/Cheerful_Theme");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Cheerful_Theme");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>balgas_f1</t>
-        </is>
-      </c>
-      <c r="I237" t="inlineStr">
-        <is>
-          <t>……おい、いつまで感傷に浸ってんだ。次は俺の奢りで、地上で一番うまい酒を飲みに行くぞ！</t>
-        </is>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>……おい、いつまで感傷に浸ってんだ。次は俺の奢りで、地上で一番うまい酒を飲みに行くぞ！</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>lily_f1</t>
-        </is>
-      </c>
-      <c r="I238" t="inlineStr">
-        <is>
-          <t>ふふ、楽しみです。……リリアリスとして、初めての『デート』ですから。</t>
-        </is>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>ふふ、楽しみです。……リリアリスとして、初めての『デート』ですから。</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>zek_f1</t>
-        </is>
-      </c>
-      <c r="I239" t="inlineStr">
-        <is>
-          <t>おや、私も混ぜてくださいよ。……商談という名の、ね。</t>
-        </is>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>おや、私も混ぜてくださいよ。……商談という名の、ね。</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="D240" t="inlineStr">
+      <c r="D229" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_last_battle.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_last_battle.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K229"/>
+  <dimension ref="A1:K238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -612,12 +612,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>……ケッ。引退？ ああ、確かに言ったな。……だが、お前が俺の命を救ったあの日、俺の中で何かが変わっちまったんだよ。</t>
+          <t>……引退？ ああ、確かに言ったな。……だが、お前が俺の命を救ったあの日、俺の中で何かが変わっちまったんだよ。</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>……ケッ。引退？ ああ、確かに言ったな。……だが、お前が俺の命を救ったあの日、俺の中で何かが変わっちまったんだよ。</t>
+          <t>……引退？ ああ、確かに言ったな。……だが、お前が俺の命を救ったあの日、俺の中で何かが変わっちまったんだよ。</t>
         </is>
       </c>
     </row>
@@ -1152,437 +1152,452 @@
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>nul</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>nul_1</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>……あなた、ですか。……システムを、拒絶した……人間。</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>……あなた、ですか。……システムを、拒絶した……人間。</t>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="D46" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="D47" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>balgas_nul0</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>……待て！ あれはNulだ。罠かもしれねえ、近づくな！</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>……待て！ あれはNulだ。罠かもしれねえ、近づくな！</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="F49" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>lily_nul1</t>
+          <t>narr_nul2b</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Nul……！ あなた、何があったの？</t>
+          <t>（バルガスが剣を構え、一行の前に立ちはだかる。）</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Nul……！ あなた、何があったの？</t>
+          <t>（バルガスが剣を構え、一行の前に立ちはだかる。）</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="F50" t="inlineStr">
         <is>
-          <t>nul</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>nul_2</t>
+          <t>nul_1</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>……私は、思い出して、しまった。……『私』が、何だったのかを。</t>
+          <t>（Nul）「……あなた、ですか。……システムを、拒絶した……人間。……私は……もう、戦えない。」</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>……私は、思い出して、しまった。……『私』が、何だったのかを。</t>
+          <t>（Nul）「……あなた、ですか。……システムを、拒絶した……人間。……私は……もう、戦えない。」</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>narr_nul3</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>（Nulの目から、光の粒子が零れ落ちる——涙のように。）</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>（Nulの目から、光の粒子が零れ落ちる——涙のように。）</t>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="D52" t="inlineStr">
         <is>
-          <t>eval</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow_1");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow_1");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow_1");             }</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>nul</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>nul_fb1</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>……私は、かつて冒険者だった。名前は……もう、思い出せない。仲間がいた。守りたい人がいた。このアリーナに挑んで……そして、負けた。</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>……私は、かつて冒険者だった。名前は……もう、思い出せない。仲間がいた。守りたい人がいた。このアリーナに挑んで……そして、負けた。</t>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="inlineStr">
         <is>
-          <t>nul</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>nul_fb2</t>
+          <t>lily_nul1</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>アスタロト様は、私を『素材』にした。神格を人工的に作り出す実験——**『神の孵化場』**計画の、実験体に。</t>
+          <t>Nul……！ あなた、何があったの？</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>アスタロト様は、私を『素材』にした。神格を人工的に作り出す実験——**『神の孵化場』**計画の、実験体に。</t>
+          <t>Nul……！ あなた、何があったの？</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="inlineStr">
         <is>
-          <t>nul</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>nul_fb3</t>
+          <t>nul_2</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>このアリーナの本当の目的……それは、娯楽でも、戦士の育成でもない。挑戦者の魂を極限まで練磨し、『神格』に至らせること。そして、その力をアスタロト様が吸収し……新しい世界を創造すること。</t>
+          <t>（Nul）「……私は、思い出して、しまった。……『私』が、何だったのかを。」</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>このアリーナの本当の目的……それは、娯楽でも、戦士の育成でもない。挑戦者の魂を極限まで練磨し、『神格』に至らせること。そして、その力をアスタロト様が吸収し……新しい世界を創造すること。</t>
+          <t>（Nul）「……私は、思い出して、しまった。……『私』が、何だったのかを。」</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="inlineStr">
         <is>
-          <t>nul</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>nul_fb4</t>
+          <t>narr_nul3</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>私は失敗作。神になれなかった、空っぽの人形。だから『Null』——『無』という名前を与えられた。</t>
+          <t>（Nulの目から、光の粒子が零れ落ちる——涙のように。）</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>私は失敗作。神になれなかった、空っぽの人形。だから『Null』——『無』という名前を与えられた。</t>
+          <t>（Nulの目から、光の粒子が零れ落ちる——涙のように。）</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>nul</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>nul_3</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>……あなたは、アスタロト様の『最高傑作』になるはずだった。神格に最も近い存在……だから、あの方はあなたを『吸収』しようとしている。</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>……あなたは、アスタロト様の『最高傑作』になるはずだった。神格に最も近い存在……だから、あの方はあなたを『吸収』しようとしている。</t>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow_1");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow_1");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow_1");             }</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="inlineStr">
         <is>
-          <t>nul</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>nul_4</t>
+          <t>nul_fb1</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>でも……あなたは『選んで』ここにいる。イルヴァに帰れるのに、ここに留まった。それは……アスタロト様の計算に、なかったこと。</t>
+          <t>（Nul）「……私は、かつて冒険者だった。名前は……もう、思い出せない。仲間がいた。守りたい人がいた。このアリーナに挑んで……そして、負けた。」</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>でも……あなたは『選んで』ここにいる。イルヴァに帰れるのに、ここに留まった。それは……アスタロト様の計算に、なかったこと。</t>
+          <t>（Nul）「……私は、かつて冒険者だった。名前は……もう、思い出せない。仲間がいた。守りたい人がいた。このアリーナに挑んで……そして、負けた。」</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>nul_fb2</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>（Nul）「アスタロト様は、私を『素材』にした。神格を人工的に作り出す実験——**『神の孵化場』**計画の、実験体に。」</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>（Nul）「アスタロト様は、私を『素材』にした。神格を人工的に作り出す実験——**『神の孵化場』**計画の、実験体に。」</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="D60" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="D61" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="F62" t="inlineStr">
+    <row r="63">
+      <c r="F63" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>balgas_nul</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>……『神の孵化場』だと？ クソが……俺たちは、最初からそのための『餌』だったってのか。</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>……『神の孵化場』だと？ クソが……俺たちは、最初からそのための『餌』だったってのか。</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>balgas_nul1</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>……！ 『神の孵化場』だと……？</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>……！ 『神の孵化場』だと……？</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>narr_nul3b</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>（バルガスの表情が凍りつく。その言葉には、覚えがあった。ゼクが語っていた、あの荒唐無稽な話。）</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>（バルガスの表情が凍りつく。その言葉には、覚えがあった。ゼクが語っていた、あの荒唐無稽な話。）</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>balgas_nul2</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>……ゼクの野郎が言ってたことは、本当だったのか……？ 俺は、あいつの言葉は闇商人の戯言だと思っていた。</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>……ゼクの野郎が言ってたことは、本当だったのか……？ 俺は、あいつの言葉は闇商人の戯言だと思っていた。</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="F66" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>lily_nul2</t>
+          <t>nul_fb3</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>……アスタロト様。あなたは、ずっとそんなことを……。</t>
+          <t>（Nul）「このアリーナの本当の目的……それは、娯楽でも、戦士の育成でもない。挑戦者の魂を極限まで練磨し、『神格』に至らせること。そして、その力をアスタロト様が吸収し……新しい世界を創造すること。」</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>……アスタロト様。あなたは、ずっとそんなことを……。</t>
+          <t>（Nul）「このアリーナの本当の目的……それは、娯楽でも、戦士の育成でもない。挑戦者の魂を極限まで練磨し、『神格』に至らせること。そして、その力をアスタロト様が吸収し……新しい世界を創造すること。」</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="inlineStr">
         <is>
-          <t>nul</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>nul_5</t>
+          <t>nul_fb4</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>……お願い。あの方を……止めて。私の中にいた『誰か』が……ずっと、それを望んでいた。</t>
+          <t>（Nul）「私は失敗作。神になれなかった、空っぽの人形。だから『Null』——『無』という名前を与えられた。」</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>……お願い。あの方を……止めて。私の中にいた『誰か』が……ずっと、それを望んでいた。</t>
+          <t>（Nul）「私は失敗作。神になれなかった、空っぽの人形。だから『Null』——『無』という名前を与えられた。」</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="inlineStr">
         <is>
-          <t>nul</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>nul_6</t>
+          <t>balgas_nul3</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>……ありがとう。あなたのおかげで……私は、最後に『思い出す』ことができた。私には……守りたい人が、いたんだって。</t>
+          <t>……お前もあのゼクと同じことを言うのか。だが、お前が嘘をつく理由がねえ。</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>……ありがとう。あなたのおかげで……私は、最後に『思い出す』ことができた。私には……守りたい人が、いたんだって。</t>
+          <t>……お前もあのゼクと同じことを言うのか。だが、お前が嘘をつく理由がねえ。</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>shake</t>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>balgas_nul4</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>……認めたくなかったが、本当だったんだな。俺たちは、最初からそのための『餌』だったってのか。</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>……認めたくなかったが、本当だったんだな。俺たちは、最初からそのための『餌』だったってのか。</t>
         </is>
       </c>
     </row>
@@ -1594,123 +1609,148 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>narr_nul4</t>
+          <t>nul_3</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>（Nulの体が完全に光となって消えていく。）</t>
+          <t>（Nul）「……あなたは、アスタロト様の『最高傑作』になるはずだった。神格に最も近い存在……だから、あの方はあなたを『吸収』しようとしている。」</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>（Nulの体が完全に光となって消えていく。）</t>
+          <t>（Nul）「……あなたは、アスタロト様の『最高傑作』になるはずだった。神格に最も近い存在……だから、あの方はあなたを『吸収』しようとしている。」</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>act2_throne_room</t>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>nul_4</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>（Nul）「でも……あなたは『選んで』ここにいる。イルヴァに帰れるのに、ここに留まった。それは……アスタロト様の計算に、なかったこと。」</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>（Nul）「でも……あなたは『選んで』ここにいる。イルヴァに帰れるのに、ここに留まった。それは……アスタロト様の計算に、なかったこと。」</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>act2_throne_room</t>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="D73" t="inlineStr">
         <is>
-          <t>eval</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Astaroth_Throne");             var data = SoundManager.current.GetData("BGM/Astaroth_Throne");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Astaroth_Throne");             }</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>narr_5</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>（Nulの消滅を見届けた後、一行は王座の間へと辿り着く。）</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>（Nulの消滅を見届けた後、一行は王座の間へと辿り着く。）</t>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>narr_6</t>
+          <t>lily_nul2</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>（そこは、観客席すら存在しない『絶対的な静寂』の空間。アスタロトは、巨大な竜の翼を休め、孤独な王座に腰掛けていた。）</t>
+          <t>……アスタロト様。あなたは、ずっとそんなことを……。</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>（そこは、観客席すら存在しない『絶対的な静寂』の空間。アスタロトは、巨大な竜の翼を休め、孤独な王座に腰掛けていた。）</t>
+          <t>……アスタロト様。あなたは、ずっとそんなことを……。</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>nul_5</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>（Nul）「……お願い。あの方を……止めて。私の中にいた『誰か』が……ずっと、それを望んでいた。」</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>（Nul）「……お願い。あの方を……止めて。私の中にいた『誰か』が……ずっと、それを望んでいた。」</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>sukutsu_grandmaster</t>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>nul_6</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>（Nul）「……ありがとう。あなたのおかげで……私は、最後に『思い出す』ことができた。私には……守りたい人が、いたんだって。」</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>（Nul）「……ありがとう。あなたのおかげで……私は、最後に『思い出す』ことができた。私には……守りたい人が、いたんだって。」</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="D78" t="inlineStr">
         <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>0.5</t>
+          <t>shake</t>
         </is>
       </c>
     </row>
@@ -1722,153 +1762,123 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>pc_asta</t>
+          <t>narr_nul4</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>……『神の孵化場』。それがこのアリーナの正体か、アスタロト。</t>
+          <t>（Nulの体が完全に光となって消えていく。）</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>……『神の孵化場』。それがこのアリーナの正体か、アスタロト。</t>
+          <t>（Nulの体が完全に光となって消えていく。）</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>sukutsu_grandmaster</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>astaroth_0</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>……Nulから聞いたのか。あの失敗作、最後に余計なことを。</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>……Nulから聞いたのか。あの失敗作、最後に余計なことを。</t>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>act2_throne_room</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>sukutsu_grandmaster</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>astaroth_1</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>……よく来た。バグ（不具合）として生まれ、ついには世界を揺るがす質量となった者よ。</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>……よく来た。バグ（不具合）として生まれ、ついには世界を揺るがす質量となった者よ。</t>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>act2_throne_room</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>sukutsu_grandmaster</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>astaroth_2</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>ゼク、リリィ、バルガス……。敗残兵と裏切り者の手を借りて、この私を終わらせに来たか。</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>ゼク、リリィ、バルガス……。敗残兵と裏切り者の手を借りて、この私を終わらせに来たか。</t>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Astaroth_Throne");             var data = SoundManager.current.GetData("BGM/Astaroth_Throne");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Astaroth_Throne");             }</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="inlineStr">
         <is>
-          <t>sukutsu_grandmaster</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>astaroth_3</t>
+          <t>narr_5</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>だが、知るがいい。私の言葉は『法』であり、私の吐息は『消去』である。お前たちが何を積み上げようと、私が『無』と言えば、それは無になるのだ。</t>
+          <t>（Nulの消滅を見届けた後、一行は王座の間へと辿り着く。）</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>だが、知るがいい。私の言葉は『法』であり、私の吐息は『消去』である。お前たちが何を積み上げようと、私が『無』と言えば、それは無になるのだ。</t>
+          <t>（Nulの消滅を見届けた後、一行は王座の間へと辿り着く。）</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>act3_intervention</t>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>narr_6</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>（そこは、観客席すら存在しない『絶対的な静寂』の空間。アスタロトは、巨大な竜の翼を休め、孤独な王座に腰掛けていた。）</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>（そこは、観客席すら存在しない『絶対的な静寂』の空間。アスタロトは、巨大な竜の翼を休め、孤独な王座に腰掛けていた。）</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>act3_intervention</t>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="D86" t="inlineStr">
         <is>
-          <t>eval</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Final_Battle");             var data = SoundManager.current.GetData("BGM/Final_Battle");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Final_Battle");             }</t>
+          <t>sukutsu_astaroth</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>narr_7</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>（戦闘開始直後、アスタロトの威圧と共に、三つの極悪なデバフ（権能）があなたを襲う。）</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>（戦闘開始直後、アスタロトの威圧と共に、三つの極悪なデバフ（権能）があなたを襲う。）</t>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -1880,17 +1890,17 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>narr_8</t>
+          <t>pc_asta</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>（【権能1：時の独裁】——プレイヤーの速度を強制的に1に固定）</t>
+          <t>……『神の孵化場』。それがこのアリーナの正体か、アスタロト。</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>（【権能1：時の独裁】——プレイヤーの速度を強制的に1に固定）</t>
+          <t>……『神の孵化場』。それがこのアリーナの正体か、アスタロト。</t>
         </is>
       </c>
     </row>
@@ -1902,17 +1912,17 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>narr_9</t>
+          <t>astaroth_0</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>（【権能2：因果の拒絶】——プレイヤーの全攻撃ダメージを『1』に固定）</t>
+          <t>（アスタロト）「……Nulから聞いたのか。あの失敗作、最後に余計なことを。」</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>（【権能2：因果の拒絶】——プレイヤーの全攻撃ダメージを『1』に固定）</t>
+          <t>（アスタロト）「……Nulから聞いたのか。あの失敗作、最後に余計なことを。」</t>
         </is>
       </c>
     </row>
@@ -1924,24 +1934,39 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>narr_10</t>
+          <t>astaroth_1</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>（【権能3：終焉の削除命令】——ターンごとにプレイヤーのステータスを恒久的に削り取る）</t>
+          <t>（アスタロト）「……よく来た。バグ（不具合）として生まれ、ついには世界を揺るがす質量となった者よ。」</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>（【権能3：終焉の削除命令】——ターンごとにプレイヤーのステータスを恒久的に削り取る）</t>
+          <t>（アスタロト）「……よく来た。バグ（不具合）として生まれ、ついには世界を揺るがす質量となった者よ。」</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>shake</t>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>astaroth_2</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>（アスタロト）「ゼク、リリィ、バルガス……。敗残兵と裏切り者の手を借りて、この私を終わらせに来たか。」</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>（アスタロト）「ゼク、リリィ、バルガス……。敗残兵と裏切り者の手を借りて、この私を終わらせに来たか。」</t>
         </is>
       </c>
     </row>
@@ -1953,376 +1978,406 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>narr_11</t>
+          <t>astaroth_3</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>（絶望的な状況の中、仲間たちがそれぞれの覚悟を叫ぶ。）</t>
+          <t>（アスタロト）「だが、知るがいい。私の言葉は『法』であり、私の吐息は『消去』である。お前たちが何を積み上げようと、私が『無』と言えば、それは無になるのだ。」</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>（絶望的な状況の中、仲間たちがそれぞれの覚悟を叫ぶ。）</t>
+          <t>（アスタロト）「だが、知るがいい。私の言葉は『法』であり、私の吐息は『消去』である。お前たちが何を積み上げようと、私が『無』と言えば、それは無になるのだ。」</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>act3_intervention</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>act3_intervention</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="D95" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Final_Battle");             var data = SoundManager.current.GetData("BGM/Final_Battle");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Final_Battle");             }</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="F96" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>zek_11</t>
+          <t>narr_7</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>おっと、私のキューブが黙っていませんよ！ **【時の独裁】、一時的にオーバーライド（上書き）します！**</t>
+          <t>（戦闘開始直後、アスタロトの威圧と共に、三つの極悪なデバフ（権能）があなたを襲う。）</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>おっと、私のキューブが黙っていませんよ！ **【時の独裁】、一時的にオーバーライド（上書き）します！**</t>
+          <t>（戦闘開始直後、アスタロトの威圧と共に、三つの極悪なデバフ（権能）があなたを襲う。）</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>narr_8</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>（【権能1：時の独裁】——プレイヤーの速度を強制的に1に固定）</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>（【権能1：時の独裁】——プレイヤーの速度を強制的に1に固定）</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>narr_9</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>（【権能2：因果の拒絶】——プレイヤーの全攻撃ダメージを『1』に固定）</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>（【権能2：因果の拒絶】——プレイヤーの全攻撃ダメージを『1』に固定）</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>narr_10</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>（【権能3：終焉の削除命令】——ターンごとにプレイヤーのステータスを恒久的に削り取る）</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>（【権能3：終焉の削除命令】——ターンごとにプレイヤーのステータスを恒久的に削り取る）</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>balgas_4</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>鋼の意志を舐めるなよ！ 王の法なんて知るか！ **【因果の拒絶】、俺の魂でこじ開けてやる！**</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>鋼の意志を舐めるなよ！ 王の法なんて知るか！ **【因果の拒絶】、俺の魂でこじ開けてやる！**</t>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>narr_11</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>（絶望的な状況の中、仲間たちがそれぞれの覚悟を叫ぶ。）</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>（絶望的な状況の中、仲間たちがそれぞれの覚悟を叫ぶ。）</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="D102" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="D103" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="104">
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>lily_3</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>……この方の魂は、私のものです！ **【削除命令】、リリアリスの名において拒絶します！**</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>……この方の魂は、私のものです！ **【削除命令】、リリアリスの名において拒絶します！**</t>
-        </is>
-      </c>
-    </row>
     <row r="105">
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>act4_battle</t>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>zek_11</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>おっと、私のキューブが黙っていませんよ！ **【時の独裁】、一時的にオーバーライド（上書き）します！**</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>おっと、私のキューブが黙っていませんよ！ **【時の独裁】、一時的にオーバーライド（上書き）します！**</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>act4_battle</t>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="D107" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="D108" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>balgas_4</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>鋼の意志を舐めるなよ！ 王の法なんて知るか！ **【因果の拒絶】、俺の魂でこじ開けてやる！**</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>鋼の意志を舐めるなよ！ 王の法なんて知るか！ **【因果の拒絶】、俺の魂でこじ開けてやる！**</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="D111" t="inlineStr">
+        <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>sukutsu_grandmaster</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="110">
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>narr_12</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>（権能を封じられたアスタロトの瞳に、初めて『驚愕』と『喜び』が混じる。）</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>（権能を封じられたアスタロトの瞳に、初めて『驚愕』と『喜び』が混じる。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>sukutsu_grandmaster</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>astaroth_4</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>……ハハッ！ 面白い！ システムの保護なしに、この私と殴り合おうというのか！</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>……ハハッ！ 面白い！ システムの保護なしに、この私と殴り合おうというのか！</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>sukutsu_grandmaster</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>astaroth_5</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>よかろう、黄金の戦鬼よ！ 私が背負う『一億の絶望』と、お前が背負う『一億の希望』……どちらが真の理か、ここで決めようではないか！</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>よかろう、黄金の戦鬼よ！ 私が背負う『一億の絶望』と、お前が背負う『一億の希望』……どちらが真の理か、ここで決めようではないか！</t>
-        </is>
-      </c>
-    </row>
     <row r="113">
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>shake</t>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>lily_3</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>……この方の魂は、私のものです！ **【削除命令】、リリアリスの名において拒絶します！**</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>……この方の魂は、私のものです！ **【削除命令】、リリアリスの名において拒絶します！**</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>sukutsu_is_quest_battle_result,1</t>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>act4_battle</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>sukutsu_quest_battle,3</t>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>act4_battle</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="D116" t="inlineStr">
         <is>
-          <t>eval</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("final_astaroth", "sukutsu_arena_master");</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="D117" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>sukutsu_astaroth</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>act5_victory</t>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Victory_Epilogue");             var data = SoundManager.current.GetData("BGM/Victory_Epilogue");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Victory_Epilogue");             }</t>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>narr_12</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>（権能を封じられたアスタロトの瞳に、初めて『驚愕』と『喜び』が混じる。）</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>（権能を封じられたアスタロトの瞳に、初めて『驚愕』と『喜び』が混じる。）</t>
         </is>
       </c>
     </row>
@@ -2334,327 +2389,312 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>narr_14</t>
+          <t>astaroth_4</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
+          <t>（アスタロト）「……ハハッ！ 面白い！ システムの保護なしに、この私と殴り合おうというのか！」</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
+          <t>（アスタロト）「……ハハッ！ 面白い！ システムの保護なしに、この私と殴り合おうというのか！」</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="F121" t="inlineStr">
         <is>
-          <t>sukutsu_grandmaster</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>astaroth_6</t>
+          <t>astaroth_5</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。</t>
+          <t>（アスタロト）「よかろう、黄金の戦鬼よ！ 私が背負う『一億の絶望』と、お前が背負う『一億の希望』……どちらが真の理か、ここで決めようではないか！」</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。</t>
+          <t>（アスタロト）「よかろう、黄金の戦鬼よ！ 私が背負う『一億の絶望』と、お前が背負う『一億の希望』……どちらが真の理か、ここで決めようではないか！」</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>sukutsu_grandmaster</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>astaroth_7</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>……リリィ、バルガス、ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>……リリィ、バルガス、ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。</t>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>narr_15</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>（アスタロトが柔らかな光となって霧散し、そのレベル（重さ）が残された四人へと分散して吸収されていく。）</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>（アスタロトが柔らかな光となって霧散し、そのレベル（重さ）が残された四人へと分散して吸収されていく。）</t>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>sukutsu_is_quest_battle_result,1</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="D124" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>setFlag</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_quest_battle,3</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="D125" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("final_astaroth", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="D126" t="inlineStr">
         <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>0.5</t>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>zek_12</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>……やれやれ。これほどの損失（コスト）を出して、得られた利益は『自由』だけですか。……悪くない取引でしたね。</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>……やれやれ。これほどの損失（コスト）を出して、得られた利益は『自由』だけですか。……悪くない取引でしたね。</t>
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>act5_victory</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="D128" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Victory_Epilogue");             var data = SoundManager.current.GetData("BGM/Victory_Epilogue");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Victory_Epilogue");             }</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>narr_14</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の星空』が姿を現した。）</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>astaroth_6</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>（アスタロト）「……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。」</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>（アスタロト）「……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。」</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="F131" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>balgas_5</t>
+          <t>astaroth_7</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>ケッ、重てえな。だが、一人で背負うよりはマシだ。……おい、次はどこの酒場へ行く？</t>
+          <t>（アスタロト）「……リリィ、バルガス、ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。」</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>ケッ、重てえな。だが、一人で背負うよりはマシだ。……おい、次はどこの酒場へ行く？</t>
+          <t>（アスタロト）「……リリィ、バルガス、ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。」</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>narr_15</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>（アスタロトが柔らかな光となって霧散し、そのレベル（重さ）が残された四人へと分散して吸収されていく。）</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>（アスタロトが柔らかな光となって霧散し、そのレベル（重さ）が残された四人へと分散して吸収されていく。）</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="D133" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="D134" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="135">
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>lily_4</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>……リリィ、と呼んでくださいね。アリーナはなくなりました。でも、私たちの旅は、これから始まるのですから。</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>……リリィ、と呼んでくださいね。アリーナはなくなりました。でも、私たちの旅は、これから始まるのですから。</t>
-        </is>
-      </c>
-    </row>
     <row r="136">
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>act6_return</t>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>zek_12</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>……やれやれ。これほどの損失（コスト）を出して、得られた利益は『自由』だけですか。……悪くない取引でしたね。</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>……やれやれ。これほどの損失（コスト）を出して、得られた利益は『自由』だけですか。……悪くない取引でしたね。</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>act6_return</t>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="D138" t="inlineStr">
         <is>
-          <t>eval</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Hopeful_Theme");             var data = SoundManager.current.GetData("BGM/Hopeful_Theme");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Hopeful_Theme");             }</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>narr_16</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>（アスタロトが消えた瞬間、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>（アスタロトが消えた瞬間、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="F140" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>narr_17</t>
+          <t>balgas_5</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
+          <t>ケッ、重てえな。だが、一人で背負うよりはマシだ。……おい、次はどこの酒場へ行く？</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
+          <t>ケッ、重てえな。だが、一人で背負うよりはマシだ。……おい、次はどこの酒場へ行く？</t>
         </is>
       </c>
     </row>
@@ -2678,7 +2718,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
@@ -2697,146 +2737,116 @@
     <row r="144">
       <c r="F144" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>balgas_6</t>
+          <t>lily_4</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>……おい、見ろ。あれは……</t>
+          <t>……リリィ、と呼んでくださいね。アリーナはなくなりました。でも、私たちの旅は、これから始まるのですから。</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>……おい、見ろ。あれは……</t>
+          <t>……リリィ、と呼んでくださいね。アリーナはなくなりました。でも、私たちの旅は、これから始まるのですから。</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>narr_18</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それは地上へと続く、帰還の道だ。）</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それは地上へと続く、帰還の道だ。）</t>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>act6_return</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>act6_return</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="D147" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Hopeful_Theme");             var data = SoundManager.current.GetData("BGM/Hopeful_Theme");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Hopeful_Theme");             }</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>narr_16</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>（アスタロトが消えた瞬間、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>（アスタロトが消えた瞬間、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="F149" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>lily_5</t>
+          <t>narr_17</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>……そういえば、あなたが初めてここに来た時、私は言いましたね。『ここから出る方法はただ一つ』と。</t>
+          <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>……そういえば、あなたが初めてここに来た時、私は言いましたね。『ここから出る方法はただ一つ』と。</t>
+          <t>（紫紺の虚無が晴れ、その向こうに久しく忘れていた『青空』が広がっていた。）</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>lily_6</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>その答えがこれです。……グランドマスターを倒し、この異次元の牢獄そのものを破壊すること。それが、唯一の『出口』でした。</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>その答えがこれです。……グランドマスターを倒し、この異次元の牢獄そのものを破壊すること。それが、唯一の『出口』でした。</t>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>lily_7</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>でも……もう、誰もここに閉じ込められることはありません。この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』です。</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>でも……もう、誰もここに閉じ込められることはありません。この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』です。</t>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
@@ -2848,148 +2858,153 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>balgas_6</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>……おい、見ろ。あれは……</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>……おい、見ろ。あれは……</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>narr_18</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それは地上へと続く、帰還の道だ。）</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それは地上へと続く、帰還の道だ。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
-    <row r="153">
-      <c r="D153" t="inlineStr">
+    <row r="156">
+      <c r="D156" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="155">
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>balgas_7</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>……おい、鴉。いや、屠竜者。お前、この先どうする？ 地上に戻るか？ それとも……</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>……おい、鴉。いや、屠竜者。お前、この先どうする？ 地上に戻るか？ それとも……</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>ending_choice</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>ending_a_rescue</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>ending_a_rescue</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>皆を連れて、イルヴァへ行こう</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>皆を連れて、イルヴァへ行こう</t>
-        </is>
-      </c>
-    </row>
     <row r="158">
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>ending_b_inherit</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>ending_b_inherit</t>
+          <t>lily_5</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>ここに残って、アリーナを作り直す</t>
+          <t>……そういえば、あなたが初めてここに来た時、私は言いましたね。『ここから出る方法はただ一つ』と。</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>ここに残って、アリーナを作り直す</t>
+          <t>……そういえば、あなたが初めてここに来た時、私は言いましたね。『ここから出る方法はただ一つ』と。</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>ending_c_usurp</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>ending_c_usurp</t>
+          <t>lily_6</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>俺は……一人で行く</t>
+          <t>その答えがこれです。……グランドマスターを倒し、この異次元の牢獄そのものを破壊すること。それが、唯一の『出口』でした。</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>俺は……一人で行く</t>
+          <t>その答えがこれです。……グランドマスターを倒し、この異次元の牢獄そのものを破壊すること。それが、唯一の『出口』でした。</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>ending_a_rescue</t>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>lily_7</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>でも……もう、誰もここに閉じ込められることはありません。この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』です。</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>でも……もう、誰もここに閉じ込められることはありません。この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』です。</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3028,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
@@ -3032,498 +3047,543 @@
     <row r="164">
       <c r="F164" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>lily_ea1</t>
+          <t>balgas_7</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>……！ 本当に……私を、連れて行ってくれるの？</t>
+          <t>……おい、鴉。いや、屠竜者。お前、この先どうする？ 地上に戻るか？ それとも……</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>……！ 本当に……私を、連れて行ってくれるの？</t>
+          <t>……おい、鴉。いや、屠竜者。お前、この先どうする？ 地上に戻るか？ それとも……</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>lily_ea2</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>あなたとの契約を通じて、私も……初めて『帰る場所』を持てるのね。ありがとう……本当に、ありがとう。</t>
-        </is>
-      </c>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>あなたとの契約を通じて、私も……初めて『帰る場所』を持てるのね。ありがとう……本当に、ありがとう。</t>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>ending_choice</t>
         </is>
       </c>
     </row>
     <row r="166">
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>ending_a_rescue</t>
+        </is>
+      </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>ending_a_rescue</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>皆を連れて、イルヴァへ行こう</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>皆を連れて、イルヴァへ行こう</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>ending_b_inherit</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>ending_b_inherit</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>ここに残って、アリーナを作り直す</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>ここに残って、アリーナを作り直す</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>ending_c_usurp</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>ending_c_usurp</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>俺は……一人で行く</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>俺は……一人で行く</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>ending_a_rescue</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
         <is>
           <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>balgas_ea1</t>
-        </is>
-      </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>……ケッ、35年ぶりの故郷か。カインの魂も、これでやっと解放してやれる。</t>
-        </is>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>……ケッ、35年ぶりの故郷か。カインの魂も、これでやっと解放してやれる。</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>balgas_ea2</t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>おい、屠竜者……いや、もうそう呼ぶのも野暮か。……ありがとうな。</t>
-        </is>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>おい、屠竜者……いや、もうそう呼ぶのも野暮か。……ありがとうな。</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="D171" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="D172" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>lily_ea1</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>……！ 本当に……私を、連れて行ってくれるの？</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>……！ 本当に……私を、連れて行ってくれるの？</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="F174" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>zek_ea1</t>
+          <t>lily_ea2</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
+          <t>あなたとの契約を通じて、私も……初めて『帰る場所』を持てるのね。ありがとう……本当に、ありがとう。</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
+          <t>あなたとの契約を通じて、私も……初めて『帰る場所』を持てるのね。ありがとう……本当に、ありがとう。</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>zek_ea2</t>
-        </is>
-      </c>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>……また会いましょう。私の最高傑作が、どんな人生を歩むのか、記録させてもらいますよ。</t>
-        </is>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>……また会いましょう。私の最高傑作が、どんな人生を歩むのか、記録させてもらいますよ。</t>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="D176" t="inlineStr">
         <is>
-          <t>setFlag</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.ending,0</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>epilogue</t>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>ending_b_inherit</t>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>balgas_ea1</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>……ケッ、35年ぶりの故郷か。カインの魂も、これでやっと解放してやれる。</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>……ケッ、35年ぶりの故郷か。カインの魂も、これでやっと解放してやれる。</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>balgas_ea2</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>おい、屠竜者……いや、もうそう呼ぶのも野暮か。……ありがとうな。</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>おい、屠竜者……いや、もうそう呼ぶのも野暮か。……ありがとうな。</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="D180" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="D181" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>lily_eb1</t>
-        </is>
-      </c>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>……ふふ、あなたらしいですね。この場所にも、居場所を必要とする者がいますから。</t>
-        </is>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>……ふふ、あなたらしいですね。この場所にも、居場所を必要とする者がいますから。</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="F183" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>lily_eb2</t>
+          <t>zek_ea1</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>私も残ります。あなたが新しいグランドマスターなら、私は……受付嬢ではなく、『伴侶』として支えさせてください。</t>
+          <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>私も残ります。あなたが新しいグランドマスターなら、私は……受付嬢ではなく、『伴侶』として支えさせてください。</t>
+          <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>zek_ea2</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>……また会いましょう。私の最高傑作が、どんな人生を歩むのか、記録させてもらいますよ。</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>……また会いましょう。私の最高傑作が、どんな人生を歩むのか、記録させてもらいますよ。</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="D185" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>setFlag</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>chitsii.arena.player.ending,0</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>epilogue</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>balgas_eb1</t>
-        </is>
-      </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>ハッ、そうこなくちゃな。『神の孵化場』はもう終わりだ。これからは、自分の意志で戦いたい奴だけが来る場所にする。</t>
-        </is>
-      </c>
-      <c r="J187" t="inlineStr">
-        <is>
-          <t>ハッ、そうこなくちゃな。『神の孵化場』はもう終わりだ。これからは、自分の意志で戦いたい奴だけが来る場所にする。</t>
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>ending_b_inherit</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>balgas_eb2</t>
-        </is>
-      </c>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>俺は引退済みだが……まあ、若い奴らの相談役くらいはやってやるさ。</t>
-        </is>
-      </c>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>俺は引退済みだが……まあ、若い奴らの相談役くらいはやってやるさ。</t>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="D189" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="D190" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>lily_eb1</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>……ふふ、あなたらしいですね。この場所にも、居場所を必要とする者がいますから。</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>……ふふ、あなたらしいですね。この場所にも、居場所を必要とする者がいますから。</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="F192" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>zek_eb1</t>
+          <t>lily_eb2</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>ふむ、それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
+          <t>私も残ります。あなたが新しいグランドマスターなら、私は……受付嬢ではなく、『伴侶』として支えさせてください。</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>ふむ、それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
+          <t>私も残ります。あなたが新しいグランドマスターなら、私は……受付嬢ではなく、『伴侶』として支えさせてください。</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="D193" t="inlineStr">
         <is>
-          <t>setFlag</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.ending,1</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>epilogue</t>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>ending_c_usurp</t>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>balgas_eb1</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>ハッ、そうこなくちゃな。『神の孵化場』はもう終わりだ。これからは、自分の意志で戦いたい奴だけが来る場所にする。</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>ハッ、そうこなくちゃな。『神の孵化場』はもう終わりだ。これからは、自分の意志で戦いたい奴だけが来る場所にする。</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>balgas_eb2</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>俺は引退済みだが……まあ、若い奴らの相談役くらいはやってやるさ。</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>俺は引退済みだが……まあ、若い奴らの相談役くらいはやってやるさ。</t>
         </is>
       </c>
     </row>
@@ -3535,512 +3595,620 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>lily_ec1</t>
-        </is>
-      </c>
-      <c r="I199" t="inlineStr">
-        <is>
-          <t>……そう。あなたは……そういう人だったのね。</t>
-        </is>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>……そう。あなたは……そういう人だったのね。</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>lily_ec2</t>
-        </is>
-      </c>
-      <c r="I200" t="inlineStr">
-        <is>
-          <t>私はもう、あなたについていけない。……さようなら。</t>
-        </is>
-      </c>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>私はもう、あなたについていけない。……さようなら。</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="F201" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>narr_ec1</t>
+          <t>zek_eb1</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>（リリィが背を向け、去っていく。）</t>
+          <t>ふむ、それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>（リリィが背を向け、去っていく。）</t>
+          <t>ふむ、それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="D202" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>setFlag</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
+          <t>chitsii.arena.player.ending,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>epilogue</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>ending_c_usurp</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
-    <row r="203">
-      <c r="D203" t="inlineStr">
+    <row r="206">
+      <c r="D206" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E203" t="inlineStr">
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>lily_ec1</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>……そう。あなたは……そういう人だったのね。</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>……そう。あなたは……そういう人だったのね。</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>lily_ec2</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>私はもう、あなたについていけない。……さようなら。</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>私はもう、あなたについていけない。……さようなら。</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>narr_ec1</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>（リリィが背を向け、去っていく。）</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>（リリィが背を向け、去っていく。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
-    <row r="204">
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
+    <row r="213">
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="205">
-      <c r="F205" t="inlineStr">
+    <row r="214">
+      <c r="F214" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
+      <c r="H214" t="inlineStr">
         <is>
           <t>balgas_ec1</t>
         </is>
       </c>
-      <c r="I205" t="inlineStr">
+      <c r="I214" t="inlineStr">
         <is>
           <t>……お前は俺が育てた英雄じゃない。ただの、勝利に飢えた獣だ。</t>
         </is>
       </c>
-      <c r="J205" t="inlineStr">
+      <c r="J214" t="inlineStr">
         <is>
           <t>……お前は俺が育てた英雄じゃない。ただの、勝利に飢えた獣だ。</t>
         </is>
       </c>
     </row>
-    <row r="206">
-      <c r="F206" t="inlineStr">
+    <row r="215">
+      <c r="F215" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
+      <c r="H215" t="inlineStr">
         <is>
           <t>balgas_ec2</t>
         </is>
       </c>
-      <c r="I206" t="inlineStr">
+      <c r="I215" t="inlineStr">
         <is>
           <t>俺はここで、カインと共に眠る。……もう、お前の顔は見たくねえ。</t>
         </is>
       </c>
-      <c r="J206" t="inlineStr">
+      <c r="J215" t="inlineStr">
         <is>
           <t>俺はここで、カインと共に眠る。……もう、お前の顔は見たくねえ。</t>
         </is>
       </c>
     </row>
-    <row r="207">
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H207" t="inlineStr">
+    <row r="216">
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
         <is>
           <t>narr_ec2</t>
         </is>
       </c>
-      <c r="I207" t="inlineStr">
+      <c r="I216" t="inlineStr">
         <is>
           <t>（バルガスが背を向け、去っていく。）</t>
         </is>
       </c>
-      <c r="J207" t="inlineStr">
+      <c r="J216" t="inlineStr">
         <is>
           <t>（バルガスが背を向け、去っていく。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>zek_ec1</t>
-        </is>
-      </c>
-      <c r="I211" t="inlineStr">
-        <is>
-          <t>……クク。孤独な王の誕生ですか。それもまた、一つの『作品』ですね。</t>
-        </is>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>……クク。孤独な王の誕生ですか。それもまた、一つの『作品』ですね。</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>zek_ec2</t>
-        </is>
-      </c>
-      <c r="I212" t="inlineStr">
-        <is>
-          <t>私は……見届けさせてもらいましょう。孤独がどれほど重いか、記録するために。</t>
-        </is>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>私は……見届けさせてもらいましょう。孤独がどれほど重いか、記録するために。</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>narr_ec3</t>
-        </is>
-      </c>
-      <c r="I213" t="inlineStr">
-        <is>
-          <t>（ゼクが影の中へ消える。）</t>
-        </is>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>（ゼクが影の中へ消える。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.ending,2</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>epilogue</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>epilogue</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="D217" t="inlineStr">
         <is>
-          <t>eval</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Credits");             var data = SoundManager.current.GetData("BGM/Credits");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Credits");             }</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>narr_19</t>
-        </is>
-      </c>
-      <c r="I218" t="inlineStr">
-        <is>
-          <t>（プレイヤーが光の階段を一歩踏み出すと、足元に温かな地上の風が吹き抜ける。）</t>
-        </is>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>（プレイヤーが光の階段を一歩踏み出すと、足元に温かな地上の風が吹き抜ける。）</t>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>narr_20</t>
-        </is>
-      </c>
-      <c r="I219" t="inlineStr">
-        <is>
-          <t>（遠くに見えるのは、緑の大地と、穏やかな街の灯。）</t>
-        </is>
-      </c>
-      <c r="J219" t="inlineStr">
-        <is>
-          <t>（遠くに見えるのは、緑の大地と、穏やかな街の灯。）</t>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="F220" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>narr_21</t>
+          <t>zek_ec1</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>かつて、異次元の闘技場に迷い込んだ一人の冒険者がいた。彼（彼女）は、絶望の底で友を得て、魂を賭けて戦い、ついには神をも超える存在となった。そして今、解放された魂は、新たな物語を紡ぎ始める——</t>
+          <t>……クク。孤独な王の誕生ですか。それもまた、一つの『作品』ですね。</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>かつて、異次元の闘技場に迷い込んだ一人の冒険者がいた。彼（彼女）は、絶望の底で友を得て、魂を賭けて戦い、ついには神をも超える存在となった。そして今、解放された魂は、新たな物語を紡ぎ始める——</t>
+          <t>……クク。孤独な王の誕生ですか。それもまた、一つの『作品』ですね。</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>finale</t>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>zek_ec2</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>私は……見届けさせてもらいましょう。孤独がどれほど重いか、記録するために。</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>私は……見届けさせてもらいましょう。孤独がどれほど重いか、記録するために。</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>finale</t>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>narr_ec3</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>（ゼクが影の中へ消える。）</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>（ゼクが影の中へ消える。）</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="D223" t="inlineStr">
         <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.ending,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>epilogue</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>epilogue</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="D226" t="inlineStr">
+        <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E223" t="inlineStr">
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Credits");             var data = SoundManager.current.GetData("BGM/Credits");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Credits");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>narr_19</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>（プレイヤーが光の階段を一歩踏み出すと、足元に温かな地上の風が吹き抜ける。）</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>（プレイヤーが光の階段を一歩踏み出すと、足元に温かな地上の風が吹き抜ける。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>narr_20</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>（遠くに見えるのは、緑の大地と、穏やかな街の灯。）</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>（遠くに見えるのは、緑の大地と、穏やかな街の灯。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>narr_21</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>かつて、異次元の闘技場に迷い込んだ一人の冒険者がいた。彼（彼女）は、絶望の底で友を得て、魂を賭けて戦い、ついには神をも超える存在となった。そして今、解放された魂は、新たな物語を紡ぎ始める——</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>かつて、異次元の闘技場に迷い込んだ一人の冒険者がいた。彼（彼女）は、絶望の底で友を得て、魂を賭けて戦い、ついには神をも超える存在となった。そして今、解放された魂は、新たな物語を紡ぎ始める——</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>finale</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>finale</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Cheerful_Theme");             var data = SoundManager.current.GetData("BGM/Cheerful_Theme");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Cheerful_Theme");             }</t>
         </is>
       </c>
     </row>
-    <row r="224">
-      <c r="F224" t="inlineStr">
+    <row r="233">
+      <c r="F233" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
+      <c r="H233" t="inlineStr">
         <is>
           <t>balgas_f1</t>
         </is>
       </c>
-      <c r="I224" t="inlineStr">
+      <c r="I233" t="inlineStr">
         <is>
           <t>……おい、いつまで感傷に浸ってんだ。次は俺の奢りで、地上で一番うまい酒を飲みに行くぞ！</t>
         </is>
       </c>
-      <c r="J224" t="inlineStr">
+      <c r="J233" t="inlineStr">
         <is>
           <t>……おい、いつまで感傷に浸ってんだ。次は俺の奢りで、地上で一番うまい酒を飲みに行くぞ！</t>
         </is>
       </c>
     </row>
-    <row r="225">
-      <c r="F225" t="inlineStr">
+    <row r="234">
+      <c r="F234" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
+      <c r="H234" t="inlineStr">
         <is>
           <t>lily_f1</t>
         </is>
       </c>
-      <c r="I225" t="inlineStr">
+      <c r="I234" t="inlineStr">
         <is>
           <t>ふふ、楽しみです。……リリィとして、初めての『デート』ですから。</t>
         </is>
       </c>
-      <c r="J225" t="inlineStr">
+      <c r="J234" t="inlineStr">
         <is>
           <t>ふふ、楽しみです。……リリィとして、初めての『デート』ですから。</t>
         </is>
       </c>
     </row>
-    <row r="226">
-      <c r="F226" t="inlineStr">
+    <row r="235">
+      <c r="F235" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
+      <c r="H235" t="inlineStr">
         <is>
           <t>zek_f1</t>
         </is>
       </c>
-      <c r="I226" t="inlineStr">
+      <c r="I235" t="inlineStr">
         <is>
           <t>おや、私も混ぜてくださいよ。……商談という名の、ね。</t>
         </is>
       </c>
-      <c r="J226" t="inlineStr">
+      <c r="J235" t="inlineStr">
         <is>
           <t>おや、私も混ぜてくださいよ。……商談という名の、ね。</t>
         </is>
       </c>
     </row>
-    <row r="227">
-      <c r="D227" t="inlineStr">
+    <row r="236">
+      <c r="D236" t="inlineStr">
         <is>
           <t>modInvoke</t>
         </is>
       </c>
-      <c r="E227" t="inlineStr">
+      <c r="E236" t="inlineStr">
         <is>
           <t>complete_quest(18_last_battle)</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="H228" t="inlineStr">
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="H237" t="inlineStr">
         <is>
           <t>sys_complete</t>
         </is>
       </c>
-      <c r="I228" t="inlineStr">
+      <c r="I237" t="inlineStr">
         <is>
           <t>【システム】クエスト『最終決戦』をクリアしました！</t>
         </is>
       </c>
-      <c r="J228" t="inlineStr">
+      <c r="J237" t="inlineStr">
         <is>
           <t>【システム】クエスト『最終決戦』をクリアしました！</t>
         </is>
       </c>
     </row>
-    <row r="229">
-      <c r="D229" t="inlineStr">
+    <row r="238">
+      <c r="D238" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_last_battle.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_last_battle.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K546"/>
+  <dimension ref="A1:K434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3012,85 +3012,55 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>act5_victory</t>
+          <t>main_balgas_dead</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="D160" t="inlineStr">
         <is>
+          <t>fadeOut</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>1.0,black</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="D161" t="inlineStr">
+        <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Victory_Epilogue");             var data = SoundManager.current.GetData("BGM/Victory_Epilogue");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Victory_Epilogue");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>narr_14</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の空』が姿を現した。）</t>
-        </is>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>（激闘の末、アスタロトの身体が崩れ始める。王座は砕け、アリーナの外壁は剥がれ落ち、そこから美しい『本当の空』が姿を現した。）</t>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>dm.imageBG.enabled = true; dm.imageBG.sprite = "Drama/zek_hideout".LoadSprite();</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>sukutsu_astaroth</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>astaroth_6</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。</t>
-        </is>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>……見事だ。私は……ただ、この閉じられた孵化器を守るだけの、古い部品に過ぎなかったのかもしれないな。</t>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>fadeIn</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>1.0,black</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>sukutsu_astaroth</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>astaroth_7</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>……リリィ、バルガス、ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>……リリィ、バルガス、ゼク。……そして新しき王よ。この世界の重さを、お前たちが分かち合うというのなら……私は、安心して土へ還ろう。</t>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Pre_Battle_Calm");             var data = SoundManager.current.GetData("BGM/Pre_Battle_Calm");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Pre_Battle_Calm");             }</t>
         </is>
       </c>
     </row>
@@ -3102,217 +3072,257 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>narr_15</t>
+          <t>narr_1</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>（アスタロトが柔らかな光となって霧散していく。）</t>
+          <t>（ゼクの隠れ家『次元のゴミ捨て場』。そこは、アスタロトが切り捨てた『不要な可能性』が堆積する場所。）</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>（アスタロトが柔らかな光となって霧散していく。）</t>
+          <t>（ゼクの隠れ家『次元のゴミ捨て場』。そこは、アスタロトが切り捨てた『不要な可能性』が堆積する場所。）</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>narr_2</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>（決戦を翌朝に控えた夜、焚き火の代わりに、剥き出しの魔力回路が淡い青光を放っている。）</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>（決戦を翌朝に控えた夜、焚き火の代わりに、剥き出しの魔力回路が淡い青光を放っている。）</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="D166" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="D167" t="inlineStr">
         <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="D168" t="inlineStr">
+        <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="168">
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>zek_12</t>
-        </is>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>……やれやれ。これほどの損失（コスト）を出して、得られた利益は『自由』だけですか。……悪くない取引でしたね。</t>
-        </is>
-      </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>……やれやれ。これほどの損失（コスト）を出して、得られた利益は『自由』だけですか。……悪くない取引でしたね。</t>
-        </is>
-      </c>
-    </row>
     <row r="169">
-      <c r="D169" t="inlineStr">
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>narr_3d</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>（リリィは静かに祈りを捧げ、ゼクは『因果の断片（キューブ）』の最終調整を行っていた。）</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>（リリィは静かに祈りを捧げ、ゼクは『因果の断片（キューブ）』の最終調整を行っていた。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>lily_d1</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>……バルガスさんがいれば、心強かったのに。でも、これが私たちの選んだ道。</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>……バルガスさんがいれば、心強かったのに。でも、これが私たちの選んだ道。</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>lily_d2</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>私の真名……。この名を知る者がいる限り、私はもう、アスタロト様の命令には従いません。……明日、王があなたの存在を消そうとしても、私がその因果を繋ぎ止めてみせます。</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>私の真名……。この名を知る者がいる限り、私はもう、アスタロト様の命令には従いません。……明日、王があなたの存在を消そうとしても、私がその因果を繋ぎ止めてみせます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="D172" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>balgas_5</t>
-        </is>
-      </c>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>ケッ、重てえな。だが、一人で背負うよりはマシだ。……おい、次はどこの酒場へ行く？</t>
-        </is>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>ケッ、重てえな。だが、一人で背負うよりはマシだ。……おい、次はどこの酒場へ行く？</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="D173" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="D174" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>zek_1</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>クク……商売抜きで言わせてもらいましょう。アスタロトは、この世界の『限界』を勝手に決めつけ、見限っている。</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>クク……商売抜きで言わせてもらいましょう。アスタロトは、この世界の『限界』を勝手に決めつけ、見限っている。</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="F176" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>lily_4</t>
+          <t>zek_2</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>……リリィ、と呼んでくださいね。アリーナはなくなりました。でも、私たちの旅は、これから始まるのですから。</t>
+          <t>私はそれが気に入らない。ゴミはゴミらしく、混沌として流れてこそ美しい。私が用意したこのキューブは、王が支配する『時間』の独裁を一時的に狂わせるためのものです。……さあ、休みなさい。明日の朝、この世界の『所有権』を奪い返しに行くのですから。</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>……リリィ、と呼んでくださいね。アリーナはなくなりました。でも、私たちの旅は、これから始まるのですから。</t>
+          <t>私はそれが気に入らない。ゴミはゴミらしく、混沌として流れてこそ美しい。私が用意したこのキューブは、王が支配する『時間』の独裁を一時的に狂わせるためのものです。……さあ、休みなさい。明日の朝、この世界の『所有権』を奪い返しに行くのですから。</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>act6_return</t>
+          <t>act1_balgas_dead</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>act6_return</t>
+          <t>act1_balgas_dead</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Hopeful_Theme");             var data = SoundManager.current.GetData("BGM/Hopeful_Theme");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Hopeful_Theme");             }</t>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>pc_1</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>（自分の『絶望する瞬間』を狙うつもりではないのか、と、あなたはゼクに疑問を投げかけた。）</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>（自分の『絶望する瞬間』を狙うつもりではないのか、と、あなたはゼクに疑問を投げかけた。）</t>
         </is>
       </c>
     </row>
@@ -3324,223 +3334,263 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>narr_16</t>
+          <t>pc_2</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>（アスタロトが消えた瞬間、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
+          <t>（カインの魂を売らせようとしたのも、リリィを裏切らせようとしたのも……全て、自分を『剥製』にするためだったのだろう。なのに、なぜ今、助けようとするのか？）</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>（アスタロトが消えた瞬間、アリーナ全体を覆っていた次元の壁が、ガラスのように砕け散り始める。）</t>
+          <t>（カインの魂を売らせようとしたのも、リリィを裏切らせようとしたのも……全て、自分を『剥製』にするためだったのだろう。なのに、なぜ今、助けようとするのか？）</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>zek_3</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>……ふふ。鋭いですね。</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>……ふふ。鋭いですね。</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>zek_4</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>その通りです。私はあなたが『最も美しく壊れる瞬間』を待っていました。英雄が絶望に堕ちる時、その魂は最高の芸術品となる……。それが、私という『剥製師』の美学でした。</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>その通りです。私はあなたが『最も美しく壊れる瞬間』を待っていました。英雄が絶望に堕ちる時、その魂は最高の芸術品となる……。それが、私という『剥製師』の美学でした。</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>zek_5d</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>ですが、あなたは違った。観客の喝采に従い、バルガスを殺した。それでも、あなたの魂は完全には壊れなかった。……むしろ、その『罪悪感』を背負いながら前に進もうとしている。</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>ですが、あなたは違った。観客の喝采に従い、バルガスを殺した。それでも、あなたの魂は完全には壊れなかった。……むしろ、その『罪悪感』を背負いながら前に進もうとしている。</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="F184" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>balgas_6</t>
+          <t>zek_6d</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>……おい、見ろ。あれは……</t>
+          <t>……あなたが『壊れた瞬間』を剥製にするよりも……あなたが『システムそのものを壊す瞬間』を目撃する方が、遥かに美しい、と私は気づいてしまったのです。</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>……おい、見ろ。あれは……</t>
+          <t>……あなたが『壊れた瞬間』を剥製にするよりも……あなたが『システムそのものを壊す瞬間』を目撃する方が、遥かに美しい、と私は気づいてしまったのです。</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="F185" t="inlineStr">
         <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>zek_7</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>私のコレクションは、数千にも及びます。絶望した英雄、狂気に堕ちた賢者、愛に溺れた魔王……。ですが、『神を殺し、牢獄を破壊し、自由を手にする人間』は、まだ一つもない。</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>私のコレクションは、数千にも及びます。絶望した英雄、狂気に堕ちた賢者、愛に溺れた魔王……。ですが、『神を殺し、牢獄を破壊し、自由を手にする人間』は、まだ一つもない。</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>zek_8</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>……あなたこそが、私の最高傑作。そして、その傑作は『未完成のまま飾る』のではなく……『完璧な結末を迎えさせる』ことでこそ、真価を発揮するのです。</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>……あなたこそが、私の最高傑作。そして、その傑作は『未完成のまま飾る』のではなく……『完璧な結末を迎えさせる』ことでこそ、真価を発揮するのです。</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>zek_9</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>だから、私はあなたを助けます。商売のためでも、友情のためでもない。……ただ、この世界で最も美しい『奇跡の瞬間』を、この目で見届けたいから。それが、剥製師ゼクの最後の『作品』です。</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>だから、私はあなたを助けます。商売のためでも、友情のためでもない。……ただ、この世界で最も美しい『奇跡の瞬間』を、この目で見届けたいから。それが、剥製師ゼクの最後の『作品』です。</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>zek_10</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>……さあ、休みなさい。明日、あなたは私に『最高の絵』を見せてくれる。……それを、永遠に焼き付けておきましょう。</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>……さあ、休みなさい。明日、あなたは私に『最高の絵』を見せてくれる。……それを、永遠に焼き付けておきましょう。</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>act1_5_balgas_dead</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>act1_5_balgas_dead</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="F192" t="inlineStr">
+        <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>narr_18</t>
-        </is>
-      </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それは地上へと続く、帰還の道だ。）</t>
-        </is>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>（崩れゆく次元の境界線の中に、一筋の光の階段が浮かび上がる。それは地上へと続く、帰還の道だ。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>lily_5</t>
-        </is>
-      </c>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>……そういえば、あなたが初めてここに来た時、私は言いましたね。『ここから出る方法はただ一つ』と。</t>
-        </is>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>……そういえば、あなたが初めてここに来た時、私は言いましたね。『ここから出る方法はただ一つ』と。</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>lily_6</t>
-        </is>
-      </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>その答えがこれです。……グランドマスターを倒し、この異次元の牢獄そのものを破壊すること。それが、唯一の『出口』でした。</t>
-        </is>
-      </c>
-      <c r="J190" t="inlineStr">
-        <is>
-          <t>その答えがこれです。……グランドマスターを倒し、この異次元の牢獄そのものを破壊すること。それが、唯一の『出口』でした。</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>lily_7</t>
-        </is>
-      </c>
-      <c r="I191" t="inlineStr">
-        <is>
-          <t>でも……もう、誰もここに閉じ込められることはありません。この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』です。</t>
-        </is>
-      </c>
-      <c r="J191" t="inlineStr">
-        <is>
-          <t>でも……もう、誰もここに閉じ込められることはありません。この道は、地上と、かつてのアリーナ跡を繋ぐ『自由な通路』になるでしょう。行きたい者は行き、留まりたい者は留まる。……それが、あなたが勝ち取った『解放』です。</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>narr_nul1</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>（王座の間へ向かう途中、一行は崩壊しかけた回廊で、倒れている存在を発見する。）</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>（王座の間へ向かう途中、一行は崩壊しかけた回廊で、倒れている存在を発見する。）</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>narr_nul2</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>（それは暗殺人形・Nul。システムに背いた罰として、アスタロトに「削除」されかけていた。）</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>（それは暗殺人形・Nul。システムに背いた罰として、アスタロトに「削除」されかけていた。）</t>
         </is>
       </c>
     </row>
@@ -3552,743 +3602,828 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="195">
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>balgas_7</t>
-        </is>
-      </c>
-      <c r="I195" t="inlineStr">
-        <is>
-          <t>……おい、鴉。いや、屠竜者。お前、この先どうする？ 地上に戻るか？ それとも……</t>
-        </is>
-      </c>
-      <c r="J195" t="inlineStr">
-        <is>
-          <t>……おい、鴉。いや、屠竜者。お前、この先どうする？ 地上に戻るか？ それとも……</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>ending_choice</t>
-        </is>
-      </c>
-    </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>ending_choice</t>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>lily_nul0</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>……待って！ あれはNul。罠かもしれない……近づかないで！</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>……待って！ あれはNul。罠かもしれない……近づかないで！</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>ending_a_rescue</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>ending_a_rescue</t>
+          <t>narr_nul2b</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>皆を連れて、イルヴァへ行こう</t>
+          <t>（リリィがあなたの前に立ちはだかる。）</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>皆を連れて、イルヴァへ行こう</t>
+          <t>（リリィがあなたの前に立ちはだかる。）</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>ending_b_inherit</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>sukutsu_null</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>ending_b_inherit</t>
+          <t>nul_1</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>ここに残って、アリーナを作り直す</t>
+          <t>……あなた、ですか。……システムを、拒絶した……人間。……私は……もう、戦えない。</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>ここに残って、アリーナを作り直す</t>
+          <t>……あなた、ですか。……システムを、拒絶した……人間。……私は……もう、戦えない。</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>ending_c_usurp</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>ending_c_usurp</t>
+          <t>lily_nul1</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>俺は……一人で行く</t>
+          <t>Nul……！ あなた、何があったの？</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>俺は……一人で行く</t>
+          <t>Nul……！ あなた、何があったの？</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>ending_a_rescue</t>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>sukutsu_null</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>nul_2</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>……私は、思い出して、しまった。……『私』が、何だったのかを。</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>……私は、思い出して、しまった。……『私』が、何だったのかを。</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>narr_nul3</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>（Nulの目から、光の粒子が零れ落ちるーー涙のように。）</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>（Nulの目から、光の粒子が零れ落ちるーー涙のように。）</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="D203" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow_1");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow_1");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow_1");             }</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>sukutsu_null</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>nul_fb1</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>……私は、かつて冒険者だった。名前は……もう、思い出せない。仲間がいた。守りたい人がいた。このアリーナに挑んで……そして、負けた。</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>……私は、かつて冒険者だった。名前は……もう、思い出せない。仲間がいた。守りたい人がいた。このアリーナに挑んで……そして、負けた。</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="F205" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>sukutsu_null</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>lily_ea1</t>
+          <t>nul_fb2</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>……！ 本当に……私を、連れて行ってくれるの？</t>
+          <t>アスタロト様は、私を『素材』にした。神格を人工的に作り出す実験ーー『神の孵化場』計画の、実験体に。</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>……！ 本当に……私を、連れて行ってくれるの？</t>
+          <t>アスタロト様は、私を『素材』にした。神格を人工的に作り出す実験ーー『神の孵化場』計画の、実験体に。</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>lily_ea2</t>
-        </is>
-      </c>
-      <c r="I206" t="inlineStr">
-        <is>
-          <t>あなたとの契約を通じて、私も……初めて『帰る場所』を持てるのね。ありがとう……本当に、ありがとう。</t>
-        </is>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>あなたとの契約を通じて、私も……初めて『帰る場所』を持てるのね。ありがとう……本当に、ありがとう。</t>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="D207" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="D208" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>zek_nul1</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>……ふむ。私が語っていた話、あれは真実だったということです。『神の孵化場』……このアリーナの本当の目的。</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>……ふむ。私が語っていた話、あれは真実だったということです。『神の孵化場』……このアリーナの本当の目的。</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="F210" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>sukutsu_null</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>balgas_ea1</t>
+          <t>nul_fb3</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>……ケッ、35年ぶりの故郷か。カインの魂も、これでやっと解放してやれる。</t>
+          <t>このアリーナの本当の目的……それは、娯楽でも、戦士の育成でもない。挑戦者の魂を極限まで練磨し、『神格』に至らせること。そして、その力をアスタロト様が吸収し……新しい世界を創造すること。</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>……ケッ、35年ぶりの故郷か。カインの魂も、これでやっと解放してやれる。</t>
+          <t>このアリーナの本当の目的……それは、娯楽でも、戦士の育成でもない。挑戦者の魂を極限まで練磨し、『神格』に至らせること。そして、その力をアスタロト様が吸収し……新しい世界を創造すること。</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="F211" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>sukutsu_null</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>balgas_ea2</t>
+          <t>nul_fb3b</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>おい、屠竜者……いや、もうそう呼ぶのも野暮か。……ありがとうな。</t>
+          <t>アスタロト様は……かつて故郷を失った方。5万年前、『カラドリウス』という竜族の楽園が、神々の争いで滅んだと聞いています。</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>おい、屠竜者……いや、もうそう呼ぶのも野暮か。……ありがとうな。</t>
+          <t>アスタロト様は……かつて故郷を失った方。5万年前、『カラドリウス』という竜族の楽園が、神々の争いで滅んだと聞いています。</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="D212" t="inlineStr">
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>sukutsu_null</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>nul_fb3c</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>だから……新しい世界を創ろうとしている。自分が唯一の神として君臨する、完璧な楽園を。</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>だから……新しい世界を創ろうとしている。自分が唯一の神として君臨する、完璧な楽園を。</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>sukutsu_null</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>nul_fb4</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>私は失敗作。神になれなかった、空っぽの人形。だから『Null』ーー『無』という名前を与えられた。</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>私は失敗作。神になれなかった、空っぽの人形。だから『Null』ーー『無』という名前を与えられた。</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>sukutsu_null</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>nul_3</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>……あなたはいまや神格に最も近い存在……あの方はあなたを『吸収』しようとしている。</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>……あなたはいまや神格に最も近い存在……あの方はあなたを『吸収』しようとしている。</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="D215" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr">
+      <c r="E215" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
-    <row r="213">
-      <c r="D213" t="inlineStr">
+    <row r="216">
+      <c r="D216" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>zek_ea1</t>
-        </is>
-      </c>
-      <c r="I215" t="inlineStr">
-        <is>
-          <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
-        </is>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>ふむ、私は……もう少しここに残りましょう。アルカディアの技術者として、この次元の安定化を見届ける義務がありますからね。</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>zek_ea2</t>
-        </is>
-      </c>
-      <c r="I216" t="inlineStr">
-        <is>
-          <t>……また会いましょう。私の最高傑作が、どんな人生を歩むのか、記録させてもらいますよ。</t>
-        </is>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>……また会いましょう。私の最高傑作が、どんな人生を歩むのか、記録させてもらいますよ。</t>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="D217" t="inlineStr">
         <is>
-          <t>setFlag</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.ending,0</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>epilogue</t>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>lily_nul2</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>……アスタロト様。あなたは、ずっとそんなことを……。</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>……アスタロト様。あなたは、ずっとそんなことを……。</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>ending_b_inherit</t>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>sukutsu_null</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>nul_5</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>……お願い。あの方を……止めて。私の中にいた『誰か』が……ずっと、それを望んでいた。</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>……お願い。あの方を……止めて。私の中にいた『誰か』が……ずっと、それを望んでいた。</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>sukutsu_null</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>nul_6</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>……あなたのおかげで……私は、最後に『思い出す』ことができた。私には……守りたい人が、いたんだって。</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>……あなたのおかげで……私は、最後に『思い出す』ことができた。私には……守りたい人が、いたんだって。</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="D221" t="inlineStr">
         <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>narr_nul4</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>（Nulの体が完全に光となって消えていく。）</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>（Nulの体が完全に光となって消えていく。）</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>lily_eb1</t>
-        </is>
-      </c>
-      <c r="I223" t="inlineStr">
-        <is>
-          <t>……ふふ、あなたらしいですね。この場所にも、居場所を必要とする者がいますから。</t>
-        </is>
-      </c>
-      <c r="J223" t="inlineStr">
-        <is>
-          <t>……ふふ、あなたらしいですね。この場所にも、居場所を必要とする者がいますから。</t>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>act2_throne_room</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>lily_eb2</t>
-        </is>
-      </c>
-      <c r="I224" t="inlineStr">
-        <is>
-          <t>私も残ります。あなたが新しいグランドマスターなら、私は……受付嬢ではなく、『伴侶』として支えさせてください。</t>
-        </is>
-      </c>
-      <c r="J224" t="inlineStr">
-        <is>
-          <t>私も残ります。あなたが新しいグランドマスターなら、私は……受付嬢ではなく、『伴侶』として支えさせてください。</t>
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>act3_balgas_dead</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="D225" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Final_Battle");             var data = SoundManager.current.GetData("BGM/Final_Battle");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Final_Battle");             }</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>sukutsu_astaroth</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>astaroth_p1</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>【時の独裁】ーーお前の時間を、永遠に止めてやろう</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>【時の独裁】ーーお前の時間を、永遠に止めてやろう</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>sukutsu_astaroth</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>astaroth_p2</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>【因果の拒絶】ーーお前の攻撃は無に帰す</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>【因果の拒絶】ーーお前の攻撃は無に帰す</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="F228" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>sukutsu_astaroth</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>balgas_eb1</t>
+          <t>astaroth_p3</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>ハッ、そうこなくちゃな。『神の孵化場』はもう終わりだ。これからは、自分の意志で戦いたい奴だけが来る場所にする。</t>
+          <t>【終焉の削除命令】ーーお前の魔力を消し去る</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>ハッ、そうこなくちゃな。『神の孵化場』はもう終わりだ。これからは、自分の意志で戦いたい奴だけが来る場所にする。</t>
+          <t>【終焉の削除命令】ーーお前の魔力を消し去る</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>balgas_eb2</t>
-        </is>
-      </c>
-      <c r="I229" t="inlineStr">
-        <is>
-          <t>俺は引退済みだが……まあ、若い奴らの相談役くらいはやってやるさ。</t>
-        </is>
-      </c>
-      <c r="J229" t="inlineStr">
-        <is>
-          <t>俺は引退済みだが……まあ、若い奴らの相談役くらいはやってやるさ。</t>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>narr_p1</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>（三つの極悪な権能が、あなたに向かって放たれるーー）</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>（三つの極悪な権能が、あなたに向かって放たれるーー）</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="D231" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="D232" t="inlineStr">
         <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="D233" t="inlineStr">
+        <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E232" t="inlineStr">
+      <c r="E233" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="233">
-      <c r="F233" t="inlineStr">
+    <row r="234">
+      <c r="F234" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>zek_eb1</t>
-        </is>
-      </c>
-      <c r="I233" t="inlineStr">
-        <is>
-          <t>ふむ、それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
-        </is>
-      </c>
-      <c r="J233" t="inlineStr">
-        <is>
-          <t>ふむ、それなら私が商店街を取り仕切りましょう。アルカディアの技術と、各次元の品物……ククッ、繁盛しそうですね。</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.ending,1</t>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>zek_d1</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>おっとーー私のキューブが黙っていませんよ！</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>おっとーー私のキューブが黙っていませんよ！</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>epilogue</t>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>narr_d2</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>（ゼクのキューブが展開し、時の独裁を吸収）</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>（ゼクのキューブが展開し、時の独裁を吸収）</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>ending_c_usurp</t>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>zek_d2</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>……ぐっ……これは重い。しかしーーまだです！</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>……ぐっ……これは重い。しかしーーまだです！</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>zek_d3</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>しかし……因果の拒絶を受ける者が、いない……！</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>しかし……因果の拒絶を受ける者が、いない……！</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="D238" t="inlineStr">
         <is>
+          <t>shake</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>narr_d3</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>（【因果の拒絶】を受けた！）</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>（【因果の拒絶】を受けた！）</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>EClass.pc.AddCondition&lt;Elin_SukutsuArena.Conditions.ConAstarothDenial&gt;(1000);</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="D242" t="inlineStr">
+        <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E238" t="inlineStr">
+      <c r="E242" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>lily_ec1</t>
-        </is>
-      </c>
-      <c r="I240" t="inlineStr">
-        <is>
-          <t>……そう。あなたは……そういう人だったのね。</t>
-        </is>
-      </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>……そう。あなたは……そういう人だったのね。</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>lily_ec2</t>
-        </is>
-      </c>
-      <c r="I241" t="inlineStr">
-        <is>
-          <t>私はもう、あなたについていけない。……さようなら。</t>
-        </is>
-      </c>
-      <c r="J241" t="inlineStr">
-        <is>
-          <t>私はもう、あなたについていけない。……さようなら。</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>narr_ec1</t>
-        </is>
-      </c>
-      <c r="I242" t="inlineStr">
-        <is>
-          <t>（リリィが背を向け、去っていく。）</t>
-        </is>
-      </c>
-      <c r="J242" t="inlineStr">
-        <is>
-          <t>（リリィが背を向け、去っていく。）</t>
         </is>
       </c>
     </row>
@@ -4300,225 +4435,195 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="244">
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>lily_d1</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>……私が、受けます</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>……私が、受けます</t>
         </is>
       </c>
     </row>
     <row r="245">
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>narr_d4</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>（リリィが静かに前に出る）</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>（リリィが静かに前に出る）</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="F246" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>balgas_ec1</t>
+          <t>lily_d2</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>……お前は俺が育てた英雄じゃない。ただの、勝利に飢えた獣だ。</t>
+          <t>あなたを……守らせてください</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>……お前は俺が育てた英雄じゃない。ただの、勝利に飢えた獣だ。</t>
+          <t>あなたを……守らせてください</t>
         </is>
       </c>
     </row>
     <row r="247">
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>balgas_ec2</t>
-        </is>
-      </c>
-      <c r="I247" t="inlineStr">
-        <is>
-          <t>俺はここで、カインと共に眠る。……もう、お前の顔は見たくねえ。</t>
-        </is>
-      </c>
-      <c r="J247" t="inlineStr">
-        <is>
-          <t>俺はここで、カインと共に眠る。……もう、お前の顔は見たくねえ。</t>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>act4_battle</t>
         </is>
       </c>
     </row>
     <row r="248">
-      <c r="F248" t="inlineStr">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>main_check_lily_dead</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>main_worst</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>if_flag(chitsii.arena.player.lily_hostile, ==1)</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>narr_ec2</t>
-        </is>
-      </c>
-      <c r="I248" t="inlineStr">
-        <is>
-          <t>（バルガスが背を向け、去っていく。）</t>
-        </is>
-      </c>
-      <c r="J248" t="inlineStr">
-        <is>
-          <t>（バルガスが背を向け、去っていく。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
     </row>
     <row r="250">
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>main_balgas_dead</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>act3_check_lily_dead</t>
         </is>
       </c>
     </row>
     <row r="252">
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>act3_worst</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>if_flag(chitsii.arena.player.lily_hostile, ==1)</t>
+        </is>
+      </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>zek_ec1</t>
-        </is>
-      </c>
-      <c r="I252" t="inlineStr">
-        <is>
-          <t>……クク。孤独な王の誕生ですか。それもまた、一つの『作品』ですね。</t>
-        </is>
-      </c>
-      <c r="J252" t="inlineStr">
-        <is>
-          <t>……クク。孤独な王の誕生ですか。それもまた、一つの『作品』ですね。</t>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>zek_ec2</t>
-        </is>
-      </c>
-      <c r="I253" t="inlineStr">
-        <is>
-          <t>私は……見届けさせてもらいましょう。孤独がどれほど重いか、記録するために。</t>
-        </is>
-      </c>
-      <c r="J253" t="inlineStr">
-        <is>
-          <t>私は……見届けさせてもらいましょう。孤独がどれほど重いか、記録するために。</t>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>act3_balgas_dead</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>narr_ec3</t>
-        </is>
-      </c>
-      <c r="I254" t="inlineStr">
-        <is>
-          <t>（ゼクが影の中へ消える。）</t>
-        </is>
-      </c>
-      <c r="J254" t="inlineStr">
-        <is>
-          <t>（ゼクが影の中へ消える。）</t>
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>main_lily_hostile</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="D255" t="inlineStr">
         <is>
-          <t>setFlag</t>
+          <t>fadeOut</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.ending,2</t>
+          <t>1.0,black</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>epilogue</t>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>dm.imageBG.enabled = true; dm.imageBG.sprite = "Drama/zek_hideout".LoadSprite();</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>epilogue</t>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>fadeIn</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>1.0,black</t>
         </is>
       </c>
     </row>
@@ -4530,7 +4635,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Credits");             var data = SoundManager.current.GetData("BGM/Credits");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Credits");             }</t>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Pre_Battle_Calm");             var data = SoundManager.current.GetData("BGM/Pre_Battle_Calm");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Pre_Battle_Calm");             }</t>
         </is>
       </c>
     </row>
@@ -4542,17 +4647,17 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>narr_19</t>
+          <t>narr_1</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>（プレイヤーが光の階段を一歩踏み出すと、足元に温かな地上の風が吹き抜ける。）</t>
+          <t>（ゼクの隠れ家『次元のゴミ捨て場』。そこは、アスタロトが切り捨てた『不要な可能性』が堆積する場所。）</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>（プレイヤーが光の階段を一歩踏み出すと、足元に温かな地上の風が吹き抜ける。）</t>
+          <t>（ゼクの隠れ家『次元のゴミ捨て場』。そこは、アスタロトが切り捨てた『不要な可能性』が堆積する場所。）</t>
         </is>
       </c>
     </row>
@@ -4564,65 +4669,75 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>narr_20</t>
+          <t>narr_2</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>（遠くに見えるのは、緑の大地と、穏やかな街の灯。）</t>
+          <t>（決戦を翌朝に控えた夜、焚き火の代わりに、剥き出しの魔力回路が淡い青光を放っている。）</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>（遠くに見えるのは、緑の大地と、穏やかな街の灯。）</t>
+          <t>（決戦を翌朝に控えた夜、焚き火の代わりに、剥き出しの魔力回路が淡い青光を放っている。）</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="F261" t="inlineStr">
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="F264" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>narr_21</t>
-        </is>
-      </c>
-      <c r="I261" t="inlineStr">
-        <is>
-          <t>かつて、異次元の闘技場に迷い込んだ一人の冒険者がいた。彼（彼女）は、絶望の底で友を得て、魂を賭けて戦い、ついには神をも超える存在となった。そして今、解放された魂は、新たな物語を紡ぎ始めるーー</t>
-        </is>
-      </c>
-      <c r="J261" t="inlineStr">
-        <is>
-          <t>かつて、異次元の闘技場に迷い込んだ一人の冒険者がいた。彼（彼女）は、絶望の底で友を得て、魂を賭けて戦い、ついには神をも超える存在となった。そして今、解放された魂は、新たな物語を紡ぎ始めるーー</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>finale</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>finale</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Cheerful_Theme");             var data = SoundManager.current.GetData("BGM/Cheerful_Theme");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Cheerful_Theme");             }</t>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>narr_3_lh</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>（バルガスは大剣を研ぎ、ゼクは『因果の断片（キューブ）』の最終調整を行っていた。）</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>（バルガスは大剣を研ぎ、ゼクは『因果の断片（キューブ）』の最終調整を行っていた。）</t>
         </is>
       </c>
     </row>
@@ -4634,157 +4749,177 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>balgas_f1</t>
+          <t>balgas_1</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>……おい、いつまで感傷に浸ってんだ。次は俺の奢りで、地上で一番うまい酒を飲みに行くぞ！</t>
+          <t>……引退？ ああ、確かに言ったな。……だが、お前が俺の命を救ったあの日、俺の中で何かが変わっちまったんだよ。</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>……おい、いつまで感傷に浸ってんだ。次は俺の奢りで、地上で一番うまい酒を飲みに行くぞ！</t>
+          <t>……引退？ ああ、確かに言ったな。……だが、お前が俺の命を救ったあの日、俺の中で何かが変わっちまったんだよ。</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="F266" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>lily_f1</t>
+          <t>balgas_2</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>ふふ、楽しみです。……リリィとして、初めての『デート』ですから。</t>
+          <t>カインを失って以来、俺はずっと『死に場所』を探してた。だが、お前は俺にそれを許さなかった。……なら、せめて最後くらい、お前の『生きる場所』を作る手伝いをさせろ。</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>ふふ、楽しみです。……リリィとして、初めての『デート』ですから。</t>
+          <t>カインを失って以来、俺はずっと『死に場所』を探してた。だが、お前は俺にそれを許さなかった。……なら、せめて最後くらい、お前の『生きる場所』を作る手伝いをさせろ。</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="F267" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>zek_f1</t>
+          <t>balgas_3</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>おや、私も混ぜてくださいよ。……商談という名の、ね。</t>
+          <t>それに……引退した老いぼれが、弟子の晴れ舞台を客席から眺めてるだけなんて、柄じゃねえんだよ。俺は戦士だ。最期まで、剣を握って立ってる方が性に合ってる。</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>おや、私も混ぜてくださいよ。……商談という名の、ね。</t>
+          <t>それに……引退した老いぼれが、弟子の晴れ舞台を客席から眺めてるだけなんて、柄じゃねえんだよ。俺は戦士だ。最期まで、剣を握って立ってる方が性に合ってる。</t>
         </is>
       </c>
     </row>
     <row r="268">
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>modInvoke</t>
-        </is>
-      </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>complete_quest(18_last_battle)</t>
-        </is>
-      </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>balgas_lh1</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>……リリィの奴は来ねえよ。あいつは、お前を許せなかったんだろう。……だが、俺たちだけでやるしかねえ。</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>……リリィの奴は来ねえよ。あいつは、お前を許せなかったんだろう。……だが、俺たちだけでやるしかねえ。</t>
         </is>
       </c>
     </row>
     <row r="269">
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>sys_complete</t>
-        </is>
-      </c>
-      <c r="I269" t="inlineStr">
-        <is>
-          <t>【システム】クエスト『最終決戦』をクリアしました！</t>
-        </is>
-      </c>
-      <c r="J269" t="inlineStr">
-        <is>
-          <t>【システム】クエスト『最終決戦』をクリアしました！</t>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="D270" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>main_balgas_dead</t>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="272">
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>fadeOut</t>
-        </is>
-      </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>1.0,black</t>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>zek_1</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>クク……商売抜きで言わせてもらいましょう。アスタロトは、この世界の『限界』を勝手に決めつけ、見限っている。</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>クク……商売抜きで言わせてもらいましょう。アスタロトは、この世界の『限界』を勝手に決めつけ、見限っている。</t>
         </is>
       </c>
     </row>
     <row r="273">
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E273" t="inlineStr">
-        <is>
-          <t>dm.imageBG.enabled = true; dm.imageBG.sprite = "Drama/zek_hideout".LoadSprite();</t>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>zek_2</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>私はそれが気に入らない。ゴミはゴミらしく、混沌として流れてこそ美しい。私が用意したこのキューブは、王が支配する『時間』の独裁を一時的に狂わせるためのものです。……さあ、休みなさい。明日の朝、この世界の『所有権』を奪い返しに行くのですから。</t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>私はそれが気に入らない。ゴミはゴミらしく、混沌として流れてこそ美しい。私が用意したこのキューブは、王が支配する『時間』の独裁を一時的に狂わせるためのものです。……さあ、休みなさい。明日の朝、この世界の『所有権』を奪い返しに行くのですから。</t>
         </is>
       </c>
     </row>
     <row r="274">
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>fadeIn</t>
-        </is>
-      </c>
-      <c r="E274" t="inlineStr">
-        <is>
-          <t>1.0,black</t>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>act1_lily_hostile</t>
         </is>
       </c>
     </row>
     <row r="275">
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E275" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Pre_Battle_Calm");             var data = SoundManager.current.GetData("BGM/Pre_Battle_Calm");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Pre_Battle_Calm");             }</t>
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>act1_lily_hostile</t>
         </is>
       </c>
     </row>
@@ -4796,17 +4931,17 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>narr_1</t>
+          <t>pc_1</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>（ゼクの隠れ家『次元のゴミ捨て場』。そこは、アスタロトが切り捨てた『不要な可能性』が堆積する場所。）</t>
+          <t>（自分の『絶望する瞬間』を狙うつもりではないのか、と、あなたはゼクに疑問を投げかけた。）</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>（ゼクの隠れ家『次元のゴミ捨て場』。そこは、アスタロトが切り捨てた『不要な可能性』が堆積する場所。）</t>
+          <t>（自分の『絶望する瞬間』を狙うつもりではないのか、と、あなたはゼクに疑問を投げかけた。）</t>
         </is>
       </c>
     </row>
@@ -4818,411 +4953,401 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>narr_2</t>
+          <t>pc_2</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>（決戦を翌朝に控えた夜、焚き火の代わりに、剥き出しの魔力回路が淡い青光を放っている。）</t>
+          <t>（カインの魂を売らせようとしたのも、リリィを裏切らせようとしたのも……全て、自分を『剥製』にするためだったのだろう。なのに、なぜ今、助けようとするのか？）</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>（決戦を翌朝に控えた夜、焚き火の代わりに、剥き出しの魔力回路が淡い青光を放っている。）</t>
+          <t>（カインの魂を売らせようとしたのも、リリィを裏切らせようとしたのも……全て、自分を『剥製』にするためだったのだろう。なのに、なぜ今、助けようとするのか？）</t>
         </is>
       </c>
     </row>
     <row r="278">
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>zek_3</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>……ふふ。鋭いですね。</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>……ふふ。鋭いですね。</t>
         </is>
       </c>
     </row>
     <row r="279">
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>zek_4</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>その通りです。私はあなたが『最も美しく壊れる瞬間』を待っていました。英雄が絶望に堕ちる時、その魂は最高の芸術品となる……。それが、私という『剥製師』の美学でした。</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>その通りです。私はあなたが『最も美しく壊れる瞬間』を待っていました。英雄が絶望に堕ちる時、その魂は最高の芸術品となる……。それが、私という『剥製師』の美学でした。</t>
         </is>
       </c>
     </row>
     <row r="280">
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E280" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>zek_5</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>ですが、あなたは違った。カインを裏切る選択肢を与えても、あなたはバルガスを選んだ。リリィを欺く道を示しても……まあ、結果はああなりましたが、それでもあなたの魂は壊れなかった。バルガスを殺す観客の喝采が響いても、あなたは剣を下ろした。</t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>ですが、あなたは違った。カインを裏切る選択肢を与えても、あなたはバルガスを選んだ。リリィを欺く道を示しても……まあ、結果はああなりましたが、それでもあなたの魂は壊れなかった。バルガスを殺す観客の喝采が響いても、あなたは剣を下ろした。</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="F281" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>narr_3d</t>
+          <t>zek_6</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>（リリィは静かに祈りを捧げ、ゼクは『因果の断片（キューブ）』の最終調整を行っていた。）</t>
+          <t>……あなたは、私の期待を『裏切り続けた』のです。そして、その度に私は気づいてしまった。あなたが『壊れた瞬間』を剥製にするよりも……あなたが『システムそのものを壊す瞬間』を目撃する方が、遥かに美しい、と。</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>（リリィは静かに祈りを捧げ、ゼクは『因果の断片（キューブ）』の最終調整を行っていた。）</t>
+          <t>……あなたは、私の期待を『裏切り続けた』のです。そして、その度に私は気づいてしまった。あなたが『壊れた瞬間』を剥製にするよりも……あなたが『システムそのものを壊す瞬間』を目撃する方が、遥かに美しい、と。</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="F282" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>lily_d1</t>
+          <t>zek_7</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>……バルガスさんがいれば、心強かったのに。でも、これが私たちの選んだ道。</t>
+          <t>私のコレクションは、数千にも及びます。絶望した英雄、狂気に堕ちた賢者、愛に溺れた魔王……。ですが、『神を殺し、牢獄を破壊し、自由を手にする人間』は、まだ一つもない。</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>……バルガスさんがいれば、心強かったのに。でも、これが私たちの選んだ道。</t>
+          <t>私のコレクションは、数千にも及びます。絶望した英雄、狂気に堕ちた賢者、愛に溺れた魔王……。ですが、『神を殺し、牢獄を破壊し、自由を手にする人間』は、まだ一つもない。</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="F283" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>lily_d2</t>
+          <t>zek_8</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>私の真名……。この名を知る者がいる限り、私はもう、アスタロト様の命令には従いません。……明日、王があなたの存在を消そうとしても、私がその因果を繋ぎ止めてみせます。</t>
+          <t>……あなたこそが、私の最高傑作。そして、その傑作は『未完成のまま飾る』のではなく……『完璧な結末を迎えさせる』ことでこそ、真価を発揮するのです。</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>私の真名……。この名を知る者がいる限り、私はもう、アスタロト様の命令には従いません。……明日、王があなたの存在を消そうとしても、私がその因果を繋ぎ止めてみせます。</t>
+          <t>……あなたこそが、私の最高傑作。そして、その傑作は『未完成のまま飾る』のではなく……『完璧な結末を迎えさせる』ことでこそ、真価を発揮するのです。</t>
         </is>
       </c>
     </row>
     <row r="284">
-      <c r="D284" t="inlineStr">
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>zek_9</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>だから、私はあなたを助けます。商売のためでも、友情のためでもない。……ただ、この世界で最も美しい『奇跡の瞬間』を、この目で見届けたいから。それが、剥製師ゼクの最後の『作品』です。</t>
+        </is>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>だから、私はあなたを助けます。商売のためでも、友情のためでもない。……ただ、この世界で最も美しい『奇跡の瞬間』を、この目で見届けたいから。それが、剥製師ゼクの最後の『作品』です。</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>zek_10</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>……さあ、休みなさい。明日、あなたは私に『最高の絵』を見せてくれる。……それを、永遠に焼き付けておきましょう。</t>
+        </is>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>……さあ、休みなさい。明日、あなたは私に『最高の絵』を見せてくれる。……それを、永遠に焼き付けておきましょう。</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>act1_5_lily_hostile</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>act1_5_lily_hostile</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>narr_nul1</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>（王座の間へ向かう途中、一行は崩壊しかけた回廊で、倒れている存在を発見する。）</t>
+        </is>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>（王座の間へ向かう途中、一行は崩壊しかけた回廊で、倒れている存在を発見する。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>narr_nul2</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>（それは暗殺人形・Nul。システムに背いた罰として、アスタロトに「削除」されかけていた。）</t>
+        </is>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>（それは暗殺人形・Nul。システムに背いた罰として、アスタロトに「削除」されかけていた。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="D291" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E284" t="inlineStr">
+      <c r="E291" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
-    <row r="285">
-      <c r="D285" t="inlineStr">
+    <row r="292">
+      <c r="D292" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E285" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="D286" t="inlineStr">
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="D293" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E286" t="inlineStr">
+      <c r="E293" t="inlineStr">
         <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="F287" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>zek_1</t>
-        </is>
-      </c>
-      <c r="I287" t="inlineStr">
-        <is>
-          <t>クク……商売抜きで言わせてもらいましょう。アスタロトは、この世界の『限界』を勝手に決めつけ、見限っている。</t>
-        </is>
-      </c>
-      <c r="J287" t="inlineStr">
-        <is>
-          <t>クク……商売抜きで言わせてもらいましょう。アスタロトは、この世界の『限界』を勝手に決めつけ、見限っている。</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="F288" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>zek_2</t>
-        </is>
-      </c>
-      <c r="I288" t="inlineStr">
-        <is>
-          <t>私はそれが気に入らない。ゴミはゴミらしく、混沌として流れてこそ美しい。私が用意したこのキューブは、王が支配する『時間』の独裁を一時的に狂わせるためのものです。……さあ、休みなさい。明日の朝、この世界の『所有権』を奪い返しに行くのですから。</t>
-        </is>
-      </c>
-      <c r="J288" t="inlineStr">
-        <is>
-          <t>私はそれが気に入らない。ゴミはゴミらしく、混沌として流れてこそ美しい。私が用意したこのキューブは、王が支配する『時間』の独裁を一時的に狂わせるためのものです。……さあ、休みなさい。明日の朝、この世界の『所有権』を奪い返しに行くのですから。</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>act1_balgas_dead</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>act1_balgas_dead</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="F291" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>pc_1</t>
-        </is>
-      </c>
-      <c r="I291" t="inlineStr">
-        <is>
-          <t>（自分の『絶望する瞬間』を狙うつもりではないのか、と、あなたはゼクに疑問を投げかけた。）</t>
-        </is>
-      </c>
-      <c r="J291" t="inlineStr">
-        <is>
-          <t>（自分の『絶望する瞬間』を狙うつもりではないのか、と、あなたはゼクに疑問を投げかけた。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="F292" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>pc_2</t>
-        </is>
-      </c>
-      <c r="I292" t="inlineStr">
-        <is>
-          <t>（カインの魂を売らせようとしたのも、リリィを裏切らせようとしたのも……全て、自分を『剥製』にするためだったのだろう。なのに、なぜ今、助けようとするのか？）</t>
-        </is>
-      </c>
-      <c r="J292" t="inlineStr">
-        <is>
-          <t>（カインの魂を売らせようとしたのも、リリィを裏切らせようとしたのも……全て、自分を『剥製』にするためだったのだろう。なのに、なぜ今、助けようとするのか？）</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="F293" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>zek_3</t>
-        </is>
-      </c>
-      <c r="I293" t="inlineStr">
-        <is>
-          <t>……ふふ。鋭いですね。</t>
-        </is>
-      </c>
-      <c r="J293" t="inlineStr">
-        <is>
-          <t>……ふふ。鋭いですね。</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="F294" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>zek_4</t>
+          <t>balgas_nul0</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>その通りです。私はあなたが『最も美しく壊れる瞬間』を待っていました。英雄が絶望に堕ちる時、その魂は最高の芸術品となる……。それが、私という『剥製師』の美学でした。</t>
+          <t>……待て！ あれはNulだ。罠かもしれねえ、近づくな！</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>その通りです。私はあなたが『最も美しく壊れる瞬間』を待っていました。英雄が絶望に堕ちる時、その魂は最高の芸術品となる……。それが、私という『剥製師』の美学でした。</t>
+          <t>……待て！ あれはNulだ。罠かもしれねえ、近づくな！</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="F295" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>zek_5d</t>
+          <t>narr_nul2b</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>ですが、あなたは違った。観客の喝采に従い、バルガスを殺した。それでも、あなたの魂は完全には壊れなかった。……むしろ、その『罪悪感』を背負いながら前に進もうとしている。</t>
+          <t>（バルガスが剣を構え、一行の前に立ちはだかる。）</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>ですが、あなたは違った。観客の喝采に従い、バルガスを殺した。それでも、あなたの魂は完全には壊れなかった。……むしろ、その『罪悪感』を背負いながら前に進もうとしている。</t>
+          <t>（バルガスが剣を構え、一行の前に立ちはだかる。）</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="F296" t="inlineStr">
         <is>
+          <t>sukutsu_null</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>nul_1</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>……あなた、ですか。……システムを、拒絶した……人間。……私は……もう、戦えない。</t>
+        </is>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>……あなた、ですか。……システムを、拒絶した……人間。……私は……もう、戦えない。</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>zek_6d</t>
-        </is>
-      </c>
-      <c r="I296" t="inlineStr">
-        <is>
-          <t>……あなたが『壊れた瞬間』を剥製にするよりも……あなたが『システムそのものを壊す瞬間』を目撃する方が、遥かに美しい、と私は気づいてしまったのです。</t>
-        </is>
-      </c>
-      <c r="J296" t="inlineStr">
-        <is>
-          <t>……あなたが『壊れた瞬間』を剥製にするよりも……あなたが『システムそのものを壊す瞬間』を目撃する方が、遥かに美しい、と私は気づいてしまったのです。</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="F297" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>zek_7</t>
-        </is>
-      </c>
-      <c r="I297" t="inlineStr">
-        <is>
-          <t>私のコレクションは、数千にも及びます。絶望した英雄、狂気に堕ちた賢者、愛に溺れた魔王……。ですが、『神を殺し、牢獄を破壊し、自由を手にする人間』は、まだ一つもない。</t>
-        </is>
-      </c>
-      <c r="J297" t="inlineStr">
-        <is>
-          <t>私のコレクションは、数千にも及びます。絶望した英雄、狂気に堕ちた賢者、愛に溺れた魔王……。ですが、『神を殺し、牢獄を破壊し、自由を手にする人間』は、まだ一つもない。</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="F298" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>zek_8</t>
-        </is>
-      </c>
-      <c r="I298" t="inlineStr">
-        <is>
-          <t>……あなたこそが、私の最高傑作。そして、その傑作は『未完成のまま飾る』のではなく……『完璧な結末を迎えさせる』ことでこそ、真価を発揮するのです。</t>
-        </is>
-      </c>
-      <c r="J298" t="inlineStr">
-        <is>
-          <t>……あなたこそが、私の最高傑作。そして、その傑作は『未完成のまま飾る』のではなく……『完璧な結末を迎えさせる』ことでこそ、真価を発揮するのです。</t>
-        </is>
-      </c>
     </row>
     <row r="299">
-      <c r="F299" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>zek_9</t>
-        </is>
-      </c>
-      <c r="I299" t="inlineStr">
-        <is>
-          <t>だから、私はあなたを助けます。商売のためでも、友情のためでもない。……ただ、この世界で最も美しい『奇跡の瞬間』を、この目で見届けたいから。それが、剥製師ゼクの最後の『作品』です。</t>
-        </is>
-      </c>
-      <c r="J299" t="inlineStr">
-        <is>
-          <t>だから、私はあなたを助けます。商売のためでも、友情のためでもない。……ただ、この世界で最も美しい『奇跡の瞬間』を、この目で見届けたいから。それが、剥製師ゼクの最後の『作品』です。</t>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -5234,31 +5359,61 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>zek_10</t>
+          <t>zek_nul_lh</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>……さあ、休みなさい。明日、あなたは私に『最高の絵』を見せてくれる。……それを、永遠に焼き付けておきましょう。</t>
+          <t>……ふむ。Nulですか。あなたも、システムに見捨てられたクチですね。</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>……さあ、休みなさい。明日、あなたは私に『最高の絵』を見せてくれる。……それを、永遠に焼き付けておきましょう。</t>
+          <t>……ふむ。Nulですか。あなたも、システムに見捨てられたクチですね。</t>
         </is>
       </c>
     </row>
     <row r="301">
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>act1_5_balgas_dead</t>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>sukutsu_null</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>nul_2</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>……私は、思い出して、しまった。……『私』が、何だったのかを。</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>……私は、思い出して、しまった。……『私』が、何だったのかを。</t>
         </is>
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>act1_5_balgas_dead</t>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>narr_nul3</t>
+        </is>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>（Nulの目から、光の粒子が零れ落ちるーー涙のように。）</t>
+        </is>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>（Nulの目から、光の粒子が零れ落ちるーー涙のように。）</t>
         </is>
       </c>
     </row>
@@ -5270,51 +5425,51 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow_1");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow_1");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow_1");             }</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="F304" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_null</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>narr_nul1</t>
+          <t>nul_fb1</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>（王座の間へ向かう途中、一行は崩壊しかけた回廊で、倒れている存在を発見する。）</t>
+          <t>……私は、かつて冒険者だった。名前は……もう、思い出せない。仲間がいた。守りたい人がいた。このアリーナに挑んで……そして、負けた。</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>（王座の間へ向かう途中、一行は崩壊しかけた回廊で、倒れている存在を発見する。）</t>
+          <t>……私は、かつて冒険者だった。名前は……もう、思い出せない。仲間がいた。守りたい人がいた。このアリーナに挑んで……そして、負けた。</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="F305" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_null</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>narr_nul2</t>
+          <t>nul_fb2</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>（それは暗殺人形・Nul。システムに背いた罰として、アスタロトに「削除」されかけていた。）</t>
+          <t>アスタロト様は、私を『素材』にした。神格を人工的に作り出す実験ーー『神の孵化場』計画の、実験体に。</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>（それは暗殺人形・Nul。システムに背いた罰として、アスタロトに「削除」されかけていた。）</t>
+          <t>アスタロト様は、私を『素材』にした。神格を人工的に作り出す実験ーー『神の孵化場』計画の、実験体に。</t>
         </is>
       </c>
     </row>
@@ -5338,7 +5493,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5512,22 @@
     <row r="309">
       <c r="F309" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>lily_nul0</t>
+          <t>balgas_nul1</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>……待って！ あれはNul。罠かもしれない……近づかないで！</t>
+          <t>……！ 『神の孵化場』だと……？</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>……待って！ あれはNul。罠かもしれない……近づかないで！</t>
+          <t>……！ 『神の孵化場』だと……？</t>
         </is>
       </c>
     </row>
@@ -5384,61 +5539,61 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>narr_nul2b</t>
+          <t>narr_nul3b</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>（リリィがあなたの前に立ちはだかる。）</t>
+          <t>（バルガスの表情が凍りつく。その言葉には、覚えがあった。ゼクが語っていた、あの荒唐無稀な話。）</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>（リリィがあなたの前に立ちはだかる。）</t>
+          <t>（バルガスの表情が凍りつく。その言葉には、覚えがあった。ゼクが語っていた、あの荒唐無稀な話。）</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="F311" t="inlineStr">
         <is>
-          <t>sukutsu_null</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>nul_1</t>
+          <t>balgas_nul2</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>……あなた、ですか。……システムを、拒絶した……人間。……私は……もう、戦えない。</t>
+          <t>……ゼクの野郎が言ってたことは、本当だったのか……？ 俺は、あいつの言葉は闘商人の戯言だと思っていた。</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>……あなた、ですか。……システムを、拒絶した……人間。……私は……もう、戦えない。</t>
+          <t>……ゼクの野郎が言ってたことは、本当だったのか……？ 俺は、あいつの言葉は闘商人の戯言だと思っていた。</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="F312" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>sukutsu_null</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>lily_nul1</t>
+          <t>nul_fb3</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>Nul……！ あなた、何があったの？</t>
+          <t>このアリーナの本当の目的……それは、娯楽でも、戦士の育成でもない。挑戦者の魂を極限まで練磨し、『神格』に至らせること。そして、その力をアスタロト様が吸収し……新しい世界を創造すること。</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Nul……！ あなた、何があったの？</t>
+          <t>このアリーナの本当の目的……それは、娯楽でも、戦士の育成でもない。挑戦者の魂を極限まで練磨し、『神格』に至らせること。そして、その力をアスタロト様が吸収し……新しい世界を創造すること。</t>
         </is>
       </c>
     </row>
@@ -5450,51 +5605,61 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>nul_2</t>
+          <t>nul_fb3b</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>……私は、思い出して、しまった。……『私』が、何だったのかを。</t>
+          <t>アスタロト様は……かつて故郷を失った方。5万年前、『カラドリウス』という竜族の楽園が、神々の争いで滅んだと聞いています。</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>……私は、思い出して、しまった。……『私』が、何だったのかを。</t>
+          <t>アスタロト様は……かつて故郷を失った方。5万年前、『カラドリウス』という竜族の楽園が、神々の争いで滅んだと聞いています。</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="F314" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_null</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>narr_nul3</t>
+          <t>nul_fb3c</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>（Nulの目から、光の粒子が零れ落ちるーー涙のように。）</t>
+          <t>だから……新しい世界を創ろうとしている。自分が唯一の神として君臨する、完璧な楽園を。</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>（Nulの目から、光の粒子が零れ落ちるーー涙のように。）</t>
+          <t>だから……新しい世界を創ろうとしている。自分が唯一の神として君臨する、完璧な楽園を。</t>
         </is>
       </c>
     </row>
     <row r="315">
-      <c r="D315" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E315" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow_1");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow_1");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow_1");             }</t>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>sukutsu_null</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>nul_fb4</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>私は失敗作。神になれなかった、空っぽの人形。だから『Null』ーー『無』という名前を与えられた。</t>
+        </is>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>私は失敗作。神になれなかった、空っぽの人形。だから『Null』ーー『無』という名前を与えられた。</t>
         </is>
       </c>
     </row>
@@ -5506,97 +5671,97 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>nul_fb1</t>
+          <t>nul_3</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>……私は、かつて冒険者だった。名前は……もう、思い出せない。仲間がいた。守りたい人がいた。このアリーナに挑んで……そして、負けた。</t>
+          <t>……あなたはいまや神格に最も近い存在……あの方はあなたを『吸収』しようとしている。</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>……私は、かつて冒険者だった。名前は……もう、思い出せない。仲間がいた。守りたい人がいた。このアリーナに挑んで……そして、負けた。</t>
+          <t>……あなたはいまや神格に最も近い存在……あの方はあなたを『吸収』しようとしている。</t>
         </is>
       </c>
     </row>
     <row r="317">
-      <c r="F317" t="inlineStr">
-        <is>
-          <t>sukutsu_null</t>
-        </is>
-      </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>nul_fb2</t>
-        </is>
-      </c>
-      <c r="I317" t="inlineStr">
-        <is>
-          <t>アスタロト様は、私を『素材』にした。神格を人工的に作り出す実験ーー『神の孵化場』計画の、実験体に。</t>
-        </is>
-      </c>
-      <c r="J317" t="inlineStr">
-        <is>
-          <t>アスタロト様は、私を『素材』にした。神格を人工的に作り出す実験ーー『神の孵化場』計画の、実験体に。</t>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="D318" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="D319" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="320">
-      <c r="D320" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E320" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>balgas_nul_lh</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>……アスタロトの野郎。そういうことだったのか……。</t>
+        </is>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>……アスタロトの野郎。そういうことだったのか……。</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="F321" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>sukutsu_null</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>zek_nul1</t>
+          <t>nul_5</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>……ふむ。私が語っていた話、あれは真実だったということです。『神の孵化場』……このアリーナの本当の目的。</t>
+          <t>……お願い。あの方を……止めて。私の中にいた『誰か』が……ずっと、それを望んでいた。</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>……ふむ。私が語っていた話、あれは真実だったということです。『神の孵化場』……このアリーナの本当の目的。</t>
+          <t>……お願い。あの方を……止めて。私の中にいた『誰か』が……ずっと、それを望んでいた。</t>
         </is>
       </c>
     </row>
@@ -5608,381 +5773,371 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>nul_fb3</t>
+          <t>nul_6</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>このアリーナの本当の目的……それは、娯楽でも、戦士の育成でもない。挑戦者の魂を極限まで練磨し、『神格』に至らせること。そして、その力をアスタロト様が吸収し……新しい世界を創造すること。</t>
+          <t>……あなたのおかげで……私は、最後に『思い出す』ことができた。私には……守りたい人が、いたんだって。</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>このアリーナの本当の目的……それは、娯楽でも、戦士の育成でもない。挑戦者の魂を極限まで練磨し、『神格』に至らせること。そして、その力をアスタロト様が吸収し……新しい世界を創造すること。</t>
+          <t>……あなたのおかげで……私は、最後に『思い出す』ことができた。私には……守りたい人が、いたんだって。</t>
         </is>
       </c>
     </row>
     <row r="323">
-      <c r="F323" t="inlineStr">
-        <is>
-          <t>sukutsu_null</t>
-        </is>
-      </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>nul_fb3b</t>
-        </is>
-      </c>
-      <c r="I323" t="inlineStr">
-        <is>
-          <t>アスタロト様は……かつて故郷を失った方。5万年前、『カラドリウス』という竜族の楽園が、神々の争いで滅んだと聞いています。</t>
-        </is>
-      </c>
-      <c r="J323" t="inlineStr">
-        <is>
-          <t>アスタロト様は……かつて故郷を失った方。5万年前、『カラドリウス』という竜族の楽園が、神々の争いで滅んだと聞いています。</t>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="F324" t="inlineStr">
         <is>
-          <t>sukutsu_null</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>nul_fb3c</t>
+          <t>narr_nul4</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>だから……新しい世界を創ろうとしている。自分が唯一の神として君臨する、完璧な楽園を。</t>
+          <t>（Nulの体が完全に光となって消えていく。）</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>だから……新しい世界を創ろうとしている。自分が唯一の神として君臨する、完璧な楽園を。</t>
+          <t>（Nulの体が完全に光となって消えていく。）</t>
         </is>
       </c>
     </row>
     <row r="325">
-      <c r="F325" t="inlineStr">
-        <is>
-          <t>sukutsu_null</t>
-        </is>
-      </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>nul_fb4</t>
-        </is>
-      </c>
-      <c r="I325" t="inlineStr">
-        <is>
-          <t>私は失敗作。神になれなかった、空っぽの人形。だから『Null』ーー『無』という名前を与えられた。</t>
-        </is>
-      </c>
-      <c r="J325" t="inlineStr">
-        <is>
-          <t>私は失敗作。神になれなかった、空っぽの人形。だから『Null』ーー『無』という名前を与えられた。</t>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>act2_throne_room</t>
         </is>
       </c>
     </row>
     <row r="326">
-      <c r="F326" t="inlineStr">
-        <is>
-          <t>sukutsu_null</t>
-        </is>
-      </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>nul_3</t>
-        </is>
-      </c>
-      <c r="I326" t="inlineStr">
-        <is>
-          <t>……あなたはいまや神格に最も近い存在……あの方はあなたを『吸収』しようとしている。</t>
-        </is>
-      </c>
-      <c r="J326" t="inlineStr">
-        <is>
-          <t>……あなたはいまや神格に最も近い存在……あの方はあなたを『吸収』しようとしている。</t>
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>act3_lily_hostile</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="D327" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Final_Battle");             var data = SoundManager.current.GetData("BGM/Final_Battle");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Final_Battle");             }</t>
         </is>
       </c>
     </row>
     <row r="328">
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E328" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>sukutsu_astaroth</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>astaroth_p1</t>
+        </is>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>【時の独裁】ーーお前の時間を、永遠に止めてやろう</t>
+        </is>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>【時の独裁】ーーお前の時間を、永遠に止めてやろう</t>
         </is>
       </c>
     </row>
     <row r="329">
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E329" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>sukutsu_astaroth</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>astaroth_p2</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>【因果の拒絶】ーーお前の攻撃は無に帰す</t>
+        </is>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>【因果の拒絶】ーーお前の攻撃は無に帰す</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="F330" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>sukutsu_astaroth</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>lily_nul2</t>
+          <t>astaroth_p3</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>……アスタロト様。あなたは、ずっとそんなことを……。</t>
+          <t>【終焉の削除命令】ーーお前の魔力を消し去る</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>……アスタロト様。あなたは、ずっとそんなことを……。</t>
+          <t>【終焉の削除命令】ーーお前の魔力を消し去る</t>
         </is>
       </c>
     </row>
     <row r="331">
-      <c r="F331" t="inlineStr">
-        <is>
-          <t>sukutsu_null</t>
-        </is>
-      </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>nul_5</t>
-        </is>
-      </c>
-      <c r="I331" t="inlineStr">
-        <is>
-          <t>……お願い。あの方を……止めて。私の中にいた『誰か』が……ずっと、それを望んでいた。</t>
-        </is>
-      </c>
-      <c r="J331" t="inlineStr">
-        <is>
-          <t>……お願い。あの方を……止めて。私の中にいた『誰か』が……ずっと、それを望んでいた。</t>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="F332" t="inlineStr">
         <is>
-          <t>sukutsu_null</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>nul_6</t>
+          <t>narr_p1</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>……あなたのおかげで……私は、最後に『思い出す』ことができた。私には……守りたい人が、いたんだって。</t>
+          <t>（三つの極悪な権能が、あなたに向かって放たれるーー）</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>……あなたのおかげで……私は、最後に『思い出す』ことができた。私には……守りたい人が、いたんだって。</t>
+          <t>（三つの極悪な権能が、あなたに向かって放たれるーー）</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="D333" t="inlineStr">
         <is>
-          <t>shake</t>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="334">
-      <c r="F334" t="inlineStr">
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>zek_lh1</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>おっとーー私のキューブが黙っていませんよ！</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>おっとーー私のキューブが黙っていませんよ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="F337" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>narr_nul4</t>
-        </is>
-      </c>
-      <c r="I334" t="inlineStr">
-        <is>
-          <t>（Nulの体が完全に光となって消えていく。）</t>
-        </is>
-      </c>
-      <c r="J334" t="inlineStr">
-        <is>
-          <t>（Nulの体が完全に光となって消えていく。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>act2_throne_room</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>act3_balgas_dead</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E337" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Final_Battle");             var data = SoundManager.current.GetData("BGM/Final_Battle");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Final_Battle");             }</t>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>narr_lh2</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>（ゼクのキューブが展開し、時の独裁を吸収）</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>（ゼクのキューブが展開し、時の独裁を吸収）</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="F338" t="inlineStr">
         <is>
-          <t>sukutsu_astaroth</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>astaroth_p1</t>
+          <t>zek_lh2</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>【時の独裁】ーーお前の時間を、永遠に止めてやろう</t>
+          <t>……ぐっ……これは重い。しかしーーまだです！</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>【時の独裁】ーーお前の時間を、永遠に止めてやろう</t>
+          <t>……ぐっ……これは重い。しかしーーまだです！</t>
         </is>
       </c>
     </row>
     <row r="339">
-      <c r="F339" t="inlineStr">
-        <is>
-          <t>sukutsu_astaroth</t>
-        </is>
-      </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>astaroth_p2</t>
-        </is>
-      </c>
-      <c r="I339" t="inlineStr">
-        <is>
-          <t>【因果の拒絶】ーーお前の攻撃は無に帰す</t>
-        </is>
-      </c>
-      <c r="J339" t="inlineStr">
-        <is>
-          <t>【因果の拒絶】ーーお前の攻撃は無に帰す</t>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="340">
-      <c r="F340" t="inlineStr">
-        <is>
-          <t>sukutsu_astaroth</t>
-        </is>
-      </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>astaroth_p3</t>
-        </is>
-      </c>
-      <c r="I340" t="inlineStr">
-        <is>
-          <t>【終焉の削除命令】ーーお前の魔力を消し去る</t>
-        </is>
-      </c>
-      <c r="J340" t="inlineStr">
-        <is>
-          <t>【終焉の削除命令】ーーお前の魔力を消し去る</t>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="D341" t="inlineStr">
         <is>
-          <t>shake</t>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="F342" t="inlineStr">
         <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>balgas_lh1</t>
+        </is>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>させるかよ！ 鋼の意志を舐めるな……！</t>
+        </is>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>させるかよ！ 鋼の意志を舐めるな……！</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="F343" t="inlineStr">
+        <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>narr_p1</t>
-        </is>
-      </c>
-      <c r="I342" t="inlineStr">
-        <is>
-          <t>（三つの極悪な権能が、あなたに向かって放たれるーー）</t>
-        </is>
-      </c>
-      <c r="J342" t="inlineStr">
-        <is>
-          <t>（三つの極悪な権能が、あなたに向かって放たれるーー）</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="D343" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E343" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>narr_lh3</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>（バルガスが大剣で因果の拒絶を受け止める）</t>
+        </is>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>（バルガスが大剣で因果の拒絶を受け止める）</t>
         </is>
       </c>
     </row>
     <row r="344">
-      <c r="D344" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E344" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>balgas_lh2</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>俺の魂で……こじ開けてやる！</t>
+        </is>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>俺の魂で……こじ開けてやる！</t>
         </is>
       </c>
     </row>
@@ -5994,51 +6149,31 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="346">
-      <c r="F346" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>zek_d1</t>
-        </is>
-      </c>
-      <c r="I346" t="inlineStr">
-        <is>
-          <t>おっとーー私のキューブが黙っていませんよ！</t>
-        </is>
-      </c>
-      <c r="J346" t="inlineStr">
-        <is>
-          <t>おっとーー私のキューブが黙っていませんよ！</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="F347" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>narr_d2</t>
-        </is>
-      </c>
-      <c r="I347" t="inlineStr">
-        <is>
-          <t>（ゼクのキューブが展開し、時の独裁を吸収）</t>
-        </is>
-      </c>
-      <c r="J347" t="inlineStr">
-        <is>
-          <t>（ゼクのキューブが展開し、時の独裁を吸収）</t>
         </is>
       </c>
     </row>
@@ -6050,316 +6185,346 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>zek_d2</t>
+          <t>zek_lh3</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>……ぐっ……これは重い。しかしーーまだです！</t>
+          <t>しかし……削除命令を受ける者が、いない……！</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>……ぐっ……これは重い。しかしーーまだです！</t>
+          <t>しかし……削除命令を受ける者が、いない……！</t>
         </is>
       </c>
     </row>
     <row r="349">
-      <c r="F349" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>zek_d3</t>
-        </is>
-      </c>
-      <c r="I349" t="inlineStr">
-        <is>
-          <t>しかし……因果の拒絶を受ける者が、いない……！</t>
-        </is>
-      </c>
-      <c r="J349" t="inlineStr">
-        <is>
-          <t>しかし……因果の拒絶を受ける者が、いない……！</t>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="350">
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>shake</t>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>narr_lh4</t>
+        </is>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>（【終焉の削除命令】を受けた！）</t>
+        </is>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>（【終焉の削除命令】を受けた！）</t>
         </is>
       </c>
     </row>
     <row r="351">
-      <c r="F351" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>narr_d3</t>
-        </is>
-      </c>
-      <c r="I351" t="inlineStr">
-        <is>
-          <t>（【因果の拒絶】を受けた！）</t>
-        </is>
-      </c>
-      <c r="J351" t="inlineStr">
-        <is>
-          <t>（【因果の拒絶】を受けた！）</t>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>EClass.pc.AddCondition&lt;Elin_SukutsuArena.Conditions.ConAstarothDeletion&gt;(1000);</t>
         </is>
       </c>
     </row>
     <row r="352">
-      <c r="D352" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E352" t="inlineStr">
-        <is>
-          <t>EClass.pc.AddCondition&lt;Elin_SukutsuArena.Conditions.ConAstarothDenial&gt;(1000);</t>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>act4_battle</t>
         </is>
       </c>
     </row>
     <row r="353">
-      <c r="D353" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E353" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>main_worst</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="D354" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>fadeOut</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>1.0,black</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="D355" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>dm.imageBG.enabled = true; dm.imageBG.sprite = "Drama/zek_hideout".LoadSprite();</t>
         </is>
       </c>
     </row>
     <row r="356">
-      <c r="F356" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>lily_d1</t>
-        </is>
-      </c>
-      <c r="I356" t="inlineStr">
-        <is>
-          <t>……私が、受けます</t>
-        </is>
-      </c>
-      <c r="J356" t="inlineStr">
-        <is>
-          <t>……私が、受けます</t>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>fadeIn</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>1.0,black</t>
         </is>
       </c>
     </row>
     <row r="357">
-      <c r="F357" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>narr_d4</t>
-        </is>
-      </c>
-      <c r="I357" t="inlineStr">
-        <is>
-          <t>（リリィが静かに前に出る）</t>
-        </is>
-      </c>
-      <c r="J357" t="inlineStr">
-        <is>
-          <t>（リリィが静かに前に出る）</t>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Pre_Battle_Calm");             var data = SoundManager.current.GetData("BGM/Pre_Battle_Calm");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Pre_Battle_Calm");             }</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="F358" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>lily_d2</t>
+          <t>narr_1</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>あなたを……守らせてください</t>
+          <t>（ゼクの隠れ家『次元のゴミ捨て場』。そこは、アスタロトが切り捨てた『不要な可能性』が堆積する場所。）</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>あなたを……守らせてください</t>
+          <t>（ゼクの隠れ家『次元のゴミ捨て場』。そこは、アスタロトが切り捨てた『不要な可能性』が堆積する場所。）</t>
         </is>
       </c>
     </row>
     <row r="359">
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>act4_battle</t>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>narr_2</t>
+        </is>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>（決戦を翌朝に控えた夜、焚き火の代わりに、剥き出しの魔力回路が淡い青光を放っている。）</t>
+        </is>
+      </c>
+      <c r="J359" t="inlineStr">
+        <is>
+          <t>（決戦を翌朝に控えた夜、焚き火の代わりに、剥き出しの魔力回路が淡い青光を放っている。）</t>
         </is>
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>main_check_lily_dead</t>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="361">
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>main_worst</t>
-        </is>
-      </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>invoke*</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>if_flag(chitsii.arena.player.lily_hostile, ==1)</t>
-        </is>
-      </c>
-      <c r="F361" t="inlineStr">
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="F363" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-    </row>
-    <row r="362">
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>main_balgas_dead</t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>act3_check_lily_dead</t>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>narr_3_w</t>
+        </is>
+      </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>（ゼクだけが、『因果の断片（キューブ）』の最終調整を行っていた。）</t>
+        </is>
+      </c>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>（ゼクだけが、『因果の断片（キューブ）』の最終調整を行っていた。）</t>
         </is>
       </c>
     </row>
     <row r="364">
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>act3_worst</t>
-        </is>
-      </c>
-      <c r="D364" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E364" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.lily_hostile, ==1)</t>
-        </is>
-      </c>
       <c r="F364" t="inlineStr">
         <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>zek_w1</t>
+        </is>
+      </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>……ふむ。バルガスは死に、リリィは離反した。残ったのは、私とあなただけですか。</t>
+        </is>
+      </c>
+      <c r="J364" t="inlineStr">
+        <is>
+          <t>……ふむ。バルガスは死に、リリィは離反した。残ったのは、私とあなただけですか。</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>zek_w2</t>
+        </is>
+      </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>クク……商売抜きで言わせてもらいましょう。これは、なかなか……厳しい状況ですね。</t>
+        </is>
+      </c>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>クク……商売抜きで言わせてもらいましょう。これは、なかなか……厳しい状況ですね。</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>zek_1</t>
+        </is>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>アスタロトは、この世界の『限界』を勝手に決めつけ、見限っている。</t>
+        </is>
+      </c>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>アスタロトは、この世界の『限界』を勝手に決めつけ、見限っている。</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>zek_2</t>
+        </is>
+      </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>私はそれが気に入らない。ゴミはゴミらしく、混沌として流れてこそ美しい。私が用意したこのキューブは、王が支配する『時間』の独裁を一時的に狂わせるためのものです。……さあ、休みなさい。明日の朝、この世界の『所有権』を奪い返しに行くのですから。</t>
+        </is>
+      </c>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>私はそれが気に入らない。ゴミはゴミらしく、混沌として流れてこそ美しい。私が用意したこのキューブは、王が支配する『時間』の独裁を一時的に狂わせるためのものです。……さあ、休みなさい。明日の朝、この世界の『所有権』を奪い返しに行くのですから。</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>act1_worst</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>act1_worst</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="F370" t="inlineStr">
+        <is>
           <t>pc</t>
         </is>
       </c>
-    </row>
-    <row r="365">
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>act3_balgas_dead</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>main_lily_hostile</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="D367" t="inlineStr">
-        <is>
-          <t>fadeOut</t>
-        </is>
-      </c>
-      <c r="E367" t="inlineStr">
-        <is>
-          <t>1.0,black</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="D368" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E368" t="inlineStr">
-        <is>
-          <t>dm.imageBG.enabled = true; dm.imageBG.sprite = "Drama/zek_hideout".LoadSprite();</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="D369" t="inlineStr">
-        <is>
-          <t>fadeIn</t>
-        </is>
-      </c>
-      <c r="E369" t="inlineStr">
-        <is>
-          <t>1.0,black</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="D370" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E370" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Pre_Battle_Calm");             var data = SoundManager.current.GetData("BGM/Pre_Battle_Calm");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Pre_Battle_Calm");             }</t>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>pc_1</t>
+        </is>
+      </c>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>（自分の『絶望する瞬間』を狙うつもりではないのか、と、あなたはゼクに疑問を投げかけた。）</t>
+        </is>
+      </c>
+      <c r="J370" t="inlineStr">
+        <is>
+          <t>（自分の『絶望する瞬間』を狙うつもりではないのか、と、あなたはゼクに疑問を投げかけた。）</t>
         </is>
       </c>
     </row>
@@ -6371,627 +6536,662 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>narr_1</t>
+          <t>pc_2</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>（ゼクの隠れ家『次元のゴミ捨て場』。そこは、アスタロトが切り捨てた『不要な可能性』が堆積する場所。）</t>
+          <t>（カインの魂を売らせようとしたのも、リリィを裏切らせようとしたのも……全て、自分を『剥製』にするためだったのだろう。なのに、なぜ今、助けようとするのか？）</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>（ゼクの隠れ家『次元のゴミ捨て場』。そこは、アスタロトが切り捨てた『不要な可能性』が堆積する場所。）</t>
+          <t>（カインの魂を売らせようとしたのも、リリィを裏切らせようとしたのも……全て、自分を『剥製』にするためだったのだろう。なのに、なぜ今、助けようとするのか？）</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="F372" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>narr_2</t>
+          <t>zek_3</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>（決戦を翌朝に控えた夜、焚き火の代わりに、剥き出しの魔力回路が淡い青光を放っている。）</t>
+          <t>……ふふ。鋭いですね。</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>（決戦を翌朝に控えた夜、焚き火の代わりに、剥き出しの魔力回路が淡い青光を放っている。）</t>
+          <t>……ふふ。鋭いですね。</t>
         </is>
       </c>
     </row>
     <row r="373">
-      <c r="D373" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E373" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>zek_4</t>
+        </is>
+      </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>その通りです。私はあなたが『最も美しく壊れる瞬間』を待っていました。英雄が絶望に堕ちる時、その魂は最高の芸術品となる……。それが、私という『剥製師』の美学でした。</t>
+        </is>
+      </c>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>その通りです。私はあなたが『最も美しく壊れる瞬間』を待っていました。英雄が絶望に堕ちる時、その魂は最高の芸術品となる……。それが、私という『剥製師』の美学でした。</t>
         </is>
       </c>
     </row>
     <row r="374">
-      <c r="D374" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E374" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>zek_5w</t>
+        </is>
+      </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>ですが、あなたは違った。観客の喝采に従い、バルガスを殺した。リリィとの関係も壊れた。……普通なら、ここで絶望して壊れるはずだった。</t>
+        </is>
+      </c>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>ですが、あなたは違った。観客の喝采に従い、バルガスを殺した。リリィとの関係も壊れた。……普通なら、ここで絶望して壊れるはずだった。</t>
         </is>
       </c>
     </row>
     <row r="375">
-      <c r="D375" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E375" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>zek_6w</t>
+        </is>
+      </c>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>……しかし、あなたはまだ立っている。傷だらけで、孤独で、それでも前に進もうとしている。……それこそが、私が求めていた『奇跡』なのかもしれません。</t>
+        </is>
+      </c>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>……しかし、あなたはまだ立っている。傷だらけで、孤独で、それでも前に進もうとしている。……それこそが、私が求めていた『奇跡』なのかもしれません。</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="F376" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>narr_3_lh</t>
+          <t>zek_7</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>（バルガスは大剣を研ぎ、ゼクは『因果の断片（キューブ）』の最終調整を行っていた。）</t>
+          <t>私のコレクションは、数千にも及びます。絶望した英雄、狂気に堕ちた賢者、愛に溺れた魔王……。ですが、『神を殺し、牢獄を破壊し、自由を手にする人間』は、まだ一つもない。</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>（バルガスは大剣を研ぎ、ゼクは『因果の断片（キューブ）』の最終調整を行っていた。）</t>
+          <t>私のコレクションは、数千にも及びます。絶望した英雄、狂気に堕ちた賢者、愛に溺れた魔王……。ですが、『神を殺し、牢獄を破壊し、自由を手にする人間』は、まだ一つもない。</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="F377" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>balgas_1</t>
+          <t>zek_8</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>……引退？ ああ、確かに言ったな。……だが、お前が俺の命を救ったあの日、俺の中で何かが変わっちまったんだよ。</t>
+          <t>……あなたこそが、私の最高傑作。そして、その傑作は『未完成のまま飾る』のではなく……『完璧な結末を迎えさせる』ことでこそ、真価を発揮するのです。</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>……引退？ ああ、確かに言ったな。……だが、お前が俺の命を救ったあの日、俺の中で何かが変わっちまったんだよ。</t>
+          <t>……あなたこそが、私の最高傑作。そして、その傑作は『未完成のまま飾る』のではなく……『完璧な結末を迎えさせる』ことでこそ、真価を発揮するのです。</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="F378" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>balgas_2</t>
+          <t>zek_9</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>カインを失って以来、俺はずっと『死に場所』を探してた。だが、お前は俺にそれを許さなかった。……なら、せめて最後くらい、お前の『生きる場所』を作る手伝いをさせろ。</t>
+          <t>だから、私はあなたを助けます。商売のためでも、友情のためでもない。……ただ、この世界で最も美しい『奇跡の瞬間』を、この目で見届けたいから。それが、剥製師ゼクの最後の『作品』です。</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>カインを失って以来、俺はずっと『死に場所』を探してた。だが、お前は俺にそれを許さなかった。……なら、せめて最後くらい、お前の『生きる場所』を作る手伝いをさせろ。</t>
+          <t>だから、私はあなたを助けます。商売のためでも、友情のためでもない。……ただ、この世界で最も美しい『奇跡の瞬間』を、この目で見届けたいから。それが、剥製師ゼクの最後の『作品』です。</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="F379" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>balgas_3</t>
+          <t>zek_10</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>それに……引退した老いぼれが、弟子の晴れ舞台を客席から眺めてるだけなんて、柄じゃねえんだよ。俺は戦士だ。最期まで、剣を握って立ってる方が性に合ってる。</t>
+          <t>……さあ、休みなさい。明日、あなたは私に『最高の絵』を見せてくれる。……それを、永遠に焼き付けておきましょう。</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>それに……引退した老いぼれが、弟子の晴れ舞台を客席から眺めてるだけなんて、柄じゃねえんだよ。俺は戦士だ。最期まで、剣を握って立ってる方が性に合ってる。</t>
+          <t>……さあ、休みなさい。明日、あなたは私に『最高の絵』を見せてくれる。……それを、永遠に焼き付けておきましょう。</t>
         </is>
       </c>
     </row>
     <row r="380">
-      <c r="F380" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>balgas_lh1</t>
-        </is>
-      </c>
-      <c r="I380" t="inlineStr">
-        <is>
-          <t>……リリィの奴は来ねえよ。あいつは、お前を許せなかったんだろう。……だが、俺たちだけでやるしかねえ。</t>
-        </is>
-      </c>
-      <c r="J380" t="inlineStr">
-        <is>
-          <t>……リリィの奴は来ねえよ。あいつは、お前を許せなかったんだろう。……だが、俺たちだけでやるしかねえ。</t>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>act1_5_worst</t>
         </is>
       </c>
     </row>
     <row r="381">
-      <c r="D381" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E381" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>act1_5_worst</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="D382" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
         </is>
       </c>
     </row>
     <row r="383">
-      <c r="D383" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E383" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>narr_nul1</t>
+        </is>
+      </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>（王座の間へ向かう途中、崩壊しかけた回廊で、倒れている存在を発見する。）</t>
+        </is>
+      </c>
+      <c r="J383" t="inlineStr">
+        <is>
+          <t>（王座の間へ向かう途中、崩壊しかけた回廊で、倒れている存在を発見する。）</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="F384" t="inlineStr">
         <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>narr_nul2</t>
+        </is>
+      </c>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>（それは暗殺人形・Nul。システムに背いた罰として、アスタロトに「削除」されかけていた。）</t>
+        </is>
+      </c>
+      <c r="J384" t="inlineStr">
+        <is>
+          <t>（それは暗殺人形・Nul。システムに背いた罰として、アスタロトに「削除」されかけていた。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>zek_1</t>
-        </is>
-      </c>
-      <c r="I384" t="inlineStr">
-        <is>
-          <t>クク……商売抜きで言わせてもらいましょう。アスタロトは、この世界の『限界』を勝手に決めつけ、見限っている。</t>
-        </is>
-      </c>
-      <c r="J384" t="inlineStr">
-        <is>
-          <t>クク……商売抜きで言わせてもらいましょう。アスタロトは、この世界の『限界』を勝手に決めつけ、見限っている。</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="F385" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>zek_2</t>
-        </is>
-      </c>
-      <c r="I385" t="inlineStr">
-        <is>
-          <t>私はそれが気に入らない。ゴミはゴミらしく、混沌として流れてこそ美しい。私が用意したこのキューブは、王が支配する『時間』の独裁を一時的に狂わせるためのものです。……さあ、休みなさい。明日の朝、この世界の『所有権』を奪い返しに行くのですから。</t>
-        </is>
-      </c>
-      <c r="J385" t="inlineStr">
-        <is>
-          <t>私はそれが気に入らない。ゴミはゴミらしく、混沌として流れてこそ美しい。私が用意したこのキューブは、王が支配する『時間』の独裁を一時的に狂わせるためのものです。……さあ、休みなさい。明日の朝、この世界の『所有権』を奪い返しに行くのですから。</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>act1_lily_hostile</t>
-        </is>
-      </c>
     </row>
     <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>act1_lily_hostile</t>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="F388" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>pc_1</t>
+          <t>zek_nul_w</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>（自分の『絶望する瞬間』を狙うつもりではないのか、と、あなたはゼクに疑問を投げかけた。）</t>
+          <t>……おや、Nulですか。あなたも、システムに見捨てられたクチですね。……私たちと同じ、というわけですか。</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>（自分の『絶望する瞬間』を狙うつもりではないのか、と、あなたはゼクに疑問を投げかけた。）</t>
+          <t>……おや、Nulですか。あなたも、システムに見捨てられたクチですね。……私たちと同じ、というわけですか。</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="F389" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_null</t>
         </is>
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>pc_2</t>
+          <t>nul_1</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>（カインの魂を売らせようとしたのも、リリィを裏切らせようとしたのも……全て、自分を『剥製』にするためだったのだろう。なのに、なぜ今、助けようとするのか？）</t>
+          <t>……私は……もう、戦えない。</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>（カインの魂を売らせようとしたのも、リリィを裏切らせようとしたのも……全て、自分を『剥製』にするためだったのだろう。なのに、なぜ今、助けようとするのか？）</t>
+          <t>……私は……もう、戦えない。</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="F390" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>sukutsu_null</t>
         </is>
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>zek_3</t>
+          <t>nul_2</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>……ふふ。鋭いですね。</t>
+          <t>……私は、思い出して、しまった。……『私』が、何だったのかを。</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>……ふふ。鋭いですね。</t>
+          <t>……私は、思い出して、しまった。……『私』が、何だったのかを。</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="F391" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>zek_4</t>
+          <t>narr_nul3</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>その通りです。私はあなたが『最も美しく壊れる瞬間』を待っていました。英雄が絶望に堕ちる時、その魂は最高の芸術品となる……。それが、私という『剥製師』の美学でした。</t>
+          <t>（Nulの目から、光の粒子が零れ落ちるーー涙のように。）</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>その通りです。私はあなたが『最も美しく壊れる瞬間』を待っていました。英雄が絶望に堕ちる時、その魂は最高の芸術品となる……。それが、私という『剥製師』の美学でした。</t>
+          <t>（Nulの目から、光の粒子が零れ落ちるーー涙のように。）</t>
         </is>
       </c>
     </row>
     <row r="392">
-      <c r="F392" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>zek_5</t>
-        </is>
-      </c>
-      <c r="I392" t="inlineStr">
-        <is>
-          <t>ですが、あなたは違った。カインを裏切る選択肢を与えても、あなたはバルガスを選んだ。リリィを欺く道を示しても……まあ、結果はああなりましたが、それでもあなたの魂は壊れなかった。バルガスを殺す観客の喝采が響いても、あなたは剣を下ろした。</t>
-        </is>
-      </c>
-      <c r="J392" t="inlineStr">
-        <is>
-          <t>ですが、あなたは違った。カインを裏切る選択肢を与えても、あなたはバルガスを選んだ。リリィを欺く道を示しても……まあ、結果はああなりましたが、それでもあなたの魂は壊れなかった。バルガスを殺す観客の喝采が響いても、あなたは剣を下ろした。</t>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow_1");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow_1");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow_1");             }</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="F393" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>sukutsu_null</t>
         </is>
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>zek_6</t>
+          <t>nul_fb1</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>……あなたは、私の期待を『裏切り続けた』のです。そして、その度に私は気づいてしまった。あなたが『壊れた瞬間』を剥製にするよりも……あなたが『システムそのものを壊す瞬間』を目撃する方が、遥かに美しい、と。</t>
+          <t>……私は、かつて冒険者だった。名前は……もう、思い出せない。仲間がいた。守りたい人がいた。このアリーナに挑んで……そして、負けた。</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>……あなたは、私の期待を『裏切り続けた』のです。そして、その度に私は気づいてしまった。あなたが『壊れた瞬間』を剥製にするよりも……あなたが『システムそのものを壊す瞬間』を目撃する方が、遥かに美しい、と。</t>
+          <t>……私は、かつて冒険者だった。名前は……もう、思い出せない。仲間がいた。守りたい人がいた。このアリーナに挑んで……そして、負けた。</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="F394" t="inlineStr">
         <is>
+          <t>sukutsu_null</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>nul_fb2</t>
+        </is>
+      </c>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>アスタロト様は、私を『素材』にした。神格を人工的に作り出す実験ーー『神の孵化場』計画の、実験体に。</t>
+        </is>
+      </c>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>アスタロト様は、私を『素材』にした。神格を人工的に作り出す実験ーー『神の孵化場』計画の、実験体に。</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>zek_7</t>
-        </is>
-      </c>
-      <c r="I394" t="inlineStr">
-        <is>
-          <t>私のコレクションは、数千にも及びます。絶望した英雄、狂気に堕ちた賢者、愛に溺れた魔王……。ですが、『神を殺し、牢獄を破壊し、自由を手にする人間』は、まだ一つもない。</t>
-        </is>
-      </c>
-      <c r="J394" t="inlineStr">
-        <is>
-          <t>私のコレクションは、数千にも及びます。絶望した英雄、狂気に堕ちた賢者、愛に溺れた魔王……。ですが、『神を殺し、牢獄を破壊し、自由を手にする人間』は、まだ一つもない。</t>
-        </is>
-      </c>
-    </row>
-    <row r="395">
-      <c r="F395" t="inlineStr">
+    </row>
+    <row r="397">
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="F398" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>zek_8</t>
-        </is>
-      </c>
-      <c r="I395" t="inlineStr">
-        <is>
-          <t>……あなたこそが、私の最高傑作。そして、その傑作は『未完成のまま飾る』のではなく……『完璧な結末を迎えさせる』ことでこそ、真価を発揮するのです。</t>
-        </is>
-      </c>
-      <c r="J395" t="inlineStr">
-        <is>
-          <t>……あなたこそが、私の最高傑作。そして、その傑作は『未完成のまま飾る』のではなく……『完璧な結末を迎えさせる』ことでこそ、真価を発揮するのです。</t>
-        </is>
-      </c>
-    </row>
-    <row r="396">
-      <c r="F396" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>zek_9</t>
-        </is>
-      </c>
-      <c r="I396" t="inlineStr">
-        <is>
-          <t>だから、私はあなたを助けます。商売のためでも、友情のためでもない。……ただ、この世界で最も美しい『奇跡の瞬間』を、この目で見届けたいから。それが、剥製師ゼクの最後の『作品』です。</t>
-        </is>
-      </c>
-      <c r="J396" t="inlineStr">
-        <is>
-          <t>だから、私はあなたを助けます。商売のためでも、友情のためでもない。……ただ、この世界で最も美しい『奇跡の瞬間』を、この目で見届けたいから。それが、剥製師ゼクの最後の『作品』です。</t>
-        </is>
-      </c>
-    </row>
-    <row r="397">
-      <c r="F397" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>zek_10</t>
-        </is>
-      </c>
-      <c r="I397" t="inlineStr">
-        <is>
-          <t>……さあ、休みなさい。明日、あなたは私に『最高の絵』を見せてくれる。……それを、永遠に焼き付けておきましょう。</t>
-        </is>
-      </c>
-      <c r="J397" t="inlineStr">
-        <is>
-          <t>……さあ、休みなさい。明日、あなたは私に『最高の絵』を見せてくれる。……それを、永遠に焼き付けておきましょう。</t>
-        </is>
-      </c>
-    </row>
-    <row r="398">
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>act1_5_lily_hostile</t>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>zek_nul1</t>
+        </is>
+      </c>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>……ええ、知っていますとも。『神の孵化場』……このアリーナの本当の目的。</t>
+        </is>
+      </c>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>……ええ、知っていますとも。『神の孵化場』……このアリーナの本当の目的。</t>
         </is>
       </c>
     </row>
     <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>act1_5_lily_hostile</t>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>sukutsu_null</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>nul_fb3</t>
+        </is>
+      </c>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>このアリーナの本当の目的……それは、娯楽でも、戦士の育成でもない。挑戦者の魂を極限まで練磨し、『神格』に至らせること。そして、その力をアスタロト様が吸収し……新しい世界を創造すること。</t>
+        </is>
+      </c>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>このアリーナの本当の目的……それは、娯楽でも、戦士の育成でもない。挑戦者の魂を極限まで練磨し、『神格』に至らせること。そして、その力をアスタロト様が吸収し……新しい世界を創造すること。</t>
         </is>
       </c>
     </row>
     <row r="400">
-      <c r="D400" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E400" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>sukutsu_null</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>nul_fb3b</t>
+        </is>
+      </c>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>アスタロト様は……かつて故郷を失った方。5万年前、『カラドリウス』という竜族の楽園が、神々の争いで滅んだと聞いています。</t>
+        </is>
+      </c>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>アスタロト様は……かつて故郷を失った方。5万年前、『カラドリウス』という竜族の楽園が、神々の争いで滅んだと聞いています。</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="F401" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_null</t>
         </is>
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>narr_nul1</t>
+          <t>nul_fb3c</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>（王座の間へ向かう途中、一行は崩壊しかけた回廊で、倒れている存在を発見する。）</t>
+          <t>だから……新しい世界を創ろうとしている。自分が唯一の神として君臨する、完璧な楽園を。</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>（王座の間へ向かう途中、一行は崩壊しかけた回廊で、倒れている存在を発見する。）</t>
+          <t>だから……新しい世界を創ろうとしている。自分が唯一の神として君臨する、完璧な楽園を。</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="F402" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_null</t>
         </is>
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>narr_nul2</t>
+          <t>nul_fb4</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>（それは暗殺人形・Nul。システムに背いた罰として、アスタロトに「削除」されかけていた。）</t>
+          <t>私は失敗作。神になれなかった、空っぽの人形。だから『Null』ーー『無』という名前を与えられた。</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>（それは暗殺人形・Nul。システムに背いた罰として、アスタロトに「削除」されかけていた。）</t>
+          <t>私は失敗作。神になれなかった、空っぽの人形。だから『Null』ーー『無』という名前を与えられた。</t>
         </is>
       </c>
     </row>
     <row r="403">
-      <c r="D403" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E403" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>sukutsu_null</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>nul_3</t>
+        </is>
+      </c>
+      <c r="I403" t="inlineStr">
+        <is>
+          <t>……あなたはいまや神格に最も近い存在……あの方はあなたを『吸収』しようとしている。</t>
+        </is>
+      </c>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>……あなたはいまや神格に最も近い存在……あの方はあなたを『吸収』しようとしている。</t>
         </is>
       </c>
     </row>
     <row r="404">
-      <c r="D404" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E404" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>sukutsu_null</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>nul_5</t>
+        </is>
+      </c>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>……お願い。あの方を……止めて。私の中にいた『誰か』が……ずっと、それを望んでいた。</t>
+        </is>
+      </c>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>……お願い。あの方を……止めて。私の中にいた『誰か』が……ずっと、それを望んでいた。</t>
         </is>
       </c>
     </row>
     <row r="405">
-      <c r="D405" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E405" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>sukutsu_null</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>nul_6</t>
+        </is>
+      </c>
+      <c r="I405" t="inlineStr">
+        <is>
+          <t>……あなたのおかげで……私は、最後に『思い出す』ことができた。私には……守りたい人が、いたんだって。</t>
+        </is>
+      </c>
+      <c r="J405" t="inlineStr">
+        <is>
+          <t>……あなたのおかげで……私は、最後に『思い出す』ことができた。私には……守りたい人が、いたんだって。</t>
         </is>
       </c>
     </row>
     <row r="406">
-      <c r="F406" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>balgas_nul0</t>
-        </is>
-      </c>
-      <c r="I406" t="inlineStr">
-        <is>
-          <t>……待て！ あれはNulだ。罠かもしれねえ、近づくな！</t>
-        </is>
-      </c>
-      <c r="J406" t="inlineStr">
-        <is>
-          <t>……待て！ あれはNulだ。罠かもしれねえ、近づくな！</t>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
@@ -7003,2328 +7203,404 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>narr_nul2b</t>
+          <t>narr_nul4</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>（バルガスが剣を構え、一行の前に立ちはだかる。）</t>
+          <t>（Nulの体が完全に光となって消えていく。）</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>（バルガスが剣を構え、一行の前に立ちはだかる。）</t>
+          <t>（Nulの体が完全に光となって消えていく。）</t>
         </is>
       </c>
     </row>
     <row r="408">
-      <c r="F408" t="inlineStr">
-        <is>
-          <t>sukutsu_null</t>
-        </is>
-      </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>nul_1</t>
-        </is>
-      </c>
-      <c r="I408" t="inlineStr">
-        <is>
-          <t>……あなた、ですか。……システムを、拒絶した……人間。……私は……もう、戦えない。</t>
-        </is>
-      </c>
-      <c r="J408" t="inlineStr">
-        <is>
-          <t>……あなた、ですか。……システムを、拒絶した……人間。……私は……もう、戦えない。</t>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>act2_throne_room</t>
         </is>
       </c>
     </row>
     <row r="409">
-      <c r="D409" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E409" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>act3_worst</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="D410" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Final_Battle");             var data = SoundManager.current.GetData("BGM/Final_Battle");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Final_Battle");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>sukutsu_astaroth</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>astaroth_w1</t>
+        </is>
+      </c>
+      <c r="I411" t="inlineStr">
+        <is>
+          <t>【時の独裁】ーーお前の時間を、止める</t>
+        </is>
+      </c>
+      <c r="J411" t="inlineStr">
+        <is>
+          <t>【時の独裁】ーーお前の時間を、止める</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>shake</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="D414" t="inlineStr">
+        <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E410" t="inlineStr">
+      <c r="E414" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-    </row>
-    <row r="411">
-      <c r="D411" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E411" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="412">
-      <c r="F412" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>zek_nul_lh</t>
-        </is>
-      </c>
-      <c r="I412" t="inlineStr">
-        <is>
-          <t>……ふむ。Nulですか。あなたも、システムに見捨てられたクチですね。</t>
-        </is>
-      </c>
-      <c r="J412" t="inlineStr">
-        <is>
-          <t>……ふむ。Nulですか。あなたも、システムに見捨てられたクチですね。</t>
-        </is>
-      </c>
-    </row>
-    <row r="413">
-      <c r="F413" t="inlineStr">
-        <is>
-          <t>sukutsu_null</t>
-        </is>
-      </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>nul_2</t>
-        </is>
-      </c>
-      <c r="I413" t="inlineStr">
-        <is>
-          <t>……私は、思い出して、しまった。……『私』が、何だったのかを。</t>
-        </is>
-      </c>
-      <c r="J413" t="inlineStr">
-        <is>
-          <t>……私は、思い出して、しまった。……『私』が、何だったのかを。</t>
-        </is>
-      </c>
-    </row>
-    <row r="414">
-      <c r="F414" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>narr_nul3</t>
-        </is>
-      </c>
-      <c r="I414" t="inlineStr">
-        <is>
-          <t>（Nulの目から、光の粒子が零れ落ちるーー涙のように。）</t>
-        </is>
-      </c>
-      <c r="J414" t="inlineStr">
-        <is>
-          <t>（Nulの目から、光の粒子が零れ落ちるーー涙のように。）</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="D415" t="inlineStr">
         <is>
-          <t>eval</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow_1");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow_1");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow_1");             }</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="F416" t="inlineStr">
         <is>
-          <t>sukutsu_null</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>nul_fb1</t>
+          <t>zek_w1</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>……私は、かつて冒険者だった。名前は……もう、思い出せない。仲間がいた。守りたい人がいた。このアリーナに挑んで……そして、負けた。</t>
+          <t>……私だけですか。仕方ありませんね</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>……私は、かつて冒険者だった。名前は……もう、思い出せない。仲間がいた。守りたい人がいた。このアリーナに挑んで……そして、負けた。</t>
+          <t>……私だけですか。仕方ありませんね</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="F417" t="inlineStr">
         <is>
-          <t>sukutsu_null</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>nul_fb2</t>
+          <t>narr_w1</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>アスタロト様は、私を『素材』にした。神格を人工的に作り出す実験ーー『神の孵化場』計画の、実験体に。</t>
+          <t>（ゼクのキューブが展開し、権能を吸収）</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>アスタロト様は、私を『素材』にした。神格を人工的に作り出す実験ーー『神の孵化場』計画の、実験体に。</t>
+          <t>（ゼクのキューブが展開し、権能を吸収）</t>
         </is>
       </c>
     </row>
     <row r="418">
-      <c r="D418" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E418" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>zek_w2</t>
+        </is>
+      </c>
+      <c r="I418" t="inlineStr">
+        <is>
+          <t>……ぐっ……これは、なかなか重い……</t>
+        </is>
+      </c>
+      <c r="J418" t="inlineStr">
+        <is>
+          <t>……ぐっ……これは、なかなか重い……</t>
         </is>
       </c>
     </row>
     <row r="419">
-      <c r="D419" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E419" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>sukutsu_astaroth</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>astaroth_w2</t>
+        </is>
+      </c>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>【因果の拒絶】【終焉の削除命令】ーー全てを無に還す</t>
+        </is>
+      </c>
+      <c r="J419" t="inlineStr">
+        <is>
+          <t>【因果の拒絶】【終焉の削除命令】ーー全てを無に還す</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="D420" t="inlineStr">
         <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E420" t="inlineStr">
-        <is>
-          <t>0.5</t>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="F421" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>balgas_nul1</t>
+          <t>narr_w2</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>……！ 『神の孵化場』だと……？</t>
+          <t>（2つの権能がゼクのキューブを直撃）</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>……！ 『神の孵化場』だと……？</t>
+          <t>（2つの権能がゼクのキューブを直撃）</t>
         </is>
       </c>
     </row>
     <row r="422">
-      <c r="F422" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>narr_nul3b</t>
-        </is>
-      </c>
-      <c r="I422" t="inlineStr">
-        <is>
-          <t>（バルガスの表情が凍りつく。その言葉には、覚えがあった。ゼクが語っていた、あの荒唐無稀な話。）</t>
-        </is>
-      </c>
-      <c r="J422" t="inlineStr">
-        <is>
-          <t>（バルガスの表情が凍りつく。その言葉には、覚えがあった。ゼクが語っていた、あの荒唐無稀な話。）</t>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="423">
-      <c r="F423" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>balgas_nul2</t>
-        </is>
-      </c>
-      <c r="I423" t="inlineStr">
-        <is>
-          <t>……ゼクの野郎が言ってたことは、本当だったのか……？ 俺は、あいつの言葉は闘商人の戯言だと思っていた。</t>
-        </is>
-      </c>
-      <c r="J423" t="inlineStr">
-        <is>
-          <t>……ゼクの野郎が言ってたことは、本当だったのか……？ 俺は、あいつの言葉は闘商人の戯言だと思っていた。</t>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="424">
-      <c r="F424" t="inlineStr">
-        <is>
-          <t>sukutsu_null</t>
-        </is>
-      </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>nul_fb3</t>
-        </is>
-      </c>
-      <c r="I424" t="inlineStr">
-        <is>
-          <t>このアリーナの本当の目的……それは、娯楽でも、戦士の育成でもない。挑戦者の魂を極限まで練磨し、『神格』に至らせること。そして、その力をアスタロト様が吸収し……新しい世界を創造すること。</t>
-        </is>
-      </c>
-      <c r="J424" t="inlineStr">
-        <is>
-          <t>このアリーナの本当の目的……それは、娯楽でも、戦士の育成でもない。挑戦者の魂を極限まで練磨し、『神格』に至らせること。そして、その力をアスタロト様が吸収し……新しい世界を創造すること。</t>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="F425" t="inlineStr">
         <is>
-          <t>sukutsu_null</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>nul_fb3b</t>
+          <t>zek_w3</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>アスタロト様は……かつて故郷を失った方。5万年前、『カラドリウス』という竜族の楽園が、神々の争いで滅んだと聞いています。</t>
+          <t>しまった……！ キューブが……持たない……！</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>アスタロト様は……かつて故郷を失った方。5万年前、『カラドリウス』という竜族の楽園が、神々の争いで滅んだと聞いています。</t>
+          <t>しまった……！ キューブが……持たない……！</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="F426" t="inlineStr">
         <is>
-          <t>sukutsu_null</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>nul_fb3c</t>
+          <t>narr_w3</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>だから……新しい世界を創ろうとしている。自分が唯一の神として君臨する、完璧な楽園を。</t>
+          <t>（キューブが砕け散る音）</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>だから……新しい世界を創ろうとしている。自分が唯一の神として君臨する、完璧な楽園を。</t>
+          <t>（キューブが砕け散る音）</t>
         </is>
       </c>
     </row>
     <row r="427">
-      <c r="F427" t="inlineStr">
-        <is>
-          <t>sukutsu_null</t>
-        </is>
-      </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>nul_fb4</t>
-        </is>
-      </c>
-      <c r="I427" t="inlineStr">
-        <is>
-          <t>私は失敗作。神になれなかった、空っぽの人形。だから『Null』ーー『無』という名前を与えられた。</t>
-        </is>
-      </c>
-      <c r="J427" t="inlineStr">
-        <is>
-          <t>私は失敗作。神になれなかった、空っぽの人形。だから『Null』ーー『無』という名前を与えられた。</t>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="F428" t="inlineStr">
         <is>
-          <t>sukutsu_null</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>nul_3</t>
+          <t>narr_w4</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>……あなたはいまや神格に最も近い存在……あの方はあなたを『吸収』しようとしている。</t>
+          <t>（残りの権能がプレイヤーを直撃）</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>……あなたはいまや神格に最も近い存在……あの方はあなたを『吸収』しようとしている。</t>
+          <t>（残りの権能がプレイヤーを直撃）</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="D429" t="inlineStr">
         <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E429" t="inlineStr">
-        <is>
-          <t>0.3</t>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="430">
-      <c r="D430" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E430" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>narr_w5</t>
+        </is>
+      </c>
+      <c r="I430" t="inlineStr">
+        <is>
+          <t>（【時の独裁】【因果の拒絶】【終焉の削除命令】を受けた！）</t>
+        </is>
+      </c>
+      <c r="J430" t="inlineStr">
+        <is>
+          <t>（【時の独裁】【因果の拒絶】【終焉の削除命令】を受けた！）</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="D431" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>EClass.pc.AddCondition&lt;Elin_SukutsuArena.Conditions.ConAstarothTyranny&gt;(1000);</t>
         </is>
       </c>
     </row>
     <row r="432">
-      <c r="F432" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>balgas_nul_lh</t>
-        </is>
-      </c>
-      <c r="I432" t="inlineStr">
-        <is>
-          <t>……アスタロトの野郎。そういうことだったのか……。</t>
-        </is>
-      </c>
-      <c r="J432" t="inlineStr">
-        <is>
-          <t>……アスタロトの野郎。そういうことだったのか……。</t>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>EClass.pc.AddCondition&lt;Elin_SukutsuArena.Conditions.ConAstarothDenial&gt;(1000);</t>
         </is>
       </c>
     </row>
     <row r="433">
-      <c r="F433" t="inlineStr">
-        <is>
-          <t>sukutsu_null</t>
-        </is>
-      </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>nul_5</t>
-        </is>
-      </c>
-      <c r="I433" t="inlineStr">
-        <is>
-          <t>……お願い。あの方を……止めて。私の中にいた『誰か』が……ずっと、それを望んでいた。</t>
-        </is>
-      </c>
-      <c r="J433" t="inlineStr">
-        <is>
-          <t>……お願い。あの方を……止めて。私の中にいた『誰か』が……ずっと、それを望んでいた。</t>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>EClass.pc.AddCondition&lt;Elin_SukutsuArena.Conditions.ConAstarothDeletion&gt;(1000);</t>
         </is>
       </c>
     </row>
     <row r="434">
-      <c r="F434" t="inlineStr">
-        <is>
-          <t>sukutsu_null</t>
-        </is>
-      </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>nul_6</t>
-        </is>
-      </c>
-      <c r="I434" t="inlineStr">
-        <is>
-          <t>……あなたのおかげで……私は、最後に『思い出す』ことができた。私には……守りたい人が、いたんだって。</t>
-        </is>
-      </c>
-      <c r="J434" t="inlineStr">
-        <is>
-          <t>……あなたのおかげで……私は、最後に『思い出す』ことができた。私には……守りたい人が、いたんだって。</t>
-        </is>
-      </c>
-    </row>
-    <row r="435">
-      <c r="D435" t="inlineStr">
-        <is>
-          <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="436">
-      <c r="F436" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>narr_nul4</t>
-        </is>
-      </c>
-      <c r="I436" t="inlineStr">
-        <is>
-          <t>（Nulの体が完全に光となって消えていく。）</t>
-        </is>
-      </c>
-      <c r="J436" t="inlineStr">
-        <is>
-          <t>（Nulの体が完全に光となって消えていく。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="437">
-      <c r="B437" t="inlineStr">
-        <is>
-          <t>act2_throne_room</t>
-        </is>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="inlineStr">
-        <is>
-          <t>act3_lily_hostile</t>
-        </is>
-      </c>
-    </row>
-    <row r="439">
-      <c r="D439" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E439" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Final_Battle");             var data = SoundManager.current.GetData("BGM/Final_Battle");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Final_Battle");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="440">
-      <c r="F440" t="inlineStr">
-        <is>
-          <t>sukutsu_astaroth</t>
-        </is>
-      </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>astaroth_p1</t>
-        </is>
-      </c>
-      <c r="I440" t="inlineStr">
-        <is>
-          <t>【時の独裁】ーーお前の時間を、永遠に止めてやろう</t>
-        </is>
-      </c>
-      <c r="J440" t="inlineStr">
-        <is>
-          <t>【時の独裁】ーーお前の時間を、永遠に止めてやろう</t>
-        </is>
-      </c>
-    </row>
-    <row r="441">
-      <c r="F441" t="inlineStr">
-        <is>
-          <t>sukutsu_astaroth</t>
-        </is>
-      </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>astaroth_p2</t>
-        </is>
-      </c>
-      <c r="I441" t="inlineStr">
-        <is>
-          <t>【因果の拒絶】ーーお前の攻撃は無に帰す</t>
-        </is>
-      </c>
-      <c r="J441" t="inlineStr">
-        <is>
-          <t>【因果の拒絶】ーーお前の攻撃は無に帰す</t>
-        </is>
-      </c>
-    </row>
-    <row r="442">
-      <c r="F442" t="inlineStr">
-        <is>
-          <t>sukutsu_astaroth</t>
-        </is>
-      </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>astaroth_p3</t>
-        </is>
-      </c>
-      <c r="I442" t="inlineStr">
-        <is>
-          <t>【終焉の削除命令】ーーお前の魔力を消し去る</t>
-        </is>
-      </c>
-      <c r="J442" t="inlineStr">
-        <is>
-          <t>【終焉の削除命令】ーーお前の魔力を消し去る</t>
-        </is>
-      </c>
-    </row>
-    <row r="443">
-      <c r="D443" t="inlineStr">
-        <is>
-          <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="444">
-      <c r="F444" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>narr_p1</t>
-        </is>
-      </c>
-      <c r="I444" t="inlineStr">
-        <is>
-          <t>（三つの極悪な権能が、あなたに向かって放たれるーー）</t>
-        </is>
-      </c>
-      <c r="J444" t="inlineStr">
-        <is>
-          <t>（三つの極悪な権能が、あなたに向かって放たれるーー）</t>
-        </is>
-      </c>
-    </row>
-    <row r="445">
-      <c r="D445" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E445" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="446">
-      <c r="D446" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E446" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-    </row>
-    <row r="447">
-      <c r="D447" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E447" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="448">
-      <c r="F448" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>zek_lh1</t>
-        </is>
-      </c>
-      <c r="I448" t="inlineStr">
-        <is>
-          <t>おっとーー私のキューブが黙っていませんよ！</t>
-        </is>
-      </c>
-      <c r="J448" t="inlineStr">
-        <is>
-          <t>おっとーー私のキューブが黙っていませんよ！</t>
-        </is>
-      </c>
-    </row>
-    <row r="449">
-      <c r="F449" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>narr_lh2</t>
-        </is>
-      </c>
-      <c r="I449" t="inlineStr">
-        <is>
-          <t>（ゼクのキューブが展開し、時の独裁を吸収）</t>
-        </is>
-      </c>
-      <c r="J449" t="inlineStr">
-        <is>
-          <t>（ゼクのキューブが展開し、時の独裁を吸収）</t>
-        </is>
-      </c>
-    </row>
-    <row r="450">
-      <c r="F450" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>zek_lh2</t>
-        </is>
-      </c>
-      <c r="I450" t="inlineStr">
-        <is>
-          <t>……ぐっ……これは重い。しかしーーまだです！</t>
-        </is>
-      </c>
-      <c r="J450" t="inlineStr">
-        <is>
-          <t>……ぐっ……これは重い。しかしーーまだです！</t>
-        </is>
-      </c>
-    </row>
-    <row r="451">
-      <c r="D451" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E451" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="452">
-      <c r="D452" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E452" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-    </row>
-    <row r="453">
-      <c r="D453" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E453" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="454">
-      <c r="F454" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>balgas_lh1</t>
-        </is>
-      </c>
-      <c r="I454" t="inlineStr">
-        <is>
-          <t>させるかよ！ 鋼の意志を舐めるな……！</t>
-        </is>
-      </c>
-      <c r="J454" t="inlineStr">
-        <is>
-          <t>させるかよ！ 鋼の意志を舐めるな……！</t>
-        </is>
-      </c>
-    </row>
-    <row r="455">
-      <c r="F455" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>narr_lh3</t>
-        </is>
-      </c>
-      <c r="I455" t="inlineStr">
-        <is>
-          <t>（バルガスが大剣で因果の拒絶を受け止める）</t>
-        </is>
-      </c>
-      <c r="J455" t="inlineStr">
-        <is>
-          <t>（バルガスが大剣で因果の拒絶を受け止める）</t>
-        </is>
-      </c>
-    </row>
-    <row r="456">
-      <c r="F456" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>balgas_lh2</t>
-        </is>
-      </c>
-      <c r="I456" t="inlineStr">
-        <is>
-          <t>俺の魂で……こじ開けてやる！</t>
-        </is>
-      </c>
-      <c r="J456" t="inlineStr">
-        <is>
-          <t>俺の魂で……こじ開けてやる！</t>
-        </is>
-      </c>
-    </row>
-    <row r="457">
-      <c r="D457" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E457" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="458">
-      <c r="D458" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E458" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-    </row>
-    <row r="459">
-      <c r="D459" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E459" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="460">
-      <c r="F460" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>zek_lh3</t>
-        </is>
-      </c>
-      <c r="I460" t="inlineStr">
-        <is>
-          <t>しかし……削除命令を受ける者が、いない……！</t>
-        </is>
-      </c>
-      <c r="J460" t="inlineStr">
-        <is>
-          <t>しかし……削除命令を受ける者が、いない……！</t>
-        </is>
-      </c>
-    </row>
-    <row r="461">
-      <c r="D461" t="inlineStr">
-        <is>
-          <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="462">
-      <c r="F462" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>narr_lh4</t>
-        </is>
-      </c>
-      <c r="I462" t="inlineStr">
-        <is>
-          <t>（【終焉の削除命令】を受けた！）</t>
-        </is>
-      </c>
-      <c r="J462" t="inlineStr">
-        <is>
-          <t>（【終焉の削除命令】を受けた！）</t>
-        </is>
-      </c>
-    </row>
-    <row r="463">
-      <c r="D463" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E463" t="inlineStr">
-        <is>
-          <t>EClass.pc.AddCondition&lt;Elin_SukutsuArena.Conditions.ConAstarothDeletion&gt;(1000);</t>
-        </is>
-      </c>
-    </row>
-    <row r="464">
-      <c r="B464" t="inlineStr">
-        <is>
-          <t>act4_battle</t>
-        </is>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="inlineStr">
-        <is>
-          <t>main_worst</t>
-        </is>
-      </c>
-    </row>
-    <row r="466">
-      <c r="D466" t="inlineStr">
-        <is>
-          <t>fadeOut</t>
-        </is>
-      </c>
-      <c r="E466" t="inlineStr">
-        <is>
-          <t>1.0,black</t>
-        </is>
-      </c>
-    </row>
-    <row r="467">
-      <c r="D467" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E467" t="inlineStr">
-        <is>
-          <t>dm.imageBG.enabled = true; dm.imageBG.sprite = "Drama/zek_hideout".LoadSprite();</t>
-        </is>
-      </c>
-    </row>
-    <row r="468">
-      <c r="D468" t="inlineStr">
-        <is>
-          <t>fadeIn</t>
-        </is>
-      </c>
-      <c r="E468" t="inlineStr">
-        <is>
-          <t>1.0,black</t>
-        </is>
-      </c>
-    </row>
-    <row r="469">
-      <c r="D469" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E469" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Pre_Battle_Calm");             var data = SoundManager.current.GetData("BGM/Pre_Battle_Calm");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Pre_Battle_Calm");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="470">
-      <c r="F470" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>narr_1</t>
-        </is>
-      </c>
-      <c r="I470" t="inlineStr">
-        <is>
-          <t>（ゼクの隠れ家『次元のゴミ捨て場』。そこは、アスタロトが切り捨てた『不要な可能性』が堆積する場所。）</t>
-        </is>
-      </c>
-      <c r="J470" t="inlineStr">
-        <is>
-          <t>（ゼクの隠れ家『次元のゴミ捨て場』。そこは、アスタロトが切り捨てた『不要な可能性』が堆積する場所。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="471">
-      <c r="F471" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>narr_2</t>
-        </is>
-      </c>
-      <c r="I471" t="inlineStr">
-        <is>
-          <t>（決戦を翌朝に控えた夜、焚き火の代わりに、剥き出しの魔力回路が淡い青光を放っている。）</t>
-        </is>
-      </c>
-      <c r="J471" t="inlineStr">
-        <is>
-          <t>（決戦を翌朝に控えた夜、焚き火の代わりに、剥き出しの魔力回路が淡い青光を放っている。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="472">
-      <c r="D472" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E472" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="473">
-      <c r="D473" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E473" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-    </row>
-    <row r="474">
-      <c r="D474" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E474" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="475">
-      <c r="F475" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>narr_3_w</t>
-        </is>
-      </c>
-      <c r="I475" t="inlineStr">
-        <is>
-          <t>（ゼクだけが、『因果の断片（キューブ）』の最終調整を行っていた。）</t>
-        </is>
-      </c>
-      <c r="J475" t="inlineStr">
-        <is>
-          <t>（ゼクだけが、『因果の断片（キューブ）』の最終調整を行っていた。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="476">
-      <c r="F476" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>zek_w1</t>
-        </is>
-      </c>
-      <c r="I476" t="inlineStr">
-        <is>
-          <t>……ふむ。バルガスは死に、リリィは離反した。残ったのは、私とあなただけですか。</t>
-        </is>
-      </c>
-      <c r="J476" t="inlineStr">
-        <is>
-          <t>……ふむ。バルガスは死に、リリィは離反した。残ったのは、私とあなただけですか。</t>
-        </is>
-      </c>
-    </row>
-    <row r="477">
-      <c r="F477" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>zek_w2</t>
-        </is>
-      </c>
-      <c r="I477" t="inlineStr">
-        <is>
-          <t>クク……商売抜きで言わせてもらいましょう。これは、なかなか……厳しい状況ですね。</t>
-        </is>
-      </c>
-      <c r="J477" t="inlineStr">
-        <is>
-          <t>クク……商売抜きで言わせてもらいましょう。これは、なかなか……厳しい状況ですね。</t>
-        </is>
-      </c>
-    </row>
-    <row r="478">
-      <c r="F478" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>zek_1</t>
-        </is>
-      </c>
-      <c r="I478" t="inlineStr">
-        <is>
-          <t>アスタロトは、この世界の『限界』を勝手に決めつけ、見限っている。</t>
-        </is>
-      </c>
-      <c r="J478" t="inlineStr">
-        <is>
-          <t>アスタロトは、この世界の『限界』を勝手に決めつけ、見限っている。</t>
-        </is>
-      </c>
-    </row>
-    <row r="479">
-      <c r="F479" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>zek_2</t>
-        </is>
-      </c>
-      <c r="I479" t="inlineStr">
-        <is>
-          <t>私はそれが気に入らない。ゴミはゴミらしく、混沌として流れてこそ美しい。私が用意したこのキューブは、王が支配する『時間』の独裁を一時的に狂わせるためのものです。……さあ、休みなさい。明日の朝、この世界の『所有権』を奪い返しに行くのですから。</t>
-        </is>
-      </c>
-      <c r="J479" t="inlineStr">
-        <is>
-          <t>私はそれが気に入らない。ゴミはゴミらしく、混沌として流れてこそ美しい。私が用意したこのキューブは、王が支配する『時間』の独裁を一時的に狂わせるためのものです。……さあ、休みなさい。明日の朝、この世界の『所有権』を奪い返しに行くのですから。</t>
-        </is>
-      </c>
-    </row>
-    <row r="480">
-      <c r="B480" t="inlineStr">
-        <is>
-          <t>act1_worst</t>
-        </is>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>act1_worst</t>
-        </is>
-      </c>
-    </row>
-    <row r="482">
-      <c r="F482" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>pc_1</t>
-        </is>
-      </c>
-      <c r="I482" t="inlineStr">
-        <is>
-          <t>（自分の『絶望する瞬間』を狙うつもりではないのか、と、あなたはゼクに疑問を投げかけた。）</t>
-        </is>
-      </c>
-      <c r="J482" t="inlineStr">
-        <is>
-          <t>（自分の『絶望する瞬間』を狙うつもりではないのか、と、あなたはゼクに疑問を投げかけた。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="483">
-      <c r="F483" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>pc_2</t>
-        </is>
-      </c>
-      <c r="I483" t="inlineStr">
-        <is>
-          <t>（カインの魂を売らせようとしたのも、リリィを裏切らせようとしたのも……全て、自分を『剥製』にするためだったのだろう。なのに、なぜ今、助けようとするのか？）</t>
-        </is>
-      </c>
-      <c r="J483" t="inlineStr">
-        <is>
-          <t>（カインの魂を売らせようとしたのも、リリィを裏切らせようとしたのも……全て、自分を『剥製』にするためだったのだろう。なのに、なぜ今、助けようとするのか？）</t>
-        </is>
-      </c>
-    </row>
-    <row r="484">
-      <c r="F484" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>zek_3</t>
-        </is>
-      </c>
-      <c r="I484" t="inlineStr">
-        <is>
-          <t>……ふふ。鋭いですね。</t>
-        </is>
-      </c>
-      <c r="J484" t="inlineStr">
-        <is>
-          <t>……ふふ。鋭いですね。</t>
-        </is>
-      </c>
-    </row>
-    <row r="485">
-      <c r="F485" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>zek_4</t>
-        </is>
-      </c>
-      <c r="I485" t="inlineStr">
-        <is>
-          <t>その通りです。私はあなたが『最も美しく壊れる瞬間』を待っていました。英雄が絶望に堕ちる時、その魂は最高の芸術品となる……。それが、私という『剥製師』の美学でした。</t>
-        </is>
-      </c>
-      <c r="J485" t="inlineStr">
-        <is>
-          <t>その通りです。私はあなたが『最も美しく壊れる瞬間』を待っていました。英雄が絶望に堕ちる時、その魂は最高の芸術品となる……。それが、私という『剥製師』の美学でした。</t>
-        </is>
-      </c>
-    </row>
-    <row r="486">
-      <c r="F486" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>zek_5w</t>
-        </is>
-      </c>
-      <c r="I486" t="inlineStr">
-        <is>
-          <t>ですが、あなたは違った。観客の喝采に従い、バルガスを殺した。リリィとの関係も壊れた。……普通なら、ここで絶望して壊れるはずだった。</t>
-        </is>
-      </c>
-      <c r="J486" t="inlineStr">
-        <is>
-          <t>ですが、あなたは違った。観客の喝采に従い、バルガスを殺した。リリィとの関係も壊れた。……普通なら、ここで絶望して壊れるはずだった。</t>
-        </is>
-      </c>
-    </row>
-    <row r="487">
-      <c r="F487" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>zek_6w</t>
-        </is>
-      </c>
-      <c r="I487" t="inlineStr">
-        <is>
-          <t>……しかし、あなたはまだ立っている。傷だらけで、孤独で、それでも前に進もうとしている。……それこそが、私が求めていた『奇跡』なのかもしれません。</t>
-        </is>
-      </c>
-      <c r="J487" t="inlineStr">
-        <is>
-          <t>……しかし、あなたはまだ立っている。傷だらけで、孤独で、それでも前に進もうとしている。……それこそが、私が求めていた『奇跡』なのかもしれません。</t>
-        </is>
-      </c>
-    </row>
-    <row r="488">
-      <c r="F488" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>zek_7</t>
-        </is>
-      </c>
-      <c r="I488" t="inlineStr">
-        <is>
-          <t>私のコレクションは、数千にも及びます。絶望した英雄、狂気に堕ちた賢者、愛に溺れた魔王……。ですが、『神を殺し、牢獄を破壊し、自由を手にする人間』は、まだ一つもない。</t>
-        </is>
-      </c>
-      <c r="J488" t="inlineStr">
-        <is>
-          <t>私のコレクションは、数千にも及びます。絶望した英雄、狂気に堕ちた賢者、愛に溺れた魔王……。ですが、『神を殺し、牢獄を破壊し、自由を手にする人間』は、まだ一つもない。</t>
-        </is>
-      </c>
-    </row>
-    <row r="489">
-      <c r="F489" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>zek_8</t>
-        </is>
-      </c>
-      <c r="I489" t="inlineStr">
-        <is>
-          <t>……あなたこそが、私の最高傑作。そして、その傑作は『未完成のまま飾る』のではなく……『完璧な結末を迎えさせる』ことでこそ、真価を発揮するのです。</t>
-        </is>
-      </c>
-      <c r="J489" t="inlineStr">
-        <is>
-          <t>……あなたこそが、私の最高傑作。そして、その傑作は『未完成のまま飾る』のではなく……『完璧な結末を迎えさせる』ことでこそ、真価を発揮するのです。</t>
-        </is>
-      </c>
-    </row>
-    <row r="490">
-      <c r="F490" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>zek_9</t>
-        </is>
-      </c>
-      <c r="I490" t="inlineStr">
-        <is>
-          <t>だから、私はあなたを助けます。商売のためでも、友情のためでもない。……ただ、この世界で最も美しい『奇跡の瞬間』を、この目で見届けたいから。それが、剥製師ゼクの最後の『作品』です。</t>
-        </is>
-      </c>
-      <c r="J490" t="inlineStr">
-        <is>
-          <t>だから、私はあなたを助けます。商売のためでも、友情のためでもない。……ただ、この世界で最も美しい『奇跡の瞬間』を、この目で見届けたいから。それが、剥製師ゼクの最後の『作品』です。</t>
-        </is>
-      </c>
-    </row>
-    <row r="491">
-      <c r="F491" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>zek_10</t>
-        </is>
-      </c>
-      <c r="I491" t="inlineStr">
-        <is>
-          <t>……さあ、休みなさい。明日、あなたは私に『最高の絵』を見せてくれる。……それを、永遠に焼き付けておきましょう。</t>
-        </is>
-      </c>
-      <c r="J491" t="inlineStr">
-        <is>
-          <t>……さあ、休みなさい。明日、あなたは私に『最高の絵』を見せてくれる。……それを、永遠に焼き付けておきましょう。</t>
-        </is>
-      </c>
-    </row>
-    <row r="492">
-      <c r="B492" t="inlineStr">
-        <is>
-          <t>act1_5_worst</t>
-        </is>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="inlineStr">
-        <is>
-          <t>act1_5_worst</t>
-        </is>
-      </c>
-    </row>
-    <row r="494">
-      <c r="D494" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E494" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="495">
-      <c r="F495" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>narr_nul1</t>
-        </is>
-      </c>
-      <c r="I495" t="inlineStr">
-        <is>
-          <t>（王座の間へ向かう途中、崩壊しかけた回廊で、倒れている存在を発見する。）</t>
-        </is>
-      </c>
-      <c r="J495" t="inlineStr">
-        <is>
-          <t>（王座の間へ向かう途中、崩壊しかけた回廊で、倒れている存在を発見する。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="496">
-      <c r="F496" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>narr_nul2</t>
-        </is>
-      </c>
-      <c r="I496" t="inlineStr">
-        <is>
-          <t>（それは暗殺人形・Nul。システムに背いた罰として、アスタロトに「削除」されかけていた。）</t>
-        </is>
-      </c>
-      <c r="J496" t="inlineStr">
-        <is>
-          <t>（それは暗殺人形・Nul。システムに背いた罰として、アスタロトに「削除」されかけていた。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="497">
-      <c r="D497" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E497" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="498">
-      <c r="D498" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E498" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-    </row>
-    <row r="499">
-      <c r="D499" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E499" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="500">
-      <c r="F500" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>zek_nul_w</t>
-        </is>
-      </c>
-      <c r="I500" t="inlineStr">
-        <is>
-          <t>……おや、Nulですか。あなたも、システムに見捨てられたクチですね。……私たちと同じ、というわけですか。</t>
-        </is>
-      </c>
-      <c r="J500" t="inlineStr">
-        <is>
-          <t>……おや、Nulですか。あなたも、システムに見捨てられたクチですね。……私たちと同じ、というわけですか。</t>
-        </is>
-      </c>
-    </row>
-    <row r="501">
-      <c r="F501" t="inlineStr">
-        <is>
-          <t>sukutsu_null</t>
-        </is>
-      </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>nul_1</t>
-        </is>
-      </c>
-      <c r="I501" t="inlineStr">
-        <is>
-          <t>……私は……もう、戦えない。</t>
-        </is>
-      </c>
-      <c r="J501" t="inlineStr">
-        <is>
-          <t>……私は……もう、戦えない。</t>
-        </is>
-      </c>
-    </row>
-    <row r="502">
-      <c r="F502" t="inlineStr">
-        <is>
-          <t>sukutsu_null</t>
-        </is>
-      </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>nul_2</t>
-        </is>
-      </c>
-      <c r="I502" t="inlineStr">
-        <is>
-          <t>……私は、思い出して、しまった。……『私』が、何だったのかを。</t>
-        </is>
-      </c>
-      <c r="J502" t="inlineStr">
-        <is>
-          <t>……私は、思い出して、しまった。……『私』が、何だったのかを。</t>
-        </is>
-      </c>
-    </row>
-    <row r="503">
-      <c r="F503" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>narr_nul3</t>
-        </is>
-      </c>
-      <c r="I503" t="inlineStr">
-        <is>
-          <t>（Nulの目から、光の粒子が零れ落ちるーー涙のように。）</t>
-        </is>
-      </c>
-      <c r="J503" t="inlineStr">
-        <is>
-          <t>（Nulの目から、光の粒子が零れ落ちるーー涙のように。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="504">
-      <c r="D504" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E504" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow_1");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow_1");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow_1");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="505">
-      <c r="F505" t="inlineStr">
-        <is>
-          <t>sukutsu_null</t>
-        </is>
-      </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>nul_fb1</t>
-        </is>
-      </c>
-      <c r="I505" t="inlineStr">
-        <is>
-          <t>……私は、かつて冒険者だった。名前は……もう、思い出せない。仲間がいた。守りたい人がいた。このアリーナに挑んで……そして、負けた。</t>
-        </is>
-      </c>
-      <c r="J505" t="inlineStr">
-        <is>
-          <t>……私は、かつて冒険者だった。名前は……もう、思い出せない。仲間がいた。守りたい人がいた。このアリーナに挑んで……そして、負けた。</t>
-        </is>
-      </c>
-    </row>
-    <row r="506">
-      <c r="F506" t="inlineStr">
-        <is>
-          <t>sukutsu_null</t>
-        </is>
-      </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>nul_fb2</t>
-        </is>
-      </c>
-      <c r="I506" t="inlineStr">
-        <is>
-          <t>アスタロト様は、私を『素材』にした。神格を人工的に作り出す実験ーー『神の孵化場』計画の、実験体に。</t>
-        </is>
-      </c>
-      <c r="J506" t="inlineStr">
-        <is>
-          <t>アスタロト様は、私を『素材』にした。神格を人工的に作り出す実験ーー『神の孵化場』計画の、実験体に。</t>
-        </is>
-      </c>
-    </row>
-    <row r="507">
-      <c r="D507" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E507" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="508">
-      <c r="D508" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E508" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-    </row>
-    <row r="509">
-      <c r="D509" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E509" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="510">
-      <c r="F510" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>zek_nul1</t>
-        </is>
-      </c>
-      <c r="I510" t="inlineStr">
-        <is>
-          <t>……ええ、知っていますとも。『神の孵化場』……このアリーナの本当の目的。</t>
-        </is>
-      </c>
-      <c r="J510" t="inlineStr">
-        <is>
-          <t>……ええ、知っていますとも。『神の孵化場』……このアリーナの本当の目的。</t>
-        </is>
-      </c>
-    </row>
-    <row r="511">
-      <c r="F511" t="inlineStr">
-        <is>
-          <t>sukutsu_null</t>
-        </is>
-      </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>nul_fb3</t>
-        </is>
-      </c>
-      <c r="I511" t="inlineStr">
-        <is>
-          <t>このアリーナの本当の目的……それは、娯楽でも、戦士の育成でもない。挑戦者の魂を極限まで練磨し、『神格』に至らせること。そして、その力をアスタロト様が吸収し……新しい世界を創造すること。</t>
-        </is>
-      </c>
-      <c r="J511" t="inlineStr">
-        <is>
-          <t>このアリーナの本当の目的……それは、娯楽でも、戦士の育成でもない。挑戦者の魂を極限まで練磨し、『神格』に至らせること。そして、その力をアスタロト様が吸収し……新しい世界を創造すること。</t>
-        </is>
-      </c>
-    </row>
-    <row r="512">
-      <c r="F512" t="inlineStr">
-        <is>
-          <t>sukutsu_null</t>
-        </is>
-      </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>nul_fb3b</t>
-        </is>
-      </c>
-      <c r="I512" t="inlineStr">
-        <is>
-          <t>アスタロト様は……かつて故郷を失った方。5万年前、『カラドリウス』という竜族の楽園が、神々の争いで滅んだと聞いています。</t>
-        </is>
-      </c>
-      <c r="J512" t="inlineStr">
-        <is>
-          <t>アスタロト様は……かつて故郷を失った方。5万年前、『カラドリウス』という竜族の楽園が、神々の争いで滅んだと聞いています。</t>
-        </is>
-      </c>
-    </row>
-    <row r="513">
-      <c r="F513" t="inlineStr">
-        <is>
-          <t>sukutsu_null</t>
-        </is>
-      </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>nul_fb3c</t>
-        </is>
-      </c>
-      <c r="I513" t="inlineStr">
-        <is>
-          <t>だから……新しい世界を創ろうとしている。自分が唯一の神として君臨する、完璧な楽園を。</t>
-        </is>
-      </c>
-      <c r="J513" t="inlineStr">
-        <is>
-          <t>だから……新しい世界を創ろうとしている。自分が唯一の神として君臨する、完璧な楽園を。</t>
-        </is>
-      </c>
-    </row>
-    <row r="514">
-      <c r="F514" t="inlineStr">
-        <is>
-          <t>sukutsu_null</t>
-        </is>
-      </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>nul_fb4</t>
-        </is>
-      </c>
-      <c r="I514" t="inlineStr">
-        <is>
-          <t>私は失敗作。神になれなかった、空っぽの人形。だから『Null』ーー『無』という名前を与えられた。</t>
-        </is>
-      </c>
-      <c r="J514" t="inlineStr">
-        <is>
-          <t>私は失敗作。神になれなかった、空っぽの人形。だから『Null』ーー『無』という名前を与えられた。</t>
-        </is>
-      </c>
-    </row>
-    <row r="515">
-      <c r="F515" t="inlineStr">
-        <is>
-          <t>sukutsu_null</t>
-        </is>
-      </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>nul_3</t>
-        </is>
-      </c>
-      <c r="I515" t="inlineStr">
-        <is>
-          <t>……あなたはいまや神格に最も近い存在……あの方はあなたを『吸収』しようとしている。</t>
-        </is>
-      </c>
-      <c r="J515" t="inlineStr">
-        <is>
-          <t>……あなたはいまや神格に最も近い存在……あの方はあなたを『吸収』しようとしている。</t>
-        </is>
-      </c>
-    </row>
-    <row r="516">
-      <c r="F516" t="inlineStr">
-        <is>
-          <t>sukutsu_null</t>
-        </is>
-      </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>nul_5</t>
-        </is>
-      </c>
-      <c r="I516" t="inlineStr">
-        <is>
-          <t>……お願い。あの方を……止めて。私の中にいた『誰か』が……ずっと、それを望んでいた。</t>
-        </is>
-      </c>
-      <c r="J516" t="inlineStr">
-        <is>
-          <t>……お願い。あの方を……止めて。私の中にいた『誰か』が……ずっと、それを望んでいた。</t>
-        </is>
-      </c>
-    </row>
-    <row r="517">
-      <c r="F517" t="inlineStr">
-        <is>
-          <t>sukutsu_null</t>
-        </is>
-      </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>nul_6</t>
-        </is>
-      </c>
-      <c r="I517" t="inlineStr">
-        <is>
-          <t>……あなたのおかげで……私は、最後に『思い出す』ことができた。私には……守りたい人が、いたんだって。</t>
-        </is>
-      </c>
-      <c r="J517" t="inlineStr">
-        <is>
-          <t>……あなたのおかげで……私は、最後に『思い出す』ことができた。私には……守りたい人が、いたんだって。</t>
-        </is>
-      </c>
-    </row>
-    <row r="518">
-      <c r="D518" t="inlineStr">
-        <is>
-          <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="519">
-      <c r="F519" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>narr_nul4</t>
-        </is>
-      </c>
-      <c r="I519" t="inlineStr">
-        <is>
-          <t>（Nulの体が完全に光となって消えていく。）</t>
-        </is>
-      </c>
-      <c r="J519" t="inlineStr">
-        <is>
-          <t>（Nulの体が完全に光となって消えていく。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="520">
-      <c r="B520" t="inlineStr">
-        <is>
-          <t>act2_throne_room</t>
-        </is>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>act3_worst</t>
-        </is>
-      </c>
-    </row>
-    <row r="522">
-      <c r="D522" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E522" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Final_Battle");             var data = SoundManager.current.GetData("BGM/Final_Battle");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Final_Battle");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="523">
-      <c r="F523" t="inlineStr">
-        <is>
-          <t>sukutsu_astaroth</t>
-        </is>
-      </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>astaroth_w1</t>
-        </is>
-      </c>
-      <c r="I523" t="inlineStr">
-        <is>
-          <t>【時の独裁】ーーお前の時間を、止める</t>
-        </is>
-      </c>
-      <c r="J523" t="inlineStr">
-        <is>
-          <t>【時の独裁】ーーお前の時間を、止める</t>
-        </is>
-      </c>
-    </row>
-    <row r="524">
-      <c r="D524" t="inlineStr">
-        <is>
-          <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="525">
-      <c r="D525" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E525" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="526">
-      <c r="D526" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E526" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-    </row>
-    <row r="527">
-      <c r="D527" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E527" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="528">
-      <c r="F528" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>zek_w1</t>
-        </is>
-      </c>
-      <c r="I528" t="inlineStr">
-        <is>
-          <t>……私だけですか。仕方ありませんね</t>
-        </is>
-      </c>
-      <c r="J528" t="inlineStr">
-        <is>
-          <t>……私だけですか。仕方ありませんね</t>
-        </is>
-      </c>
-    </row>
-    <row r="529">
-      <c r="F529" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>narr_w1</t>
-        </is>
-      </c>
-      <c r="I529" t="inlineStr">
-        <is>
-          <t>（ゼクのキューブが展開し、権能を吸収）</t>
-        </is>
-      </c>
-      <c r="J529" t="inlineStr">
-        <is>
-          <t>（ゼクのキューブが展開し、権能を吸収）</t>
-        </is>
-      </c>
-    </row>
-    <row r="530">
-      <c r="F530" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>zek_w2</t>
-        </is>
-      </c>
-      <c r="I530" t="inlineStr">
-        <is>
-          <t>……ぐっ……これは、なかなか重い……</t>
-        </is>
-      </c>
-      <c r="J530" t="inlineStr">
-        <is>
-          <t>……ぐっ……これは、なかなか重い……</t>
-        </is>
-      </c>
-    </row>
-    <row r="531">
-      <c r="F531" t="inlineStr">
-        <is>
-          <t>sukutsu_astaroth</t>
-        </is>
-      </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>astaroth_w2</t>
-        </is>
-      </c>
-      <c r="I531" t="inlineStr">
-        <is>
-          <t>【因果の拒絶】【終焉の削除命令】ーー全てを無に還す</t>
-        </is>
-      </c>
-      <c r="J531" t="inlineStr">
-        <is>
-          <t>【因果の拒絶】【終焉の削除命令】ーー全てを無に還す</t>
-        </is>
-      </c>
-    </row>
-    <row r="532">
-      <c r="D532" t="inlineStr">
-        <is>
-          <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="533">
-      <c r="F533" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>narr_w2</t>
-        </is>
-      </c>
-      <c r="I533" t="inlineStr">
-        <is>
-          <t>（2つの権能がゼクのキューブを直撃）</t>
-        </is>
-      </c>
-      <c r="J533" t="inlineStr">
-        <is>
-          <t>（2つの権能がゼクのキューブを直撃）</t>
-        </is>
-      </c>
-    </row>
-    <row r="534">
-      <c r="D534" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E534" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="535">
-      <c r="D535" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E535" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-    </row>
-    <row r="536">
-      <c r="D536" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E536" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="537">
-      <c r="F537" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>zek_w3</t>
-        </is>
-      </c>
-      <c r="I537" t="inlineStr">
-        <is>
-          <t>しまった……！ キューブが……持たない……！</t>
-        </is>
-      </c>
-      <c r="J537" t="inlineStr">
-        <is>
-          <t>しまった……！ キューブが……持たない……！</t>
-        </is>
-      </c>
-    </row>
-    <row r="538">
-      <c r="F538" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>narr_w3</t>
-        </is>
-      </c>
-      <c r="I538" t="inlineStr">
-        <is>
-          <t>（キューブが砕け散る音）</t>
-        </is>
-      </c>
-      <c r="J538" t="inlineStr">
-        <is>
-          <t>（キューブが砕け散る音）</t>
-        </is>
-      </c>
-    </row>
-    <row r="539">
-      <c r="D539" t="inlineStr">
-        <is>
-          <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="540">
-      <c r="F540" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>narr_w4</t>
-        </is>
-      </c>
-      <c r="I540" t="inlineStr">
-        <is>
-          <t>（残りの権能がプレイヤーを直撃）</t>
-        </is>
-      </c>
-      <c r="J540" t="inlineStr">
-        <is>
-          <t>（残りの権能がプレイヤーを直撃）</t>
-        </is>
-      </c>
-    </row>
-    <row r="541">
-      <c r="D541" t="inlineStr">
-        <is>
-          <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="542">
-      <c r="F542" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>narr_w5</t>
-        </is>
-      </c>
-      <c r="I542" t="inlineStr">
-        <is>
-          <t>（【時の独裁】【因果の拒絶】【終焉の削除命令】を受けた！）</t>
-        </is>
-      </c>
-      <c r="J542" t="inlineStr">
-        <is>
-          <t>（【時の独裁】【因果の拒絶】【終焉の削除命令】を受けた！）</t>
-        </is>
-      </c>
-    </row>
-    <row r="543">
-      <c r="D543" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E543" t="inlineStr">
-        <is>
-          <t>EClass.pc.AddCondition&lt;Elin_SukutsuArena.Conditions.ConAstarothTyranny&gt;(1000);</t>
-        </is>
-      </c>
-    </row>
-    <row r="544">
-      <c r="D544" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E544" t="inlineStr">
-        <is>
-          <t>EClass.pc.AddCondition&lt;Elin_SukutsuArena.Conditions.ConAstarothDenial&gt;(1000);</t>
-        </is>
-      </c>
-    </row>
-    <row r="545">
-      <c r="D545" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E545" t="inlineStr">
-        <is>
-          <t>EClass.pc.AddCondition&lt;Elin_SukutsuArena.Conditions.ConAstarothDeletion&gt;(1000);</t>
-        </is>
-      </c>
-    </row>
-    <row r="546">
-      <c r="B546" t="inlineStr">
+      <c r="B434" t="inlineStr">
         <is>
           <t>act4_battle</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_last_battle.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_last_battle.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K434"/>
+  <dimension ref="A1:L434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,40 +439,45 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>if2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>action</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>actor</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>text_JP</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>text_EN</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>text</t>
         </is>
@@ -491,17 +496,17 @@
           <t>main_check_lily_dead</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>invoke*</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>if_flag(chitsii.arena.player.balgas_killed, ==1)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
@@ -513,371 +518,371 @@
           <t>main_lily_hostile</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>invoke*</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>if_flag(chitsii.arena.player.lily_hostile, ==1)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>fadeOut</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1.0,black</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>dm.imageBG.enabled = true; dm.imageBG.sprite = "Drama/zek_hideout".LoadSprite();</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>fadeIn</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1.0,black</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Pre_Battle_Calm");             var data = SoundManager.current.GetData("BGM/Pre_Battle_Calm");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Pre_Battle_Calm");             }</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>narr_1</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>（ゼクの隠れ家『次元のゴミ捨て場』。そこは、アスタロトが切り捨てた『不要な可能性』が堆積する場所。）</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>（ゼクの隠れ家『次元のゴミ捨て場』。そこは、アスタロトが切り捨てた『不要な可能性』が堆積する場所。）</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>narr_2</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>（決戦を翌朝に控えた夜、焚き火の代わりに、剥き出しの魔力回路が淡い青光を放っている。）</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>（決戦を翌朝に控えた夜、焚き火の代わりに、剥き出しの魔力回路が淡い青光を放っている。）</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>narr_3</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>（バルガスは大剣を研ぎ、リリィは静かに祈りを捧げ、ゼクは『因果の断片（キューブ）』の最終調整を行っていた。）</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>（バルガスは大剣を研ぎ、リリィは静かに祈りを捧げ、ゼクは『因果の断片（キューブ）』の最終調整を行っていた。）</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>balgas_1</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>……引退？ ああ、確かに言ったな。……だが、お前が俺の命を救ったあの日、俺の中で何かが変わっちまったんだよ。</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>……引退？ ああ、確かに言ったな。……だが、お前が俺の命を救ったあの日、俺の中で何かが変わっちまったんだよ。</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>balgas_2</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>カインを失って以来、俺はずっと『死に場所』を探してた。だが、お前は俺にそれを許さなかった。……なら、せめて最後くらい、お前の『生きる場所』を作る手伝いをさせろ。</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>カインを失って以来、俺はずっと『死に場所』を探してた。だが、お前は俺にそれを許さなかった。……なら、せめて最後くらい、お前の『生きる場所』を作る手伝いをさせろ。</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>balgas_3</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>それに……引退した老いぼれが、弟子の晴れ舞台を客席から眺めてるだけなんて、柄じゃねえんだよ。俺は戦士だ。最期まで、剣を握って立ってる方が性に合ってる。</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>それに……引退した老いぼれが、弟子の晴れ舞台を客席から眺めてるだけなんて、柄じゃねえんだよ。俺は戦士だ。最期まで、剣を握って立ってる方が性に合ってる。</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>lily_2</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>私の真名……。この名を知る者がいる限り、私はもう、アスタロト様の命令には従いません。……明日、王があなたの存在を消そうとしても、私がその因果を繋ぎ止めてみせます。</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>私の真名……。この名を知る者がいる限り、私はもう、アスタロト様の命令には従いません。……明日、王があなたの存在を消そうとしても、私がその因果を繋ぎ止めてみせます。</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>zek_1</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>クク……商売抜きで言わせてもらいましょう。アスタロトは、この世界の『限界』を勝手に決めつけ、見限っている。</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>クク……商売抜きで言わせてもらいましょう。アスタロトは、この世界の『限界』を勝手に決めつけ、見限っている。</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>zek_2</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>私はそれが気に入らない。ゴミはゴミらしく、混沌として流れてこそ美しい。私が用意したこのキューブは、王が支配する『時間』の独裁を一時的に狂わせるためのものです。……さあ、休みなさい。明日の朝、この世界の『所有権』を奪い返しに行くのですから。</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>私はそれが気に入らない。ゴミはゴミらしく、混沌として流れてこそ美しい。私が用意したこのキューブは、王が支配する『時間』の独裁を一時的に狂わせるためのものです。……さあ、休みなさい。明日の朝、この世界の『所有権』を奪い返しに行くのですから。</t>
         </is>
@@ -898,220 +903,220 @@
       </c>
     </row>
     <row r="33">
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>pc_1</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>（自分の『絶望する瞬間』を狙うつもりではないのか、と、あなたはゼクに疑問を投げかけた。）</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>（自分の『絶望する瞬間』を狙うつもりではないのか、と、あなたはゼクに疑問を投げかけた。）</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>pc_2</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>（カインの魂を売らせようとしたのも、リリィを裏切らせようとしたのも……全て、自分を『剥製』にするためだったのだろう。なのに、なぜ今、助けようとするのか？）</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>（カインの魂を売らせようとしたのも、リリィを裏切らせようとしたのも……全て、自分を『剥製』にするためだったのだろう。なのに、なぜ今、助けようとするのか？）</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>zek_3</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>……ふふ。鋭いですね。</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>……ふふ。鋭いですね。</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>zek_4</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>その通りです。私はあなたが『最も美しく壊れる瞬間』を待っていました。英雄が絶望に堕ちる時、その魂は最高の芸術品となる……。それが、私という『剥製師』の美学でした。</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>その通りです。私はあなたが『最も美しく壊れる瞬間』を待っていました。英雄が絶望に堕ちる時、その魂は最高の芸術品となる……。それが、私という『剥製師』の美学でした。</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>zek_5</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>ですが、あなたは違った。カインを裏切る選択肢を与えても、あなたはバルガスを選んだ。リリィを欺く道を示しても、あなたは罪を告白した。バルガスを殺す観客の喝采が響いても、あなたは剣を下ろした。</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>ですが、あなたは違った。カインを裏切る選択肢を与えても、あなたはバルガスを選んだ。リリィを欺く道を示しても、あなたは罪を告白した。バルガスを殺す観客の喝采が響いても、あなたは剣を下ろした。</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>zek_6</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>……あなたは、私の期待を『裏切り続けた』のです。そして、その度に私は気づいてしまった。あなたが『壊れた瞬間』を剥製にするよりも……あなたが『システムそのものを壊す瞬間』を目撃する方が、遥かに美しい、と。</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>……あなたは、私の期待を『裏切り続けた』のです。そして、その度に私は気づいてしまった。あなたが『壊れた瞬間』を剥製にするよりも……あなたが『システムそのものを壊す瞬間』を目撃する方が、遥かに美しい、と。</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>zek_7</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>私のコレクションは、数千にも及びます。絶望した英雄、狂気に堕ちた賢者、愛に溺れた魔王……。ですが、『神を殺し、牢獄を破壊し、自由を手にする人間』は、まだ一つもない。</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>私のコレクションは、数千にも及びます。絶望した英雄、狂気に堕ちた賢者、愛に溺れた魔王……。ですが、『神を殺し、牢獄を破壊し、自由を手にする人間』は、まだ一つもない。</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>zek_8</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>……あなたこそが、私の最高傑作。そして、その傑作は『未完成のまま飾る』のではなく……『完璧な結末を迎えさせる』ことでこそ、真価を発揮するのです。</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>……あなたこそが、私の最高傑作。そして、その傑作は『未完成のまま飾る』のではなく……『完璧な結末を迎えさせる』ことでこそ、真価を発揮するのです。</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>zek_9</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>だから、私はあなたを助けます。商売のためでも、友情のためでもない。……ただ、この世界で最も美しい『奇跡の瞬間』を、この目で見届けたいから。それが、剥製師ゼクの最後の『作品』です。</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>だから、私はあなたを助けます。商売のためでも、友情のためでもない。……ただ、この世界で最も美しい『奇跡の瞬間』を、この目で見届けたいから。それが、剥製師ゼクの最後の『作品』です。</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>zek_10</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>……さあ、休みなさい。明日、あなたは私に『最高の絵』を見せてくれる。……それを、永遠に焼き付けておきましょう。</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>……さあ、休みなさい。明日、あなたは私に『最高の絵』を見せてくれる。……それを、永遠に焼き付けておきましょう。</t>
         </is>
@@ -1132,659 +1137,659 @@
       </c>
     </row>
     <row r="45">
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>narr_nul1</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>（王座の間へ向かう途中、一行は崩壊しかけた回廊で、倒れている存在を発見する。）</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>（王座の間へ向かう途中、一行は崩壊しかけた回廊で、倒れている存在を発見する。）</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>narr_nul2</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>（それは暗殺人形・Nul。システムに背いた罰として、アスタロトに「削除」されかけていた。）</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>（それは暗殺人形・Nul。システムに背いた罰として、アスタロトに「削除」されかけていた。）</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>balgas_nul0</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>……待て！ あれはNulだ。罠かもしれねえ、近づくな！</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>……待て！ あれはNulだ。罠かもしれねえ、近づくな！</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>narr_nul2b</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>（バルガスが剣を構え、一行の前に立ちはだかる。）</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>（バルガスが剣を構え、一行の前に立ちはだかる。）</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>nul_1</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>……あなた、ですか。……システムを、拒絶した……人間。……私は……もう、戦えない。</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>……あなた、ですか。……システムを、拒絶した……人間。……私は……もう、戦えない。</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>lily_nul1</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>Nul……！ あなた、何があったの？</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>Nul……！ あなた、何があったの？</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>nul_2</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>……私は、思い出して、しまった。……『私』が、何だったのかを。</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>……私は、思い出して、しまった。……『私』が、何だったのかを。</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>narr_nul3</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>（Nulの目から、光の粒子が零れ落ちるーー涙のように。）</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>（Nulの目から、光の粒子が零れ落ちるーー涙のように。）</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow_1");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow_1");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow_1");             }</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>nul_fb1</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>……私は、かつて冒険者だった。名前は……もう、思い出せない。仲間がいた。守りたい人がいた。このアリーナに挑んで……そして、負けた。</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>……私は、かつて冒険者だった。名前は……もう、思い出せない。仲間がいた。守りたい人がいた。このアリーナに挑んで……そして、負けた。</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>nul_fb2</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>アスタロト様は、私を『素材』にした。神格を人工的に作り出す実験ーー『神の孵化場』計画の、実験体に。</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>アスタロト様は、私を『素材』にした。神格を人工的に作り出す実験ーー『神の孵化場』計画の、実験体に。</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>balgas_nul1</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>……！ 『神の孵化場』だと……？</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>……！ 『神の孵化場』だと……？</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>narr_nul3b</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>（バルガスの表情が凍りつく。その言葉には、覚えがあった。ゼクが語っていた、あの荒唐無稽な話。）</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>（バルガスの表情が凍りつく。その言葉には、覚えがあった。ゼクが語っていた、あの荒唐無稽な話。）</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>balgas_nul2</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>……ゼクの野郎が言ってたことは、本当だったのか……？ 俺は、あいつの言葉は闇商人の戯言だと思っていた。</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>……ゼクの野郎が言ってたことは、本当だったのか……？ 俺は、あいつの言葉は闇商人の戯言だと思っていた。</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>nul_fb3</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>このアリーナの本当の目的……それは、娯楽でも、戦士の育成でもない。挑戦者の魂を極限まで練磨し、『神格』に至らせること。そして、その力をアスタロト様が吸収し……新しい世界を創造すること。</t>
         </is>
       </c>
-      <c r="J69" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>このアリーナの本当の目的……それは、娯楽でも、戦士の育成でもない。挑戦者の魂を極限まで練磨し、『神格』に至らせること。そして、その力をアスタロト様が吸収し……新しい世界を創造すること。</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>nul_fb3b</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>アスタロト様は……かつて故郷を失った方。5万年前、『カラドリウス』という竜族の楽園が、神々の争いで滅んだと聞いています。</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>アスタロト様は……かつて故郷を失った方。5万年前、『カラドリウス』という竜族の楽園が、神々の争いで滅んだと聞いています。</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>nul_fb3c</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>だから……新しい世界を創ろうとしている。自分が唯一の神として君臨する、完璧な楽園を。</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>だから……新しい世界を創ろうとしている。自分が唯一の神として君臨する、完璧な楽園を。</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>nul_fb4</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>私は失敗作。神になれなかった、空っぽの人形。だから『Null』ーー『無』という名前を与えられた。</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>私は失敗作。神になれなかった、空っぽの人形。だから『Null』ーー『無』という名前を与えられた。</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>nul_3</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>……あなたはいまや神格に最も近い存在……あの方はあなたを『吸収』しようとしている。</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>……あなたはいまや神格に最も近い存在……あの方はあなたを『吸収』しようとしている。</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>lily_nul2</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
+      <c r="J77" t="inlineStr">
         <is>
           <t>……アスタロト様。あなたは、ずっとそんなことを……。</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>……アスタロト様。あなたは、ずっとそんなことを……。</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>nul_5</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
+      <c r="J78" t="inlineStr">
         <is>
           <t>……お願い。あの方を……止めて。私の中にいた『誰か』が……ずっと、それを望んでいた。</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr">
+      <c r="K78" t="inlineStr">
         <is>
           <t>……お願い。あの方を……止めて。私の中にいた『誰か』が……ずっと、それを望んでいた。</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>nul_6</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr">
+      <c r="J79" t="inlineStr">
         <is>
           <t>……あなたのおかげで……私は、最後に『思い出す』ことができた。私には……守りたい人が、いたんだって。</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr">
+      <c r="K79" t="inlineStr">
         <is>
           <t>……あなたのおかげで……私は、最後に『思い出す』ことができた。私には……守りたい人が、いたんだって。</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>narr_nul4</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
+      <c r="J81" t="inlineStr">
         <is>
           <t>（Nulの体が完全に光となって消えていく。）</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr">
+      <c r="K81" t="inlineStr">
         <is>
           <t>（Nulの体が完全に光となって消えていく。）</t>
         </is>
@@ -1805,202 +1810,202 @@
       </c>
     </row>
     <row r="84">
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>fadeOut</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>0.5,black</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>dm.imageBG.enabled = true; dm.imageBG.sprite = "Drama/throne_room".LoadSprite();</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>fadeIn</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>0.5,black</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Astaroth_Throne");             var data = SoundManager.current.GetData("BGM/Astaroth_Throne");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Astaroth_Throne");             }</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>narr_5</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr">
+      <c r="J88" t="inlineStr">
         <is>
           <t>（Nulの消滅を見届けた後、一行は王座の間へと辿り着く。）</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr">
+      <c r="K88" t="inlineStr">
         <is>
           <t>（Nulの消滅を見届けた後、一行は王座の間へと辿り着く。）</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>narr_6</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr">
+      <c r="J89" t="inlineStr">
         <is>
           <t>（そこは、観客席すら存在しない『絶対的な静寂』の空間。アスタロトは、巨大な竜の翼を休め、孤独な王座に腰掛けていた。）</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr">
+      <c r="K89" t="inlineStr">
         <is>
           <t>（そこは、観客席すら存在しない『絶対的な静寂』の空間。アスタロトは、巨大な竜の翼を休め、孤独な王座に腰掛けていた。）</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>pc_asta</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr">
+      <c r="J90" t="inlineStr">
         <is>
           <t>……『神の孵化場』。それがこのアリーナの正体か、アスタロト。</t>
         </is>
       </c>
-      <c r="J90" t="inlineStr">
+      <c r="K90" t="inlineStr">
         <is>
           <t>……『神の孵化場』。それがこのアリーナの正体か、アスタロト。</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>sukutsu_astaroth</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>astaroth_0</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
+      <c r="J91" t="inlineStr">
         <is>
           <t>……Nulから聞いたのか。あの失敗作、最後に余計なことを。</t>
         </is>
       </c>
-      <c r="J91" t="inlineStr">
+      <c r="K91" t="inlineStr">
         <is>
           <t>……Nulから聞いたのか。あの失敗作、最後に余計なことを。</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>sukutsu_astaroth</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>astaroth_1</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr">
+      <c r="J92" t="inlineStr">
         <is>
           <t>……よく来た。世界を揺るがす質量となった者よ。</t>
         </is>
       </c>
-      <c r="J92" t="inlineStr">
+      <c r="K92" t="inlineStr">
         <is>
           <t>……よく来た。世界を揺るがす質量となった者よ。</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>sukutsu_astaroth</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>astaroth_2</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr">
+      <c r="J93" t="inlineStr">
         <is>
           <t>ゼク、リリィ、バルガス……。敗残兵と裏切り者の手を借りて、この私に対抗しようというのか。</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr">
+      <c r="K93" t="inlineStr">
         <is>
           <t>ゼク、リリィ、バルガス……。敗残兵と裏切り者の手を借りて、この私に対抗しようというのか。</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>sukutsu_astaroth</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>astaroth_3</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr">
+      <c r="J94" t="inlineStr">
         <is>
           <t>だが、知るがいい。私の言葉は『法』であり、私の吐息は『執行』である。お前たちが何を積み上げようと、私の前では無に等しい。</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>だが、知るがいい。私の言葉は『法』であり、私の吐息は『執行』である。お前たちが何を積み上げようと、私の前では無に等しい。</t>
         </is>
@@ -2026,17 +2031,17 @@
           <t>act3_check_lily_dead</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>invoke*</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>if_flag(chitsii.arena.player.balgas_killed, ==1)</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
@@ -2048,182 +2053,182 @@
           <t>act3_lily_hostile</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>invoke*</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>if_flag(chitsii.arena.player.lily_hostile, ==1)</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Final_Battle");             var data = SoundManager.current.GetData("BGM/Final_Battle");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Final_Battle");             }</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>sukutsu_astaroth</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>astaroth_p1</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr">
+      <c r="J100" t="inlineStr">
         <is>
           <t>【時の独裁】ーーお前の時間を、永遠に止めてやろう</t>
         </is>
       </c>
-      <c r="J100" t="inlineStr">
+      <c r="K100" t="inlineStr">
         <is>
           <t>【時の独裁】ーーお前の時間を、永遠に止めてやろう</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>sukutsu_astaroth</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>astaroth_p2</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr">
+      <c r="J101" t="inlineStr">
         <is>
           <t>【因果の拒絶】ーーお前の攻撃は無に帰す</t>
         </is>
       </c>
-      <c r="J101" t="inlineStr">
+      <c r="K101" t="inlineStr">
         <is>
           <t>【因果の拒絶】ーーお前の攻撃は無に帰す</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>sukutsu_astaroth</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>astaroth_p3</t>
         </is>
       </c>
-      <c r="I102" t="inlineStr">
+      <c r="J102" t="inlineStr">
         <is>
           <t>【終焉の削除命令】ーーお前の魔力を消し去る</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr">
+      <c r="K102" t="inlineStr">
         <is>
           <t>【終焉の削除命令】ーーお前の魔力を消し去る</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>narr_p1</t>
         </is>
       </c>
-      <c r="I104" t="inlineStr">
+      <c r="J104" t="inlineStr">
         <is>
           <t>（三つの極悪な権能が、あなたに向かって放たれるーー）</t>
         </is>
       </c>
-      <c r="J104" t="inlineStr">
+      <c r="K104" t="inlineStr">
         <is>
           <t>（三つの極悪な権能が、あなたに向かって放たれるーー）</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>zek_p1</t>
         </is>
       </c>
-      <c r="I108" t="inlineStr">
+      <c r="J108" t="inlineStr">
         <is>
           <t>私たちが庇います。あなたはーー</t>
         </is>
       </c>
-      <c r="J108" t="inlineStr">
+      <c r="K108" t="inlineStr">
         <is>
           <t>私たちが庇います。あなたはーー</t>
         </is>
@@ -2235,22 +2240,22 @@
           <t>act3_allies_protect</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>choice_trust</t>
         </is>
       </c>
-      <c r="I109" t="inlineStr">
+      <c r="J109" t="inlineStr">
         <is>
           <t>信じている</t>
         </is>
       </c>
-      <c r="J109" t="inlineStr">
+      <c r="K109" t="inlineStr">
         <is>
           <t>信じている</t>
         </is>
@@ -2262,22 +2267,22 @@
           <t>act3_take_all</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>choice_take_all</t>
         </is>
       </c>
-      <c r="I110" t="inlineStr">
+      <c r="J110" t="inlineStr">
         <is>
           <t>俺が全て受ける</t>
         </is>
       </c>
-      <c r="J110" t="inlineStr">
+      <c r="K110" t="inlineStr">
         <is>
           <t>俺が全て受ける</t>
         </is>
@@ -2291,306 +2296,306 @@
       </c>
     </row>
     <row r="112">
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>zek_11</t>
         </is>
       </c>
-      <c r="I115" t="inlineStr">
+      <c r="J115" t="inlineStr">
         <is>
           <t>おっとーー私のキューブが黙っていませんよ！</t>
         </is>
       </c>
-      <c r="J115" t="inlineStr">
+      <c r="K115" t="inlineStr">
         <is>
           <t>おっとーー私のキューブが黙っていませんよ！</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>narr_p2</t>
         </is>
       </c>
-      <c r="I116" t="inlineStr">
+      <c r="J116" t="inlineStr">
         <is>
           <t>（ゼクのキューブが展開し、権能を吸収）</t>
         </is>
       </c>
-      <c r="J116" t="inlineStr">
+      <c r="K116" t="inlineStr">
         <is>
           <t>（ゼクのキューブが展開し、権能を吸収）</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>zek_12</t>
         </is>
       </c>
-      <c r="I117" t="inlineStr">
+      <c r="J117" t="inlineStr">
         <is>
           <t>……ぐっ……これは重い。しかしーーまだです！</t>
         </is>
       </c>
-      <c r="J117" t="inlineStr">
+      <c r="K117" t="inlineStr">
         <is>
           <t>……ぐっ……これは重い。しかしーーまだです！</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
+      <c r="I121" t="inlineStr">
         <is>
           <t>balgas_4</t>
         </is>
       </c>
-      <c r="I121" t="inlineStr">
+      <c r="J121" t="inlineStr">
         <is>
           <t>させるかよ！ 鋼の意志を舐めるな……！</t>
         </is>
       </c>
-      <c r="J121" t="inlineStr">
+      <c r="K121" t="inlineStr">
         <is>
           <t>させるかよ！ 鋼の意志を舐めるな……！</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
+      <c r="I122" t="inlineStr">
         <is>
           <t>narr_p3</t>
         </is>
       </c>
-      <c r="I122" t="inlineStr">
+      <c r="J122" t="inlineStr">
         <is>
           <t>（バルガスが大剣で権能を受け止める）</t>
         </is>
       </c>
-      <c r="J122" t="inlineStr">
+      <c r="K122" t="inlineStr">
         <is>
           <t>（バルガスが大剣で権能を受け止める）</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
+      <c r="I123" t="inlineStr">
         <is>
           <t>balgas_5</t>
         </is>
       </c>
-      <c r="I123" t="inlineStr">
+      <c r="J123" t="inlineStr">
         <is>
           <t>俺の魂で……こじ開けてやる！</t>
         </is>
       </c>
-      <c r="J123" t="inlineStr">
+      <c r="K123" t="inlineStr">
         <is>
           <t>俺の魂で……こじ開けてやる！</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
+      <c r="I127" t="inlineStr">
         <is>
           <t>lily_3</t>
         </is>
       </c>
-      <c r="I127" t="inlineStr">
+      <c r="J127" t="inlineStr">
         <is>
           <t>……私が、受けます</t>
         </is>
       </c>
-      <c r="J127" t="inlineStr">
+      <c r="K127" t="inlineStr">
         <is>
           <t>……私が、受けます</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
+      <c r="I128" t="inlineStr">
         <is>
           <t>narr_p4</t>
         </is>
       </c>
-      <c r="I128" t="inlineStr">
+      <c r="J128" t="inlineStr">
         <is>
           <t>（リリィが静かに前に出る）</t>
         </is>
       </c>
-      <c r="J128" t="inlineStr">
+      <c r="K128" t="inlineStr">
         <is>
           <t>（リリィが静かに前に出る）</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
+      <c r="I129" t="inlineStr">
         <is>
           <t>lily_4</t>
         </is>
       </c>
-      <c r="I129" t="inlineStr">
+      <c r="J129" t="inlineStr">
         <is>
           <t>あなたを……守らせてください</t>
         </is>
       </c>
-      <c r="J129" t="inlineStr">
+      <c r="K129" t="inlineStr">
         <is>
           <t>あなたを……守らせてください</t>
         </is>
@@ -2611,269 +2616,269 @@
       </c>
     </row>
     <row r="132">
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
+      <c r="I132" t="inlineStr">
         <is>
           <t>narr_ta1</t>
         </is>
       </c>
-      <c r="I132" t="inlineStr">
+      <c r="J132" t="inlineStr">
         <is>
           <t>（あなたは、仲間を犠牲にはしたくないと言った。）</t>
         </is>
       </c>
-      <c r="J132" t="inlineStr">
+      <c r="K132" t="inlineStr">
         <is>
           <t>（あなたは、仲間を犠牲にはしたくないと言った。）</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="D135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
+      <c r="I136" t="inlineStr">
         <is>
           <t>zek_ta1</t>
         </is>
       </c>
-      <c r="I136" t="inlineStr">
+      <c r="J136" t="inlineStr">
         <is>
           <t>……正気ですか？</t>
         </is>
       </c>
-      <c r="J136" t="inlineStr">
+      <c r="K136" t="inlineStr">
         <is>
           <t>……正気ですか？</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="D137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="D138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="D139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
+      <c r="I140" t="inlineStr">
         <is>
           <t>balgas_ta1</t>
         </is>
       </c>
-      <c r="I140" t="inlineStr">
+      <c r="J140" t="inlineStr">
         <is>
           <t>おい、無茶をーー</t>
         </is>
       </c>
-      <c r="J140" t="inlineStr">
+      <c r="K140" t="inlineStr">
         <is>
           <t>おい、無茶をーー</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
+      <c r="I141" t="inlineStr">
         <is>
           <t>narr_ta2</t>
         </is>
       </c>
-      <c r="I141" t="inlineStr">
+      <c r="J141" t="inlineStr">
         <is>
           <t>（あなたは、これは自分の戦いだと、仲間たちに告げた。）</t>
         </is>
       </c>
-      <c r="J141" t="inlineStr">
+      <c r="K141" t="inlineStr">
         <is>
           <t>（あなたは、これは自分の戦いだと、仲間たちに告げた。）</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>sukutsu_astaroth</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
+      <c r="I142" t="inlineStr">
         <is>
           <t>astaroth_ta1</t>
         </is>
       </c>
-      <c r="I142" t="inlineStr">
+      <c r="J142" t="inlineStr">
         <is>
           <t>……愚かな選択だ。ならばーー受けるがいい</t>
         </is>
       </c>
-      <c r="J142" t="inlineStr">
+      <c r="K142" t="inlineStr">
         <is>
           <t>……愚かな選択だ。ならばーー受けるがいい</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
+      <c r="I143" t="inlineStr">
         <is>
           <t>narr_ta3</t>
         </is>
       </c>
-      <c r="I143" t="inlineStr">
+      <c r="J143" t="inlineStr">
         <is>
           <t>（3つの権能がプレイヤーを直撃）</t>
         </is>
       </c>
-      <c r="J143" t="inlineStr">
+      <c r="K143" t="inlineStr">
         <is>
           <t>（3つの権能がプレイヤーを直撃）</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="D144" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="F145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
+      <c r="I145" t="inlineStr">
         <is>
           <t>narr_ta4</t>
         </is>
       </c>
-      <c r="I145" t="inlineStr">
+      <c r="J145" t="inlineStr">
         <is>
           <t>（【時の独裁】【因果の拒絶】【終焉の削除命令】を受けた！）</t>
         </is>
       </c>
-      <c r="J145" t="inlineStr">
+      <c r="K145" t="inlineStr">
         <is>
           <t>（【時の独裁】【因果の拒絶】【終焉の削除命令】を受けた！）</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="D146" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>EClass.pc.AddCondition&lt;Elin_SukutsuArena.Conditions.ConAstarothTyranny&gt;(1000);</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="D147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>EClass.pc.AddCondition&lt;Elin_SukutsuArena.Conditions.ConAstarothDenial&gt;(1000);</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="D148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>EClass.pc.AddCondition&lt;Elin_SukutsuArena.Conditions.ConAstarothDeletion&gt;(1000);</t>
         </is>
@@ -2894,116 +2899,116 @@
       </c>
     </row>
     <row r="151">
-      <c r="F151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
+      <c r="I151" t="inlineStr">
         <is>
           <t>narr_12</t>
         </is>
       </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>（権能を封じられたアスタロトの瞳に、初めて『驚愕』と『喜び』が混じる。）</t>
-        </is>
-      </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>（権能を封じられたアスタロトの瞳に、初めて『驚愕』と『喜び』が混じる。）</t>
+          <t>（アスタロトの瞳に、初めて『驚愕』と『喜び』が混じる。）</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>（アスタロトの瞳に、初めて『驚愕』と『喜び』が混じる。）</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="F152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>sukutsu_astaroth</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
+      <c r="I152" t="inlineStr">
         <is>
           <t>astaroth_4</t>
         </is>
       </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>……ハハッ！ 面白い！ システムの保護なしに、この私と殴り合おうというのか！</t>
-        </is>
-      </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>……ハハッ！ 面白い！ システムの保護なしに、この私と殴り合おうというのか！</t>
+          <t xml:space="preserve">……ハハッ！ 面白い！ </t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">……ハハッ！ 面白い！ </t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="F153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>sukutsu_astaroth</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
+      <c r="I153" t="inlineStr">
         <is>
           <t>astaroth_5</t>
         </is>
       </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>よかろう、黄金の戦鬼よ！ 私が背負う『執念』と、お前の背負う『信念』……どちらが真の理か、ここで決めようではないか！</t>
-        </is>
-      </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>よかろう、黄金の戦鬼よ！ 私が背負う『執念』と、お前の背負う『信念』……どちらが真の理か、ここで決めようではないか！</t>
+          <t>よかろう、戦鬼よ！ 私が背負う『執念』と、お前の背負う『信念』……どちらが真の理か、ここで決めようではないか！</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>よかろう、戦鬼よ！ 私が背負う『執念』と、お前の背負う『信念』……どちらが真の理か、ここで決めようではないか！</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="D154" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="D155" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>sukutsu_is_quest_battle_result,1</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="D156" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>sukutsu_quest_battle,3</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="D157" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("final_astaroth", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="D158" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>end</t>
         </is>
@@ -3017,274 +3022,274 @@
       </c>
     </row>
     <row r="160">
-      <c r="D160" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>fadeOut</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>1.0,black</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="D161" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="F161" t="inlineStr">
         <is>
           <t>dm.imageBG.enabled = true; dm.imageBG.sprite = "Drama/zek_hideout".LoadSprite();</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="D162" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>fadeIn</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>1.0,black</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="D163" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Pre_Battle_Calm");             var data = SoundManager.current.GetData("BGM/Pre_Battle_Calm");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Pre_Battle_Calm");             }</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="F164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
+      <c r="I164" t="inlineStr">
         <is>
           <t>narr_1</t>
         </is>
       </c>
-      <c r="I164" t="inlineStr">
+      <c r="J164" t="inlineStr">
         <is>
           <t>（ゼクの隠れ家『次元のゴミ捨て場』。そこは、アスタロトが切り捨てた『不要な可能性』が堆積する場所。）</t>
         </is>
       </c>
-      <c r="J164" t="inlineStr">
+      <c r="K164" t="inlineStr">
         <is>
           <t>（ゼクの隠れ家『次元のゴミ捨て場』。そこは、アスタロトが切り捨てた『不要な可能性』が堆積する場所。）</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="F165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
+      <c r="I165" t="inlineStr">
         <is>
           <t>narr_2</t>
         </is>
       </c>
-      <c r="I165" t="inlineStr">
+      <c r="J165" t="inlineStr">
         <is>
           <t>（決戦を翌朝に控えた夜、焚き火の代わりに、剥き出しの魔力回路が淡い青光を放っている。）</t>
         </is>
       </c>
-      <c r="J165" t="inlineStr">
+      <c r="K165" t="inlineStr">
         <is>
           <t>（決戦を翌朝に控えた夜、焚き火の代わりに、剥き出しの魔力回路が淡い青光を放っている。）</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="D166" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="D167" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="D168" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="F169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
+      <c r="I169" t="inlineStr">
         <is>
           <t>narr_3d</t>
         </is>
       </c>
-      <c r="I169" t="inlineStr">
+      <c r="J169" t="inlineStr">
         <is>
           <t>（リリィは静かに祈りを捧げ、ゼクは『因果の断片（キューブ）』の最終調整を行っていた。）</t>
         </is>
       </c>
-      <c r="J169" t="inlineStr">
+      <c r="K169" t="inlineStr">
         <is>
           <t>（リリィは静かに祈りを捧げ、ゼクは『因果の断片（キューブ）』の最終調整を行っていた。）</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="F170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
+      <c r="I170" t="inlineStr">
         <is>
           <t>lily_d1</t>
         </is>
       </c>
-      <c r="I170" t="inlineStr">
+      <c r="J170" t="inlineStr">
         <is>
           <t>……バルガスさんがいれば、心強かったのに。でも、これが私たちの選んだ道。</t>
         </is>
       </c>
-      <c r="J170" t="inlineStr">
+      <c r="K170" t="inlineStr">
         <is>
           <t>……バルガスさんがいれば、心強かったのに。でも、これが私たちの選んだ道。</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="F171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
+      <c r="I171" t="inlineStr">
         <is>
           <t>lily_d2</t>
         </is>
       </c>
-      <c r="I171" t="inlineStr">
+      <c r="J171" t="inlineStr">
         <is>
           <t>私の真名……。この名を知る者がいる限り、私はもう、アスタロト様の命令には従いません。……明日、王があなたの存在を消そうとしても、私がその因果を繋ぎ止めてみせます。</t>
         </is>
       </c>
-      <c r="J171" t="inlineStr">
+      <c r="K171" t="inlineStr">
         <is>
           <t>私の真名……。この名を知る者がいる限り、私はもう、アスタロト様の命令には従いません。……明日、王があなたの存在を消そうとしても、私がその因果を繋ぎ止めてみせます。</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="D172" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="D173" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="D174" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="F175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
+      <c r="I175" t="inlineStr">
         <is>
           <t>zek_1</t>
         </is>
       </c>
-      <c r="I175" t="inlineStr">
+      <c r="J175" t="inlineStr">
         <is>
           <t>クク……商売抜きで言わせてもらいましょう。アスタロトは、この世界の『限界』を勝手に決めつけ、見限っている。</t>
         </is>
       </c>
-      <c r="J175" t="inlineStr">
+      <c r="K175" t="inlineStr">
         <is>
           <t>クク……商売抜きで言わせてもらいましょう。アスタロトは、この世界の『限界』を勝手に決めつけ、見限っている。</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="F176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
+      <c r="I176" t="inlineStr">
         <is>
           <t>zek_2</t>
         </is>
       </c>
-      <c r="I176" t="inlineStr">
+      <c r="J176" t="inlineStr">
         <is>
           <t>私はそれが気に入らない。ゴミはゴミらしく、混沌として流れてこそ美しい。私が用意したこのキューブは、王が支配する『時間』の独裁を一時的に狂わせるためのものです。……さあ、休みなさい。明日の朝、この世界の『所有権』を奪い返しに行くのですから。</t>
         </is>
       </c>
-      <c r="J176" t="inlineStr">
+      <c r="K176" t="inlineStr">
         <is>
           <t>私はそれが気に入らない。ゴミはゴミらしく、混沌として流れてこそ美しい。私が用意したこのキューブは、王が支配する『時間』の独裁を一時的に狂わせるためのものです。……さあ、休みなさい。明日の朝、この世界の『所有権』を奪い返しに行くのですから。</t>
         </is>
@@ -3305,220 +3310,220 @@
       </c>
     </row>
     <row r="179">
-      <c r="F179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
+      <c r="I179" t="inlineStr">
         <is>
           <t>pc_1</t>
         </is>
       </c>
-      <c r="I179" t="inlineStr">
+      <c r="J179" t="inlineStr">
         <is>
           <t>（自分の『絶望する瞬間』を狙うつもりではないのか、と、あなたはゼクに疑問を投げかけた。）</t>
         </is>
       </c>
-      <c r="J179" t="inlineStr">
+      <c r="K179" t="inlineStr">
         <is>
           <t>（自分の『絶望する瞬間』を狙うつもりではないのか、と、あなたはゼクに疑問を投げかけた。）</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="F180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
+      <c r="I180" t="inlineStr">
         <is>
           <t>pc_2</t>
         </is>
       </c>
-      <c r="I180" t="inlineStr">
+      <c r="J180" t="inlineStr">
         <is>
           <t>（カインの魂を売らせようとしたのも、リリィを裏切らせようとしたのも……全て、自分を『剥製』にするためだったのだろう。なのに、なぜ今、助けようとするのか？）</t>
         </is>
       </c>
-      <c r="J180" t="inlineStr">
+      <c r="K180" t="inlineStr">
         <is>
           <t>（カインの魂を売らせようとしたのも、リリィを裏切らせようとしたのも……全て、自分を『剥製』にするためだったのだろう。なのに、なぜ今、助けようとするのか？）</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="F181" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
+      <c r="I181" t="inlineStr">
         <is>
           <t>zek_3</t>
         </is>
       </c>
-      <c r="I181" t="inlineStr">
+      <c r="J181" t="inlineStr">
         <is>
           <t>……ふふ。鋭いですね。</t>
         </is>
       </c>
-      <c r="J181" t="inlineStr">
+      <c r="K181" t="inlineStr">
         <is>
           <t>……ふふ。鋭いですね。</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="F182" t="inlineStr">
+      <c r="G182" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
+      <c r="I182" t="inlineStr">
         <is>
           <t>zek_4</t>
         </is>
       </c>
-      <c r="I182" t="inlineStr">
+      <c r="J182" t="inlineStr">
         <is>
           <t>その通りです。私はあなたが『最も美しく壊れる瞬間』を待っていました。英雄が絶望に堕ちる時、その魂は最高の芸術品となる……。それが、私という『剥製師』の美学でした。</t>
         </is>
       </c>
-      <c r="J182" t="inlineStr">
+      <c r="K182" t="inlineStr">
         <is>
           <t>その通りです。私はあなたが『最も美しく壊れる瞬間』を待っていました。英雄が絶望に堕ちる時、その魂は最高の芸術品となる……。それが、私という『剥製師』の美学でした。</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="F183" t="inlineStr">
+      <c r="G183" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
+      <c r="I183" t="inlineStr">
         <is>
           <t>zek_5d</t>
         </is>
       </c>
-      <c r="I183" t="inlineStr">
+      <c r="J183" t="inlineStr">
         <is>
           <t>ですが、あなたは違った。観客の喝采に従い、バルガスを殺した。それでも、あなたの魂は完全には壊れなかった。……むしろ、その『罪悪感』を背負いながら前に進もうとしている。</t>
         </is>
       </c>
-      <c r="J183" t="inlineStr">
+      <c r="K183" t="inlineStr">
         <is>
           <t>ですが、あなたは違った。観客の喝采に従い、バルガスを殺した。それでも、あなたの魂は完全には壊れなかった。……むしろ、その『罪悪感』を背負いながら前に進もうとしている。</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="F184" t="inlineStr">
+      <c r="G184" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
+      <c r="I184" t="inlineStr">
         <is>
           <t>zek_6d</t>
         </is>
       </c>
-      <c r="I184" t="inlineStr">
+      <c r="J184" t="inlineStr">
         <is>
           <t>……あなたが『壊れた瞬間』を剥製にするよりも……あなたが『システムそのものを壊す瞬間』を目撃する方が、遥かに美しい、と私は気づいてしまったのです。</t>
         </is>
       </c>
-      <c r="J184" t="inlineStr">
+      <c r="K184" t="inlineStr">
         <is>
           <t>……あなたが『壊れた瞬間』を剥製にするよりも……あなたが『システムそのものを壊す瞬間』を目撃する方が、遥かに美しい、と私は気づいてしまったのです。</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="F185" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
+      <c r="I185" t="inlineStr">
         <is>
           <t>zek_7</t>
         </is>
       </c>
-      <c r="I185" t="inlineStr">
+      <c r="J185" t="inlineStr">
         <is>
           <t>私のコレクションは、数千にも及びます。絶望した英雄、狂気に堕ちた賢者、愛に溺れた魔王……。ですが、『神を殺し、牢獄を破壊し、自由を手にする人間』は、まだ一つもない。</t>
         </is>
       </c>
-      <c r="J185" t="inlineStr">
+      <c r="K185" t="inlineStr">
         <is>
           <t>私のコレクションは、数千にも及びます。絶望した英雄、狂気に堕ちた賢者、愛に溺れた魔王……。ですが、『神を殺し、牢獄を破壊し、自由を手にする人間』は、まだ一つもない。</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="F186" t="inlineStr">
+      <c r="G186" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
+      <c r="I186" t="inlineStr">
         <is>
           <t>zek_8</t>
         </is>
       </c>
-      <c r="I186" t="inlineStr">
+      <c r="J186" t="inlineStr">
         <is>
           <t>……あなたこそが、私の最高傑作。そして、その傑作は『未完成のまま飾る』のではなく……『完璧な結末を迎えさせる』ことでこそ、真価を発揮するのです。</t>
         </is>
       </c>
-      <c r="J186" t="inlineStr">
+      <c r="K186" t="inlineStr">
         <is>
           <t>……あなたこそが、私の最高傑作。そして、その傑作は『未完成のまま飾る』のではなく……『完璧な結末を迎えさせる』ことでこそ、真価を発揮するのです。</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="F187" t="inlineStr">
+      <c r="G187" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
+      <c r="I187" t="inlineStr">
         <is>
           <t>zek_9</t>
         </is>
       </c>
-      <c r="I187" t="inlineStr">
+      <c r="J187" t="inlineStr">
         <is>
           <t>だから、私はあなたを助けます。商売のためでも、友情のためでもない。……ただ、この世界で最も美しい『奇跡の瞬間』を、この目で見届けたいから。それが、剥製師ゼクの最後の『作品』です。</t>
         </is>
       </c>
-      <c r="J187" t="inlineStr">
+      <c r="K187" t="inlineStr">
         <is>
           <t>だから、私はあなたを助けます。商売のためでも、友情のためでもない。……ただ、この世界で最も美しい『奇跡の瞬間』を、この目で見届けたいから。それが、剥製師ゼクの最後の『作品』です。</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="F188" t="inlineStr">
+      <c r="G188" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
+      <c r="I188" t="inlineStr">
         <is>
           <t>zek_10</t>
         </is>
       </c>
-      <c r="I188" t="inlineStr">
+      <c r="J188" t="inlineStr">
         <is>
           <t>……さあ、休みなさい。明日、あなたは私に『最高の絵』を見せてくれる。……それを、永遠に焼き付けておきましょう。</t>
         </is>
       </c>
-      <c r="J188" t="inlineStr">
+      <c r="K188" t="inlineStr">
         <is>
           <t>……さあ、休みなさい。明日、あなたは私に『最高の絵』を見せてくれる。……それを、永遠に焼き付けておきましょう。</t>
         </is>
@@ -3539,579 +3544,579 @@
       </c>
     </row>
     <row r="191">
-      <c r="D191" t="inlineStr">
+      <c r="E191" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr">
+      <c r="F191" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="F192" t="inlineStr">
+      <c r="G192" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
+      <c r="I192" t="inlineStr">
         <is>
           <t>narr_nul1</t>
         </is>
       </c>
-      <c r="I192" t="inlineStr">
+      <c r="J192" t="inlineStr">
         <is>
           <t>（王座の間へ向かう途中、一行は崩壊しかけた回廊で、倒れている存在を発見する。）</t>
         </is>
       </c>
-      <c r="J192" t="inlineStr">
+      <c r="K192" t="inlineStr">
         <is>
           <t>（王座の間へ向かう途中、一行は崩壊しかけた回廊で、倒れている存在を発見する。）</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="F193" t="inlineStr">
+      <c r="G193" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
+      <c r="I193" t="inlineStr">
         <is>
           <t>narr_nul2</t>
         </is>
       </c>
-      <c r="I193" t="inlineStr">
+      <c r="J193" t="inlineStr">
         <is>
           <t>（それは暗殺人形・Nul。システムに背いた罰として、アスタロトに「削除」されかけていた。）</t>
         </is>
       </c>
-      <c r="J193" t="inlineStr">
+      <c r="K193" t="inlineStr">
         <is>
           <t>（それは暗殺人形・Nul。システムに背いた罰として、アスタロトに「削除」されかけていた。）</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="D194" t="inlineStr">
+      <c r="E194" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr">
+      <c r="F194" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="D195" t="inlineStr">
+      <c r="E195" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
+      <c r="F195" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="D196" t="inlineStr">
+      <c r="E196" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr">
+      <c r="F196" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="F197" t="inlineStr">
+      <c r="G197" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
+      <c r="I197" t="inlineStr">
         <is>
           <t>lily_nul0</t>
         </is>
       </c>
-      <c r="I197" t="inlineStr">
+      <c r="J197" t="inlineStr">
         <is>
           <t>……待って！ あれはNul。罠かもしれない……近づかないで！</t>
         </is>
       </c>
-      <c r="J197" t="inlineStr">
+      <c r="K197" t="inlineStr">
         <is>
           <t>……待って！ あれはNul。罠かもしれない……近づかないで！</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="F198" t="inlineStr">
+      <c r="G198" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
+      <c r="I198" t="inlineStr">
         <is>
           <t>narr_nul2b</t>
         </is>
       </c>
-      <c r="I198" t="inlineStr">
+      <c r="J198" t="inlineStr">
         <is>
           <t>（リリィがあなたの前に立ちはだかる。）</t>
         </is>
       </c>
-      <c r="J198" t="inlineStr">
+      <c r="K198" t="inlineStr">
         <is>
           <t>（リリィがあなたの前に立ちはだかる。）</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="F199" t="inlineStr">
+      <c r="G199" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
+      <c r="I199" t="inlineStr">
         <is>
           <t>nul_1</t>
         </is>
       </c>
-      <c r="I199" t="inlineStr">
+      <c r="J199" t="inlineStr">
         <is>
           <t>……あなた、ですか。……システムを、拒絶した……人間。……私は……もう、戦えない。</t>
         </is>
       </c>
-      <c r="J199" t="inlineStr">
+      <c r="K199" t="inlineStr">
         <is>
           <t>……あなた、ですか。……システムを、拒絶した……人間。……私は……もう、戦えない。</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="F200" t="inlineStr">
+      <c r="G200" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
+      <c r="I200" t="inlineStr">
         <is>
           <t>lily_nul1</t>
         </is>
       </c>
-      <c r="I200" t="inlineStr">
+      <c r="J200" t="inlineStr">
         <is>
           <t>Nul……！ あなた、何があったの？</t>
         </is>
       </c>
-      <c r="J200" t="inlineStr">
+      <c r="K200" t="inlineStr">
         <is>
           <t>Nul……！ あなた、何があったの？</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="F201" t="inlineStr">
+      <c r="G201" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
+      <c r="I201" t="inlineStr">
         <is>
           <t>nul_2</t>
         </is>
       </c>
-      <c r="I201" t="inlineStr">
+      <c r="J201" t="inlineStr">
         <is>
           <t>……私は、思い出して、しまった。……『私』が、何だったのかを。</t>
         </is>
       </c>
-      <c r="J201" t="inlineStr">
+      <c r="K201" t="inlineStr">
         <is>
           <t>……私は、思い出して、しまった。……『私』が、何だったのかを。</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="F202" t="inlineStr">
+      <c r="G202" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
+      <c r="I202" t="inlineStr">
         <is>
           <t>narr_nul3</t>
         </is>
       </c>
-      <c r="I202" t="inlineStr">
+      <c r="J202" t="inlineStr">
         <is>
           <t>（Nulの目から、光の粒子が零れ落ちるーー涙のように。）</t>
         </is>
       </c>
-      <c r="J202" t="inlineStr">
+      <c r="K202" t="inlineStr">
         <is>
           <t>（Nulの目から、光の粒子が零れ落ちるーー涙のように。）</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="D203" t="inlineStr">
+      <c r="E203" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E203" t="inlineStr">
+      <c r="F203" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow_1");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow_1");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow_1");             }</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="F204" t="inlineStr">
+      <c r="G204" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
+      <c r="I204" t="inlineStr">
         <is>
           <t>nul_fb1</t>
         </is>
       </c>
-      <c r="I204" t="inlineStr">
+      <c r="J204" t="inlineStr">
         <is>
           <t>……私は、かつて冒険者だった。名前は……もう、思い出せない。仲間がいた。守りたい人がいた。このアリーナに挑んで……そして、負けた。</t>
         </is>
       </c>
-      <c r="J204" t="inlineStr">
+      <c r="K204" t="inlineStr">
         <is>
           <t>……私は、かつて冒険者だった。名前は……もう、思い出せない。仲間がいた。守りたい人がいた。このアリーナに挑んで……そして、負けた。</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="F205" t="inlineStr">
+      <c r="G205" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
+      <c r="I205" t="inlineStr">
         <is>
           <t>nul_fb2</t>
         </is>
       </c>
-      <c r="I205" t="inlineStr">
+      <c r="J205" t="inlineStr">
         <is>
           <t>アスタロト様は、私を『素材』にした。神格を人工的に作り出す実験ーー『神の孵化場』計画の、実験体に。</t>
         </is>
       </c>
-      <c r="J205" t="inlineStr">
+      <c r="K205" t="inlineStr">
         <is>
           <t>アスタロト様は、私を『素材』にした。神格を人工的に作り出す実験ーー『神の孵化場』計画の、実験体に。</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="D206" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr">
+      <c r="F206" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="D207" t="inlineStr">
+      <c r="E207" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E207" t="inlineStr">
+      <c r="F207" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="D208" t="inlineStr">
+      <c r="E208" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr">
+      <c r="F208" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="F209" t="inlineStr">
+      <c r="G209" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
+      <c r="I209" t="inlineStr">
         <is>
           <t>zek_nul1</t>
         </is>
       </c>
-      <c r="I209" t="inlineStr">
+      <c r="J209" t="inlineStr">
         <is>
           <t>……ふむ。私が語っていた話、あれは真実だったということです。『神の孵化場』……このアリーナの本当の目的。</t>
         </is>
       </c>
-      <c r="J209" t="inlineStr">
+      <c r="K209" t="inlineStr">
         <is>
           <t>……ふむ。私が語っていた話、あれは真実だったということです。『神の孵化場』……このアリーナの本当の目的。</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="F210" t="inlineStr">
+      <c r="G210" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
+      <c r="I210" t="inlineStr">
         <is>
           <t>nul_fb3</t>
         </is>
       </c>
-      <c r="I210" t="inlineStr">
+      <c r="J210" t="inlineStr">
         <is>
           <t>このアリーナの本当の目的……それは、娯楽でも、戦士の育成でもない。挑戦者の魂を極限まで練磨し、『神格』に至らせること。そして、その力をアスタロト様が吸収し……新しい世界を創造すること。</t>
         </is>
       </c>
-      <c r="J210" t="inlineStr">
+      <c r="K210" t="inlineStr">
         <is>
           <t>このアリーナの本当の目的……それは、娯楽でも、戦士の育成でもない。挑戦者の魂を極限まで練磨し、『神格』に至らせること。そして、その力をアスタロト様が吸収し……新しい世界を創造すること。</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="F211" t="inlineStr">
+      <c r="G211" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
+      <c r="I211" t="inlineStr">
         <is>
           <t>nul_fb3b</t>
         </is>
       </c>
-      <c r="I211" t="inlineStr">
+      <c r="J211" t="inlineStr">
         <is>
           <t>アスタロト様は……かつて故郷を失った方。5万年前、『カラドリウス』という竜族の楽園が、神々の争いで滅んだと聞いています。</t>
         </is>
       </c>
-      <c r="J211" t="inlineStr">
+      <c r="K211" t="inlineStr">
         <is>
           <t>アスタロト様は……かつて故郷を失った方。5万年前、『カラドリウス』という竜族の楽園が、神々の争いで滅んだと聞いています。</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="F212" t="inlineStr">
+      <c r="G212" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
+      <c r="I212" t="inlineStr">
         <is>
           <t>nul_fb3c</t>
         </is>
       </c>
-      <c r="I212" t="inlineStr">
+      <c r="J212" t="inlineStr">
         <is>
           <t>だから……新しい世界を創ろうとしている。自分が唯一の神として君臨する、完璧な楽園を。</t>
         </is>
       </c>
-      <c r="J212" t="inlineStr">
+      <c r="K212" t="inlineStr">
         <is>
           <t>だから……新しい世界を創ろうとしている。自分が唯一の神として君臨する、完璧な楽園を。</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="F213" t="inlineStr">
+      <c r="G213" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
+      <c r="I213" t="inlineStr">
         <is>
           <t>nul_fb4</t>
         </is>
       </c>
-      <c r="I213" t="inlineStr">
+      <c r="J213" t="inlineStr">
         <is>
           <t>私は失敗作。神になれなかった、空っぽの人形。だから『Null』ーー『無』という名前を与えられた。</t>
         </is>
       </c>
-      <c r="J213" t="inlineStr">
+      <c r="K213" t="inlineStr">
         <is>
           <t>私は失敗作。神になれなかった、空っぽの人形。だから『Null』ーー『無』という名前を与えられた。</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="F214" t="inlineStr">
+      <c r="G214" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
+      <c r="I214" t="inlineStr">
         <is>
           <t>nul_3</t>
         </is>
       </c>
-      <c r="I214" t="inlineStr">
+      <c r="J214" t="inlineStr">
         <is>
           <t>……あなたはいまや神格に最も近い存在……あの方はあなたを『吸収』しようとしている。</t>
         </is>
       </c>
-      <c r="J214" t="inlineStr">
+      <c r="K214" t="inlineStr">
         <is>
           <t>……あなたはいまや神格に最も近い存在……あの方はあなたを『吸収』しようとしている。</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="D215" t="inlineStr">
+      <c r="E215" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr">
+      <c r="F215" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="D216" t="inlineStr">
+      <c r="E216" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E216" t="inlineStr">
+      <c r="F216" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="D217" t="inlineStr">
+      <c r="E217" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E217" t="inlineStr">
+      <c r="F217" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="F218" t="inlineStr">
+      <c r="G218" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
+      <c r="I218" t="inlineStr">
         <is>
           <t>lily_nul2</t>
         </is>
       </c>
-      <c r="I218" t="inlineStr">
+      <c r="J218" t="inlineStr">
         <is>
           <t>……アスタロト様。あなたは、ずっとそんなことを……。</t>
         </is>
       </c>
-      <c r="J218" t="inlineStr">
+      <c r="K218" t="inlineStr">
         <is>
           <t>……アスタロト様。あなたは、ずっとそんなことを……。</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="F219" t="inlineStr">
+      <c r="G219" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
+      <c r="I219" t="inlineStr">
         <is>
           <t>nul_5</t>
         </is>
       </c>
-      <c r="I219" t="inlineStr">
+      <c r="J219" t="inlineStr">
         <is>
           <t>……お願い。あの方を……止めて。私の中にいた『誰か』が……ずっと、それを望んでいた。</t>
         </is>
       </c>
-      <c r="J219" t="inlineStr">
+      <c r="K219" t="inlineStr">
         <is>
           <t>……お願い。あの方を……止めて。私の中にいた『誰か』が……ずっと、それを望んでいた。</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="F220" t="inlineStr">
+      <c r="G220" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
+      <c r="I220" t="inlineStr">
         <is>
           <t>nul_6</t>
         </is>
       </c>
-      <c r="I220" t="inlineStr">
+      <c r="J220" t="inlineStr">
         <is>
           <t>……あなたのおかげで……私は、最後に『思い出す』ことができた。私には……守りたい人が、いたんだって。</t>
         </is>
       </c>
-      <c r="J220" t="inlineStr">
+      <c r="K220" t="inlineStr">
         <is>
           <t>……あなたのおかげで……私は、最後に『思い出す』ことができた。私には……守りたい人が、いたんだって。</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="D221" t="inlineStr">
+      <c r="E221" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="F222" t="inlineStr">
+      <c r="G222" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
+      <c r="I222" t="inlineStr">
         <is>
           <t>narr_nul4</t>
         </is>
       </c>
-      <c r="I222" t="inlineStr">
+      <c r="J222" t="inlineStr">
         <is>
           <t>（Nulの体が完全に光となって消えていく。）</t>
         </is>
       </c>
-      <c r="J222" t="inlineStr">
+      <c r="K222" t="inlineStr">
         <is>
           <t>（Nulの体が完全に光となって消えていく。）</t>
         </is>
@@ -4132,374 +4137,374 @@
       </c>
     </row>
     <row r="225">
-      <c r="D225" t="inlineStr">
+      <c r="E225" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E225" t="inlineStr">
+      <c r="F225" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Final_Battle");             var data = SoundManager.current.GetData("BGM/Final_Battle");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Final_Battle");             }</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="F226" t="inlineStr">
+      <c r="G226" t="inlineStr">
         <is>
           <t>sukutsu_astaroth</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
+      <c r="I226" t="inlineStr">
         <is>
           <t>astaroth_p1</t>
         </is>
       </c>
-      <c r="I226" t="inlineStr">
+      <c r="J226" t="inlineStr">
         <is>
           <t>【時の独裁】ーーお前の時間を、永遠に止めてやろう</t>
         </is>
       </c>
-      <c r="J226" t="inlineStr">
+      <c r="K226" t="inlineStr">
         <is>
           <t>【時の独裁】ーーお前の時間を、永遠に止めてやろう</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="F227" t="inlineStr">
+      <c r="G227" t="inlineStr">
         <is>
           <t>sukutsu_astaroth</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
+      <c r="I227" t="inlineStr">
         <is>
           <t>astaroth_p2</t>
         </is>
       </c>
-      <c r="I227" t="inlineStr">
+      <c r="J227" t="inlineStr">
         <is>
           <t>【因果の拒絶】ーーお前の攻撃は無に帰す</t>
         </is>
       </c>
-      <c r="J227" t="inlineStr">
+      <c r="K227" t="inlineStr">
         <is>
           <t>【因果の拒絶】ーーお前の攻撃は無に帰す</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="F228" t="inlineStr">
+      <c r="G228" t="inlineStr">
         <is>
           <t>sukutsu_astaroth</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
+      <c r="I228" t="inlineStr">
         <is>
           <t>astaroth_p3</t>
         </is>
       </c>
-      <c r="I228" t="inlineStr">
+      <c r="J228" t="inlineStr">
         <is>
           <t>【終焉の削除命令】ーーお前の魔力を消し去る</t>
         </is>
       </c>
-      <c r="J228" t="inlineStr">
+      <c r="K228" t="inlineStr">
         <is>
           <t>【終焉の削除命令】ーーお前の魔力を消し去る</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="D229" t="inlineStr">
+      <c r="E229" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="F230" t="inlineStr">
+      <c r="G230" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
+      <c r="I230" t="inlineStr">
         <is>
           <t>narr_p1</t>
         </is>
       </c>
-      <c r="I230" t="inlineStr">
+      <c r="J230" t="inlineStr">
         <is>
           <t>（三つの極悪な権能が、あなたに向かって放たれるーー）</t>
         </is>
       </c>
-      <c r="J230" t="inlineStr">
+      <c r="K230" t="inlineStr">
         <is>
           <t>（三つの極悪な権能が、あなたに向かって放たれるーー）</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="D231" t="inlineStr">
+      <c r="E231" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E231" t="inlineStr">
+      <c r="F231" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="D232" t="inlineStr">
+      <c r="E232" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E232" t="inlineStr">
+      <c r="F232" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="D233" t="inlineStr">
+      <c r="E233" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E233" t="inlineStr">
+      <c r="F233" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="F234" t="inlineStr">
+      <c r="G234" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
+      <c r="I234" t="inlineStr">
         <is>
           <t>zek_d1</t>
         </is>
       </c>
-      <c r="I234" t="inlineStr">
+      <c r="J234" t="inlineStr">
         <is>
           <t>おっとーー私のキューブが黙っていませんよ！</t>
         </is>
       </c>
-      <c r="J234" t="inlineStr">
+      <c r="K234" t="inlineStr">
         <is>
           <t>おっとーー私のキューブが黙っていませんよ！</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="F235" t="inlineStr">
+      <c r="G235" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
+      <c r="I235" t="inlineStr">
         <is>
           <t>narr_d2</t>
         </is>
       </c>
-      <c r="I235" t="inlineStr">
+      <c r="J235" t="inlineStr">
         <is>
           <t>（ゼクのキューブが展開し、時の独裁を吸収）</t>
         </is>
       </c>
-      <c r="J235" t="inlineStr">
+      <c r="K235" t="inlineStr">
         <is>
           <t>（ゼクのキューブが展開し、時の独裁を吸収）</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="F236" t="inlineStr">
+      <c r="G236" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
+      <c r="I236" t="inlineStr">
         <is>
           <t>zek_d2</t>
         </is>
       </c>
-      <c r="I236" t="inlineStr">
+      <c r="J236" t="inlineStr">
         <is>
           <t>……ぐっ……これは重い。しかしーーまだです！</t>
         </is>
       </c>
-      <c r="J236" t="inlineStr">
+      <c r="K236" t="inlineStr">
         <is>
           <t>……ぐっ……これは重い。しかしーーまだです！</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="F237" t="inlineStr">
+      <c r="G237" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
+      <c r="I237" t="inlineStr">
         <is>
           <t>zek_d3</t>
         </is>
       </c>
-      <c r="I237" t="inlineStr">
+      <c r="J237" t="inlineStr">
         <is>
           <t>しかし……因果の拒絶を受ける者が、いない……！</t>
         </is>
       </c>
-      <c r="J237" t="inlineStr">
+      <c r="K237" t="inlineStr">
         <is>
           <t>しかし……因果の拒絶を受ける者が、いない……！</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="D238" t="inlineStr">
+      <c r="E238" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="F239" t="inlineStr">
+      <c r="G239" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
+      <c r="I239" t="inlineStr">
         <is>
           <t>narr_d3</t>
         </is>
       </c>
-      <c r="I239" t="inlineStr">
+      <c r="J239" t="inlineStr">
         <is>
           <t>（【因果の拒絶】を受けた！）</t>
         </is>
       </c>
-      <c r="J239" t="inlineStr">
+      <c r="K239" t="inlineStr">
         <is>
           <t>（【因果の拒絶】を受けた！）</t>
         </is>
       </c>
     </row>
     <row r="240">
-      <c r="D240" t="inlineStr">
+      <c r="E240" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E240" t="inlineStr">
+      <c r="F240" t="inlineStr">
         <is>
           <t>EClass.pc.AddCondition&lt;Elin_SukutsuArena.Conditions.ConAstarothDenial&gt;(1000);</t>
         </is>
       </c>
     </row>
     <row r="241">
-      <c r="D241" t="inlineStr">
+      <c r="E241" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E241" t="inlineStr">
+      <c r="F241" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="242">
-      <c r="D242" t="inlineStr">
+      <c r="E242" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E242" t="inlineStr">
+      <c r="F242" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="243">
-      <c r="D243" t="inlineStr">
+      <c r="E243" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E243" t="inlineStr">
+      <c r="F243" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="244">
-      <c r="F244" t="inlineStr">
+      <c r="G244" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
+      <c r="I244" t="inlineStr">
         <is>
           <t>lily_d1</t>
         </is>
       </c>
-      <c r="I244" t="inlineStr">
+      <c r="J244" t="inlineStr">
         <is>
           <t>……私が、受けます</t>
         </is>
       </c>
-      <c r="J244" t="inlineStr">
+      <c r="K244" t="inlineStr">
         <is>
           <t>……私が、受けます</t>
         </is>
       </c>
     </row>
     <row r="245">
-      <c r="F245" t="inlineStr">
+      <c r="G245" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
+      <c r="I245" t="inlineStr">
         <is>
           <t>narr_d4</t>
         </is>
       </c>
-      <c r="I245" t="inlineStr">
+      <c r="J245" t="inlineStr">
         <is>
           <t>（リリィが静かに前に出る）</t>
         </is>
       </c>
-      <c r="J245" t="inlineStr">
+      <c r="K245" t="inlineStr">
         <is>
           <t>（リリィが静かに前に出る）</t>
         </is>
       </c>
     </row>
     <row r="246">
-      <c r="F246" t="inlineStr">
+      <c r="G246" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
+      <c r="I246" t="inlineStr">
         <is>
           <t>lily_d2</t>
         </is>
       </c>
-      <c r="I246" t="inlineStr">
+      <c r="J246" t="inlineStr">
         <is>
           <t>あなたを……守らせてください</t>
         </is>
       </c>
-      <c r="J246" t="inlineStr">
+      <c r="K246" t="inlineStr">
         <is>
           <t>あなたを……守らせてください</t>
         </is>
@@ -4525,17 +4530,17 @@
           <t>main_worst</t>
         </is>
       </c>
-      <c r="D249" t="inlineStr">
+      <c r="E249" t="inlineStr">
         <is>
           <t>invoke*</t>
         </is>
       </c>
-      <c r="E249" t="inlineStr">
+      <c r="F249" t="inlineStr">
         <is>
           <t>if_flag(chitsii.arena.player.lily_hostile, ==1)</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
+      <c r="G249" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
@@ -4561,17 +4566,17 @@
           <t>act3_worst</t>
         </is>
       </c>
-      <c r="D252" t="inlineStr">
+      <c r="E252" t="inlineStr">
         <is>
           <t>invoke*</t>
         </is>
       </c>
-      <c r="E252" t="inlineStr">
+      <c r="F252" t="inlineStr">
         <is>
           <t>if_flag(chitsii.arena.player.lily_hostile, ==1)</t>
         </is>
       </c>
-      <c r="F252" t="inlineStr">
+      <c r="G252" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
@@ -4592,318 +4597,318 @@
       </c>
     </row>
     <row r="255">
-      <c r="D255" t="inlineStr">
+      <c r="E255" t="inlineStr">
         <is>
           <t>fadeOut</t>
         </is>
       </c>
-      <c r="E255" t="inlineStr">
+      <c r="F255" t="inlineStr">
         <is>
           <t>1.0,black</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="D256" t="inlineStr">
+      <c r="E256" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E256" t="inlineStr">
+      <c r="F256" t="inlineStr">
         <is>
           <t>dm.imageBG.enabled = true; dm.imageBG.sprite = "Drama/zek_hideout".LoadSprite();</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="D257" t="inlineStr">
+      <c r="E257" t="inlineStr">
         <is>
           <t>fadeIn</t>
         </is>
       </c>
-      <c r="E257" t="inlineStr">
+      <c r="F257" t="inlineStr">
         <is>
           <t>1.0,black</t>
         </is>
       </c>
     </row>
     <row r="258">
-      <c r="D258" t="inlineStr">
+      <c r="E258" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E258" t="inlineStr">
+      <c r="F258" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Pre_Battle_Calm");             var data = SoundManager.current.GetData("BGM/Pre_Battle_Calm");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Pre_Battle_Calm");             }</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="F259" t="inlineStr">
+      <c r="G259" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
+      <c r="I259" t="inlineStr">
         <is>
           <t>narr_1</t>
         </is>
       </c>
-      <c r="I259" t="inlineStr">
+      <c r="J259" t="inlineStr">
         <is>
           <t>（ゼクの隠れ家『次元のゴミ捨て場』。そこは、アスタロトが切り捨てた『不要な可能性』が堆積する場所。）</t>
         </is>
       </c>
-      <c r="J259" t="inlineStr">
+      <c r="K259" t="inlineStr">
         <is>
           <t>（ゼクの隠れ家『次元のゴミ捨て場』。そこは、アスタロトが切り捨てた『不要な可能性』が堆積する場所。）</t>
         </is>
       </c>
     </row>
     <row r="260">
-      <c r="F260" t="inlineStr">
+      <c r="G260" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
+      <c r="I260" t="inlineStr">
         <is>
           <t>narr_2</t>
         </is>
       </c>
-      <c r="I260" t="inlineStr">
+      <c r="J260" t="inlineStr">
         <is>
           <t>（決戦を翌朝に控えた夜、焚き火の代わりに、剥き出しの魔力回路が淡い青光を放っている。）</t>
         </is>
       </c>
-      <c r="J260" t="inlineStr">
+      <c r="K260" t="inlineStr">
         <is>
           <t>（決戦を翌朝に控えた夜、焚き火の代わりに、剥き出しの魔力回路が淡い青光を放っている。）</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="D261" t="inlineStr">
+      <c r="E261" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E261" t="inlineStr">
+      <c r="F261" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="D262" t="inlineStr">
+      <c r="E262" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E262" t="inlineStr">
+      <c r="F262" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="D263" t="inlineStr">
+      <c r="E263" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E263" t="inlineStr">
+      <c r="F263" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="F264" t="inlineStr">
+      <c r="G264" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
+      <c r="I264" t="inlineStr">
         <is>
           <t>narr_3_lh</t>
         </is>
       </c>
-      <c r="I264" t="inlineStr">
+      <c r="J264" t="inlineStr">
         <is>
           <t>（バルガスは大剣を研ぎ、ゼクは『因果の断片（キューブ）』の最終調整を行っていた。）</t>
         </is>
       </c>
-      <c r="J264" t="inlineStr">
+      <c r="K264" t="inlineStr">
         <is>
           <t>（バルガスは大剣を研ぎ、ゼクは『因果の断片（キューブ）』の最終調整を行っていた。）</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="F265" t="inlineStr">
+      <c r="G265" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
+      <c r="I265" t="inlineStr">
         <is>
           <t>balgas_1</t>
         </is>
       </c>
-      <c r="I265" t="inlineStr">
+      <c r="J265" t="inlineStr">
         <is>
           <t>……引退？ ああ、確かに言ったな。……だが、お前が俺の命を救ったあの日、俺の中で何かが変わっちまったんだよ。</t>
         </is>
       </c>
-      <c r="J265" t="inlineStr">
+      <c r="K265" t="inlineStr">
         <is>
           <t>……引退？ ああ、確かに言ったな。……だが、お前が俺の命を救ったあの日、俺の中で何かが変わっちまったんだよ。</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="F266" t="inlineStr">
+      <c r="G266" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
+      <c r="I266" t="inlineStr">
         <is>
           <t>balgas_2</t>
         </is>
       </c>
-      <c r="I266" t="inlineStr">
+      <c r="J266" t="inlineStr">
         <is>
           <t>カインを失って以来、俺はずっと『死に場所』を探してた。だが、お前は俺にそれを許さなかった。……なら、せめて最後くらい、お前の『生きる場所』を作る手伝いをさせろ。</t>
         </is>
       </c>
-      <c r="J266" t="inlineStr">
+      <c r="K266" t="inlineStr">
         <is>
           <t>カインを失って以来、俺はずっと『死に場所』を探してた。だが、お前は俺にそれを許さなかった。……なら、せめて最後くらい、お前の『生きる場所』を作る手伝いをさせろ。</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="F267" t="inlineStr">
+      <c r="G267" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
+      <c r="I267" t="inlineStr">
         <is>
           <t>balgas_3</t>
         </is>
       </c>
-      <c r="I267" t="inlineStr">
+      <c r="J267" t="inlineStr">
         <is>
           <t>それに……引退した老いぼれが、弟子の晴れ舞台を客席から眺めてるだけなんて、柄じゃねえんだよ。俺は戦士だ。最期まで、剣を握って立ってる方が性に合ってる。</t>
         </is>
       </c>
-      <c r="J267" t="inlineStr">
+      <c r="K267" t="inlineStr">
         <is>
           <t>それに……引退した老いぼれが、弟子の晴れ舞台を客席から眺めてるだけなんて、柄じゃねえんだよ。俺は戦士だ。最期まで、剣を握って立ってる方が性に合ってる。</t>
         </is>
       </c>
     </row>
     <row r="268">
-      <c r="F268" t="inlineStr">
+      <c r="G268" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
+      <c r="I268" t="inlineStr">
         <is>
           <t>balgas_lh1</t>
         </is>
       </c>
-      <c r="I268" t="inlineStr">
+      <c r="J268" t="inlineStr">
         <is>
           <t>……リリィの奴は来ねえよ。あいつは、お前を許せなかったんだろう。……だが、俺たちだけでやるしかねえ。</t>
         </is>
       </c>
-      <c r="J268" t="inlineStr">
+      <c r="K268" t="inlineStr">
         <is>
           <t>……リリィの奴は来ねえよ。あいつは、お前を許せなかったんだろう。……だが、俺たちだけでやるしかねえ。</t>
         </is>
       </c>
     </row>
     <row r="269">
-      <c r="D269" t="inlineStr">
+      <c r="E269" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E269" t="inlineStr">
+      <c r="F269" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="D270" t="inlineStr">
+      <c r="E270" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E270" t="inlineStr">
+      <c r="F270" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="271">
-      <c r="D271" t="inlineStr">
+      <c r="E271" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E271" t="inlineStr">
+      <c r="F271" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="272">
-      <c r="F272" t="inlineStr">
+      <c r="G272" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
+      <c r="I272" t="inlineStr">
         <is>
           <t>zek_1</t>
         </is>
       </c>
-      <c r="I272" t="inlineStr">
+      <c r="J272" t="inlineStr">
         <is>
           <t>クク……商売抜きで言わせてもらいましょう。アスタロトは、この世界の『限界』を勝手に決めつけ、見限っている。</t>
         </is>
       </c>
-      <c r="J272" t="inlineStr">
+      <c r="K272" t="inlineStr">
         <is>
           <t>クク……商売抜きで言わせてもらいましょう。アスタロトは、この世界の『限界』を勝手に決めつけ、見限っている。</t>
         </is>
       </c>
     </row>
     <row r="273">
-      <c r="F273" t="inlineStr">
+      <c r="G273" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
+      <c r="I273" t="inlineStr">
         <is>
           <t>zek_2</t>
         </is>
       </c>
-      <c r="I273" t="inlineStr">
+      <c r="J273" t="inlineStr">
         <is>
           <t>私はそれが気に入らない。ゴミはゴミらしく、混沌として流れてこそ美しい。私が用意したこのキューブは、王が支配する『時間』の独裁を一時的に狂わせるためのものです。……さあ、休みなさい。明日の朝、この世界の『所有権』を奪い返しに行くのですから。</t>
         </is>
       </c>
-      <c r="J273" t="inlineStr">
+      <c r="K273" t="inlineStr">
         <is>
           <t>私はそれが気に入らない。ゴミはゴミらしく、混沌として流れてこそ美しい。私が用意したこのキューブは、王が支配する『時間』の独裁を一時的に狂わせるためのものです。……さあ、休みなさい。明日の朝、この世界の『所有権』を奪い返しに行くのですから。</t>
         </is>
@@ -4924,220 +4929,220 @@
       </c>
     </row>
     <row r="276">
-      <c r="F276" t="inlineStr">
+      <c r="G276" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
+      <c r="I276" t="inlineStr">
         <is>
           <t>pc_1</t>
         </is>
       </c>
-      <c r="I276" t="inlineStr">
+      <c r="J276" t="inlineStr">
         <is>
           <t>（自分の『絶望する瞬間』を狙うつもりではないのか、と、あなたはゼクに疑問を投げかけた。）</t>
         </is>
       </c>
-      <c r="J276" t="inlineStr">
+      <c r="K276" t="inlineStr">
         <is>
           <t>（自分の『絶望する瞬間』を狙うつもりではないのか、と、あなたはゼクに疑問を投げかけた。）</t>
         </is>
       </c>
     </row>
     <row r="277">
-      <c r="F277" t="inlineStr">
+      <c r="G277" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
+      <c r="I277" t="inlineStr">
         <is>
           <t>pc_2</t>
         </is>
       </c>
-      <c r="I277" t="inlineStr">
+      <c r="J277" t="inlineStr">
         <is>
           <t>（カインの魂を売らせようとしたのも、リリィを裏切らせようとしたのも……全て、自分を『剥製』にするためだったのだろう。なのに、なぜ今、助けようとするのか？）</t>
         </is>
       </c>
-      <c r="J277" t="inlineStr">
+      <c r="K277" t="inlineStr">
         <is>
           <t>（カインの魂を売らせようとしたのも、リリィを裏切らせようとしたのも……全て、自分を『剥製』にするためだったのだろう。なのに、なぜ今、助けようとするのか？）</t>
         </is>
       </c>
     </row>
     <row r="278">
-      <c r="F278" t="inlineStr">
+      <c r="G278" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
+      <c r="I278" t="inlineStr">
         <is>
           <t>zek_3</t>
         </is>
       </c>
-      <c r="I278" t="inlineStr">
+      <c r="J278" t="inlineStr">
         <is>
           <t>……ふふ。鋭いですね。</t>
         </is>
       </c>
-      <c r="J278" t="inlineStr">
+      <c r="K278" t="inlineStr">
         <is>
           <t>……ふふ。鋭いですね。</t>
         </is>
       </c>
     </row>
     <row r="279">
-      <c r="F279" t="inlineStr">
+      <c r="G279" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
+      <c r="I279" t="inlineStr">
         <is>
           <t>zek_4</t>
         </is>
       </c>
-      <c r="I279" t="inlineStr">
+      <c r="J279" t="inlineStr">
         <is>
           <t>その通りです。私はあなたが『最も美しく壊れる瞬間』を待っていました。英雄が絶望に堕ちる時、その魂は最高の芸術品となる……。それが、私という『剥製師』の美学でした。</t>
         </is>
       </c>
-      <c r="J279" t="inlineStr">
+      <c r="K279" t="inlineStr">
         <is>
           <t>その通りです。私はあなたが『最も美しく壊れる瞬間』を待っていました。英雄が絶望に堕ちる時、その魂は最高の芸術品となる……。それが、私という『剥製師』の美学でした。</t>
         </is>
       </c>
     </row>
     <row r="280">
-      <c r="F280" t="inlineStr">
+      <c r="G280" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
+      <c r="I280" t="inlineStr">
         <is>
           <t>zek_5</t>
         </is>
       </c>
-      <c r="I280" t="inlineStr">
+      <c r="J280" t="inlineStr">
         <is>
           <t>ですが、あなたは違った。カインを裏切る選択肢を与えても、あなたはバルガスを選んだ。リリィを欺く道を示しても……まあ、結果はああなりましたが、それでもあなたの魂は壊れなかった。バルガスを殺す観客の喝采が響いても、あなたは剣を下ろした。</t>
         </is>
       </c>
-      <c r="J280" t="inlineStr">
+      <c r="K280" t="inlineStr">
         <is>
           <t>ですが、あなたは違った。カインを裏切る選択肢を与えても、あなたはバルガスを選んだ。リリィを欺く道を示しても……まあ、結果はああなりましたが、それでもあなたの魂は壊れなかった。バルガスを殺す観客の喝采が響いても、あなたは剣を下ろした。</t>
         </is>
       </c>
     </row>
     <row r="281">
-      <c r="F281" t="inlineStr">
+      <c r="G281" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
+      <c r="I281" t="inlineStr">
         <is>
           <t>zek_6</t>
         </is>
       </c>
-      <c r="I281" t="inlineStr">
+      <c r="J281" t="inlineStr">
         <is>
           <t>……あなたは、私の期待を『裏切り続けた』のです。そして、その度に私は気づいてしまった。あなたが『壊れた瞬間』を剥製にするよりも……あなたが『システムそのものを壊す瞬間』を目撃する方が、遥かに美しい、と。</t>
         </is>
       </c>
-      <c r="J281" t="inlineStr">
+      <c r="K281" t="inlineStr">
         <is>
           <t>……あなたは、私の期待を『裏切り続けた』のです。そして、その度に私は気づいてしまった。あなたが『壊れた瞬間』を剥製にするよりも……あなたが『システムそのものを壊す瞬間』を目撃する方が、遥かに美しい、と。</t>
         </is>
       </c>
     </row>
     <row r="282">
-      <c r="F282" t="inlineStr">
+      <c r="G282" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
+      <c r="I282" t="inlineStr">
         <is>
           <t>zek_7</t>
         </is>
       </c>
-      <c r="I282" t="inlineStr">
+      <c r="J282" t="inlineStr">
         <is>
           <t>私のコレクションは、数千にも及びます。絶望した英雄、狂気に堕ちた賢者、愛に溺れた魔王……。ですが、『神を殺し、牢獄を破壊し、自由を手にする人間』は、まだ一つもない。</t>
         </is>
       </c>
-      <c r="J282" t="inlineStr">
+      <c r="K282" t="inlineStr">
         <is>
           <t>私のコレクションは、数千にも及びます。絶望した英雄、狂気に堕ちた賢者、愛に溺れた魔王……。ですが、『神を殺し、牢獄を破壊し、自由を手にする人間』は、まだ一つもない。</t>
         </is>
       </c>
     </row>
     <row r="283">
-      <c r="F283" t="inlineStr">
+      <c r="G283" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
+      <c r="I283" t="inlineStr">
         <is>
           <t>zek_8</t>
         </is>
       </c>
-      <c r="I283" t="inlineStr">
+      <c r="J283" t="inlineStr">
         <is>
           <t>……あなたこそが、私の最高傑作。そして、その傑作は『未完成のまま飾る』のではなく……『完璧な結末を迎えさせる』ことでこそ、真価を発揮するのです。</t>
         </is>
       </c>
-      <c r="J283" t="inlineStr">
+      <c r="K283" t="inlineStr">
         <is>
           <t>……あなたこそが、私の最高傑作。そして、その傑作は『未完成のまま飾る』のではなく……『完璧な結末を迎えさせる』ことでこそ、真価を発揮するのです。</t>
         </is>
       </c>
     </row>
     <row r="284">
-      <c r="F284" t="inlineStr">
+      <c r="G284" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
+      <c r="I284" t="inlineStr">
         <is>
           <t>zek_9</t>
         </is>
       </c>
-      <c r="I284" t="inlineStr">
+      <c r="J284" t="inlineStr">
         <is>
           <t>だから、私はあなたを助けます。商売のためでも、友情のためでもない。……ただ、この世界で最も美しい『奇跡の瞬間』を、この目で見届けたいから。それが、剥製師ゼクの最後の『作品』です。</t>
         </is>
       </c>
-      <c r="J284" t="inlineStr">
+      <c r="K284" t="inlineStr">
         <is>
           <t>だから、私はあなたを助けます。商売のためでも、友情のためでもない。……ただ、この世界で最も美しい『奇跡の瞬間』を、この目で見届けたいから。それが、剥製師ゼクの最後の『作品』です。</t>
         </is>
       </c>
     </row>
     <row r="285">
-      <c r="F285" t="inlineStr">
+      <c r="G285" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
+      <c r="I285" t="inlineStr">
         <is>
           <t>zek_10</t>
         </is>
       </c>
-      <c r="I285" t="inlineStr">
+      <c r="J285" t="inlineStr">
         <is>
           <t>……さあ、休みなさい。明日、あなたは私に『最高の絵』を見せてくれる。……それを、永遠に焼き付けておきましょう。</t>
         </is>
       </c>
-      <c r="J285" t="inlineStr">
+      <c r="K285" t="inlineStr">
         <is>
           <t>……さあ、休みなさい。明日、あなたは私に『最高の絵』を見せてくれる。……それを、永遠に焼き付けておきましょう。</t>
         </is>
@@ -5158,659 +5163,659 @@
       </c>
     </row>
     <row r="288">
-      <c r="D288" t="inlineStr">
+      <c r="E288" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E288" t="inlineStr">
+      <c r="F288" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
         </is>
       </c>
     </row>
     <row r="289">
-      <c r="F289" t="inlineStr">
+      <c r="G289" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
+      <c r="I289" t="inlineStr">
         <is>
           <t>narr_nul1</t>
         </is>
       </c>
-      <c r="I289" t="inlineStr">
+      <c r="J289" t="inlineStr">
         <is>
           <t>（王座の間へ向かう途中、一行は崩壊しかけた回廊で、倒れている存在を発見する。）</t>
         </is>
       </c>
-      <c r="J289" t="inlineStr">
+      <c r="K289" t="inlineStr">
         <is>
           <t>（王座の間へ向かう途中、一行は崩壊しかけた回廊で、倒れている存在を発見する。）</t>
         </is>
       </c>
     </row>
     <row r="290">
-      <c r="F290" t="inlineStr">
+      <c r="G290" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
+      <c r="I290" t="inlineStr">
         <is>
           <t>narr_nul2</t>
         </is>
       </c>
-      <c r="I290" t="inlineStr">
+      <c r="J290" t="inlineStr">
         <is>
           <t>（それは暗殺人形・Nul。システムに背いた罰として、アスタロトに「削除」されかけていた。）</t>
         </is>
       </c>
-      <c r="J290" t="inlineStr">
+      <c r="K290" t="inlineStr">
         <is>
           <t>（それは暗殺人形・Nul。システムに背いた罰として、アスタロトに「削除」されかけていた。）</t>
         </is>
       </c>
     </row>
     <row r="291">
-      <c r="D291" t="inlineStr">
+      <c r="E291" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E291" t="inlineStr">
+      <c r="F291" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="292">
-      <c r="D292" t="inlineStr">
+      <c r="E292" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E292" t="inlineStr">
+      <c r="F292" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="293">
-      <c r="D293" t="inlineStr">
+      <c r="E293" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E293" t="inlineStr">
+      <c r="F293" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="294">
-      <c r="F294" t="inlineStr">
+      <c r="G294" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
+      <c r="I294" t="inlineStr">
         <is>
           <t>balgas_nul0</t>
         </is>
       </c>
-      <c r="I294" t="inlineStr">
+      <c r="J294" t="inlineStr">
         <is>
           <t>……待て！ あれはNulだ。罠かもしれねえ、近づくな！</t>
         </is>
       </c>
-      <c r="J294" t="inlineStr">
+      <c r="K294" t="inlineStr">
         <is>
           <t>……待て！ あれはNulだ。罠かもしれねえ、近づくな！</t>
         </is>
       </c>
     </row>
     <row r="295">
-      <c r="F295" t="inlineStr">
+      <c r="G295" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
+      <c r="I295" t="inlineStr">
         <is>
           <t>narr_nul2b</t>
         </is>
       </c>
-      <c r="I295" t="inlineStr">
+      <c r="J295" t="inlineStr">
         <is>
           <t>（バルガスが剣を構え、一行の前に立ちはだかる。）</t>
         </is>
       </c>
-      <c r="J295" t="inlineStr">
+      <c r="K295" t="inlineStr">
         <is>
           <t>（バルガスが剣を構え、一行の前に立ちはだかる。）</t>
         </is>
       </c>
     </row>
     <row r="296">
-      <c r="F296" t="inlineStr">
+      <c r="G296" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
+      <c r="I296" t="inlineStr">
         <is>
           <t>nul_1</t>
         </is>
       </c>
-      <c r="I296" t="inlineStr">
+      <c r="J296" t="inlineStr">
         <is>
           <t>……あなた、ですか。……システムを、拒絶した……人間。……私は……もう、戦えない。</t>
         </is>
       </c>
-      <c r="J296" t="inlineStr">
+      <c r="K296" t="inlineStr">
         <is>
           <t>……あなた、ですか。……システムを、拒絶した……人間。……私は……もう、戦えない。</t>
         </is>
       </c>
     </row>
     <row r="297">
-      <c r="D297" t="inlineStr">
+      <c r="E297" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E297" t="inlineStr">
+      <c r="F297" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="298">
-      <c r="D298" t="inlineStr">
+      <c r="E298" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E298" t="inlineStr">
+      <c r="F298" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="299">
-      <c r="D299" t="inlineStr">
+      <c r="E299" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E299" t="inlineStr">
+      <c r="F299" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="300">
-      <c r="F300" t="inlineStr">
+      <c r="G300" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
+      <c r="I300" t="inlineStr">
         <is>
           <t>zek_nul_lh</t>
         </is>
       </c>
-      <c r="I300" t="inlineStr">
-        <is>
-          <t>……ふむ。Nulですか。あなたも、システムに見捨てられたクチですね。</t>
-        </is>
-      </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>……ふむ。Nulですか。あなたも、システムに見捨てられたクチですね。</t>
+          <t>……ふむ。Nulですか。</t>
+        </is>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>……ふむ。Nulですか。</t>
         </is>
       </c>
     </row>
     <row r="301">
-      <c r="F301" t="inlineStr">
+      <c r="G301" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
+      <c r="I301" t="inlineStr">
         <is>
           <t>nul_2</t>
         </is>
       </c>
-      <c r="I301" t="inlineStr">
+      <c r="J301" t="inlineStr">
         <is>
           <t>……私は、思い出して、しまった。……『私』が、何だったのかを。</t>
         </is>
       </c>
-      <c r="J301" t="inlineStr">
+      <c r="K301" t="inlineStr">
         <is>
           <t>……私は、思い出して、しまった。……『私』が、何だったのかを。</t>
         </is>
       </c>
     </row>
     <row r="302">
-      <c r="F302" t="inlineStr">
+      <c r="G302" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
+      <c r="I302" t="inlineStr">
         <is>
           <t>narr_nul3</t>
         </is>
       </c>
-      <c r="I302" t="inlineStr">
+      <c r="J302" t="inlineStr">
         <is>
           <t>（Nulの目から、光の粒子が零れ落ちるーー涙のように。）</t>
         </is>
       </c>
-      <c r="J302" t="inlineStr">
+      <c r="K302" t="inlineStr">
         <is>
           <t>（Nulの目から、光の粒子が零れ落ちるーー涙のように。）</t>
         </is>
       </c>
     </row>
     <row r="303">
-      <c r="D303" t="inlineStr">
+      <c r="E303" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E303" t="inlineStr">
+      <c r="F303" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow_1");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow_1");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow_1");             }</t>
         </is>
       </c>
     </row>
     <row r="304">
-      <c r="F304" t="inlineStr">
+      <c r="G304" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
+      <c r="I304" t="inlineStr">
         <is>
           <t>nul_fb1</t>
         </is>
       </c>
-      <c r="I304" t="inlineStr">
+      <c r="J304" t="inlineStr">
         <is>
           <t>……私は、かつて冒険者だった。名前は……もう、思い出せない。仲間がいた。守りたい人がいた。このアリーナに挑んで……そして、負けた。</t>
         </is>
       </c>
-      <c r="J304" t="inlineStr">
+      <c r="K304" t="inlineStr">
         <is>
           <t>……私は、かつて冒険者だった。名前は……もう、思い出せない。仲間がいた。守りたい人がいた。このアリーナに挑んで……そして、負けた。</t>
         </is>
       </c>
     </row>
     <row r="305">
-      <c r="F305" t="inlineStr">
+      <c r="G305" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
+      <c r="I305" t="inlineStr">
         <is>
           <t>nul_fb2</t>
         </is>
       </c>
-      <c r="I305" t="inlineStr">
+      <c r="J305" t="inlineStr">
         <is>
           <t>アスタロト様は、私を『素材』にした。神格を人工的に作り出す実験ーー『神の孵化場』計画の、実験体に。</t>
         </is>
       </c>
-      <c r="J305" t="inlineStr">
+      <c r="K305" t="inlineStr">
         <is>
           <t>アスタロト様は、私を『素材』にした。神格を人工的に作り出す実験ーー『神の孵化場』計画の、実験体に。</t>
         </is>
       </c>
     </row>
     <row r="306">
-      <c r="D306" t="inlineStr">
+      <c r="E306" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E306" t="inlineStr">
+      <c r="F306" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="307">
-      <c r="D307" t="inlineStr">
+      <c r="E307" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E307" t="inlineStr">
+      <c r="F307" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="308">
-      <c r="D308" t="inlineStr">
+      <c r="E308" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E308" t="inlineStr">
+      <c r="F308" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="309">
-      <c r="F309" t="inlineStr">
+      <c r="G309" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
+      <c r="I309" t="inlineStr">
         <is>
           <t>balgas_nul1</t>
         </is>
       </c>
-      <c r="I309" t="inlineStr">
+      <c r="J309" t="inlineStr">
         <is>
           <t>……！ 『神の孵化場』だと……？</t>
         </is>
       </c>
-      <c r="J309" t="inlineStr">
+      <c r="K309" t="inlineStr">
         <is>
           <t>……！ 『神の孵化場』だと……？</t>
         </is>
       </c>
     </row>
     <row r="310">
-      <c r="F310" t="inlineStr">
+      <c r="G310" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
+      <c r="I310" t="inlineStr">
         <is>
           <t>narr_nul3b</t>
         </is>
       </c>
-      <c r="I310" t="inlineStr">
+      <c r="J310" t="inlineStr">
         <is>
           <t>（バルガスの表情が凍りつく。その言葉には、覚えがあった。ゼクが語っていた、あの荒唐無稀な話。）</t>
         </is>
       </c>
-      <c r="J310" t="inlineStr">
+      <c r="K310" t="inlineStr">
         <is>
           <t>（バルガスの表情が凍りつく。その言葉には、覚えがあった。ゼクが語っていた、あの荒唐無稀な話。）</t>
         </is>
       </c>
     </row>
     <row r="311">
-      <c r="F311" t="inlineStr">
+      <c r="G311" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
+      <c r="I311" t="inlineStr">
         <is>
           <t>balgas_nul2</t>
         </is>
       </c>
-      <c r="I311" t="inlineStr">
+      <c r="J311" t="inlineStr">
         <is>
           <t>……ゼクの野郎が言ってたことは、本当だったのか……？ 俺は、あいつの言葉は闘商人の戯言だと思っていた。</t>
         </is>
       </c>
-      <c r="J311" t="inlineStr">
+      <c r="K311" t="inlineStr">
         <is>
           <t>……ゼクの野郎が言ってたことは、本当だったのか……？ 俺は、あいつの言葉は闘商人の戯言だと思っていた。</t>
         </is>
       </c>
     </row>
     <row r="312">
-      <c r="F312" t="inlineStr">
+      <c r="G312" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
+      <c r="I312" t="inlineStr">
         <is>
           <t>nul_fb3</t>
         </is>
       </c>
-      <c r="I312" t="inlineStr">
+      <c r="J312" t="inlineStr">
         <is>
           <t>このアリーナの本当の目的……それは、娯楽でも、戦士の育成でもない。挑戦者の魂を極限まで練磨し、『神格』に至らせること。そして、その力をアスタロト様が吸収し……新しい世界を創造すること。</t>
         </is>
       </c>
-      <c r="J312" t="inlineStr">
+      <c r="K312" t="inlineStr">
         <is>
           <t>このアリーナの本当の目的……それは、娯楽でも、戦士の育成でもない。挑戦者の魂を極限まで練磨し、『神格』に至らせること。そして、その力をアスタロト様が吸収し……新しい世界を創造すること。</t>
         </is>
       </c>
     </row>
     <row r="313">
-      <c r="F313" t="inlineStr">
+      <c r="G313" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
+      <c r="I313" t="inlineStr">
         <is>
           <t>nul_fb3b</t>
         </is>
       </c>
-      <c r="I313" t="inlineStr">
+      <c r="J313" t="inlineStr">
         <is>
           <t>アスタロト様は……かつて故郷を失った方。5万年前、『カラドリウス』という竜族の楽園が、神々の争いで滅んだと聞いています。</t>
         </is>
       </c>
-      <c r="J313" t="inlineStr">
+      <c r="K313" t="inlineStr">
         <is>
           <t>アスタロト様は……かつて故郷を失った方。5万年前、『カラドリウス』という竜族の楽園が、神々の争いで滅んだと聞いています。</t>
         </is>
       </c>
     </row>
     <row r="314">
-      <c r="F314" t="inlineStr">
+      <c r="G314" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
+      <c r="I314" t="inlineStr">
         <is>
           <t>nul_fb3c</t>
         </is>
       </c>
-      <c r="I314" t="inlineStr">
+      <c r="J314" t="inlineStr">
         <is>
           <t>だから……新しい世界を創ろうとしている。自分が唯一の神として君臨する、完璧な楽園を。</t>
         </is>
       </c>
-      <c r="J314" t="inlineStr">
+      <c r="K314" t="inlineStr">
         <is>
           <t>だから……新しい世界を創ろうとしている。自分が唯一の神として君臨する、完璧な楽園を。</t>
         </is>
       </c>
     </row>
     <row r="315">
-      <c r="F315" t="inlineStr">
+      <c r="G315" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
+      <c r="I315" t="inlineStr">
         <is>
           <t>nul_fb4</t>
         </is>
       </c>
-      <c r="I315" t="inlineStr">
+      <c r="J315" t="inlineStr">
         <is>
           <t>私は失敗作。神になれなかった、空っぽの人形。だから『Null』ーー『無』という名前を与えられた。</t>
         </is>
       </c>
-      <c r="J315" t="inlineStr">
+      <c r="K315" t="inlineStr">
         <is>
           <t>私は失敗作。神になれなかった、空っぽの人形。だから『Null』ーー『無』という名前を与えられた。</t>
         </is>
       </c>
     </row>
     <row r="316">
-      <c r="F316" t="inlineStr">
+      <c r="G316" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
+      <c r="I316" t="inlineStr">
         <is>
           <t>nul_3</t>
         </is>
       </c>
-      <c r="I316" t="inlineStr">
+      <c r="J316" t="inlineStr">
         <is>
           <t>……あなたはいまや神格に最も近い存在……あの方はあなたを『吸収』しようとしている。</t>
         </is>
       </c>
-      <c r="J316" t="inlineStr">
+      <c r="K316" t="inlineStr">
         <is>
           <t>……あなたはいまや神格に最も近い存在……あの方はあなたを『吸収』しようとしている。</t>
         </is>
       </c>
     </row>
     <row r="317">
-      <c r="D317" t="inlineStr">
+      <c r="E317" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E317" t="inlineStr">
+      <c r="F317" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="318">
-      <c r="D318" t="inlineStr">
+      <c r="E318" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E318" t="inlineStr">
+      <c r="F318" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="319">
-      <c r="D319" t="inlineStr">
+      <c r="E319" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E319" t="inlineStr">
+      <c r="F319" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="320">
-      <c r="F320" t="inlineStr">
+      <c r="G320" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
+      <c r="I320" t="inlineStr">
         <is>
           <t>balgas_nul_lh</t>
         </is>
       </c>
-      <c r="I320" t="inlineStr">
+      <c r="J320" t="inlineStr">
         <is>
           <t>……アスタロトの野郎。そういうことだったのか……。</t>
         </is>
       </c>
-      <c r="J320" t="inlineStr">
+      <c r="K320" t="inlineStr">
         <is>
           <t>……アスタロトの野郎。そういうことだったのか……。</t>
         </is>
       </c>
     </row>
     <row r="321">
-      <c r="F321" t="inlineStr">
+      <c r="G321" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
+      <c r="I321" t="inlineStr">
         <is>
           <t>nul_5</t>
         </is>
       </c>
-      <c r="I321" t="inlineStr">
+      <c r="J321" t="inlineStr">
         <is>
           <t>……お願い。あの方を……止めて。私の中にいた『誰か』が……ずっと、それを望んでいた。</t>
         </is>
       </c>
-      <c r="J321" t="inlineStr">
+      <c r="K321" t="inlineStr">
         <is>
           <t>……お願い。あの方を……止めて。私の中にいた『誰か』が……ずっと、それを望んでいた。</t>
         </is>
       </c>
     </row>
     <row r="322">
-      <c r="F322" t="inlineStr">
+      <c r="G322" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
+      <c r="I322" t="inlineStr">
         <is>
           <t>nul_6</t>
         </is>
       </c>
-      <c r="I322" t="inlineStr">
+      <c r="J322" t="inlineStr">
         <is>
           <t>……あなたのおかげで……私は、最後に『思い出す』ことができた。私には……守りたい人が、いたんだって。</t>
         </is>
       </c>
-      <c r="J322" t="inlineStr">
+      <c r="K322" t="inlineStr">
         <is>
           <t>……あなたのおかげで……私は、最後に『思い出す』ことができた。私には……守りたい人が、いたんだって。</t>
         </is>
       </c>
     </row>
     <row r="323">
-      <c r="D323" t="inlineStr">
+      <c r="E323" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="324">
-      <c r="F324" t="inlineStr">
+      <c r="G324" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
+      <c r="I324" t="inlineStr">
         <is>
           <t>narr_nul4</t>
         </is>
       </c>
-      <c r="I324" t="inlineStr">
+      <c r="J324" t="inlineStr">
         <is>
           <t>（Nulの体が完全に光となって消えていく。）</t>
         </is>
       </c>
-      <c r="J324" t="inlineStr">
+      <c r="K324" t="inlineStr">
         <is>
           <t>（Nulの体が完全に光となって消えていく。）</t>
         </is>
@@ -5831,410 +5836,410 @@
       </c>
     </row>
     <row r="327">
-      <c r="D327" t="inlineStr">
+      <c r="E327" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E327" t="inlineStr">
+      <c r="F327" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Final_Battle");             var data = SoundManager.current.GetData("BGM/Final_Battle");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Final_Battle");             }</t>
         </is>
       </c>
     </row>
     <row r="328">
-      <c r="F328" t="inlineStr">
+      <c r="G328" t="inlineStr">
         <is>
           <t>sukutsu_astaroth</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
+      <c r="I328" t="inlineStr">
         <is>
           <t>astaroth_p1</t>
         </is>
       </c>
-      <c r="I328" t="inlineStr">
+      <c r="J328" t="inlineStr">
         <is>
           <t>【時の独裁】ーーお前の時間を、永遠に止めてやろう</t>
         </is>
       </c>
-      <c r="J328" t="inlineStr">
+      <c r="K328" t="inlineStr">
         <is>
           <t>【時の独裁】ーーお前の時間を、永遠に止めてやろう</t>
         </is>
       </c>
     </row>
     <row r="329">
-      <c r="F329" t="inlineStr">
+      <c r="G329" t="inlineStr">
         <is>
           <t>sukutsu_astaroth</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
+      <c r="I329" t="inlineStr">
         <is>
           <t>astaroth_p2</t>
         </is>
       </c>
-      <c r="I329" t="inlineStr">
+      <c r="J329" t="inlineStr">
         <is>
           <t>【因果の拒絶】ーーお前の攻撃は無に帰す</t>
         </is>
       </c>
-      <c r="J329" t="inlineStr">
+      <c r="K329" t="inlineStr">
         <is>
           <t>【因果の拒絶】ーーお前の攻撃は無に帰す</t>
         </is>
       </c>
     </row>
     <row r="330">
-      <c r="F330" t="inlineStr">
+      <c r="G330" t="inlineStr">
         <is>
           <t>sukutsu_astaroth</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
+      <c r="I330" t="inlineStr">
         <is>
           <t>astaroth_p3</t>
         </is>
       </c>
-      <c r="I330" t="inlineStr">
+      <c r="J330" t="inlineStr">
         <is>
           <t>【終焉の削除命令】ーーお前の魔力を消し去る</t>
         </is>
       </c>
-      <c r="J330" t="inlineStr">
+      <c r="K330" t="inlineStr">
         <is>
           <t>【終焉の削除命令】ーーお前の魔力を消し去る</t>
         </is>
       </c>
     </row>
     <row r="331">
-      <c r="D331" t="inlineStr">
+      <c r="E331" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="332">
-      <c r="F332" t="inlineStr">
+      <c r="G332" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
+      <c r="I332" t="inlineStr">
         <is>
           <t>narr_p1</t>
         </is>
       </c>
-      <c r="I332" t="inlineStr">
+      <c r="J332" t="inlineStr">
         <is>
           <t>（三つの極悪な権能が、あなたに向かって放たれるーー）</t>
         </is>
       </c>
-      <c r="J332" t="inlineStr">
+      <c r="K332" t="inlineStr">
         <is>
           <t>（三つの極悪な権能が、あなたに向かって放たれるーー）</t>
         </is>
       </c>
     </row>
     <row r="333">
-      <c r="D333" t="inlineStr">
+      <c r="E333" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E333" t="inlineStr">
+      <c r="F333" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="334">
-      <c r="D334" t="inlineStr">
+      <c r="E334" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E334" t="inlineStr">
+      <c r="F334" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="335">
-      <c r="D335" t="inlineStr">
+      <c r="E335" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E335" t="inlineStr">
+      <c r="F335" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="336">
-      <c r="F336" t="inlineStr">
+      <c r="G336" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
+      <c r="I336" t="inlineStr">
         <is>
           <t>zek_lh1</t>
         </is>
       </c>
-      <c r="I336" t="inlineStr">
+      <c r="J336" t="inlineStr">
         <is>
           <t>おっとーー私のキューブが黙っていませんよ！</t>
         </is>
       </c>
-      <c r="J336" t="inlineStr">
+      <c r="K336" t="inlineStr">
         <is>
           <t>おっとーー私のキューブが黙っていませんよ！</t>
         </is>
       </c>
     </row>
     <row r="337">
-      <c r="F337" t="inlineStr">
+      <c r="G337" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
+      <c r="I337" t="inlineStr">
         <is>
           <t>narr_lh2</t>
         </is>
       </c>
-      <c r="I337" t="inlineStr">
+      <c r="J337" t="inlineStr">
         <is>
           <t>（ゼクのキューブが展開し、時の独裁を吸収）</t>
         </is>
       </c>
-      <c r="J337" t="inlineStr">
+      <c r="K337" t="inlineStr">
         <is>
           <t>（ゼクのキューブが展開し、時の独裁を吸収）</t>
         </is>
       </c>
     </row>
     <row r="338">
-      <c r="F338" t="inlineStr">
+      <c r="G338" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
+      <c r="I338" t="inlineStr">
         <is>
           <t>zek_lh2</t>
         </is>
       </c>
-      <c r="I338" t="inlineStr">
+      <c r="J338" t="inlineStr">
         <is>
           <t>……ぐっ……これは重い。しかしーーまだです！</t>
         </is>
       </c>
-      <c r="J338" t="inlineStr">
+      <c r="K338" t="inlineStr">
         <is>
           <t>……ぐっ……これは重い。しかしーーまだです！</t>
         </is>
       </c>
     </row>
     <row r="339">
-      <c r="D339" t="inlineStr">
+      <c r="E339" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E339" t="inlineStr">
+      <c r="F339" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="340">
-      <c r="D340" t="inlineStr">
+      <c r="E340" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E340" t="inlineStr">
+      <c r="F340" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="341">
-      <c r="D341" t="inlineStr">
+      <c r="E341" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E341" t="inlineStr">
+      <c r="F341" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="342">
-      <c r="F342" t="inlineStr">
+      <c r="G342" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
+      <c r="I342" t="inlineStr">
         <is>
           <t>balgas_lh1</t>
         </is>
       </c>
-      <c r="I342" t="inlineStr">
+      <c r="J342" t="inlineStr">
         <is>
           <t>させるかよ！ 鋼の意志を舐めるな……！</t>
         </is>
       </c>
-      <c r="J342" t="inlineStr">
+      <c r="K342" t="inlineStr">
         <is>
           <t>させるかよ！ 鋼の意志を舐めるな……！</t>
         </is>
       </c>
     </row>
     <row r="343">
-      <c r="F343" t="inlineStr">
+      <c r="G343" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
+      <c r="I343" t="inlineStr">
         <is>
           <t>narr_lh3</t>
         </is>
       </c>
-      <c r="I343" t="inlineStr">
+      <c r="J343" t="inlineStr">
         <is>
           <t>（バルガスが大剣で因果の拒絶を受け止める）</t>
         </is>
       </c>
-      <c r="J343" t="inlineStr">
+      <c r="K343" t="inlineStr">
         <is>
           <t>（バルガスが大剣で因果の拒絶を受け止める）</t>
         </is>
       </c>
     </row>
     <row r="344">
-      <c r="F344" t="inlineStr">
+      <c r="G344" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
+      <c r="I344" t="inlineStr">
         <is>
           <t>balgas_lh2</t>
         </is>
       </c>
-      <c r="I344" t="inlineStr">
+      <c r="J344" t="inlineStr">
         <is>
           <t>俺の魂で……こじ開けてやる！</t>
         </is>
       </c>
-      <c r="J344" t="inlineStr">
+      <c r="K344" t="inlineStr">
         <is>
           <t>俺の魂で……こじ開けてやる！</t>
         </is>
       </c>
     </row>
     <row r="345">
-      <c r="D345" t="inlineStr">
+      <c r="E345" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E345" t="inlineStr">
+      <c r="F345" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="346">
-      <c r="D346" t="inlineStr">
+      <c r="E346" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E346" t="inlineStr">
+      <c r="F346" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="347">
-      <c r="D347" t="inlineStr">
+      <c r="E347" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E347" t="inlineStr">
+      <c r="F347" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="348">
-      <c r="F348" t="inlineStr">
+      <c r="G348" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
+      <c r="I348" t="inlineStr">
         <is>
           <t>zek_lh3</t>
         </is>
       </c>
-      <c r="I348" t="inlineStr">
+      <c r="J348" t="inlineStr">
         <is>
           <t>しかし……削除命令を受ける者が、いない……！</t>
         </is>
       </c>
-      <c r="J348" t="inlineStr">
+      <c r="K348" t="inlineStr">
         <is>
           <t>しかし……削除命令を受ける者が、いない……！</t>
         </is>
       </c>
     </row>
     <row r="349">
-      <c r="D349" t="inlineStr">
+      <c r="E349" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="350">
-      <c r="F350" t="inlineStr">
+      <c r="G350" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
+      <c r="I350" t="inlineStr">
         <is>
           <t>narr_lh4</t>
         </is>
       </c>
-      <c r="I350" t="inlineStr">
+      <c r="J350" t="inlineStr">
         <is>
           <t>（【終焉の削除命令】を受けた！）</t>
         </is>
       </c>
-      <c r="J350" t="inlineStr">
+      <c r="K350" t="inlineStr">
         <is>
           <t>（【終焉の削除命令】を受けた！）</t>
         </is>
       </c>
     </row>
     <row r="351">
-      <c r="D351" t="inlineStr">
+      <c r="E351" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E351" t="inlineStr">
+      <c r="F351" t="inlineStr">
         <is>
           <t>EClass.pc.AddCondition&lt;Elin_SukutsuArena.Conditions.ConAstarothDeletion&gt;(1000);</t>
         </is>
@@ -6255,238 +6260,238 @@
       </c>
     </row>
     <row r="354">
-      <c r="D354" t="inlineStr">
+      <c r="E354" t="inlineStr">
         <is>
           <t>fadeOut</t>
         </is>
       </c>
-      <c r="E354" t="inlineStr">
+      <c r="F354" t="inlineStr">
         <is>
           <t>1.0,black</t>
         </is>
       </c>
     </row>
     <row r="355">
-      <c r="D355" t="inlineStr">
+      <c r="E355" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E355" t="inlineStr">
+      <c r="F355" t="inlineStr">
         <is>
           <t>dm.imageBG.enabled = true; dm.imageBG.sprite = "Drama/zek_hideout".LoadSprite();</t>
         </is>
       </c>
     </row>
     <row r="356">
-      <c r="D356" t="inlineStr">
+      <c r="E356" t="inlineStr">
         <is>
           <t>fadeIn</t>
         </is>
       </c>
-      <c r="E356" t="inlineStr">
+      <c r="F356" t="inlineStr">
         <is>
           <t>1.0,black</t>
         </is>
       </c>
     </row>
     <row r="357">
-      <c r="D357" t="inlineStr">
+      <c r="E357" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E357" t="inlineStr">
+      <c r="F357" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Pre_Battle_Calm");             var data = SoundManager.current.GetData("BGM/Pre_Battle_Calm");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Pre_Battle_Calm");             }</t>
         </is>
       </c>
     </row>
     <row r="358">
-      <c r="F358" t="inlineStr">
+      <c r="G358" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
+      <c r="I358" t="inlineStr">
         <is>
           <t>narr_1</t>
         </is>
       </c>
-      <c r="I358" t="inlineStr">
+      <c r="J358" t="inlineStr">
         <is>
           <t>（ゼクの隠れ家『次元のゴミ捨て場』。そこは、アスタロトが切り捨てた『不要な可能性』が堆積する場所。）</t>
         </is>
       </c>
-      <c r="J358" t="inlineStr">
+      <c r="K358" t="inlineStr">
         <is>
           <t>（ゼクの隠れ家『次元のゴミ捨て場』。そこは、アスタロトが切り捨てた『不要な可能性』が堆積する場所。）</t>
         </is>
       </c>
     </row>
     <row r="359">
-      <c r="F359" t="inlineStr">
+      <c r="G359" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
+      <c r="I359" t="inlineStr">
         <is>
           <t>narr_2</t>
         </is>
       </c>
-      <c r="I359" t="inlineStr">
+      <c r="J359" t="inlineStr">
         <is>
           <t>（決戦を翌朝に控えた夜、焚き火の代わりに、剥き出しの魔力回路が淡い青光を放っている。）</t>
         </is>
       </c>
-      <c r="J359" t="inlineStr">
+      <c r="K359" t="inlineStr">
         <is>
           <t>（決戦を翌朝に控えた夜、焚き火の代わりに、剥き出しの魔力回路が淡い青光を放っている。）</t>
         </is>
       </c>
     </row>
     <row r="360">
-      <c r="D360" t="inlineStr">
+      <c r="E360" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E360" t="inlineStr">
+      <c r="F360" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="361">
-      <c r="D361" t="inlineStr">
+      <c r="E361" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E361" t="inlineStr">
+      <c r="F361" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="362">
-      <c r="D362" t="inlineStr">
+      <c r="E362" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E362" t="inlineStr">
+      <c r="F362" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="363">
-      <c r="F363" t="inlineStr">
+      <c r="G363" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
+      <c r="I363" t="inlineStr">
         <is>
           <t>narr_3_w</t>
         </is>
       </c>
-      <c r="I363" t="inlineStr">
+      <c r="J363" t="inlineStr">
         <is>
           <t>（ゼクだけが、『因果の断片（キューブ）』の最終調整を行っていた。）</t>
         </is>
       </c>
-      <c r="J363" t="inlineStr">
+      <c r="K363" t="inlineStr">
         <is>
           <t>（ゼクだけが、『因果の断片（キューブ）』の最終調整を行っていた。）</t>
         </is>
       </c>
     </row>
     <row r="364">
-      <c r="F364" t="inlineStr">
+      <c r="G364" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
+      <c r="I364" t="inlineStr">
         <is>
           <t>zek_w1</t>
         </is>
       </c>
-      <c r="I364" t="inlineStr">
+      <c r="J364" t="inlineStr">
         <is>
           <t>……ふむ。バルガスは死に、リリィは離反した。残ったのは、私とあなただけですか。</t>
         </is>
       </c>
-      <c r="J364" t="inlineStr">
+      <c r="K364" t="inlineStr">
         <is>
           <t>……ふむ。バルガスは死に、リリィは離反した。残ったのは、私とあなただけですか。</t>
         </is>
       </c>
     </row>
     <row r="365">
-      <c r="F365" t="inlineStr">
+      <c r="G365" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
+      <c r="I365" t="inlineStr">
         <is>
           <t>zek_w2</t>
         </is>
       </c>
-      <c r="I365" t="inlineStr">
+      <c r="J365" t="inlineStr">
         <is>
           <t>クク……商売抜きで言わせてもらいましょう。これは、なかなか……厳しい状況ですね。</t>
         </is>
       </c>
-      <c r="J365" t="inlineStr">
+      <c r="K365" t="inlineStr">
         <is>
           <t>クク……商売抜きで言わせてもらいましょう。これは、なかなか……厳しい状況ですね。</t>
         </is>
       </c>
     </row>
     <row r="366">
-      <c r="F366" t="inlineStr">
+      <c r="G366" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
+      <c r="I366" t="inlineStr">
         <is>
           <t>zek_1</t>
         </is>
       </c>
-      <c r="I366" t="inlineStr">
+      <c r="J366" t="inlineStr">
         <is>
           <t>アスタロトは、この世界の『限界』を勝手に決めつけ、見限っている。</t>
         </is>
       </c>
-      <c r="J366" t="inlineStr">
+      <c r="K366" t="inlineStr">
         <is>
           <t>アスタロトは、この世界の『限界』を勝手に決めつけ、見限っている。</t>
         </is>
       </c>
     </row>
     <row r="367">
-      <c r="F367" t="inlineStr">
+      <c r="G367" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
+      <c r="I367" t="inlineStr">
         <is>
           <t>zek_2</t>
         </is>
       </c>
-      <c r="I367" t="inlineStr">
+      <c r="J367" t="inlineStr">
         <is>
           <t>私はそれが気に入らない。ゴミはゴミらしく、混沌として流れてこそ美しい。私が用意したこのキューブは、王が支配する『時間』の独裁を一時的に狂わせるためのものです。……さあ、休みなさい。明日の朝、この世界の『所有権』を奪い返しに行くのですから。</t>
         </is>
       </c>
-      <c r="J367" t="inlineStr">
+      <c r="K367" t="inlineStr">
         <is>
           <t>私はそれが気に入らない。ゴミはゴミらしく、混沌として流れてこそ美しい。私が用意したこのキューブは、王が支配する『時間』の独裁を一時的に狂わせるためのものです。……さあ、休みなさい。明日の朝、この世界の『所有権』を奪い返しに行くのですから。</t>
         </is>
@@ -6507,220 +6512,220 @@
       </c>
     </row>
     <row r="370">
-      <c r="F370" t="inlineStr">
+      <c r="G370" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
+      <c r="I370" t="inlineStr">
         <is>
           <t>pc_1</t>
         </is>
       </c>
-      <c r="I370" t="inlineStr">
+      <c r="J370" t="inlineStr">
         <is>
           <t>（自分の『絶望する瞬間』を狙うつもりではないのか、と、あなたはゼクに疑問を投げかけた。）</t>
         </is>
       </c>
-      <c r="J370" t="inlineStr">
+      <c r="K370" t="inlineStr">
         <is>
           <t>（自分の『絶望する瞬間』を狙うつもりではないのか、と、あなたはゼクに疑問を投げかけた。）</t>
         </is>
       </c>
     </row>
     <row r="371">
-      <c r="F371" t="inlineStr">
+      <c r="G371" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
+      <c r="I371" t="inlineStr">
         <is>
           <t>pc_2</t>
         </is>
       </c>
-      <c r="I371" t="inlineStr">
+      <c r="J371" t="inlineStr">
         <is>
           <t>（カインの魂を売らせようとしたのも、リリィを裏切らせようとしたのも……全て、自分を『剥製』にするためだったのだろう。なのに、なぜ今、助けようとするのか？）</t>
         </is>
       </c>
-      <c r="J371" t="inlineStr">
+      <c r="K371" t="inlineStr">
         <is>
           <t>（カインの魂を売らせようとしたのも、リリィを裏切らせようとしたのも……全て、自分を『剥製』にするためだったのだろう。なのに、なぜ今、助けようとするのか？）</t>
         </is>
       </c>
     </row>
     <row r="372">
-      <c r="F372" t="inlineStr">
+      <c r="G372" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
+      <c r="I372" t="inlineStr">
         <is>
           <t>zek_3</t>
         </is>
       </c>
-      <c r="I372" t="inlineStr">
+      <c r="J372" t="inlineStr">
         <is>
           <t>……ふふ。鋭いですね。</t>
         </is>
       </c>
-      <c r="J372" t="inlineStr">
+      <c r="K372" t="inlineStr">
         <is>
           <t>……ふふ。鋭いですね。</t>
         </is>
       </c>
     </row>
     <row r="373">
-      <c r="F373" t="inlineStr">
+      <c r="G373" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
+      <c r="I373" t="inlineStr">
         <is>
           <t>zek_4</t>
         </is>
       </c>
-      <c r="I373" t="inlineStr">
+      <c r="J373" t="inlineStr">
         <is>
           <t>その通りです。私はあなたが『最も美しく壊れる瞬間』を待っていました。英雄が絶望に堕ちる時、その魂は最高の芸術品となる……。それが、私という『剥製師』の美学でした。</t>
         </is>
       </c>
-      <c r="J373" t="inlineStr">
+      <c r="K373" t="inlineStr">
         <is>
           <t>その通りです。私はあなたが『最も美しく壊れる瞬間』を待っていました。英雄が絶望に堕ちる時、その魂は最高の芸術品となる……。それが、私という『剥製師』の美学でした。</t>
         </is>
       </c>
     </row>
     <row r="374">
-      <c r="F374" t="inlineStr">
+      <c r="G374" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
+      <c r="I374" t="inlineStr">
         <is>
           <t>zek_5w</t>
         </is>
       </c>
-      <c r="I374" t="inlineStr">
+      <c r="J374" t="inlineStr">
         <is>
           <t>ですが、あなたは違った。観客の喝采に従い、バルガスを殺した。リリィとの関係も壊れた。……普通なら、ここで絶望して壊れるはずだった。</t>
         </is>
       </c>
-      <c r="J374" t="inlineStr">
+      <c r="K374" t="inlineStr">
         <is>
           <t>ですが、あなたは違った。観客の喝采に従い、バルガスを殺した。リリィとの関係も壊れた。……普通なら、ここで絶望して壊れるはずだった。</t>
         </is>
       </c>
     </row>
     <row r="375">
-      <c r="F375" t="inlineStr">
+      <c r="G375" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
+      <c r="I375" t="inlineStr">
         <is>
           <t>zek_6w</t>
         </is>
       </c>
-      <c r="I375" t="inlineStr">
+      <c r="J375" t="inlineStr">
         <is>
           <t>……しかし、あなたはまだ立っている。傷だらけで、孤独で、それでも前に進もうとしている。……それこそが、私が求めていた『奇跡』なのかもしれません。</t>
         </is>
       </c>
-      <c r="J375" t="inlineStr">
+      <c r="K375" t="inlineStr">
         <is>
           <t>……しかし、あなたはまだ立っている。傷だらけで、孤独で、それでも前に進もうとしている。……それこそが、私が求めていた『奇跡』なのかもしれません。</t>
         </is>
       </c>
     </row>
     <row r="376">
-      <c r="F376" t="inlineStr">
+      <c r="G376" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
+      <c r="I376" t="inlineStr">
         <is>
           <t>zek_7</t>
         </is>
       </c>
-      <c r="I376" t="inlineStr">
+      <c r="J376" t="inlineStr">
         <is>
           <t>私のコレクションは、数千にも及びます。絶望した英雄、狂気に堕ちた賢者、愛に溺れた魔王……。ですが、『神を殺し、牢獄を破壊し、自由を手にする人間』は、まだ一つもない。</t>
         </is>
       </c>
-      <c r="J376" t="inlineStr">
+      <c r="K376" t="inlineStr">
         <is>
           <t>私のコレクションは、数千にも及びます。絶望した英雄、狂気に堕ちた賢者、愛に溺れた魔王……。ですが、『神を殺し、牢獄を破壊し、自由を手にする人間』は、まだ一つもない。</t>
         </is>
       </c>
     </row>
     <row r="377">
-      <c r="F377" t="inlineStr">
+      <c r="G377" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
+      <c r="I377" t="inlineStr">
         <is>
           <t>zek_8</t>
         </is>
       </c>
-      <c r="I377" t="inlineStr">
+      <c r="J377" t="inlineStr">
         <is>
           <t>……あなたこそが、私の最高傑作。そして、その傑作は『未完成のまま飾る』のではなく……『完璧な結末を迎えさせる』ことでこそ、真価を発揮するのです。</t>
         </is>
       </c>
-      <c r="J377" t="inlineStr">
+      <c r="K377" t="inlineStr">
         <is>
           <t>……あなたこそが、私の最高傑作。そして、その傑作は『未完成のまま飾る』のではなく……『完璧な結末を迎えさせる』ことでこそ、真価を発揮するのです。</t>
         </is>
       </c>
     </row>
     <row r="378">
-      <c r="F378" t="inlineStr">
+      <c r="G378" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
+      <c r="I378" t="inlineStr">
         <is>
           <t>zek_9</t>
         </is>
       </c>
-      <c r="I378" t="inlineStr">
+      <c r="J378" t="inlineStr">
         <is>
           <t>だから、私はあなたを助けます。商売のためでも、友情のためでもない。……ただ、この世界で最も美しい『奇跡の瞬間』を、この目で見届けたいから。それが、剥製師ゼクの最後の『作品』です。</t>
         </is>
       </c>
-      <c r="J378" t="inlineStr">
+      <c r="K378" t="inlineStr">
         <is>
           <t>だから、私はあなたを助けます。商売のためでも、友情のためでもない。……ただ、この世界で最も美しい『奇跡の瞬間』を、この目で見届けたいから。それが、剥製師ゼクの最後の『作品』です。</t>
         </is>
       </c>
     </row>
     <row r="379">
-      <c r="F379" t="inlineStr">
+      <c r="G379" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
+      <c r="I379" t="inlineStr">
         <is>
           <t>zek_10</t>
         </is>
       </c>
-      <c r="I379" t="inlineStr">
+      <c r="J379" t="inlineStr">
         <is>
           <t>……さあ、休みなさい。明日、あなたは私に『最高の絵』を見せてくれる。……それを、永遠に焼き付けておきましょう。</t>
         </is>
       </c>
-      <c r="J379" t="inlineStr">
+      <c r="K379" t="inlineStr">
         <is>
           <t>……さあ、休みなさい。明日、あなたは私に『最高の絵』を見せてくれる。……それを、永遠に焼き付けておきましょう。</t>
         </is>
@@ -6741,477 +6746,477 @@
       </c>
     </row>
     <row r="382">
-      <c r="D382" t="inlineStr">
+      <c r="E382" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E382" t="inlineStr">
+      <c r="F382" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
         </is>
       </c>
     </row>
     <row r="383">
-      <c r="F383" t="inlineStr">
+      <c r="G383" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
+      <c r="I383" t="inlineStr">
         <is>
           <t>narr_nul1</t>
         </is>
       </c>
-      <c r="I383" t="inlineStr">
+      <c r="J383" t="inlineStr">
         <is>
           <t>（王座の間へ向かう途中、崩壊しかけた回廊で、倒れている存在を発見する。）</t>
         </is>
       </c>
-      <c r="J383" t="inlineStr">
+      <c r="K383" t="inlineStr">
         <is>
           <t>（王座の間へ向かう途中、崩壊しかけた回廊で、倒れている存在を発見する。）</t>
         </is>
       </c>
     </row>
     <row r="384">
-      <c r="F384" t="inlineStr">
+      <c r="G384" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
+      <c r="I384" t="inlineStr">
         <is>
           <t>narr_nul2</t>
         </is>
       </c>
-      <c r="I384" t="inlineStr">
+      <c r="J384" t="inlineStr">
         <is>
           <t>（それは暗殺人形・Nul。システムに背いた罰として、アスタロトに「削除」されかけていた。）</t>
         </is>
       </c>
-      <c r="J384" t="inlineStr">
+      <c r="K384" t="inlineStr">
         <is>
           <t>（それは暗殺人形・Nul。システムに背いた罰として、アスタロトに「削除」されかけていた。）</t>
         </is>
       </c>
     </row>
     <row r="385">
-      <c r="D385" t="inlineStr">
+      <c r="E385" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E385" t="inlineStr">
+      <c r="F385" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="386">
-      <c r="D386" t="inlineStr">
+      <c r="E386" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E386" t="inlineStr">
+      <c r="F386" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="387">
-      <c r="D387" t="inlineStr">
+      <c r="E387" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E387" t="inlineStr">
+      <c r="F387" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="388">
-      <c r="F388" t="inlineStr">
+      <c r="G388" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
+      <c r="I388" t="inlineStr">
         <is>
           <t>zek_nul_w</t>
         </is>
       </c>
-      <c r="I388" t="inlineStr">
-        <is>
-          <t>……おや、Nulですか。あなたも、システムに見捨てられたクチですね。……私たちと同じ、というわけですか。</t>
-        </is>
-      </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>……おや、Nulですか。あなたも、システムに見捨てられたクチですね。……私たちと同じ、というわけですか。</t>
+          <t>……おや、Nulですか。</t>
+        </is>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>……おや、Nulですか。</t>
         </is>
       </c>
     </row>
     <row r="389">
-      <c r="F389" t="inlineStr">
+      <c r="G389" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
+      <c r="I389" t="inlineStr">
         <is>
           <t>nul_1</t>
         </is>
       </c>
-      <c r="I389" t="inlineStr">
+      <c r="J389" t="inlineStr">
         <is>
           <t>……私は……もう、戦えない。</t>
         </is>
       </c>
-      <c r="J389" t="inlineStr">
+      <c r="K389" t="inlineStr">
         <is>
           <t>……私は……もう、戦えない。</t>
         </is>
       </c>
     </row>
     <row r="390">
-      <c r="F390" t="inlineStr">
+      <c r="G390" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
+      <c r="I390" t="inlineStr">
         <is>
           <t>nul_2</t>
         </is>
       </c>
-      <c r="I390" t="inlineStr">
+      <c r="J390" t="inlineStr">
         <is>
           <t>……私は、思い出して、しまった。……『私』が、何だったのかを。</t>
         </is>
       </c>
-      <c r="J390" t="inlineStr">
+      <c r="K390" t="inlineStr">
         <is>
           <t>……私は、思い出して、しまった。……『私』が、何だったのかを。</t>
         </is>
       </c>
     </row>
     <row r="391">
-      <c r="F391" t="inlineStr">
+      <c r="G391" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
+      <c r="I391" t="inlineStr">
         <is>
           <t>narr_nul3</t>
         </is>
       </c>
-      <c r="I391" t="inlineStr">
+      <c r="J391" t="inlineStr">
         <is>
           <t>（Nulの目から、光の粒子が零れ落ちるーー涙のように。）</t>
         </is>
       </c>
-      <c r="J391" t="inlineStr">
+      <c r="K391" t="inlineStr">
         <is>
           <t>（Nulの目から、光の粒子が零れ落ちるーー涙のように。）</t>
         </is>
       </c>
     </row>
     <row r="392">
-      <c r="D392" t="inlineStr">
+      <c r="E392" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E392" t="inlineStr">
+      <c r="F392" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow_1");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow_1");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow_1");             }</t>
         </is>
       </c>
     </row>
     <row r="393">
-      <c r="F393" t="inlineStr">
+      <c r="G393" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
+      <c r="I393" t="inlineStr">
         <is>
           <t>nul_fb1</t>
         </is>
       </c>
-      <c r="I393" t="inlineStr">
+      <c r="J393" t="inlineStr">
         <is>
           <t>……私は、かつて冒険者だった。名前は……もう、思い出せない。仲間がいた。守りたい人がいた。このアリーナに挑んで……そして、負けた。</t>
         </is>
       </c>
-      <c r="J393" t="inlineStr">
+      <c r="K393" t="inlineStr">
         <is>
           <t>……私は、かつて冒険者だった。名前は……もう、思い出せない。仲間がいた。守りたい人がいた。このアリーナに挑んで……そして、負けた。</t>
         </is>
       </c>
     </row>
     <row r="394">
-      <c r="F394" t="inlineStr">
+      <c r="G394" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
+      <c r="I394" t="inlineStr">
         <is>
           <t>nul_fb2</t>
         </is>
       </c>
-      <c r="I394" t="inlineStr">
+      <c r="J394" t="inlineStr">
         <is>
           <t>アスタロト様は、私を『素材』にした。神格を人工的に作り出す実験ーー『神の孵化場』計画の、実験体に。</t>
         </is>
       </c>
-      <c r="J394" t="inlineStr">
+      <c r="K394" t="inlineStr">
         <is>
           <t>アスタロト様は、私を『素材』にした。神格を人工的に作り出す実験ーー『神の孵化場』計画の、実験体に。</t>
         </is>
       </c>
     </row>
     <row r="395">
-      <c r="D395" t="inlineStr">
+      <c r="E395" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E395" t="inlineStr">
+      <c r="F395" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="396">
-      <c r="D396" t="inlineStr">
+      <c r="E396" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E396" t="inlineStr">
+      <c r="F396" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="397">
-      <c r="D397" t="inlineStr">
+      <c r="E397" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E397" t="inlineStr">
+      <c r="F397" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="398">
-      <c r="F398" t="inlineStr">
+      <c r="G398" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
+      <c r="I398" t="inlineStr">
         <is>
           <t>zek_nul1</t>
         </is>
       </c>
-      <c r="I398" t="inlineStr">
+      <c r="J398" t="inlineStr">
         <is>
           <t>……ええ、知っていますとも。『神の孵化場』……このアリーナの本当の目的。</t>
         </is>
       </c>
-      <c r="J398" t="inlineStr">
+      <c r="K398" t="inlineStr">
         <is>
           <t>……ええ、知っていますとも。『神の孵化場』……このアリーナの本当の目的。</t>
         </is>
       </c>
     </row>
     <row r="399">
-      <c r="F399" t="inlineStr">
+      <c r="G399" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
+      <c r="I399" t="inlineStr">
         <is>
           <t>nul_fb3</t>
         </is>
       </c>
-      <c r="I399" t="inlineStr">
+      <c r="J399" t="inlineStr">
         <is>
           <t>このアリーナの本当の目的……それは、娯楽でも、戦士の育成でもない。挑戦者の魂を極限まで練磨し、『神格』に至らせること。そして、その力をアスタロト様が吸収し……新しい世界を創造すること。</t>
         </is>
       </c>
-      <c r="J399" t="inlineStr">
+      <c r="K399" t="inlineStr">
         <is>
           <t>このアリーナの本当の目的……それは、娯楽でも、戦士の育成でもない。挑戦者の魂を極限まで練磨し、『神格』に至らせること。そして、その力をアスタロト様が吸収し……新しい世界を創造すること。</t>
         </is>
       </c>
     </row>
     <row r="400">
-      <c r="F400" t="inlineStr">
+      <c r="G400" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
+      <c r="I400" t="inlineStr">
         <is>
           <t>nul_fb3b</t>
         </is>
       </c>
-      <c r="I400" t="inlineStr">
+      <c r="J400" t="inlineStr">
         <is>
           <t>アスタロト様は……かつて故郷を失った方。5万年前、『カラドリウス』という竜族の楽園が、神々の争いで滅んだと聞いています。</t>
         </is>
       </c>
-      <c r="J400" t="inlineStr">
+      <c r="K400" t="inlineStr">
         <is>
           <t>アスタロト様は……かつて故郷を失った方。5万年前、『カラドリウス』という竜族の楽園が、神々の争いで滅んだと聞いています。</t>
         </is>
       </c>
     </row>
     <row r="401">
-      <c r="F401" t="inlineStr">
+      <c r="G401" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
+      <c r="I401" t="inlineStr">
         <is>
           <t>nul_fb3c</t>
         </is>
       </c>
-      <c r="I401" t="inlineStr">
+      <c r="J401" t="inlineStr">
         <is>
           <t>だから……新しい世界を創ろうとしている。自分が唯一の神として君臨する、完璧な楽園を。</t>
         </is>
       </c>
-      <c r="J401" t="inlineStr">
+      <c r="K401" t="inlineStr">
         <is>
           <t>だから……新しい世界を創ろうとしている。自分が唯一の神として君臨する、完璧な楽園を。</t>
         </is>
       </c>
     </row>
     <row r="402">
-      <c r="F402" t="inlineStr">
+      <c r="G402" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
+      <c r="I402" t="inlineStr">
         <is>
           <t>nul_fb4</t>
         </is>
       </c>
-      <c r="I402" t="inlineStr">
+      <c r="J402" t="inlineStr">
         <is>
           <t>私は失敗作。神になれなかった、空っぽの人形。だから『Null』ーー『無』という名前を与えられた。</t>
         </is>
       </c>
-      <c r="J402" t="inlineStr">
+      <c r="K402" t="inlineStr">
         <is>
           <t>私は失敗作。神になれなかった、空っぽの人形。だから『Null』ーー『無』という名前を与えられた。</t>
         </is>
       </c>
     </row>
     <row r="403">
-      <c r="F403" t="inlineStr">
+      <c r="G403" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
+      <c r="I403" t="inlineStr">
         <is>
           <t>nul_3</t>
         </is>
       </c>
-      <c r="I403" t="inlineStr">
+      <c r="J403" t="inlineStr">
         <is>
           <t>……あなたはいまや神格に最も近い存在……あの方はあなたを『吸収』しようとしている。</t>
         </is>
       </c>
-      <c r="J403" t="inlineStr">
+      <c r="K403" t="inlineStr">
         <is>
           <t>……あなたはいまや神格に最も近い存在……あの方はあなたを『吸収』しようとしている。</t>
         </is>
       </c>
     </row>
     <row r="404">
-      <c r="F404" t="inlineStr">
+      <c r="G404" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
+      <c r="I404" t="inlineStr">
         <is>
           <t>nul_5</t>
         </is>
       </c>
-      <c r="I404" t="inlineStr">
+      <c r="J404" t="inlineStr">
         <is>
           <t>……お願い。あの方を……止めて。私の中にいた『誰か』が……ずっと、それを望んでいた。</t>
         </is>
       </c>
-      <c r="J404" t="inlineStr">
+      <c r="K404" t="inlineStr">
         <is>
           <t>……お願い。あの方を……止めて。私の中にいた『誰か』が……ずっと、それを望んでいた。</t>
         </is>
       </c>
     </row>
     <row r="405">
-      <c r="F405" t="inlineStr">
+      <c r="G405" t="inlineStr">
         <is>
           <t>sukutsu_null</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
+      <c r="I405" t="inlineStr">
         <is>
           <t>nul_6</t>
         </is>
       </c>
-      <c r="I405" t="inlineStr">
+      <c r="J405" t="inlineStr">
         <is>
           <t>……あなたのおかげで……私は、最後に『思い出す』ことができた。私には……守りたい人が、いたんだって。</t>
         </is>
       </c>
-      <c r="J405" t="inlineStr">
+      <c r="K405" t="inlineStr">
         <is>
           <t>……あなたのおかげで……私は、最後に『思い出す』ことができた。私には……守りたい人が、いたんだって。</t>
         </is>
       </c>
     </row>
     <row r="406">
-      <c r="D406" t="inlineStr">
+      <c r="E406" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="407">
-      <c r="F407" t="inlineStr">
+      <c r="G407" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
+      <c r="I407" t="inlineStr">
         <is>
           <t>narr_nul4</t>
         </is>
       </c>
-      <c r="I407" t="inlineStr">
+      <c r="J407" t="inlineStr">
         <is>
           <t>（Nulの体が完全に光となって消えていく。）</t>
         </is>
       </c>
-      <c r="J407" t="inlineStr">
+      <c r="K407" t="inlineStr">
         <is>
           <t>（Nulの体が完全に光となって消えていく。）</t>
         </is>
@@ -7232,368 +7237,368 @@
       </c>
     </row>
     <row r="410">
-      <c r="D410" t="inlineStr">
+      <c r="E410" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E410" t="inlineStr">
+      <c r="F410" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Final_Battle");             var data = SoundManager.current.GetData("BGM/Final_Battle");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Final_Battle");             }</t>
         </is>
       </c>
     </row>
     <row r="411">
-      <c r="F411" t="inlineStr">
+      <c r="G411" t="inlineStr">
         <is>
           <t>sukutsu_astaroth</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
+      <c r="I411" t="inlineStr">
         <is>
           <t>astaroth_w1</t>
         </is>
       </c>
-      <c r="I411" t="inlineStr">
+      <c r="J411" t="inlineStr">
         <is>
           <t>【時の独裁】ーーお前の時間を、止める</t>
         </is>
       </c>
-      <c r="J411" t="inlineStr">
+      <c r="K411" t="inlineStr">
         <is>
           <t>【時の独裁】ーーお前の時間を、止める</t>
         </is>
       </c>
     </row>
     <row r="412">
-      <c r="D412" t="inlineStr">
+      <c r="E412" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="413">
-      <c r="D413" t="inlineStr">
+      <c r="E413" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E413" t="inlineStr">
+      <c r="F413" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="414">
-      <c r="D414" t="inlineStr">
+      <c r="E414" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E414" t="inlineStr">
+      <c r="F414" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="415">
-      <c r="D415" t="inlineStr">
+      <c r="E415" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E415" t="inlineStr">
+      <c r="F415" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="416">
-      <c r="F416" t="inlineStr">
+      <c r="G416" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
+      <c r="I416" t="inlineStr">
         <is>
           <t>zek_w1</t>
         </is>
       </c>
-      <c r="I416" t="inlineStr">
+      <c r="J416" t="inlineStr">
         <is>
           <t>……私だけですか。仕方ありませんね</t>
         </is>
       </c>
-      <c r="J416" t="inlineStr">
+      <c r="K416" t="inlineStr">
         <is>
           <t>……私だけですか。仕方ありませんね</t>
         </is>
       </c>
     </row>
     <row r="417">
-      <c r="F417" t="inlineStr">
+      <c r="G417" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
+      <c r="I417" t="inlineStr">
         <is>
           <t>narr_w1</t>
         </is>
       </c>
-      <c r="I417" t="inlineStr">
+      <c r="J417" t="inlineStr">
         <is>
           <t>（ゼクのキューブが展開し、権能を吸収）</t>
         </is>
       </c>
-      <c r="J417" t="inlineStr">
+      <c r="K417" t="inlineStr">
         <is>
           <t>（ゼクのキューブが展開し、権能を吸収）</t>
         </is>
       </c>
     </row>
     <row r="418">
-      <c r="F418" t="inlineStr">
+      <c r="G418" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
+      <c r="I418" t="inlineStr">
         <is>
           <t>zek_w2</t>
         </is>
       </c>
-      <c r="I418" t="inlineStr">
+      <c r="J418" t="inlineStr">
         <is>
           <t>……ぐっ……これは、なかなか重い……</t>
         </is>
       </c>
-      <c r="J418" t="inlineStr">
+      <c r="K418" t="inlineStr">
         <is>
           <t>……ぐっ……これは、なかなか重い……</t>
         </is>
       </c>
     </row>
     <row r="419">
-      <c r="F419" t="inlineStr">
+      <c r="G419" t="inlineStr">
         <is>
           <t>sukutsu_astaroth</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
+      <c r="I419" t="inlineStr">
         <is>
           <t>astaroth_w2</t>
         </is>
       </c>
-      <c r="I419" t="inlineStr">
+      <c r="J419" t="inlineStr">
         <is>
           <t>【因果の拒絶】【終焉の削除命令】ーー全てを無に還す</t>
         </is>
       </c>
-      <c r="J419" t="inlineStr">
+      <c r="K419" t="inlineStr">
         <is>
           <t>【因果の拒絶】【終焉の削除命令】ーー全てを無に還す</t>
         </is>
       </c>
     </row>
     <row r="420">
-      <c r="D420" t="inlineStr">
+      <c r="E420" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="421">
-      <c r="F421" t="inlineStr">
+      <c r="G421" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
+      <c r="I421" t="inlineStr">
         <is>
           <t>narr_w2</t>
         </is>
       </c>
-      <c r="I421" t="inlineStr">
+      <c r="J421" t="inlineStr">
         <is>
           <t>（2つの権能がゼクのキューブを直撃）</t>
         </is>
       </c>
-      <c r="J421" t="inlineStr">
+      <c r="K421" t="inlineStr">
         <is>
           <t>（2つの権能がゼクのキューブを直撃）</t>
         </is>
       </c>
     </row>
     <row r="422">
-      <c r="D422" t="inlineStr">
+      <c r="E422" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E422" t="inlineStr">
+      <c r="F422" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="423">
-      <c r="D423" t="inlineStr">
+      <c r="E423" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E423" t="inlineStr">
+      <c r="F423" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="424">
-      <c r="D424" t="inlineStr">
+      <c r="E424" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E424" t="inlineStr">
+      <c r="F424" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="425">
-      <c r="F425" t="inlineStr">
+      <c r="G425" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
+      <c r="I425" t="inlineStr">
         <is>
           <t>zek_w3</t>
         </is>
       </c>
-      <c r="I425" t="inlineStr">
+      <c r="J425" t="inlineStr">
         <is>
           <t>しまった……！ キューブが……持たない……！</t>
         </is>
       </c>
-      <c r="J425" t="inlineStr">
+      <c r="K425" t="inlineStr">
         <is>
           <t>しまった……！ キューブが……持たない……！</t>
         </is>
       </c>
     </row>
     <row r="426">
-      <c r="F426" t="inlineStr">
+      <c r="G426" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
+      <c r="I426" t="inlineStr">
         <is>
           <t>narr_w3</t>
         </is>
       </c>
-      <c r="I426" t="inlineStr">
+      <c r="J426" t="inlineStr">
         <is>
           <t>（キューブが砕け散る音）</t>
         </is>
       </c>
-      <c r="J426" t="inlineStr">
+      <c r="K426" t="inlineStr">
         <is>
           <t>（キューブが砕け散る音）</t>
         </is>
       </c>
     </row>
     <row r="427">
-      <c r="D427" t="inlineStr">
+      <c r="E427" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="428">
-      <c r="F428" t="inlineStr">
+      <c r="G428" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
+      <c r="I428" t="inlineStr">
         <is>
           <t>narr_w4</t>
         </is>
       </c>
-      <c r="I428" t="inlineStr">
-        <is>
-          <t>（残りの権能がプレイヤーを直撃）</t>
-        </is>
-      </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>（残りの権能がプレイヤーを直撃）</t>
+          <t>（全ての権能がプレイヤーを直撃する！）</t>
+        </is>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>（全ての権能がプレイヤーを直撃する！）</t>
         </is>
       </c>
     </row>
     <row r="429">
-      <c r="D429" t="inlineStr">
+      <c r="E429" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="430">
-      <c r="F430" t="inlineStr">
+      <c r="G430" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
+      <c r="I430" t="inlineStr">
         <is>
           <t>narr_w5</t>
         </is>
       </c>
-      <c r="I430" t="inlineStr">
+      <c r="J430" t="inlineStr">
         <is>
           <t>（【時の独裁】【因果の拒絶】【終焉の削除命令】を受けた！）</t>
         </is>
       </c>
-      <c r="J430" t="inlineStr">
+      <c r="K430" t="inlineStr">
         <is>
           <t>（【時の独裁】【因果の拒絶】【終焉の削除命令】を受けた！）</t>
         </is>
       </c>
     </row>
     <row r="431">
-      <c r="D431" t="inlineStr">
+      <c r="E431" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E431" t="inlineStr">
+      <c r="F431" t="inlineStr">
         <is>
           <t>EClass.pc.AddCondition&lt;Elin_SukutsuArena.Conditions.ConAstarothTyranny&gt;(1000);</t>
         </is>
       </c>
     </row>
     <row r="432">
-      <c r="D432" t="inlineStr">
+      <c r="E432" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E432" t="inlineStr">
+      <c r="F432" t="inlineStr">
         <is>
           <t>EClass.pc.AddCondition&lt;Elin_SukutsuArena.Conditions.ConAstarothDenial&gt;(1000);</t>
         </is>
       </c>
     </row>
     <row r="433">
-      <c r="D433" t="inlineStr">
+      <c r="E433" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E433" t="inlineStr">
+      <c r="F433" t="inlineStr">
         <is>
           <t>EClass.pc.AddCondition&lt;Elin_SukutsuArena.Conditions.ConAstarothDeletion&gt;(1000);</t>
         </is>
